--- a/colaborador/sistemas/orcamento/valores_exames_samvida.xlsx
+++ b/colaborador/sistemas/orcamento/valores_exames_samvida.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="717">
   <si>
     <t>Local</t>
   </si>
@@ -508,9 +508,6 @@
   </si>
   <si>
     <t>ECOCARDIOGRAMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECODOPPLERCARDIOGRAMA TRANSTORACICO</t>
   </si>
   <si>
     <t>ELETROCARDIOGRAMA</t>
@@ -2778,7 +2775,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A168" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A149" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4562,68 +4559,68 @@
     </row>
     <row r="162" ht="14.25">
       <c r="A162" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B162" s="7" t="s">
         <v>164</v>
       </c>
       <c r="C162" s="8">
-        <v>141</v>
+        <v>186</v>
       </c>
     </row>
     <row r="163" ht="14.25">
       <c r="A163" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B163" s="7" t="s">
         <v>165</v>
       </c>
       <c r="C163" s="8">
-        <v>186</v>
+        <v>41</v>
       </c>
     </row>
     <row r="164" ht="14.25">
       <c r="A164" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C164" s="8">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="165" ht="14.25">
       <c r="A165" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B165" s="7" t="s">
         <v>166</v>
       </c>
       <c r="C165" s="8">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="166" ht="14.25">
       <c r="A166" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B166" s="7" t="s">
         <v>167</v>
       </c>
       <c r="C166" s="8">
-        <v>70</v>
+        <v>281</v>
       </c>
     </row>
     <row r="167" ht="14.25">
       <c r="A167" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B167" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C167" s="8">
-        <v>281</v>
+        <v>140</v>
       </c>
     </row>
     <row r="168" ht="14.25">
@@ -4634,7 +4631,7 @@
         <v>169</v>
       </c>
       <c r="C168" s="8">
-        <v>140</v>
+        <v>40</v>
       </c>
     </row>
     <row r="169" ht="14.25">
@@ -4645,7 +4642,7 @@
         <v>170</v>
       </c>
       <c r="C169" s="8">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="170" ht="14.25">
@@ -4656,7 +4653,7 @@
         <v>171</v>
       </c>
       <c r="C170" s="8">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="171" ht="14.25">
@@ -4667,7 +4664,7 @@
         <v>172</v>
       </c>
       <c r="C171" s="8">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="172" ht="14.25">
@@ -4678,7 +4675,7 @@
         <v>173</v>
       </c>
       <c r="C172" s="8">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="173" ht="14.25">
@@ -4689,7 +4686,7 @@
         <v>174</v>
       </c>
       <c r="C173" s="8">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="174" ht="14.25">
@@ -4700,7 +4697,7 @@
         <v>175</v>
       </c>
       <c r="C174" s="8">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="175" ht="14.25">
@@ -4711,7 +4708,7 @@
         <v>176</v>
       </c>
       <c r="C175" s="8">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="176" ht="14.25">
@@ -4722,7 +4719,7 @@
         <v>177</v>
       </c>
       <c r="C176" s="8">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="177" ht="14.25">
@@ -4733,7 +4730,7 @@
         <v>178</v>
       </c>
       <c r="C177" s="8">
-        <v>25</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="178" ht="14.25">
@@ -4744,7 +4741,7 @@
         <v>179</v>
       </c>
       <c r="C178" s="8">
-        <v>8.3000000000000007</v>
+        <v>18</v>
       </c>
     </row>
     <row r="179" ht="14.25">
@@ -4755,7 +4752,7 @@
         <v>180</v>
       </c>
       <c r="C179" s="8">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180" ht="14.25">
@@ -4777,7 +4774,7 @@
         <v>182</v>
       </c>
       <c r="C181" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="182" ht="14.25">
@@ -4788,7 +4785,7 @@
         <v>183</v>
       </c>
       <c r="C182" s="8">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="183" ht="14.25">
@@ -4810,7 +4807,7 @@
         <v>185</v>
       </c>
       <c r="C184" s="8">
-        <v>40</v>
+        <v>6</v>
       </c>
     </row>
     <row r="185" ht="14.25">
@@ -4821,7 +4818,7 @@
         <v>186</v>
       </c>
       <c r="C185" s="8">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186" ht="14.25">
@@ -4832,7 +4829,7 @@
         <v>187</v>
       </c>
       <c r="C186" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="187" ht="14.25">
@@ -4843,7 +4840,7 @@
         <v>188</v>
       </c>
       <c r="C187" s="8">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="188" ht="14.25">
@@ -4854,7 +4851,7 @@
         <v>189</v>
       </c>
       <c r="C188" s="8">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="189" ht="14.25">
@@ -4865,7 +4862,7 @@
         <v>190</v>
       </c>
       <c r="C189" s="8">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="190" ht="14.25">
@@ -4876,7 +4873,7 @@
         <v>191</v>
       </c>
       <c r="C190" s="8">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="191" ht="14.25">
@@ -4887,7 +4884,7 @@
         <v>192</v>
       </c>
       <c r="C191" s="8">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="192" ht="14.25">
@@ -4898,7 +4895,7 @@
         <v>193</v>
       </c>
       <c r="C192" s="8">
-        <v>16</v>
+        <v>180</v>
       </c>
     </row>
     <row r="193" ht="14.25">
@@ -4909,7 +4906,7 @@
         <v>194</v>
       </c>
       <c r="C193" s="8">
-        <v>180</v>
+        <v>125</v>
       </c>
     </row>
     <row r="194" ht="14.25">
@@ -4920,7 +4917,7 @@
         <v>195</v>
       </c>
       <c r="C194" s="8">
-        <v>125</v>
+        <v>19</v>
       </c>
     </row>
     <row r="195" ht="14.25">
@@ -4931,7 +4928,7 @@
         <v>196</v>
       </c>
       <c r="C195" s="8">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="196" ht="14.25">
@@ -4942,7 +4939,7 @@
         <v>197</v>
       </c>
       <c r="C196" s="8">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="197" ht="14.25">
@@ -4953,7 +4950,7 @@
         <v>198</v>
       </c>
       <c r="C197" s="8">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="198" ht="14.25">
@@ -4975,7 +4972,7 @@
         <v>200</v>
       </c>
       <c r="C199" s="8">
-        <v>45</v>
+        <v>120</v>
       </c>
     </row>
     <row r="200" ht="14.25">
@@ -4986,7 +4983,7 @@
         <v>201</v>
       </c>
       <c r="C200" s="8">
-        <v>120</v>
+        <v>47</v>
       </c>
     </row>
     <row r="201" ht="14.25">
@@ -4997,7 +4994,7 @@
         <v>202</v>
       </c>
       <c r="C201" s="8">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="202" ht="14.25">
@@ -5008,7 +5005,7 @@
         <v>203</v>
       </c>
       <c r="C202" s="8">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="203" ht="14.25">
@@ -5030,7 +5027,7 @@
         <v>205</v>
       </c>
       <c r="C204" s="8">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="205" ht="14.25">
@@ -5041,7 +5038,7 @@
         <v>206</v>
       </c>
       <c r="C205" s="8">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="206" ht="14.25">
@@ -5063,7 +5060,7 @@
         <v>208</v>
       </c>
       <c r="C207" s="8">
-        <v>34</v>
+        <v>3.4900000000000002</v>
       </c>
     </row>
     <row r="208" ht="14.25">
@@ -5074,29 +5071,29 @@
         <v>209</v>
       </c>
       <c r="C208" s="8">
-        <v>3.4900000000000002</v>
+        <v>80</v>
       </c>
     </row>
     <row r="209" ht="14.25">
       <c r="A209" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B209" s="7" t="s">
         <v>210</v>
       </c>
       <c r="C209" s="8">
-        <v>80</v>
+        <v>106</v>
       </c>
     </row>
     <row r="210" ht="14.25">
       <c r="A210" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B210" s="7" t="s">
         <v>211</v>
       </c>
       <c r="C210" s="8">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="211" ht="14.25">
@@ -5104,7 +5101,7 @@
         <v>3</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C211" s="8">
         <v>25</v>
@@ -5112,24 +5109,24 @@
     </row>
     <row r="212" ht="14.25">
       <c r="A212" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B212" s="7" t="s">
         <v>212</v>
       </c>
       <c r="C212" s="8">
-        <v>25</v>
+        <v>156</v>
       </c>
     </row>
     <row r="213" ht="14.25">
       <c r="A213" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B213" s="7" t="s">
         <v>213</v>
       </c>
       <c r="C213" s="8">
-        <v>156</v>
+        <v>45</v>
       </c>
     </row>
     <row r="214" ht="14.25">
@@ -5140,7 +5137,7 @@
         <v>214</v>
       </c>
       <c r="C214" s="8">
-        <v>45</v>
+        <v>320</v>
       </c>
     </row>
     <row r="215" ht="14.25">
@@ -5151,7 +5148,7 @@
         <v>215</v>
       </c>
       <c r="C215" s="8">
-        <v>320</v>
+        <v>47</v>
       </c>
     </row>
     <row r="216" ht="14.25">
@@ -5162,7 +5159,7 @@
         <v>216</v>
       </c>
       <c r="C216" s="8">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="217" ht="14.25">
@@ -5173,7 +5170,7 @@
         <v>217</v>
       </c>
       <c r="C217" s="8">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="218" ht="14.25">
@@ -5184,7 +5181,7 @@
         <v>218</v>
       </c>
       <c r="C218" s="8">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="219" ht="14.25">
@@ -5195,7 +5192,7 @@
         <v>219</v>
       </c>
       <c r="C219" s="8">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="220" ht="14.25">
@@ -5206,7 +5203,7 @@
         <v>220</v>
       </c>
       <c r="C220" s="8">
-        <v>43</v>
+        <v>240</v>
       </c>
     </row>
     <row r="221" ht="14.25">
@@ -5228,7 +5225,7 @@
         <v>222</v>
       </c>
       <c r="C222" s="8">
-        <v>240</v>
+        <v>35</v>
       </c>
     </row>
     <row r="223" ht="14.25">
@@ -5250,7 +5247,7 @@
         <v>224</v>
       </c>
       <c r="C224" s="8">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="225" ht="14.25">
@@ -5261,7 +5258,7 @@
         <v>225</v>
       </c>
       <c r="C225" s="8">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="226" ht="14.25">
@@ -5503,7 +5500,7 @@
         <v>247</v>
       </c>
       <c r="C247" s="8">
-        <v>35</v>
+        <v>240</v>
       </c>
     </row>
     <row r="248" ht="14.25">
@@ -5514,7 +5511,7 @@
         <v>248</v>
       </c>
       <c r="C248" s="8">
-        <v>240</v>
+        <v>35</v>
       </c>
     </row>
     <row r="249" ht="14.25">
@@ -5525,7 +5522,7 @@
         <v>249</v>
       </c>
       <c r="C249" s="8">
-        <v>35</v>
+        <v>240</v>
       </c>
     </row>
     <row r="250" ht="14.25">
@@ -5547,7 +5544,7 @@
         <v>251</v>
       </c>
       <c r="C251" s="8">
-        <v>240</v>
+        <v>35</v>
       </c>
     </row>
     <row r="252" ht="14.25">
@@ -5580,7 +5577,7 @@
         <v>254</v>
       </c>
       <c r="C254" s="8">
-        <v>35</v>
+        <v>240</v>
       </c>
     </row>
     <row r="255" ht="14.25">
@@ -5591,7 +5588,7 @@
         <v>255</v>
       </c>
       <c r="C255" s="8">
-        <v>240</v>
+        <v>38</v>
       </c>
     </row>
     <row r="256" ht="14.25">
@@ -5602,7 +5599,7 @@
         <v>256</v>
       </c>
       <c r="C256" s="8">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="257" ht="14.25">
@@ -5613,7 +5610,7 @@
         <v>257</v>
       </c>
       <c r="C257" s="8">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="258" ht="14.25">
@@ -5635,7 +5632,7 @@
         <v>259</v>
       </c>
       <c r="C259" s="8">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="260" ht="14.25">
@@ -5657,7 +5654,7 @@
         <v>261</v>
       </c>
       <c r="C261" s="8">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="262" ht="14.25">
@@ -5668,7 +5665,7 @@
         <v>262</v>
       </c>
       <c r="C262" s="8">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="263" ht="14.25">
@@ -5679,7 +5676,7 @@
         <v>263</v>
       </c>
       <c r="C263" s="8">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="264" ht="14.25">
@@ -5690,7 +5687,7 @@
         <v>264</v>
       </c>
       <c r="C264" s="8">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="265" ht="14.25">
@@ -5701,7 +5698,7 @@
         <v>265</v>
       </c>
       <c r="C265" s="8">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="266" ht="14.25">
@@ -5712,7 +5709,7 @@
         <v>266</v>
       </c>
       <c r="C266" s="8">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="267" ht="14.25">
@@ -5734,7 +5731,7 @@
         <v>268</v>
       </c>
       <c r="C268" s="8">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="269" ht="14.25">
@@ -5745,7 +5742,7 @@
         <v>269</v>
       </c>
       <c r="C269" s="8">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="270" ht="14.25">
@@ -5756,7 +5753,7 @@
         <v>270</v>
       </c>
       <c r="C270" s="8">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="271" ht="14.25">
@@ -5767,18 +5764,18 @@
         <v>271</v>
       </c>
       <c r="C271" s="8">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="272" ht="14.25">
       <c r="A272" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B272" s="7" t="s">
         <v>272</v>
       </c>
       <c r="C272" s="8">
-        <v>32</v>
+        <v>106</v>
       </c>
     </row>
     <row r="273" ht="14.25">
@@ -5794,13 +5791,13 @@
     </row>
     <row r="274" ht="14.25">
       <c r="A274" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B274" s="7" t="s">
         <v>274</v>
       </c>
       <c r="C274" s="8">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="275" ht="14.25">
@@ -5811,29 +5808,29 @@
         <v>275</v>
       </c>
       <c r="C275" s="8">
-        <v>25</v>
+        <v>14.050000000000001</v>
       </c>
     </row>
     <row r="276" ht="14.25">
       <c r="A276" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B276" s="7" t="s">
         <v>276</v>
       </c>
       <c r="C276" s="8">
-        <v>14.050000000000001</v>
+        <v>156</v>
       </c>
     </row>
     <row r="277" ht="14.25">
       <c r="A277" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B277" s="7" t="s">
         <v>277</v>
       </c>
       <c r="C277" s="8">
-        <v>156</v>
+        <v>9.0700000000000003</v>
       </c>
     </row>
     <row r="278" ht="14.25">
@@ -5844,7 +5841,7 @@
         <v>278</v>
       </c>
       <c r="C278" s="8">
-        <v>9.0700000000000003</v>
+        <v>12.890000000000001</v>
       </c>
     </row>
     <row r="279" ht="14.25">
@@ -5855,7 +5852,7 @@
         <v>279</v>
       </c>
       <c r="C279" s="8">
-        <v>12.890000000000001</v>
+        <v>20</v>
       </c>
     </row>
     <row r="280" ht="14.25">
@@ -5877,7 +5874,7 @@
         <v>281</v>
       </c>
       <c r="C281" s="8">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="282" ht="14.25">
@@ -5888,7 +5885,7 @@
         <v>282</v>
       </c>
       <c r="C282" s="8">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="283" ht="14.25">
@@ -5899,7 +5896,7 @@
         <v>283</v>
       </c>
       <c r="C283" s="8">
-        <v>25</v>
+        <v>130</v>
       </c>
     </row>
     <row r="284" ht="14.25">
@@ -5910,7 +5907,7 @@
         <v>284</v>
       </c>
       <c r="C284" s="8">
-        <v>130</v>
+        <v>50</v>
       </c>
     </row>
     <row r="285" ht="14.25">
@@ -5921,7 +5918,7 @@
         <v>285</v>
       </c>
       <c r="C285" s="8">
-        <v>50</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="286" ht="14.25">
@@ -5932,7 +5929,7 @@
         <v>286</v>
       </c>
       <c r="C286" s="8">
-        <v>12.9</v>
+        <v>60</v>
       </c>
     </row>
     <row r="287" ht="14.25">
@@ -5943,7 +5940,7 @@
         <v>287</v>
       </c>
       <c r="C287" s="8">
-        <v>60</v>
+        <v>200</v>
       </c>
     </row>
     <row r="288" ht="14.25">
@@ -5954,7 +5951,7 @@
         <v>288</v>
       </c>
       <c r="C288" s="8">
-        <v>200</v>
+        <v>14</v>
       </c>
     </row>
     <row r="289" ht="14.25">
@@ -5965,7 +5962,7 @@
         <v>289</v>
       </c>
       <c r="C289" s="8">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="290" ht="14.25">
@@ -5998,7 +5995,7 @@
         <v>292</v>
       </c>
       <c r="C292" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="293" ht="14.25">
@@ -6009,7 +6006,7 @@
         <v>293</v>
       </c>
       <c r="C293" s="8">
-        <v>12</v>
+        <v>100</v>
       </c>
     </row>
     <row r="294" ht="14.25">
@@ -6020,7 +6017,7 @@
         <v>294</v>
       </c>
       <c r="C294" s="8">
-        <v>100</v>
+        <v>45</v>
       </c>
     </row>
     <row r="295" ht="14.25">
@@ -6031,7 +6028,7 @@
         <v>295</v>
       </c>
       <c r="C295" s="8">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="296" ht="14.25">
@@ -6042,7 +6039,7 @@
         <v>296</v>
       </c>
       <c r="C296" s="8">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="297" ht="14.25">
@@ -6053,7 +6050,7 @@
         <v>297</v>
       </c>
       <c r="C297" s="8">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="298" ht="14.25">
@@ -6069,24 +6066,24 @@
     </row>
     <row r="299" ht="14.25">
       <c r="A299" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B299" s="7" t="s">
         <v>299</v>
       </c>
       <c r="C299" s="8">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="300" ht="14.25">
       <c r="A300" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B300" s="7" t="s">
         <v>300</v>
       </c>
       <c r="C300" s="8">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="301" ht="14.25">
@@ -6097,7 +6094,7 @@
         <v>301</v>
       </c>
       <c r="C301" s="8">
-        <v>50</v>
+        <v>6</v>
       </c>
     </row>
     <row r="302" ht="14.25">
@@ -6108,7 +6105,7 @@
         <v>302</v>
       </c>
       <c r="C302" s="8">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="303" ht="14.25">
@@ -6119,7 +6116,7 @@
         <v>303</v>
       </c>
       <c r="C303" s="8">
-        <v>14</v>
+        <v>10.18</v>
       </c>
     </row>
     <row r="304" ht="14.25">
@@ -6141,7 +6138,7 @@
         <v>305</v>
       </c>
       <c r="C305" s="8">
-        <v>10.18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="306" ht="14.25">
@@ -6163,7 +6160,7 @@
         <v>307</v>
       </c>
       <c r="C307" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="308" ht="14.25">
@@ -6174,7 +6171,7 @@
         <v>308</v>
       </c>
       <c r="C308" s="8">
-        <v>10</v>
+        <v>6.4699999999999998</v>
       </c>
     </row>
     <row r="309" ht="14.25">
@@ -6185,7 +6182,7 @@
         <v>309</v>
       </c>
       <c r="C309" s="8">
-        <v>6.4699999999999998</v>
+        <v>10</v>
       </c>
     </row>
     <row r="310" ht="14.25">
@@ -6196,7 +6193,7 @@
         <v>310</v>
       </c>
       <c r="C310" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="311" ht="14.25">
@@ -6218,7 +6215,7 @@
         <v>312</v>
       </c>
       <c r="C312" s="8">
-        <v>20</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="313" ht="14.25">
@@ -6229,7 +6226,7 @@
         <v>313</v>
       </c>
       <c r="C313" s="8">
-        <v>15.5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="314" ht="14.25">
@@ -6240,18 +6237,18 @@
         <v>314</v>
       </c>
       <c r="C314" s="8">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="315" ht="14.25">
       <c r="A315" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B315" s="7" t="s">
         <v>315</v>
       </c>
       <c r="C315" s="8">
-        <v>20</v>
+        <v>556</v>
       </c>
     </row>
     <row r="316" ht="14.25">
@@ -6262,7 +6259,7 @@
         <v>316</v>
       </c>
       <c r="C316" s="8">
-        <v>556</v>
+        <v>506</v>
       </c>
     </row>
     <row r="317" ht="14.25">
@@ -6273,7 +6270,7 @@
         <v>317</v>
       </c>
       <c r="C317" s="8">
-        <v>506</v>
+        <v>656</v>
       </c>
     </row>
     <row r="318" ht="14.25">
@@ -6284,7 +6281,7 @@
         <v>318</v>
       </c>
       <c r="C318" s="8">
-        <v>656</v>
+        <v>906</v>
       </c>
     </row>
     <row r="319" ht="14.25">
@@ -6295,7 +6292,7 @@
         <v>319</v>
       </c>
       <c r="C319" s="8">
-        <v>906</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="320" ht="14.25">
@@ -6306,7 +6303,7 @@
         <v>320</v>
       </c>
       <c r="C320" s="8">
-        <v>1006</v>
+        <v>466</v>
       </c>
     </row>
     <row r="321" ht="14.25">
@@ -6317,7 +6314,7 @@
         <v>321</v>
       </c>
       <c r="C321" s="8">
-        <v>466</v>
+        <v>611</v>
       </c>
     </row>
     <row r="322" ht="14.25">
@@ -6328,7 +6325,7 @@
         <v>322</v>
       </c>
       <c r="C322" s="8">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="323" ht="14.25">
@@ -6339,7 +6336,7 @@
         <v>323</v>
       </c>
       <c r="C323" s="8">
-        <v>466</v>
+        <v>611</v>
       </c>
     </row>
     <row r="324" ht="14.25">
@@ -6350,7 +6347,7 @@
         <v>324</v>
       </c>
       <c r="C324" s="8">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="325" ht="14.25">
@@ -6372,7 +6369,7 @@
         <v>326</v>
       </c>
       <c r="C326" s="8">
-        <v>466</v>
+        <v>611</v>
       </c>
     </row>
     <row r="327" ht="14.25">
@@ -6405,7 +6402,7 @@
         <v>329</v>
       </c>
       <c r="C329" s="8">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="330" ht="14.25">
@@ -6427,7 +6424,7 @@
         <v>331</v>
       </c>
       <c r="C331" s="8">
-        <v>466</v>
+        <v>611</v>
       </c>
     </row>
     <row r="332" ht="14.25">
@@ -6438,7 +6435,7 @@
         <v>332</v>
       </c>
       <c r="C332" s="8">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="333" ht="14.25">
@@ -6467,11 +6464,11 @@
       <c r="A335" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B335" s="7" t="s">
+      <c r="B335" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="C335" s="8">
-        <v>466</v>
+      <c r="C335" s="10">
+        <v>611</v>
       </c>
     </row>
     <row r="336" ht="14.25">
@@ -6482,7 +6479,7 @@
         <v>336</v>
       </c>
       <c r="C336" s="10">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="337" ht="14.25">
@@ -6493,7 +6490,7 @@
         <v>337</v>
       </c>
       <c r="C337" s="10">
-        <v>466</v>
+        <v>611</v>
       </c>
     </row>
     <row r="338" ht="14.25">
@@ -6504,7 +6501,7 @@
         <v>338</v>
       </c>
       <c r="C338" s="10">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="339" ht="14.25">
@@ -6515,7 +6512,7 @@
         <v>339</v>
       </c>
       <c r="C339" s="10">
-        <v>466</v>
+        <v>611</v>
       </c>
     </row>
     <row r="340" ht="14.25">
@@ -6526,7 +6523,7 @@
         <v>340</v>
       </c>
       <c r="C340" s="10">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="341" ht="14.25">
@@ -6548,7 +6545,7 @@
         <v>342</v>
       </c>
       <c r="C342" s="10">
-        <v>466</v>
+        <v>611</v>
       </c>
     </row>
     <row r="343" ht="14.25">
@@ -6570,7 +6567,7 @@
         <v>344</v>
       </c>
       <c r="C344" s="10">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="345" ht="14.25">
@@ -6581,7 +6578,7 @@
         <v>345</v>
       </c>
       <c r="C345" s="10">
-        <v>466</v>
+        <v>611</v>
       </c>
     </row>
     <row r="346" ht="14.25">
@@ -6592,7 +6589,7 @@
         <v>346</v>
       </c>
       <c r="C346" s="10">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="347" ht="14.25">
@@ -6603,7 +6600,7 @@
         <v>347</v>
       </c>
       <c r="C347" s="10">
-        <v>466</v>
+        <v>611</v>
       </c>
     </row>
     <row r="348" ht="14.25">
@@ -6614,7 +6611,7 @@
         <v>348</v>
       </c>
       <c r="C348" s="10">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="349" ht="14.25">
@@ -6625,7 +6622,7 @@
         <v>349</v>
       </c>
       <c r="C349" s="10">
-        <v>466</v>
+        <v>611</v>
       </c>
     </row>
     <row r="350" ht="14.25">
@@ -6636,7 +6633,7 @@
         <v>350</v>
       </c>
       <c r="C350" s="10">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="351" ht="14.25">
@@ -6658,7 +6655,7 @@
         <v>352</v>
       </c>
       <c r="C352" s="10">
-        <v>466</v>
+        <v>611</v>
       </c>
     </row>
     <row r="353" ht="14.25">
@@ -6669,7 +6666,7 @@
         <v>353</v>
       </c>
       <c r="C353" s="10">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="354" ht="14.25">
@@ -6680,7 +6677,7 @@
         <v>354</v>
       </c>
       <c r="C354" s="10">
-        <v>466</v>
+        <v>611</v>
       </c>
     </row>
     <row r="355" ht="14.25">
@@ -6691,7 +6688,7 @@
         <v>355</v>
       </c>
       <c r="C355" s="10">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="356" ht="14.25">
@@ -6702,7 +6699,7 @@
         <v>356</v>
       </c>
       <c r="C356" s="10">
-        <v>466</v>
+        <v>611</v>
       </c>
     </row>
     <row r="357" ht="14.25">
@@ -6713,7 +6710,7 @@
         <v>357</v>
       </c>
       <c r="C357" s="10">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="358" ht="14.25">
@@ -6724,7 +6721,7 @@
         <v>358</v>
       </c>
       <c r="C358" s="10">
-        <v>466</v>
+        <v>611</v>
       </c>
     </row>
     <row r="359" ht="14.25">
@@ -6735,7 +6732,7 @@
         <v>359</v>
       </c>
       <c r="C359" s="10">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="360" ht="14.25">
@@ -6746,7 +6743,7 @@
         <v>360</v>
       </c>
       <c r="C360" s="10">
-        <v>466</v>
+        <v>611</v>
       </c>
     </row>
     <row r="361" ht="14.25">
@@ -6757,7 +6754,7 @@
         <v>361</v>
       </c>
       <c r="C361" s="10">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="362" ht="14.25">
@@ -6768,7 +6765,7 @@
         <v>362</v>
       </c>
       <c r="C362" s="10">
-        <v>466</v>
+        <v>611</v>
       </c>
     </row>
     <row r="363" ht="14.25">
@@ -6779,7 +6776,7 @@
         <v>363</v>
       </c>
       <c r="C363" s="10">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="364" ht="14.25">
@@ -6790,7 +6787,7 @@
         <v>364</v>
       </c>
       <c r="C364" s="10">
-        <v>466</v>
+        <v>611</v>
       </c>
     </row>
     <row r="365" ht="14.25">
@@ -6801,7 +6798,7 @@
         <v>365</v>
       </c>
       <c r="C365" s="10">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="366" ht="14.25">
@@ -6812,7 +6809,7 @@
         <v>366</v>
       </c>
       <c r="C366" s="10">
-        <v>466</v>
+        <v>611</v>
       </c>
     </row>
     <row r="367" ht="14.25">
@@ -6823,7 +6820,7 @@
         <v>367</v>
       </c>
       <c r="C367" s="10">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="368" ht="14.25">
@@ -6834,7 +6831,7 @@
         <v>368</v>
       </c>
       <c r="C368" s="10">
-        <v>466</v>
+        <v>611</v>
       </c>
     </row>
     <row r="369" ht="14.25">
@@ -6845,7 +6842,7 @@
         <v>369</v>
       </c>
       <c r="C369" s="10">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="370" ht="14.25">
@@ -6856,7 +6853,7 @@
         <v>370</v>
       </c>
       <c r="C370" s="10">
-        <v>466</v>
+        <v>611</v>
       </c>
     </row>
     <row r="371" ht="14.25">
@@ -6867,7 +6864,7 @@
         <v>371</v>
       </c>
       <c r="C371" s="10">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="372" ht="14.25">
@@ -6878,7 +6875,7 @@
         <v>372</v>
       </c>
       <c r="C372" s="10">
-        <v>466</v>
+        <v>611</v>
       </c>
     </row>
     <row r="373" ht="14.25">
@@ -6889,7 +6886,7 @@
         <v>373</v>
       </c>
       <c r="C373" s="10">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="374" ht="14.25">
@@ -6900,7 +6897,7 @@
         <v>374</v>
       </c>
       <c r="C374" s="10">
-        <v>466</v>
+        <v>611</v>
       </c>
     </row>
     <row r="375" ht="14.25">
@@ -6911,7 +6908,7 @@
         <v>375</v>
       </c>
       <c r="C375" s="10">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="376" ht="14.25">
@@ -6966,7 +6963,7 @@
         <v>380</v>
       </c>
       <c r="C380" s="10">
-        <v>466</v>
+        <v>611</v>
       </c>
     </row>
     <row r="381" ht="14.25">
@@ -6977,7 +6974,7 @@
         <v>381</v>
       </c>
       <c r="C381" s="10">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="382" ht="14.25">
@@ -6988,7 +6985,7 @@
         <v>382</v>
       </c>
       <c r="C382" s="10">
-        <v>466</v>
+        <v>611</v>
       </c>
     </row>
     <row r="383" ht="14.25">
@@ -6999,7 +6996,7 @@
         <v>383</v>
       </c>
       <c r="C383" s="10">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="384" ht="14.25">
@@ -7010,7 +7007,7 @@
         <v>384</v>
       </c>
       <c r="C384" s="10">
-        <v>466</v>
+        <v>486</v>
       </c>
     </row>
     <row r="385" ht="14.25">
@@ -7021,7 +7018,7 @@
         <v>385</v>
       </c>
       <c r="C385" s="10">
-        <v>486</v>
+        <v>611</v>
       </c>
     </row>
     <row r="386" ht="14.25">
@@ -7032,7 +7029,7 @@
         <v>386</v>
       </c>
       <c r="C386" s="10">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="387" ht="14.25">
@@ -7043,7 +7040,7 @@
         <v>387</v>
       </c>
       <c r="C387" s="10">
-        <v>466</v>
+        <v>486</v>
       </c>
     </row>
     <row r="388" ht="14.25">
@@ -7054,7 +7051,7 @@
         <v>388</v>
       </c>
       <c r="C388" s="10">
-        <v>486</v>
+        <v>611</v>
       </c>
     </row>
     <row r="389" ht="14.25">
@@ -7065,7 +7062,7 @@
         <v>389</v>
       </c>
       <c r="C389" s="10">
-        <v>611</v>
+        <v>866</v>
       </c>
     </row>
     <row r="390" ht="14.25">
@@ -7087,7 +7084,7 @@
         <v>391</v>
       </c>
       <c r="C391" s="10">
-        <v>866</v>
+        <v>466</v>
       </c>
     </row>
     <row r="392" ht="14.25">
@@ -7098,7 +7095,7 @@
         <v>392</v>
       </c>
       <c r="C392" s="10">
-        <v>466</v>
+        <v>611</v>
       </c>
     </row>
     <row r="393" ht="14.25">
@@ -7109,7 +7106,7 @@
         <v>393</v>
       </c>
       <c r="C393" s="10">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="394" ht="14.25">
@@ -7120,7 +7117,7 @@
         <v>394</v>
       </c>
       <c r="C394" s="10">
-        <v>466</v>
+        <v>611</v>
       </c>
     </row>
     <row r="395" ht="14.25">
@@ -7131,7 +7128,7 @@
         <v>395</v>
       </c>
       <c r="C395" s="10">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="396" ht="14.25">
@@ -7142,7 +7139,7 @@
         <v>396</v>
       </c>
       <c r="C396" s="10">
-        <v>466</v>
+        <v>611</v>
       </c>
     </row>
     <row r="397" ht="14.25">
@@ -7153,7 +7150,7 @@
         <v>397</v>
       </c>
       <c r="C397" s="10">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="398" ht="14.25">
@@ -7175,7 +7172,7 @@
         <v>399</v>
       </c>
       <c r="C399" s="10">
-        <v>466</v>
+        <v>611</v>
       </c>
     </row>
     <row r="400" ht="14.25">
@@ -7186,7 +7183,7 @@
         <v>400</v>
       </c>
       <c r="C400" s="10">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="401" ht="14.25">
@@ -7197,7 +7194,7 @@
         <v>401</v>
       </c>
       <c r="C401" s="10">
-        <v>466</v>
+        <v>611</v>
       </c>
     </row>
     <row r="402" ht="14.25">
@@ -7208,7 +7205,7 @@
         <v>402</v>
       </c>
       <c r="C402" s="10">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="403" ht="14.25">
@@ -7219,7 +7216,7 @@
         <v>403</v>
       </c>
       <c r="C403" s="10">
-        <v>466</v>
+        <v>611</v>
       </c>
     </row>
     <row r="404" ht="14.25">
@@ -7230,7 +7227,7 @@
         <v>404</v>
       </c>
       <c r="C404" s="10">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="405" ht="14.25">
@@ -7241,7 +7238,7 @@
         <v>405</v>
       </c>
       <c r="C405" s="10">
-        <v>466</v>
+        <v>611</v>
       </c>
     </row>
     <row r="406" ht="14.25">
@@ -7252,7 +7249,7 @@
         <v>406</v>
       </c>
       <c r="C406" s="10">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="407" ht="14.25">
@@ -7263,7 +7260,7 @@
         <v>407</v>
       </c>
       <c r="C407" s="10">
-        <v>466</v>
+        <v>611</v>
       </c>
     </row>
     <row r="408" ht="14.25">
@@ -7274,7 +7271,7 @@
         <v>408</v>
       </c>
       <c r="C408" s="10">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="409" ht="14.25">
@@ -7285,7 +7282,7 @@
         <v>409</v>
       </c>
       <c r="C409" s="10">
-        <v>466</v>
+        <v>611</v>
       </c>
     </row>
     <row r="410" ht="14.25">
@@ -7296,7 +7293,7 @@
         <v>410</v>
       </c>
       <c r="C410" s="10">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="411" ht="14.25">
@@ -7307,7 +7304,7 @@
         <v>411</v>
       </c>
       <c r="C411" s="10">
-        <v>466</v>
+        <v>611</v>
       </c>
     </row>
     <row r="412" ht="14.25">
@@ -7318,7 +7315,7 @@
         <v>412</v>
       </c>
       <c r="C412" s="10">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="413" ht="14.25">
@@ -7329,7 +7326,7 @@
         <v>413</v>
       </c>
       <c r="C413" s="10">
-        <v>466</v>
+        <v>611</v>
       </c>
     </row>
     <row r="414" ht="14.25">
@@ -7340,7 +7337,7 @@
         <v>414</v>
       </c>
       <c r="C414" s="10">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="415" ht="14.25">
@@ -7351,7 +7348,7 @@
         <v>415</v>
       </c>
       <c r="C415" s="10">
-        <v>466</v>
+        <v>611</v>
       </c>
     </row>
     <row r="416" ht="14.25">
@@ -7362,7 +7359,7 @@
         <v>416</v>
       </c>
       <c r="C416" s="10">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="417" ht="14.25">
@@ -7373,7 +7370,7 @@
         <v>417</v>
       </c>
       <c r="C417" s="10">
-        <v>466</v>
+        <v>611</v>
       </c>
     </row>
     <row r="418" ht="14.25">
@@ -7384,7 +7381,7 @@
         <v>418</v>
       </c>
       <c r="C418" s="10">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="419" ht="14.25">
@@ -7395,7 +7392,7 @@
         <v>419</v>
       </c>
       <c r="C419" s="10">
-        <v>466</v>
+        <v>611</v>
       </c>
     </row>
     <row r="420" ht="14.25">
@@ -7406,7 +7403,7 @@
         <v>420</v>
       </c>
       <c r="C420" s="10">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="421" ht="14.25">
@@ -7417,7 +7414,7 @@
         <v>421</v>
       </c>
       <c r="C421" s="10">
-        <v>466</v>
+        <v>611</v>
       </c>
     </row>
     <row r="422" ht="14.25">
@@ -7428,7 +7425,7 @@
         <v>422</v>
       </c>
       <c r="C422" s="10">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="423" ht="14.25">
@@ -7450,7 +7447,7 @@
         <v>424</v>
       </c>
       <c r="C424" s="10">
-        <v>466</v>
+        <v>611</v>
       </c>
     </row>
     <row r="425" ht="14.25">
@@ -7472,7 +7469,7 @@
         <v>426</v>
       </c>
       <c r="C426" s="10">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="427" ht="14.25">
@@ -7483,7 +7480,7 @@
         <v>427</v>
       </c>
       <c r="C427" s="10">
-        <v>466</v>
+        <v>611</v>
       </c>
     </row>
     <row r="428" ht="14.25">
@@ -7494,7 +7491,7 @@
         <v>428</v>
       </c>
       <c r="C428" s="10">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="429" ht="14.25">
@@ -7505,7 +7502,7 @@
         <v>429</v>
       </c>
       <c r="C429" s="10">
-        <v>466</v>
+        <v>611</v>
       </c>
     </row>
     <row r="430" ht="14.25">
@@ -7516,7 +7513,7 @@
         <v>430</v>
       </c>
       <c r="C430" s="10">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="431" ht="14.25">
@@ -7527,7 +7524,7 @@
         <v>431</v>
       </c>
       <c r="C431" s="10">
-        <v>466</v>
+        <v>611</v>
       </c>
     </row>
     <row r="432" ht="14.25">
@@ -7538,7 +7535,7 @@
         <v>432</v>
       </c>
       <c r="C432" s="10">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="433" ht="14.25">
@@ -7549,7 +7546,7 @@
         <v>433</v>
       </c>
       <c r="C433" s="10">
-        <v>466</v>
+        <v>611</v>
       </c>
     </row>
     <row r="434" ht="14.25">
@@ -7582,7 +7579,7 @@
         <v>436</v>
       </c>
       <c r="C436" s="10">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="437" ht="14.25">
@@ -7615,7 +7612,7 @@
         <v>439</v>
       </c>
       <c r="C439" s="10">
-        <v>466</v>
+        <v>611</v>
       </c>
     </row>
     <row r="440" ht="14.25">
@@ -7626,7 +7623,7 @@
         <v>440</v>
       </c>
       <c r="C440" s="10">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="441" ht="14.25">
@@ -7637,7 +7634,7 @@
         <v>441</v>
       </c>
       <c r="C441" s="10">
-        <v>466</v>
+        <v>611</v>
       </c>
     </row>
     <row r="442" ht="14.25">
@@ -7648,7 +7645,7 @@
         <v>442</v>
       </c>
       <c r="C442" s="10">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="443" ht="14.25">
@@ -7659,7 +7656,7 @@
         <v>443</v>
       </c>
       <c r="C443" s="10">
-        <v>466</v>
+        <v>611</v>
       </c>
     </row>
     <row r="444" ht="14.25">
@@ -7670,7 +7667,7 @@
         <v>444</v>
       </c>
       <c r="C444" s="10">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="445" ht="14.25">
@@ -7681,7 +7678,7 @@
         <v>445</v>
       </c>
       <c r="C445" s="10">
-        <v>466</v>
+        <v>611</v>
       </c>
     </row>
     <row r="446" ht="14.25">
@@ -7692,7 +7689,7 @@
         <v>446</v>
       </c>
       <c r="C446" s="10">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="447" ht="14.25">
@@ -7703,7 +7700,7 @@
         <v>447</v>
       </c>
       <c r="C447" s="10">
-        <v>466</v>
+        <v>611</v>
       </c>
     </row>
     <row r="448" ht="14.25">
@@ -7714,7 +7711,7 @@
         <v>448</v>
       </c>
       <c r="C448" s="10">
-        <v>611</v>
+        <v>506</v>
       </c>
     </row>
     <row r="449" ht="14.25">
@@ -7725,7 +7722,7 @@
         <v>449</v>
       </c>
       <c r="C449" s="10">
-        <v>506</v>
+        <v>611</v>
       </c>
     </row>
     <row r="450" ht="14.25">
@@ -7736,7 +7733,7 @@
         <v>450</v>
       </c>
       <c r="C450" s="10">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="451" ht="14.25">
@@ -7747,7 +7744,7 @@
         <v>451</v>
       </c>
       <c r="C451" s="10">
-        <v>466</v>
+        <v>611</v>
       </c>
     </row>
     <row r="452" ht="14.25">
@@ -7758,7 +7755,7 @@
         <v>452</v>
       </c>
       <c r="C452" s="10">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="453" ht="14.25">
@@ -7769,7 +7766,7 @@
         <v>453</v>
       </c>
       <c r="C453" s="10">
-        <v>466</v>
+        <v>611</v>
       </c>
     </row>
     <row r="454" ht="14.25">
@@ -7780,18 +7777,18 @@
         <v>454</v>
       </c>
       <c r="C454" s="10">
-        <v>611</v>
+        <v>466</v>
       </c>
     </row>
     <row r="455" ht="14.25">
       <c r="A455" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B455" s="9" t="s">
         <v>455</v>
       </c>
       <c r="C455" s="10">
-        <v>466</v>
+        <v>24</v>
       </c>
     </row>
     <row r="456" ht="14.25">
@@ -7802,7 +7799,7 @@
         <v>456</v>
       </c>
       <c r="C456" s="10">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="457" ht="14.25">
@@ -7813,18 +7810,18 @@
         <v>457</v>
       </c>
       <c r="C457" s="10">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="458" ht="14.25">
       <c r="A458" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B458" s="9" t="s">
         <v>458</v>
       </c>
       <c r="C458" s="10">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="459" ht="14.25">
@@ -8198,7 +8195,7 @@
         <v>492</v>
       </c>
       <c r="C492" s="10">
-        <v>56</v>
+        <v>156</v>
       </c>
     </row>
     <row r="493" ht="14.25">
@@ -8209,7 +8206,7 @@
         <v>493</v>
       </c>
       <c r="C493" s="10">
-        <v>156</v>
+        <v>56</v>
       </c>
     </row>
     <row r="494" ht="14.25">
@@ -8319,7 +8316,7 @@
         <v>503</v>
       </c>
       <c r="C503" s="10">
-        <v>56</v>
+        <v>126</v>
       </c>
     </row>
     <row r="504" ht="14.25">
@@ -8330,7 +8327,7 @@
         <v>504</v>
       </c>
       <c r="C504" s="10">
-        <v>126</v>
+        <v>156</v>
       </c>
     </row>
     <row r="505" ht="14.25">
@@ -8341,7 +8338,7 @@
         <v>505</v>
       </c>
       <c r="C505" s="10">
-        <v>156</v>
+        <v>56</v>
       </c>
     </row>
     <row r="506" ht="14.25">
@@ -8352,7 +8349,7 @@
         <v>506</v>
       </c>
       <c r="C506" s="10">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="507" ht="14.25">
@@ -8407,7 +8404,7 @@
         <v>511</v>
       </c>
       <c r="C511" s="10">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="512" ht="14.25">
@@ -8561,7 +8558,7 @@
         <v>525</v>
       </c>
       <c r="C525" s="10">
-        <v>56</v>
+        <v>156</v>
       </c>
     </row>
     <row r="526" ht="14.25">
@@ -8583,7 +8580,7 @@
         <v>527</v>
       </c>
       <c r="C527" s="10">
-        <v>156</v>
+        <v>56</v>
       </c>
     </row>
     <row r="528" ht="14.25">
@@ -8808,13 +8805,13 @@
     </row>
     <row r="548" ht="14.25">
       <c r="A548" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B548" s="9" t="s">
         <v>548</v>
       </c>
       <c r="C548" s="10">
-        <v>56</v>
+        <v>15</v>
       </c>
     </row>
     <row r="549" ht="14.25">
@@ -8825,7 +8822,7 @@
         <v>549</v>
       </c>
       <c r="C549" s="10">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="550" ht="14.25">
@@ -8836,7 +8833,7 @@
         <v>550</v>
       </c>
       <c r="C550" s="10">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="551" ht="14.25">
@@ -8847,7 +8844,7 @@
         <v>551</v>
       </c>
       <c r="C551" s="10">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="552" ht="14.25">
@@ -8858,7 +8855,7 @@
         <v>552</v>
       </c>
       <c r="C552" s="10">
-        <v>66</v>
+        <v>89</v>
       </c>
     </row>
     <row r="553" ht="14.25">
@@ -8869,7 +8866,7 @@
         <v>553</v>
       </c>
       <c r="C553" s="10">
-        <v>89</v>
+        <v>30</v>
       </c>
     </row>
     <row r="554" ht="14.25">
@@ -8880,7 +8877,7 @@
         <v>554</v>
       </c>
       <c r="C554" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="555" ht="14.25">
@@ -8891,7 +8888,7 @@
         <v>555</v>
       </c>
       <c r="C555" s="10">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="556" ht="14.25">
@@ -8902,7 +8899,7 @@
         <v>556</v>
       </c>
       <c r="C556" s="10">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="557" ht="14.25">
@@ -8913,7 +8910,7 @@
         <v>557</v>
       </c>
       <c r="C557" s="10">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="558" ht="14.25">
@@ -8924,7 +8921,7 @@
         <v>558</v>
       </c>
       <c r="C558" s="10">
-        <v>28</v>
+        <v>59</v>
       </c>
     </row>
     <row r="559" ht="14.25">
@@ -8935,7 +8932,7 @@
         <v>559</v>
       </c>
       <c r="C559" s="10">
-        <v>59</v>
+        <v>30</v>
       </c>
     </row>
     <row r="560" ht="14.25">
@@ -8946,7 +8943,7 @@
         <v>560</v>
       </c>
       <c r="C560" s="10">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="561" ht="14.25">
@@ -8957,7 +8954,7 @@
         <v>561</v>
       </c>
       <c r="C561" s="10">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="562" ht="14.25">
@@ -8968,18 +8965,18 @@
         <v>562</v>
       </c>
       <c r="C562" s="10">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="563" ht="14.25">
       <c r="A563" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B563" s="9" t="s">
         <v>563</v>
       </c>
       <c r="C563" s="10">
-        <v>30</v>
+        <v>406</v>
       </c>
     </row>
     <row r="564" ht="14.25">
@@ -8990,7 +8987,7 @@
         <v>564</v>
       </c>
       <c r="C564" s="10">
-        <v>406</v>
+        <v>476</v>
       </c>
     </row>
     <row r="565" ht="14.25">
@@ -9012,7 +9009,7 @@
         <v>566</v>
       </c>
       <c r="C566" s="10">
-        <v>476</v>
+        <v>556</v>
       </c>
     </row>
     <row r="567" ht="14.25">
@@ -9023,7 +9020,7 @@
         <v>567</v>
       </c>
       <c r="C567" s="10">
-        <v>556</v>
+        <v>271</v>
       </c>
     </row>
     <row r="568" ht="14.25">
@@ -9045,7 +9042,7 @@
         <v>569</v>
       </c>
       <c r="C569" s="10">
-        <v>271</v>
+        <v>356</v>
       </c>
     </row>
     <row r="570" ht="14.25">
@@ -9067,7 +9064,7 @@
         <v>571</v>
       </c>
       <c r="C571" s="10">
-        <v>356</v>
+        <v>476</v>
       </c>
     </row>
     <row r="572" ht="14.25">
@@ -9078,7 +9075,7 @@
         <v>572</v>
       </c>
       <c r="C572" s="10">
-        <v>476</v>
+        <v>271</v>
       </c>
     </row>
     <row r="573" ht="14.25">
@@ -9133,7 +9130,7 @@
         <v>577</v>
       </c>
       <c r="C577" s="10">
-        <v>271</v>
+        <v>356</v>
       </c>
     </row>
     <row r="578" ht="14.25">
@@ -9144,7 +9141,7 @@
         <v>578</v>
       </c>
       <c r="C578" s="10">
-        <v>356</v>
+        <v>271</v>
       </c>
     </row>
     <row r="579" ht="14.25">
@@ -9155,7 +9152,7 @@
         <v>579</v>
       </c>
       <c r="C579" s="10">
-        <v>271</v>
+        <v>356</v>
       </c>
     </row>
     <row r="580" ht="14.25">
@@ -9166,7 +9163,7 @@
         <v>580</v>
       </c>
       <c r="C580" s="10">
-        <v>356</v>
+        <v>271</v>
       </c>
     </row>
     <row r="581" ht="14.25">
@@ -9177,7 +9174,7 @@
         <v>581</v>
       </c>
       <c r="C581" s="10">
-        <v>271</v>
+        <v>356</v>
       </c>
     </row>
     <row r="582" ht="14.25">
@@ -9188,7 +9185,7 @@
         <v>582</v>
       </c>
       <c r="C582" s="10">
-        <v>356</v>
+        <v>271</v>
       </c>
     </row>
     <row r="583" ht="14.25">
@@ -9199,7 +9196,7 @@
         <v>583</v>
       </c>
       <c r="C583" s="10">
-        <v>271</v>
+        <v>356</v>
       </c>
     </row>
     <row r="584" ht="14.25">
@@ -9210,7 +9207,7 @@
         <v>584</v>
       </c>
       <c r="C584" s="10">
-        <v>356</v>
+        <v>271</v>
       </c>
     </row>
     <row r="585" ht="14.25">
@@ -9221,7 +9218,7 @@
         <v>585</v>
       </c>
       <c r="C585" s="10">
-        <v>271</v>
+        <v>356</v>
       </c>
     </row>
     <row r="586" ht="14.25">
@@ -9232,7 +9229,7 @@
         <v>586</v>
       </c>
       <c r="C586" s="10">
-        <v>356</v>
+        <v>46</v>
       </c>
     </row>
     <row r="587" ht="14.25">
@@ -9243,7 +9240,7 @@
         <v>587</v>
       </c>
       <c r="C587" s="10">
-        <v>46</v>
+        <v>271</v>
       </c>
     </row>
     <row r="588" ht="14.25">
@@ -9254,7 +9251,7 @@
         <v>588</v>
       </c>
       <c r="C588" s="10">
-        <v>271</v>
+        <v>356</v>
       </c>
     </row>
     <row r="589" ht="14.25">
@@ -9265,7 +9262,7 @@
         <v>589</v>
       </c>
       <c r="C589" s="10">
-        <v>356</v>
+        <v>271</v>
       </c>
     </row>
     <row r="590" ht="14.25">
@@ -9276,7 +9273,7 @@
         <v>590</v>
       </c>
       <c r="C590" s="10">
-        <v>271</v>
+        <v>356</v>
       </c>
     </row>
     <row r="591" ht="14.25">
@@ -9287,7 +9284,7 @@
         <v>591</v>
       </c>
       <c r="C591" s="10">
-        <v>356</v>
+        <v>271</v>
       </c>
     </row>
     <row r="592" ht="14.25">
@@ -9298,7 +9295,7 @@
         <v>592</v>
       </c>
       <c r="C592" s="10">
-        <v>271</v>
+        <v>356</v>
       </c>
     </row>
     <row r="593" ht="14.25">
@@ -9309,7 +9306,7 @@
         <v>593</v>
       </c>
       <c r="C593" s="10">
-        <v>356</v>
+        <v>271</v>
       </c>
     </row>
     <row r="594" ht="14.25">
@@ -9320,7 +9317,7 @@
         <v>594</v>
       </c>
       <c r="C594" s="10">
-        <v>271</v>
+        <v>356</v>
       </c>
     </row>
     <row r="595" ht="14.25">
@@ -9331,7 +9328,7 @@
         <v>595</v>
       </c>
       <c r="C595" s="10">
-        <v>356</v>
+        <v>271</v>
       </c>
     </row>
     <row r="596" ht="14.25">
@@ -9342,7 +9339,7 @@
         <v>596</v>
       </c>
       <c r="C596" s="10">
-        <v>271</v>
+        <v>356</v>
       </c>
     </row>
     <row r="597" ht="14.25">
@@ -9353,7 +9350,7 @@
         <v>597</v>
       </c>
       <c r="C597" s="10">
-        <v>356</v>
+        <v>271</v>
       </c>
     </row>
     <row r="598" ht="14.25">
@@ -9364,7 +9361,7 @@
         <v>598</v>
       </c>
       <c r="C598" s="10">
-        <v>271</v>
+        <v>356</v>
       </c>
     </row>
     <row r="599" ht="14.25">
@@ -9375,7 +9372,7 @@
         <v>599</v>
       </c>
       <c r="C599" s="10">
-        <v>356</v>
+        <v>271</v>
       </c>
     </row>
     <row r="600" ht="14.25">
@@ -9386,7 +9383,7 @@
         <v>600</v>
       </c>
       <c r="C600" s="10">
-        <v>271</v>
+        <v>356</v>
       </c>
     </row>
     <row r="601" ht="14.25">
@@ -9397,7 +9394,7 @@
         <v>601</v>
       </c>
       <c r="C601" s="10">
-        <v>356</v>
+        <v>271</v>
       </c>
     </row>
     <row r="602" ht="14.25">
@@ -9408,7 +9405,7 @@
         <v>602</v>
       </c>
       <c r="C602" s="10">
-        <v>271</v>
+        <v>356</v>
       </c>
     </row>
     <row r="603" ht="14.25">
@@ -9430,7 +9427,7 @@
         <v>604</v>
       </c>
       <c r="C604" s="10">
-        <v>356</v>
+        <v>271</v>
       </c>
     </row>
     <row r="605" ht="14.25">
@@ -9452,7 +9449,7 @@
         <v>606</v>
       </c>
       <c r="C606" s="10">
-        <v>271</v>
+        <v>356</v>
       </c>
     </row>
     <row r="607" ht="14.25">
@@ -9463,7 +9460,7 @@
         <v>607</v>
       </c>
       <c r="C607" s="10">
-        <v>356</v>
+        <v>271</v>
       </c>
     </row>
     <row r="608" ht="14.25">
@@ -9474,7 +9471,7 @@
         <v>608</v>
       </c>
       <c r="C608" s="10">
-        <v>271</v>
+        <v>356</v>
       </c>
     </row>
     <row r="609" ht="14.25">
@@ -9485,7 +9482,7 @@
         <v>609</v>
       </c>
       <c r="C609" s="10">
-        <v>356</v>
+        <v>271</v>
       </c>
     </row>
     <row r="610" ht="14.25">
@@ -9507,7 +9504,7 @@
         <v>611</v>
       </c>
       <c r="C611" s="10">
-        <v>271</v>
+        <v>356</v>
       </c>
     </row>
     <row r="612" ht="14.25">
@@ -9518,7 +9515,7 @@
         <v>612</v>
       </c>
       <c r="C612" s="10">
-        <v>356</v>
+        <v>271</v>
       </c>
     </row>
     <row r="613" ht="14.25">
@@ -9529,7 +9526,7 @@
         <v>613</v>
       </c>
       <c r="C613" s="10">
-        <v>271</v>
+        <v>356</v>
       </c>
     </row>
     <row r="614" ht="14.25">
@@ -9540,7 +9537,7 @@
         <v>614</v>
       </c>
       <c r="C614" s="10">
-        <v>356</v>
+        <v>271</v>
       </c>
     </row>
     <row r="615" ht="14.25">
@@ -9551,7 +9548,7 @@
         <v>615</v>
       </c>
       <c r="C615" s="10">
-        <v>271</v>
+        <v>356</v>
       </c>
     </row>
     <row r="616" ht="14.25">
@@ -9562,7 +9559,7 @@
         <v>616</v>
       </c>
       <c r="C616" s="10">
-        <v>356</v>
+        <v>271</v>
       </c>
     </row>
     <row r="617" ht="14.25">
@@ -9573,7 +9570,7 @@
         <v>617</v>
       </c>
       <c r="C617" s="10">
-        <v>271</v>
+        <v>356</v>
       </c>
     </row>
     <row r="618" ht="14.25">
@@ -9584,7 +9581,7 @@
         <v>618</v>
       </c>
       <c r="C618" s="10">
-        <v>356</v>
+        <v>271</v>
       </c>
     </row>
     <row r="619" ht="14.25">
@@ -9595,7 +9592,7 @@
         <v>619</v>
       </c>
       <c r="C619" s="10">
-        <v>271</v>
+        <v>356</v>
       </c>
     </row>
     <row r="620" ht="14.25">
@@ -9606,7 +9603,7 @@
         <v>620</v>
       </c>
       <c r="C620" s="10">
-        <v>356</v>
+        <v>271</v>
       </c>
     </row>
     <row r="621" ht="14.25">
@@ -9617,7 +9614,7 @@
         <v>621</v>
       </c>
       <c r="C621" s="10">
-        <v>271</v>
+        <v>356</v>
       </c>
     </row>
     <row r="622" ht="14.25">
@@ -9628,7 +9625,7 @@
         <v>622</v>
       </c>
       <c r="C622" s="10">
-        <v>356</v>
+        <v>271</v>
       </c>
     </row>
     <row r="623" ht="14.25">
@@ -9639,7 +9636,7 @@
         <v>623</v>
       </c>
       <c r="C623" s="10">
-        <v>271</v>
+        <v>356</v>
       </c>
     </row>
     <row r="624" ht="14.25">
@@ -9650,7 +9647,7 @@
         <v>624</v>
       </c>
       <c r="C624" s="10">
-        <v>356</v>
+        <v>271</v>
       </c>
     </row>
     <row r="625" ht="14.25">
@@ -9661,7 +9658,7 @@
         <v>625</v>
       </c>
       <c r="C625" s="10">
-        <v>271</v>
+        <v>356</v>
       </c>
     </row>
     <row r="626" ht="14.25">
@@ -9672,7 +9669,7 @@
         <v>626</v>
       </c>
       <c r="C626" s="10">
-        <v>356</v>
+        <v>271</v>
       </c>
     </row>
     <row r="627" ht="14.25">
@@ -9683,7 +9680,7 @@
         <v>627</v>
       </c>
       <c r="C627" s="10">
-        <v>271</v>
+        <v>456</v>
       </c>
     </row>
     <row r="628" ht="14.25">
@@ -9694,7 +9691,7 @@
         <v>628</v>
       </c>
       <c r="C628" s="10">
-        <v>456</v>
+        <v>271</v>
       </c>
     </row>
     <row r="629" ht="14.25">
@@ -9705,7 +9702,7 @@
         <v>629</v>
       </c>
       <c r="C629" s="10">
-        <v>271</v>
+        <v>356</v>
       </c>
     </row>
     <row r="630" ht="14.25">
@@ -9716,7 +9713,7 @@
         <v>630</v>
       </c>
       <c r="C630" s="10">
-        <v>356</v>
+        <v>271</v>
       </c>
     </row>
     <row r="631" ht="14.25">
@@ -9727,7 +9724,7 @@
         <v>631</v>
       </c>
       <c r="C631" s="10">
-        <v>271</v>
+        <v>356</v>
       </c>
     </row>
     <row r="632" ht="14.25">
@@ -9738,7 +9735,7 @@
         <v>632</v>
       </c>
       <c r="C632" s="10">
-        <v>356</v>
+        <v>271</v>
       </c>
     </row>
     <row r="633" ht="14.25">
@@ -9749,7 +9746,7 @@
         <v>633</v>
       </c>
       <c r="C633" s="10">
-        <v>271</v>
+        <v>356</v>
       </c>
     </row>
     <row r="634" ht="14.25">
@@ -9760,7 +9757,7 @@
         <v>634</v>
       </c>
       <c r="C634" s="10">
-        <v>356</v>
+        <v>271</v>
       </c>
     </row>
     <row r="635" ht="14.25">
@@ -9771,7 +9768,7 @@
         <v>635</v>
       </c>
       <c r="C635" s="10">
-        <v>271</v>
+        <v>356</v>
       </c>
     </row>
     <row r="636" ht="14.25">
@@ -9782,7 +9779,7 @@
         <v>636</v>
       </c>
       <c r="C636" s="10">
-        <v>356</v>
+        <v>271</v>
       </c>
     </row>
     <row r="637" ht="14.25">
@@ -9793,7 +9790,7 @@
         <v>637</v>
       </c>
       <c r="C637" s="10">
-        <v>271</v>
+        <v>356</v>
       </c>
     </row>
     <row r="638" ht="14.25">
@@ -9804,7 +9801,7 @@
         <v>638</v>
       </c>
       <c r="C638" s="10">
-        <v>356</v>
+        <v>271</v>
       </c>
     </row>
     <row r="639" ht="14.25">
@@ -9815,7 +9812,7 @@
         <v>639</v>
       </c>
       <c r="C639" s="10">
-        <v>271</v>
+        <v>356</v>
       </c>
     </row>
     <row r="640" ht="14.25">
@@ -9826,7 +9823,7 @@
         <v>640</v>
       </c>
       <c r="C640" s="10">
-        <v>356</v>
+        <v>271</v>
       </c>
     </row>
     <row r="641" ht="14.25">
@@ -9837,7 +9834,7 @@
         <v>641</v>
       </c>
       <c r="C641" s="10">
-        <v>271</v>
+        <v>356</v>
       </c>
     </row>
     <row r="642" ht="14.25">
@@ -9848,7 +9845,7 @@
         <v>642</v>
       </c>
       <c r="C642" s="10">
-        <v>356</v>
+        <v>271</v>
       </c>
     </row>
     <row r="643" ht="14.25">
@@ -9859,7 +9856,7 @@
         <v>643</v>
       </c>
       <c r="C643" s="10">
-        <v>271</v>
+        <v>356</v>
       </c>
     </row>
     <row r="644" ht="14.25">
@@ -9870,7 +9867,7 @@
         <v>644</v>
       </c>
       <c r="C644" s="10">
-        <v>356</v>
+        <v>271</v>
       </c>
     </row>
     <row r="645" ht="14.25">
@@ -9881,7 +9878,7 @@
         <v>645</v>
       </c>
       <c r="C645" s="10">
-        <v>271</v>
+        <v>356</v>
       </c>
     </row>
     <row r="646" ht="14.25">
@@ -9892,7 +9889,7 @@
         <v>646</v>
       </c>
       <c r="C646" s="10">
-        <v>356</v>
+        <v>271</v>
       </c>
     </row>
     <row r="647" ht="14.25">
@@ -9903,7 +9900,7 @@
         <v>647</v>
       </c>
       <c r="C647" s="10">
-        <v>271</v>
+        <v>356</v>
       </c>
     </row>
     <row r="648" ht="14.25">
@@ -9914,7 +9911,7 @@
         <v>648</v>
       </c>
       <c r="C648" s="10">
-        <v>356</v>
+        <v>271</v>
       </c>
     </row>
     <row r="649" ht="14.25">
@@ -9925,7 +9922,7 @@
         <v>649</v>
       </c>
       <c r="C649" s="10">
-        <v>271</v>
+        <v>356</v>
       </c>
     </row>
     <row r="650" ht="14.25">
@@ -9936,7 +9933,7 @@
         <v>650</v>
       </c>
       <c r="C650" s="10">
-        <v>356</v>
+        <v>271</v>
       </c>
     </row>
     <row r="651" ht="14.25">
@@ -9947,7 +9944,7 @@
         <v>651</v>
       </c>
       <c r="C651" s="10">
-        <v>271</v>
+        <v>356</v>
       </c>
     </row>
     <row r="652" ht="14.25">
@@ -9969,7 +9966,7 @@
         <v>653</v>
       </c>
       <c r="C653" s="10">
-        <v>356</v>
+        <v>456</v>
       </c>
     </row>
     <row r="654" ht="14.25">
@@ -9980,7 +9977,7 @@
         <v>654</v>
       </c>
       <c r="C654" s="10">
-        <v>456</v>
+        <v>271</v>
       </c>
     </row>
     <row r="655" ht="14.25">
@@ -9991,7 +9988,7 @@
         <v>655</v>
       </c>
       <c r="C655" s="10">
-        <v>271</v>
+        <v>356</v>
       </c>
     </row>
     <row r="656" ht="14.25">
@@ -10002,7 +9999,7 @@
         <v>656</v>
       </c>
       <c r="C656" s="10">
-        <v>356</v>
+        <v>271</v>
       </c>
     </row>
     <row r="657" ht="14.25">
@@ -10013,7 +10010,7 @@
         <v>657</v>
       </c>
       <c r="C657" s="10">
-        <v>271</v>
+        <v>356</v>
       </c>
     </row>
     <row r="658" ht="14.25">
@@ -10024,7 +10021,7 @@
         <v>658</v>
       </c>
       <c r="C658" s="10">
-        <v>356</v>
+        <v>271</v>
       </c>
     </row>
     <row r="659" ht="14.25">
@@ -10040,13 +10037,13 @@
     </row>
     <row r="660" ht="14.25">
       <c r="A660" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B660" s="9" t="s">
         <v>660</v>
       </c>
       <c r="C660" s="10">
-        <v>271</v>
+        <v>21</v>
       </c>
     </row>
     <row r="661" ht="14.25">
@@ -10057,7 +10054,7 @@
         <v>661</v>
       </c>
       <c r="C661" s="10">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="662" ht="14.25">
@@ -10068,7 +10065,7 @@
         <v>662</v>
       </c>
       <c r="C662" s="10">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="663" ht="14.25">
@@ -10079,29 +10076,29 @@
         <v>663</v>
       </c>
       <c r="C663" s="10">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="664" ht="14.25">
       <c r="A664" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B664" s="9" t="s">
         <v>664</v>
       </c>
       <c r="C664" s="10">
-        <v>35</v>
+        <v>186</v>
       </c>
     </row>
     <row r="665" ht="14.25">
       <c r="A665" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B665" s="9" t="s">
         <v>665</v>
       </c>
       <c r="C665" s="10">
-        <v>186</v>
+        <v>40</v>
       </c>
     </row>
     <row r="666" ht="14.25">
@@ -10109,7 +10106,7 @@
         <v>3</v>
       </c>
       <c r="B666" s="9" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C666" s="10">
         <v>40</v>
@@ -10123,7 +10120,7 @@
         <v>666</v>
       </c>
       <c r="C667" s="10">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="668" ht="14.25">
@@ -10134,7 +10131,7 @@
         <v>667</v>
       </c>
       <c r="C668" s="10">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="669" ht="14.25">
@@ -10156,7 +10153,7 @@
         <v>669</v>
       </c>
       <c r="C670" s="10">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="671" ht="14.25">
@@ -10167,7 +10164,7 @@
         <v>670</v>
       </c>
       <c r="C671" s="10">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="672" ht="14.25">
@@ -10178,7 +10175,7 @@
         <v>671</v>
       </c>
       <c r="C672" s="10">
-        <v>30</v>
+        <v>65</v>
       </c>
     </row>
     <row r="673" ht="14.25">
@@ -10189,7 +10186,7 @@
         <v>672</v>
       </c>
       <c r="C673" s="10">
-        <v>65</v>
+        <v>38</v>
       </c>
     </row>
     <row r="674" ht="14.25">
@@ -10197,10 +10194,10 @@
         <v>3</v>
       </c>
       <c r="B674" s="9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C674" s="10">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="675" ht="14.25">
@@ -10211,7 +10208,7 @@
         <v>673</v>
       </c>
       <c r="C675" s="10">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="676" ht="14.25">
@@ -10219,10 +10216,10 @@
         <v>3</v>
       </c>
       <c r="B676" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C676" s="10">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="677" ht="14.25">
@@ -10233,7 +10230,7 @@
         <v>674</v>
       </c>
       <c r="C677" s="10">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="678" ht="14.25">
@@ -10244,7 +10241,7 @@
         <v>675</v>
       </c>
       <c r="C678" s="10">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="679" ht="14.25">
@@ -10255,7 +10252,7 @@
         <v>676</v>
       </c>
       <c r="C679" s="10">
-        <v>35</v>
+        <v>140</v>
       </c>
     </row>
     <row r="680" ht="14.25">
@@ -10266,7 +10263,7 @@
         <v>677</v>
       </c>
       <c r="C680" s="10">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="681" ht="14.25">
@@ -10277,7 +10274,7 @@
         <v>678</v>
       </c>
       <c r="C681" s="10">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="682" ht="14.25">
@@ -10288,7 +10285,7 @@
         <v>679</v>
       </c>
       <c r="C682" s="10">
-        <v>85</v>
+        <v>5</v>
       </c>
     </row>
     <row r="683" ht="14.25">
@@ -10299,29 +10296,29 @@
         <v>680</v>
       </c>
       <c r="C683" s="10">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="684" ht="14.25">
       <c r="A684" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B684" s="9" t="s">
         <v>681</v>
       </c>
       <c r="C684" s="10">
-        <v>29</v>
+        <v>226</v>
       </c>
     </row>
     <row r="685" ht="14.25">
       <c r="A685" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B685" s="9" t="s">
         <v>682</v>
       </c>
       <c r="C685" s="10">
-        <v>226</v>
+        <v>2.5899999999999999</v>
       </c>
     </row>
     <row r="686" ht="14.25">
@@ -10332,7 +10329,7 @@
         <v>683</v>
       </c>
       <c r="C686" s="10">
-        <v>2.5899999999999999</v>
+        <v>66</v>
       </c>
     </row>
     <row r="687" ht="14.25">
@@ -10343,7 +10340,7 @@
         <v>684</v>
       </c>
       <c r="C687" s="10">
-        <v>66</v>
+        <v>106</v>
       </c>
     </row>
     <row r="688" ht="14.25">
@@ -10354,7 +10351,7 @@
         <v>685</v>
       </c>
       <c r="C688" s="10">
-        <v>106</v>
+        <v>86</v>
       </c>
     </row>
     <row r="689" ht="14.25">
@@ -10365,7 +10362,7 @@
         <v>686</v>
       </c>
       <c r="C689" s="10">
-        <v>86</v>
+        <v>126</v>
       </c>
     </row>
     <row r="690" ht="14.25">
@@ -10376,7 +10373,7 @@
         <v>687</v>
       </c>
       <c r="C690" s="10">
-        <v>126</v>
+        <v>66</v>
       </c>
     </row>
     <row r="691" ht="14.25">
@@ -10387,7 +10384,7 @@
         <v>688</v>
       </c>
       <c r="C691" s="10">
-        <v>66</v>
+        <v>106</v>
       </c>
     </row>
     <row r="692" ht="14.25">
@@ -10398,7 +10395,7 @@
         <v>689</v>
       </c>
       <c r="C692" s="10">
-        <v>106</v>
+        <v>66</v>
       </c>
     </row>
     <row r="693" ht="14.25">
@@ -10409,7 +10406,7 @@
         <v>690</v>
       </c>
       <c r="C693" s="10">
-        <v>66</v>
+        <v>106</v>
       </c>
     </row>
     <row r="694" ht="14.25">
@@ -10420,7 +10417,7 @@
         <v>691</v>
       </c>
       <c r="C694" s="10">
-        <v>106</v>
+        <v>66</v>
       </c>
     </row>
     <row r="695" ht="14.25">
@@ -10442,7 +10439,7 @@
         <v>693</v>
       </c>
       <c r="C696" s="10">
-        <v>66</v>
+        <v>106</v>
       </c>
     </row>
     <row r="697" ht="14.25">
@@ -10453,7 +10450,7 @@
         <v>694</v>
       </c>
       <c r="C697" s="10">
-        <v>106</v>
+        <v>66</v>
       </c>
     </row>
     <row r="698" ht="14.25">
@@ -10464,7 +10461,7 @@
         <v>695</v>
       </c>
       <c r="C698" s="10">
-        <v>66</v>
+        <v>106</v>
       </c>
     </row>
     <row r="699" ht="14.25">
@@ -10475,7 +10472,7 @@
         <v>696</v>
       </c>
       <c r="C699" s="10">
-        <v>106</v>
+        <v>66</v>
       </c>
     </row>
     <row r="700" ht="14.25">
@@ -10486,29 +10483,29 @@
         <v>697</v>
       </c>
       <c r="C700" s="10">
-        <v>66</v>
+        <v>106</v>
       </c>
     </row>
     <row r="701" ht="14.25">
       <c r="A701" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B701" s="9" t="s">
+      <c r="B701" s="11" t="s">
         <v>698</v>
       </c>
-      <c r="C701" s="10">
-        <v>106</v>
+      <c r="C701" s="3">
+        <v>100</v>
       </c>
     </row>
     <row r="702" ht="14.25">
       <c r="A702" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B702" s="11" t="s">
+      <c r="B702" s="9" t="s">
         <v>699</v>
       </c>
-      <c r="C702" s="3">
-        <v>100</v>
+      <c r="C702" s="10">
+        <v>66</v>
       </c>
     </row>
     <row r="703" ht="14.25">
@@ -10519,7 +10516,7 @@
         <v>700</v>
       </c>
       <c r="C703" s="10">
-        <v>66</v>
+        <v>106</v>
       </c>
     </row>
     <row r="704" ht="14.25">
@@ -10530,7 +10527,7 @@
         <v>701</v>
       </c>
       <c r="C704" s="10">
-        <v>106</v>
+        <v>85</v>
       </c>
     </row>
     <row r="705" ht="14.25">
@@ -10552,7 +10549,7 @@
         <v>703</v>
       </c>
       <c r="C706" s="10">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="707" ht="14.25">
@@ -10563,7 +10560,7 @@
         <v>704</v>
       </c>
       <c r="C707" s="10">
-        <v>78</v>
+        <v>10</v>
       </c>
     </row>
     <row r="708" ht="14.25">
@@ -10574,7 +10571,7 @@
         <v>705</v>
       </c>
       <c r="C708" s="10">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="709" ht="14.25">
@@ -10585,7 +10582,7 @@
         <v>706</v>
       </c>
       <c r="C709" s="10">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="710" ht="14.25">
@@ -10596,7 +10593,7 @@
         <v>707</v>
       </c>
       <c r="C710" s="10">
-        <v>25</v>
+        <v>147.5</v>
       </c>
     </row>
     <row r="711" ht="14.25">
@@ -10607,7 +10604,7 @@
         <v>708</v>
       </c>
       <c r="C711" s="10">
-        <v>147.5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="712" ht="14.25">
@@ -10618,7 +10615,7 @@
         <v>709</v>
       </c>
       <c r="C712" s="10">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="713" ht="14.25">
@@ -10629,7 +10626,7 @@
         <v>710</v>
       </c>
       <c r="C713" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="714" ht="14.25">
@@ -10640,7 +10637,7 @@
         <v>711</v>
       </c>
       <c r="C714" s="10">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="715" ht="14.25">
@@ -10651,7 +10648,7 @@
         <v>712</v>
       </c>
       <c r="C715" s="10">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="716" ht="14.25">
@@ -10662,7 +10659,7 @@
         <v>713</v>
       </c>
       <c r="C716" s="10">
-        <v>15</v>
+        <v>80</v>
       </c>
     </row>
     <row r="717" ht="14.25">
@@ -10673,7 +10670,7 @@
         <v>714</v>
       </c>
       <c r="C717" s="10">
-        <v>80</v>
+        <v>3</v>
       </c>
     </row>
     <row r="718" ht="14.25">
@@ -10684,7 +10681,7 @@
         <v>715</v>
       </c>
       <c r="C718" s="10">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="719" ht="14.25">
@@ -10695,19 +10692,13 @@
         <v>716</v>
       </c>
       <c r="C719" s="10">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="720" ht="14.25">
-      <c r="A720" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B720" s="9" t="s">
-        <v>717</v>
-      </c>
-      <c r="C720" s="10">
-        <v>57</v>
-      </c>
+      <c r="A720" s="1"/>
+      <c r="B720" s="2"/>
+      <c r="C720" s="3"/>
     </row>
     <row r="721" ht="14.25">
       <c r="A721" s="1"/>
@@ -11219,14 +11210,9 @@
       <c r="B822" s="2"/>
       <c r="C822" s="3"/>
     </row>
-    <row r="823" ht="14.25">
-      <c r="A823" s="1"/>
-      <c r="B823" s="2"/>
-      <c r="C823" s="3"/>
-    </row>
   </sheetData>
-  <sortState ref="A2:C720" columnSort="0">
-    <sortCondition sortBy="value" descending="0" ref="B2:B720"/>
+  <sortState ref="A2:C719" columnSort="0">
+    <sortCondition sortBy="value" descending="0" ref="B2:B719"/>
   </sortState>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>

--- a/colaborador/sistemas/orcamento/valores_exames_samvida.xlsx
+++ b/colaborador/sistemas/orcamento/valores_exames_samvida.xlsx
@@ -2775,7 +2775,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A149" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A141" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4609,7 +4609,7 @@
         <v>167</v>
       </c>
       <c r="C166" s="8">
-        <v>281</v>
+        <v>410</v>
       </c>
     </row>
     <row r="167" ht="14.25">

--- a/colaborador/sistemas/orcamento/valores_exames_samvida.xlsx
+++ b/colaborador/sistemas/orcamento/valores_exames_samvida.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="769">
   <si>
     <t>Local</t>
   </si>
@@ -2164,6 +2164,162 @@
   </si>
   <si>
     <t xml:space="preserve">INDICE TIROXINA LIVRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instituto de Diagnóstico da Mulher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG ABDOME S/ DOPPLER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG ABDOME C/ DOPPLER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG ABDOME SUPERIOR S/ DOPPLER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG HIPOCONDRIO S/ DOPPLER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG TIREOIDE S/ DOPPLER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG TIREOIDE C/ DOPPLER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG REGIAO CEVICAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG TRAPEZIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG MUSCULO ESQUELETICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG BRAÇO D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG BRAÇO E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG ANTE BRACO D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG ANTE BRACO E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG COXA D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG COXA E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG PERNA D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG PERNA E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG OMBRO D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG OMBRO E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG COTOVELO D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG COTOVELO E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG PUNHO D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG PUNHO E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG QUADRIL D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG QUADRIL E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG JOELHO D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG JOELHO E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG TORNOZELO D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG TORNOZELO E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG PE D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG PE E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG MAMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG AXILA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG PARTES MOLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG TESTÍCULO S/ DOPPLER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG TESTÍCULO C/ DOPPLER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG PROSTATA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG PELVICA GINECOLOGICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG TRANSVAGINAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG PAREDE ABDOMINAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG REGIAO INGUINAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG PELVICA + TRANSVAGINAL S/ DOPPLER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG PELVICA + TRANSVAGINAL C/ DOPPLER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG OBTETRICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG DOPPLER OBSTETRICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG MORFOLOGICO 1 E 2 SEMESTRES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG CERVICOMETRIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG 3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG PROSTATA TRANSRETAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG VASOS CERVICAIS</t>
+  </si>
+  <si>
+    <t>COLPOSCOPIA</t>
   </si>
 </sst>
 </file>
@@ -2241,7 +2397,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
@@ -2268,6 +2424,7 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2775,7 +2932,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A141" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A744" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -10696,264 +10853,576 @@
       </c>
     </row>
     <row r="720" ht="14.25">
-      <c r="A720" s="1"/>
-      <c r="B720" s="2"/>
-      <c r="C720" s="3"/>
+      <c r="A720" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B720" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="C720" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="721" ht="14.25">
-      <c r="A721" s="1"/>
-      <c r="B721" s="2"/>
-      <c r="C721" s="3"/>
+      <c r="A721" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B721" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="C721" s="3">
+        <v>210</v>
+      </c>
     </row>
     <row r="722" ht="14.25">
-      <c r="A722" s="1"/>
-      <c r="B722" s="2"/>
-      <c r="C722" s="3"/>
+      <c r="A722" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B722" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="C722" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="723" ht="14.25">
-      <c r="A723" s="1"/>
-      <c r="B723" s="2"/>
-      <c r="C723" s="3"/>
+      <c r="A723" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B723" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="C723" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="724" ht="14.25">
-      <c r="A724" s="1"/>
-      <c r="B724" s="2"/>
-      <c r="C724" s="3"/>
+      <c r="A724" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B724" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="C724" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="725" ht="14.25">
-      <c r="A725" s="1"/>
-      <c r="B725" s="2"/>
-      <c r="C725" s="3"/>
+      <c r="A725" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B725" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="C725" s="3">
+        <v>140</v>
+      </c>
     </row>
     <row r="726" ht="14.25">
-      <c r="A726" s="1"/>
-      <c r="B726" s="2"/>
-      <c r="C726" s="3"/>
+      <c r="A726" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B726" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="C726" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="727" ht="14.25">
-      <c r="A727" s="1"/>
-      <c r="B727" s="2"/>
-      <c r="C727" s="3"/>
+      <c r="A727" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B727" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="C727" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="728" ht="14.25">
-      <c r="A728" s="1"/>
-      <c r="B728" s="2"/>
-      <c r="C728" s="3"/>
+      <c r="A728" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B728" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="C728" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="729" ht="14.25">
-      <c r="A729" s="1"/>
-      <c r="B729" s="2"/>
-      <c r="C729" s="3"/>
+      <c r="A729" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B729" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="C729" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="730" ht="14.25">
-      <c r="A730" s="1"/>
-      <c r="B730" s="2"/>
-      <c r="C730" s="3"/>
+      <c r="A730" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B730" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="C730" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="731" ht="14.25">
-      <c r="A731" s="1"/>
-      <c r="B731" s="2"/>
-      <c r="C731" s="3"/>
+      <c r="A731" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B731" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="C731" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="732" ht="14.25">
-      <c r="A732" s="1"/>
-      <c r="B732" s="2"/>
-      <c r="C732" s="3"/>
+      <c r="A732" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B732" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="C732" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="733" ht="14.25">
-      <c r="A733" s="1"/>
-      <c r="B733" s="2"/>
-      <c r="C733" s="3"/>
+      <c r="A733" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B733" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="C733" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="734" ht="14.25">
-      <c r="A734" s="1"/>
-      <c r="B734" s="2"/>
-      <c r="C734" s="3"/>
+      <c r="A734" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B734" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="C734" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="735" ht="14.25">
-      <c r="A735" s="1"/>
-      <c r="B735" s="2"/>
-      <c r="C735" s="3"/>
+      <c r="A735" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B735" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="C735" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="736" ht="14.25">
-      <c r="A736" s="1"/>
-      <c r="B736" s="2"/>
-      <c r="C736" s="3"/>
+      <c r="A736" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B736" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C736" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="737" ht="14.25">
-      <c r="A737" s="1"/>
-      <c r="B737" s="2"/>
-      <c r="C737" s="3"/>
+      <c r="A737" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B737" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="C737" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="738" ht="14.25">
-      <c r="A738" s="1"/>
-      <c r="B738" s="2"/>
-      <c r="C738" s="3"/>
+      <c r="A738" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B738" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="C738" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="739" ht="14.25">
-      <c r="A739" s="1"/>
-      <c r="B739" s="2"/>
-      <c r="C739" s="3"/>
+      <c r="A739" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B739" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="C739" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="740" ht="14.25">
-      <c r="A740" s="1"/>
-      <c r="B740" s="2"/>
-      <c r="C740" s="3"/>
+      <c r="A740" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B740" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="C740" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="741" ht="14.25">
-      <c r="A741" s="1"/>
-      <c r="B741" s="2"/>
-      <c r="C741" s="3"/>
+      <c r="A741" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B741" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="C741" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="742" ht="14.25">
-      <c r="A742" s="1"/>
-      <c r="B742" s="2"/>
-      <c r="C742" s="3"/>
+      <c r="A742" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B742" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="C742" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="743" ht="14.25">
-      <c r="A743" s="1"/>
-      <c r="B743" s="2"/>
-      <c r="C743" s="3"/>
+      <c r="A743" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B743" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C743" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="744" ht="14.25">
-      <c r="A744" s="1"/>
-      <c r="B744" s="2"/>
-      <c r="C744" s="3"/>
+      <c r="A744" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B744" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C744" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="745" ht="14.25">
-      <c r="A745" s="1"/>
-      <c r="B745" s="2"/>
-      <c r="C745" s="3"/>
+      <c r="A745" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B745" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C745" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="746" ht="14.25">
-      <c r="A746" s="1"/>
-      <c r="B746" s="2"/>
-      <c r="C746" s="3"/>
+      <c r="A746" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B746" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C746" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="747" ht="14.25">
-      <c r="A747" s="1"/>
-      <c r="B747" s="2"/>
-      <c r="C747" s="3"/>
+      <c r="A747" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B747" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C747" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="748" ht="14.25">
-      <c r="A748" s="1"/>
-      <c r="B748" s="2"/>
-      <c r="C748" s="3"/>
+      <c r="A748" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B748" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C748" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="749" ht="14.25">
-      <c r="A749" s="1"/>
-      <c r="B749" s="2"/>
-      <c r="C749" s="3"/>
+      <c r="A749" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B749" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C749" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="750" ht="14.25">
-      <c r="A750" s="1"/>
-      <c r="B750" s="2"/>
-      <c r="C750" s="3"/>
+      <c r="A750" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B750" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C750" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="751" ht="14.25">
-      <c r="A751" s="1"/>
-      <c r="B751" s="2"/>
-      <c r="C751" s="3"/>
+      <c r="A751" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B751" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C751" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="752" ht="14.25">
-      <c r="A752" s="1"/>
-      <c r="B752" s="2"/>
-      <c r="C752" s="3"/>
+      <c r="A752" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B752" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C752" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="753" ht="14.25">
-      <c r="A753" s="1"/>
-      <c r="B753" s="2"/>
-      <c r="C753" s="3"/>
+      <c r="A753" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B753" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C753" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="754" ht="14.25">
-      <c r="A754" s="1"/>
-      <c r="B754" s="2"/>
-      <c r="C754" s="3"/>
+      <c r="A754" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B754" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C754" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="755" ht="14.25">
-      <c r="A755" s="1"/>
-      <c r="B755" s="2"/>
-      <c r="C755" s="3"/>
+      <c r="A755" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B755" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="C755" s="3">
+        <v>140</v>
+      </c>
     </row>
     <row r="756" ht="14.25">
-      <c r="A756" s="1"/>
-      <c r="B756" s="2"/>
-      <c r="C756" s="3"/>
+      <c r="A756" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B756" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="C756" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="757" ht="14.25">
-      <c r="A757" s="1"/>
-      <c r="B757" s="2"/>
-      <c r="C757" s="3"/>
+      <c r="A757" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B757" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="C757" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="758" ht="14.25">
-      <c r="A758" s="1"/>
-      <c r="B758" s="2"/>
-      <c r="C758" s="3"/>
+      <c r="A758" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B758" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="C758" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="759" ht="14.25">
-      <c r="A759" s="1"/>
-      <c r="B759" s="2"/>
-      <c r="C759" s="3"/>
+      <c r="A759" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B759" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="C759" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="760" ht="14.25">
-      <c r="A760" s="1"/>
-      <c r="B760" s="2"/>
-      <c r="C760" s="3"/>
+      <c r="A760" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B760" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="C760" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="761" ht="14.25">
-      <c r="A761" s="1"/>
-      <c r="B761" s="2"/>
-      <c r="C761" s="3"/>
+      <c r="A761" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B761" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="C761" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="762" ht="14.25">
-      <c r="A762" s="1"/>
-      <c r="B762" s="2"/>
-      <c r="C762" s="3"/>
+      <c r="A762" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B762" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="C762" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="763" ht="14.25">
-      <c r="A763" s="1"/>
-      <c r="B763" s="2"/>
-      <c r="C763" s="3"/>
+      <c r="A763" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B763" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="C763" s="3">
+        <v>160</v>
+      </c>
     </row>
     <row r="764" ht="14.25">
-      <c r="A764" s="1"/>
-      <c r="B764" s="2"/>
-      <c r="C764" s="3"/>
+      <c r="A764" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B764" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="C764" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="765" ht="14.25">
-      <c r="A765" s="1"/>
-      <c r="B765" s="2"/>
-      <c r="C765" s="3"/>
+      <c r="A765" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B765" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="C765" s="3">
+        <v>160</v>
+      </c>
     </row>
     <row r="766" ht="14.25">
-      <c r="A766" s="1"/>
-      <c r="B766" s="2"/>
-      <c r="C766" s="3"/>
+      <c r="A766" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B766" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="C766" s="3">
+        <v>160</v>
+      </c>
     </row>
     <row r="767" ht="14.25">
-      <c r="A767" s="1"/>
-      <c r="B767" s="2"/>
-      <c r="C767" s="3"/>
+      <c r="A767" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B767" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="C767" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="768" ht="14.25">
-      <c r="A768" s="1"/>
-      <c r="B768" s="2"/>
-      <c r="C768" s="3"/>
+      <c r="A768" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B768" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="C768" s="3">
+        <v>210</v>
+      </c>
     </row>
     <row r="769" ht="14.25">
-      <c r="A769" s="1"/>
-      <c r="B769" s="2"/>
-      <c r="C769" s="3"/>
+      <c r="A769" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B769" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="C769" s="3">
+        <v>210</v>
+      </c>
     </row>
     <row r="770" ht="14.25">
-      <c r="A770" s="1"/>
-      <c r="B770" s="2"/>
-      <c r="C770" s="3"/>
+      <c r="A770" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B770" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="C770" s="3">
+        <v>310</v>
+      </c>
     </row>
     <row r="771" ht="14.25">
-      <c r="A771" s="1"/>
-      <c r="B771" s="2"/>
-      <c r="C771" s="3"/>
+      <c r="A771" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B771" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="C771" s="3">
+        <v>90</v>
+      </c>
     </row>
     <row r="772" ht="14.25">
       <c r="A772" s="1"/>

--- a/colaborador/sistemas/orcamento/valores_exames_samvida.xlsx
+++ b/colaborador/sistemas/orcamento/valores_exames_samvida.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="785">
   <si>
     <t xml:space="preserve">Local</t>
   </si>
@@ -2083,6 +2083,25 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">(Dra. JULIANA)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">USG ABDOME SUPERIOR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
@@ -2111,6 +2130,25 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">USG ABDOME TOTAL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">(Dra. JULIANA)</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">USG ABDOME TOTAL (CMBS)</t>
   </si>
   <si>
@@ -2186,6 +2224,25 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">(Dra. JULIANA)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">USG ENDOVAGINAL + PELVICA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
@@ -2226,6 +2283,25 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">(Dra. JULIANA)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">USG MAMAS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
@@ -2334,21 +2410,58 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">USG TIREOIDE (CMBS)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">USG TIREOIDE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">(Dra. JULIANA)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">USG VIAS URINARIAS </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">(Dra. JULIANA)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">USG VIAS URINARIAS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
@@ -2389,107 +2502,271 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">(Dra. JULIANA)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">USG CERVICAL / PESCOÇO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">(Dra. JULIANA)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">USG OMBRO E </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">(Dra. JULIANA)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">USG OMBRO D </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">(Dra. JULIANA)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">USG JOELHO E </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">(Dra. JULIANA)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">USG PUNHO E </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">(Dra. JULIANA)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">USG PUNHO D </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">(Dra. JULIANA)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">USG COTOVELO E </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">(Dra. JULIANA)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">USG PE E </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">(Dra. JULIANA)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">USG MAO E </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">(Dra. JULIANA)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">USG TORNOZELO (Dra. JULIANA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARICELA ZOSTER - Anticorpos IgG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARICELA ZOSTER - Anticorpos IgM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VASOPRESSINA - antidiuretico - AD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VELOCIDADE DE HEMOSSEDIMENTACAO - VHS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VITAMINA A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VITAMINA B12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VITAMINA B6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VITAMINA C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VITAMINA D - 25 HIDROXI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VITAMINA E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZINCO SERICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACIDO LATICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACIDO VANIL MANDELICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACIDO URICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDICE DE SATURAÇÃO DA TRANSFERRINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDICE TIROXINA LIVRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instituto de Diagnóstico da Mulher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG ABDOME S/ DOPPLER (Dr. MOARCY)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">(CMBS)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">USG CERVICAL / PESCOÇO (CMBS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USG OMBRO E (CMBS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USG OMBRO D (CMBS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USG JOELHO E (CMBS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USG PUNHO E (CMBS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USG PUNHO D (CMBS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USG COTOVELO E (CMBS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USG PE E (CMBS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USG MAO E (CMBS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USG TORNOZELO (CMBS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARICELA ZOSTER - Anticorpos IgG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARICELA ZOSTER - Anticorpos IgM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VASOPRESSINA - antidiuretico - AD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VELOCIDADE DE HEMOSSEDIMENTACAO - VHS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VITAMINA A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VITAMINA B12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VITAMINA B6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VITAMINA C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VITAMINA D - 25 HIDROXI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VITAMINA E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZINCO SERICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACIDO LATICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACIDO VANIL MANDELICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACIDO URICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INDICE DE SATURAÇÃO DA TRANSFERRINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INDICE TIROXINA LIVRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instituto de Diagnóstico da Mulher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USG ABDOME S/ DOPPLER (IDM)</t>
-  </si>
-  <si>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">USG ABDOME C/ DOPPLER </t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">(Dr. MOARCY)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USG ABDOME C/ DOPPLER </t>
+      <t xml:space="preserve">USG ABDOME SUPERIOR S/ DOPPLER </t>
     </r>
     <r>
       <rPr>
@@ -2498,7 +2775,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">(IDM)</t>
+      <t xml:space="preserve">(Dr. MOARCY)</t>
     </r>
   </si>
   <si>
@@ -2510,7 +2787,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USG ABDOME SUPERIOR S/ DOPPLER </t>
+      <t xml:space="preserve">USG HIPOCONDRIO S/ DOPPLER </t>
     </r>
     <r>
       <rPr>
@@ -2519,7 +2796,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">(IDM)</t>
+      <t xml:space="preserve">(Dr. MOARCY)</t>
     </r>
   </si>
   <si>
@@ -2531,7 +2808,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USG HIPOCONDRIO S/ DOPPLER </t>
+      <t xml:space="preserve">USG TIREOIDE S/ DOPPLER </t>
     </r>
     <r>
       <rPr>
@@ -2540,7 +2817,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">(IDM)</t>
+      <t xml:space="preserve">(Dr. MOARCY)</t>
     </r>
   </si>
   <si>
@@ -2552,7 +2829,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USG TIREOIDE S/ DOPPLER </t>
+      <t xml:space="preserve">USG TIREOIDE C/ DOPPLER </t>
     </r>
     <r>
       <rPr>
@@ -2561,7 +2838,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">(IDM)</t>
+      <t xml:space="preserve">(Dr. MOARCY)</t>
     </r>
   </si>
   <si>
@@ -2573,7 +2850,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USG TIREOIDE C/ DOPPLER </t>
+      <t xml:space="preserve">USG REGIAO CEVICAL </t>
     </r>
     <r>
       <rPr>
@@ -2582,7 +2859,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">(IDM)</t>
+      <t xml:space="preserve">(Dr. MOARCY)</t>
     </r>
   </si>
   <si>
@@ -2594,7 +2871,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USG REGIAO CEVICAL </t>
+      <t xml:space="preserve">USG TRAPEZIO </t>
     </r>
     <r>
       <rPr>
@@ -2603,7 +2880,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">(IDM)</t>
+      <t xml:space="preserve">(Dr. MOARCY)</t>
     </r>
   </si>
   <si>
@@ -2615,7 +2892,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USG TRAPEZIO </t>
+      <t xml:space="preserve">USG MUSCULO ESQUELETICO </t>
     </r>
     <r>
       <rPr>
@@ -2624,7 +2901,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">(IDM)</t>
+      <t xml:space="preserve">(Dr. MOARCY)</t>
     </r>
   </si>
   <si>
@@ -2636,7 +2913,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USG MUSCULO ESQUELETICO </t>
+      <t xml:space="preserve">USG BRAÇO D </t>
     </r>
     <r>
       <rPr>
@@ -2645,7 +2922,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">(IDM)</t>
+      <t xml:space="preserve">(Dr. MOARCY)</t>
     </r>
   </si>
   <si>
@@ -2657,7 +2934,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USG BRAÇO D </t>
+      <t xml:space="preserve">USG BRAÇO E </t>
     </r>
     <r>
       <rPr>
@@ -2666,7 +2943,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">(IDM)</t>
+      <t xml:space="preserve">(Dr. MOARCY)</t>
     </r>
   </si>
   <si>
@@ -2678,7 +2955,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USG BRAÇO E </t>
+      <t xml:space="preserve">USG ANTE BRACO D </t>
     </r>
     <r>
       <rPr>
@@ -2687,7 +2964,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">(IDM)</t>
+      <t xml:space="preserve">(Dr. MOARCY)</t>
     </r>
   </si>
   <si>
@@ -2699,7 +2976,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USG ANTE BRACO D </t>
+      <t xml:space="preserve">USG ANTE BRACO E </t>
     </r>
     <r>
       <rPr>
@@ -2708,7 +2985,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">(IDM)</t>
+      <t xml:space="preserve">(Dr. MOARCY)</t>
     </r>
   </si>
   <si>
@@ -2720,7 +2997,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USG ANTE BRACO E </t>
+      <t xml:space="preserve">USG COXA D </t>
     </r>
     <r>
       <rPr>
@@ -2729,7 +3006,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">(IDM)</t>
+      <t xml:space="preserve">(Dr. MOARCY)</t>
     </r>
   </si>
   <si>
@@ -2741,7 +3018,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USG COXA D </t>
+      <t xml:space="preserve">USG COXA E </t>
     </r>
     <r>
       <rPr>
@@ -2750,7 +3027,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">(IDM)</t>
+      <t xml:space="preserve">(Dr. MOARCY)</t>
     </r>
   </si>
   <si>
@@ -2762,7 +3039,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USG COXA E </t>
+      <t xml:space="preserve">USG PERNA D </t>
     </r>
     <r>
       <rPr>
@@ -2771,7 +3048,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">(IDM)</t>
+      <t xml:space="preserve">(Dr. MOARCY)</t>
     </r>
   </si>
   <si>
@@ -2783,7 +3060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USG PERNA D </t>
+      <t xml:space="preserve">USG PERNA E </t>
     </r>
     <r>
       <rPr>
@@ -2792,7 +3069,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">(IDM)</t>
+      <t xml:space="preserve">(Dr. MOARCY)</t>
     </r>
   </si>
   <si>
@@ -2804,7 +3081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USG PERNA E </t>
+      <t xml:space="preserve">USG OMBRO D </t>
     </r>
     <r>
       <rPr>
@@ -2813,7 +3090,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">(IDM)</t>
+      <t xml:space="preserve">(Dr. MOARCY)</t>
     </r>
   </si>
   <si>
@@ -2825,7 +3102,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USG OMBRO D </t>
+      <t xml:space="preserve">USG OMBRO E </t>
     </r>
     <r>
       <rPr>
@@ -2834,7 +3111,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">(IDM)</t>
+      <t xml:space="preserve">(Dr. MOARCY)</t>
     </r>
   </si>
   <si>
@@ -2846,7 +3123,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USG OMBRO E </t>
+      <t xml:space="preserve">USG COTOVELO D </t>
     </r>
     <r>
       <rPr>
@@ -2855,7 +3132,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">(IDM)</t>
+      <t xml:space="preserve">(Dr. MOARCY)</t>
     </r>
   </si>
   <si>
@@ -2867,7 +3144,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USG COTOVELO D </t>
+      <t xml:space="preserve">USG COTOVELO E </t>
     </r>
     <r>
       <rPr>
@@ -2876,7 +3153,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">(IDM)</t>
+      <t xml:space="preserve">(Dr. MOARCY)</t>
     </r>
   </si>
   <si>
@@ -2888,7 +3165,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USG COTOVELO E </t>
+      <t xml:space="preserve">USG PUNHO D </t>
     </r>
     <r>
       <rPr>
@@ -2897,7 +3174,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">(IDM)</t>
+      <t xml:space="preserve">(Dr. MOARCY)</t>
     </r>
   </si>
   <si>
@@ -2909,7 +3186,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USG PUNHO D </t>
+      <t xml:space="preserve">USG PUNHO E </t>
     </r>
     <r>
       <rPr>
@@ -2918,7 +3195,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">(IDM)</t>
+      <t xml:space="preserve">(Dr. MOARCY)</t>
     </r>
   </si>
   <si>
@@ -2930,7 +3207,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USG PUNHO E </t>
+      <t xml:space="preserve">USG QUADRIL D </t>
     </r>
     <r>
       <rPr>
@@ -2939,7 +3216,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">(IDM)</t>
+      <t xml:space="preserve">(Dr. MOARCY)</t>
     </r>
   </si>
   <si>
@@ -2951,7 +3228,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USG QUADRIL D </t>
+      <t xml:space="preserve">USG QUADRIL E </t>
     </r>
     <r>
       <rPr>
@@ -2960,7 +3237,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">(IDM)</t>
+      <t xml:space="preserve">(Dr. MOARCY)</t>
     </r>
   </si>
   <si>
@@ -2972,7 +3249,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USG QUADRIL E </t>
+      <t xml:space="preserve">USG JOELHO D </t>
     </r>
     <r>
       <rPr>
@@ -2981,7 +3258,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">(IDM)</t>
+      <t xml:space="preserve">(Dr. MOARCY)</t>
     </r>
   </si>
   <si>
@@ -2993,7 +3270,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USG JOELHO D </t>
+      <t xml:space="preserve">USG JOELHO E </t>
     </r>
     <r>
       <rPr>
@@ -3002,7 +3279,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">(IDM)</t>
+      <t xml:space="preserve">(Dr. MOARCY)</t>
     </r>
   </si>
   <si>
@@ -3014,7 +3291,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USG JOELHO E </t>
+      <t xml:space="preserve">USG TORNOZELO D </t>
     </r>
     <r>
       <rPr>
@@ -3023,7 +3300,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">(IDM)</t>
+      <t xml:space="preserve">(Dr. MOARCY)</t>
     </r>
   </si>
   <si>
@@ -3035,7 +3312,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USG TORNOZELO D </t>
+      <t xml:space="preserve">USG TORNOZELO E </t>
     </r>
     <r>
       <rPr>
@@ -3044,7 +3321,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">(IDM)</t>
+      <t xml:space="preserve">(Dr. MOARCY)</t>
     </r>
   </si>
   <si>
@@ -3056,7 +3333,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USG TORNOZELO E </t>
+      <t xml:space="preserve">USG PE D  </t>
     </r>
     <r>
       <rPr>
@@ -3065,7 +3342,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">(IDM)</t>
+      <t xml:space="preserve">(Dr. MOARCY)</t>
     </r>
   </si>
   <si>
@@ -3077,7 +3354,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USG PE D  </t>
+      <t xml:space="preserve">USG PE E </t>
     </r>
     <r>
       <rPr>
@@ -3086,7 +3363,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">(IDM)</t>
+      <t xml:space="preserve">(Dr. MOARCY)</t>
     </r>
   </si>
   <si>
@@ -3098,7 +3375,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USG PE E </t>
+      <t xml:space="preserve">USG MAMA </t>
     </r>
     <r>
       <rPr>
@@ -3107,7 +3384,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">(IDM)</t>
+      <t xml:space="preserve">(Dr. MOARCY)</t>
     </r>
   </si>
   <si>
@@ -3119,7 +3396,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USG MAMA </t>
+      <t xml:space="preserve">USG AXILA </t>
     </r>
     <r>
       <rPr>
@@ -3128,7 +3405,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">(IDM)</t>
+      <t xml:space="preserve">(Dr. MOARCY)</t>
     </r>
   </si>
   <si>
@@ -3140,7 +3417,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USG AXILA </t>
+      <t xml:space="preserve">USG PARTES MOLES </t>
     </r>
     <r>
       <rPr>
@@ -3149,7 +3426,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">(IDM)</t>
+      <t xml:space="preserve">(Dr. MOARCY)</t>
     </r>
   </si>
   <si>
@@ -3161,7 +3438,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USG PARTES MOLES </t>
+      <t xml:space="preserve">USG TESTÍCULO S/ DOPPLER </t>
     </r>
     <r>
       <rPr>
@@ -3170,7 +3447,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">(IDM)</t>
+      <t xml:space="preserve">(Dr. MOARCY)</t>
     </r>
   </si>
   <si>
@@ -3182,7 +3459,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USG TESTÍCULO S/ DOPPLER </t>
+      <t xml:space="preserve">USG TESTÍCULO C/ DOPPLER </t>
     </r>
     <r>
       <rPr>
@@ -3191,7 +3468,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">(IDM)</t>
+      <t xml:space="preserve">(Dr. MOARCY)</t>
     </r>
   </si>
   <si>
@@ -3203,7 +3480,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USG TESTÍCULO C/ DOPPLER </t>
+      <t xml:space="preserve">USG PROSTATA </t>
     </r>
     <r>
       <rPr>
@@ -3212,7 +3489,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">(IDM)</t>
+      <t xml:space="preserve">(Dr. MOARCY)</t>
     </r>
   </si>
   <si>
@@ -3224,7 +3501,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USG PROSTATA </t>
+      <t xml:space="preserve">USG PELVICA GINECOLOGICA </t>
     </r>
     <r>
       <rPr>
@@ -3233,7 +3510,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">(IDM)</t>
+      <t xml:space="preserve">(Dr. MOARCY)</t>
     </r>
   </si>
   <si>
@@ -3245,7 +3522,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USG PELVICA GINECOLOGICA </t>
+      <t xml:space="preserve">USG TRANSVAGINAL </t>
     </r>
     <r>
       <rPr>
@@ -3254,7 +3531,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">(IDM)</t>
+      <t xml:space="preserve">(Dr. MOARCY)</t>
     </r>
   </si>
   <si>
@@ -3266,7 +3543,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USG TRANSVAGINAL </t>
+      <t xml:space="preserve">USG VIAS URINARIAS DOPPLER </t>
     </r>
     <r>
       <rPr>
@@ -3275,7 +3552,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">(IDM)</t>
+      <t xml:space="preserve">(Dr. MOARCY)</t>
     </r>
   </si>
   <si>
@@ -3287,7 +3564,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USG VIAS URINARIAS DOPPLER </t>
+      <t xml:space="preserve">USG PAREDE ABDOMINAL </t>
     </r>
     <r>
       <rPr>
@@ -3296,7 +3573,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">(IDM)</t>
+      <t xml:space="preserve">(Dr. MOARCY)</t>
     </r>
   </si>
   <si>
@@ -3308,7 +3585,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USG PAREDE ABDOMINAL </t>
+      <t xml:space="preserve">USG REGIAO INGUINAL </t>
     </r>
     <r>
       <rPr>
@@ -3317,7 +3594,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">(IDM)</t>
+      <t xml:space="preserve">(Dr. MOARCY)</t>
     </r>
   </si>
   <si>
@@ -3329,7 +3606,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USG REGIAO INGUINAL </t>
+      <t xml:space="preserve">USG PELVICA + TRANSVAGINAL S/ DOPPLER </t>
     </r>
     <r>
       <rPr>
@@ -3338,7 +3615,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">(IDM)</t>
+      <t xml:space="preserve">(Dr. MOARCY)</t>
     </r>
   </si>
   <si>
@@ -3350,7 +3627,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USG PELVICA + TRANSVAGINAL S/ DOPPLER </t>
+      <t xml:space="preserve">USG PELVICA + TRANSVAGINAL C/ DOPPLER </t>
     </r>
     <r>
       <rPr>
@@ -3359,7 +3636,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">(IDM)</t>
+      <t xml:space="preserve">(Dr. MOARCY)</t>
     </r>
   </si>
   <si>
@@ -3371,7 +3648,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USG PELVICA + TRANSVAGINAL C/ DOPPLER </t>
+      <t xml:space="preserve">USG OBTETRICO </t>
     </r>
     <r>
       <rPr>
@@ -3380,7 +3657,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">(IDM)</t>
+      <t xml:space="preserve">(Dr. MOARCY)</t>
     </r>
   </si>
   <si>
@@ -3392,7 +3669,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USG OBTETRICO </t>
+      <t xml:space="preserve">USG DOPPLER OBSTETRICO </t>
     </r>
     <r>
       <rPr>
@@ -3401,7 +3678,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">(IDM)</t>
+      <t xml:space="preserve">(Dr. MOARCY)</t>
     </r>
   </si>
   <si>
@@ -3413,7 +3690,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USG DOPPLER OBSTETRICO </t>
+      <t xml:space="preserve">USG MORFOLOGICO 1 E 2 SEMESTRES </t>
     </r>
     <r>
       <rPr>
@@ -3422,7 +3699,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">(IDM)</t>
+      <t xml:space="preserve">(Dr. MOARCY)</t>
     </r>
   </si>
   <si>
@@ -3434,7 +3711,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USG MORFOLOGICO 1 E 2 SEMESTRES </t>
+      <t xml:space="preserve">USG CERVICOMETRIA </t>
     </r>
     <r>
       <rPr>
@@ -3443,7 +3720,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">(IDM)</t>
+      <t xml:space="preserve">(Dr. MOARCY)</t>
     </r>
   </si>
   <si>
@@ -3455,7 +3732,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USG CERVICOMETRIA </t>
+      <t xml:space="preserve">USG 3D </t>
     </r>
     <r>
       <rPr>
@@ -3464,7 +3741,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">(IDM)</t>
+      <t xml:space="preserve">(Dr. MOARCY)</t>
     </r>
   </si>
   <si>
@@ -3476,7 +3753,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USG 3D </t>
+      <t xml:space="preserve">USG PROSTATA TRANSRETAL </t>
     </r>
     <r>
       <rPr>
@@ -3485,7 +3762,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">(IDM)</t>
+      <t xml:space="preserve">(Dr. MOARCY)</t>
     </r>
   </si>
   <si>
@@ -3497,7 +3774,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USG PROSTATA TRANSRETAL </t>
+      <t xml:space="preserve">USG VASOS CERVICAIS </t>
     </r>
     <r>
       <rPr>
@@ -3506,7 +3783,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">(IDM)</t>
+      <t xml:space="preserve">(Dr. MOARCY)</t>
     </r>
   </si>
   <si>
@@ -3518,7 +3795,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">USG VASOS CERVICAIS </t>
+      <t xml:space="preserve">COLPOSCOPIA </t>
     </r>
     <r>
       <rPr>
@@ -3527,28 +3804,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">(IDM)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">COLPOSCOPIA </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">(IDM)</t>
+      <t xml:space="preserve">(Dr. MOARCY)</t>
     </r>
   </si>
 </sst>
@@ -3805,8 +4061,8 @@
   </sheetPr>
   <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A690" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D715" activeCellId="0" sqref="D715"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A681" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B689" activeCellId="0" sqref="B689"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11367,7 +11623,7 @@
         <v>3</v>
       </c>
       <c r="B687" s="8" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C687" s="9" t="n">
         <v>66</v>
@@ -11378,7 +11634,7 @@
         <v>3</v>
       </c>
       <c r="B688" s="8" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C688" s="9" t="n">
         <v>106</v>
@@ -11389,7 +11645,7 @@
         <v>3</v>
       </c>
       <c r="B689" s="8" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C689" s="9" t="n">
         <v>120</v>
@@ -11400,7 +11656,7 @@
         <v>3</v>
       </c>
       <c r="B690" s="8" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C690" s="9" t="n">
         <v>86</v>
@@ -11411,7 +11667,7 @@
         <v>3</v>
       </c>
       <c r="B691" s="8" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C691" s="9" t="n">
         <v>126</v>
@@ -11422,7 +11678,7 @@
         <v>3</v>
       </c>
       <c r="B692" s="8" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C692" s="9" t="n">
         <v>66</v>
@@ -11433,7 +11689,7 @@
         <v>3</v>
       </c>
       <c r="B693" s="8" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="C693" s="9" t="n">
         <v>106</v>
@@ -11444,7 +11700,7 @@
         <v>3</v>
       </c>
       <c r="B694" s="8" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C694" s="9" t="n">
         <v>80</v>
@@ -11455,7 +11711,7 @@
         <v>3</v>
       </c>
       <c r="B695" s="8" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="C695" s="9" t="n">
         <v>66</v>
@@ -11466,7 +11722,7 @@
         <v>3</v>
       </c>
       <c r="B696" s="8" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="C696" s="9" t="n">
         <v>66</v>
@@ -11477,7 +11733,7 @@
         <v>3</v>
       </c>
       <c r="B697" s="8" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="C697" s="9" t="n">
         <v>80</v>
@@ -11488,7 +11744,7 @@
         <v>3</v>
       </c>
       <c r="B698" s="8" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="C698" s="9" t="n">
         <v>66</v>
@@ -11499,7 +11755,7 @@
         <v>3</v>
       </c>
       <c r="B699" s="8" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="C699" s="9" t="n">
         <v>106</v>
@@ -11510,7 +11766,7 @@
         <v>3</v>
       </c>
       <c r="B700" s="8" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C700" s="9" t="n">
         <v>66</v>
@@ -11521,7 +11777,7 @@
         <v>3</v>
       </c>
       <c r="B701" s="8" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="C701" s="9" t="n">
         <v>106</v>
@@ -11532,7 +11788,7 @@
         <v>3</v>
       </c>
       <c r="B702" s="8" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="C702" s="9" t="n">
         <v>66</v>
@@ -11543,18 +11799,18 @@
         <v>3</v>
       </c>
       <c r="B703" s="8" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="C703" s="9" t="n">
         <v>106</v>
       </c>
     </row>
-    <row r="704" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B704" s="10" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="C704" s="2" t="n">
         <v>80</v>
@@ -11565,7 +11821,7 @@
         <v>3</v>
       </c>
       <c r="B705" s="8" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="C705" s="9" t="n">
         <v>80</v>
@@ -11576,7 +11832,7 @@
         <v>3</v>
       </c>
       <c r="B706" s="8" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="C706" s="9" t="n">
         <v>66</v>
@@ -11587,7 +11843,7 @@
         <v>3</v>
       </c>
       <c r="B707" s="8" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="C707" s="9" t="n">
         <v>106</v>
@@ -11598,7 +11854,7 @@
         <v>3</v>
       </c>
       <c r="B708" s="8" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="C708" s="9" t="n">
         <v>80</v>
@@ -11609,7 +11865,7 @@
         <v>3</v>
       </c>
       <c r="B709" s="8" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="C709" s="9" t="n">
         <v>80</v>
@@ -11617,7 +11873,7 @@
     </row>
     <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B710" s="8" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="C710" s="9" t="n">
         <v>80</v>
@@ -11628,7 +11884,7 @@
         <v>3</v>
       </c>
       <c r="B711" s="8" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="C711" s="9" t="n">
         <v>80</v>
@@ -11639,7 +11895,7 @@
         <v>3</v>
       </c>
       <c r="B712" s="8" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="C712" s="9" t="n">
         <v>80</v>
@@ -11650,7 +11906,7 @@
         <v>3</v>
       </c>
       <c r="B713" s="8" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="C713" s="9" t="n">
         <v>80</v>
@@ -11661,7 +11917,7 @@
         <v>3</v>
       </c>
       <c r="B714" s="8" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="C714" s="9" t="n">
         <v>80</v>
@@ -11672,7 +11928,7 @@
         <v>3</v>
       </c>
       <c r="B715" s="8" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="C715" s="9" t="n">
         <v>80</v>
@@ -11683,7 +11939,7 @@
         <v>3</v>
       </c>
       <c r="B716" s="8" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="C716" s="9" t="n">
         <v>80</v>
@@ -11694,7 +11950,7 @@
         <v>3</v>
       </c>
       <c r="B717" s="8" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="C717" s="9" t="n">
         <v>80</v>
@@ -11705,7 +11961,7 @@
         <v>3</v>
       </c>
       <c r="B718" s="8" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="C718" s="9" t="n">
         <v>80</v>
@@ -11716,7 +11972,7 @@
         <v>3</v>
       </c>
       <c r="B719" s="8" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="C719" s="9" t="n">
         <v>85</v>
@@ -11727,7 +11983,7 @@
         <v>3</v>
       </c>
       <c r="B720" s="8" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="C720" s="9" t="n">
         <v>85</v>
@@ -11738,7 +11994,7 @@
         <v>3</v>
       </c>
       <c r="B721" s="8" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="C721" s="9" t="n">
         <v>78</v>
@@ -11749,7 +12005,7 @@
         <v>3</v>
       </c>
       <c r="B722" s="8" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="C722" s="9" t="n">
         <v>10</v>
@@ -11760,7 +12016,7 @@
         <v>3</v>
       </c>
       <c r="B723" s="8" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="C723" s="9" t="n">
         <v>100</v>
@@ -11771,7 +12027,7 @@
         <v>3</v>
       </c>
       <c r="B724" s="8" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="C724" s="9" t="n">
         <v>25</v>
@@ -11782,7 +12038,7 @@
         <v>3</v>
       </c>
       <c r="B725" s="8" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="C725" s="9" t="n">
         <v>147.5</v>
@@ -11793,7 +12049,7 @@
         <v>3</v>
       </c>
       <c r="B726" s="8" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="C726" s="9" t="n">
         <v>32</v>
@@ -11804,7 +12060,7 @@
         <v>3</v>
       </c>
       <c r="B727" s="8" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="C727" s="9" t="n">
         <v>30</v>
@@ -11815,7 +12071,7 @@
         <v>3</v>
       </c>
       <c r="B728" s="8" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="C728" s="9" t="n">
         <v>50</v>
@@ -11826,7 +12082,7 @@
         <v>3</v>
       </c>
       <c r="B729" s="8" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="C729" s="9" t="n">
         <v>43</v>
@@ -11837,7 +12093,7 @@
         <v>3</v>
       </c>
       <c r="B730" s="8" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="C730" s="9" t="n">
         <v>15</v>
@@ -11848,7 +12104,7 @@
         <v>3</v>
       </c>
       <c r="B731" s="8" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="C731" s="9" t="n">
         <v>80</v>
@@ -11859,7 +12115,7 @@
         <v>3</v>
       </c>
       <c r="B732" s="8" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="C732" s="9" t="n">
         <v>3</v>
@@ -11870,7 +12126,7 @@
         <v>3</v>
       </c>
       <c r="B733" s="8" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="C733" s="9" t="n">
         <v>23</v>
@@ -11881,7 +12137,7 @@
         <v>3</v>
       </c>
       <c r="B734" s="8" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="C734" s="9" t="n">
         <v>57</v>
@@ -11889,10 +12145,10 @@
     </row>
     <row r="735" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B735" s="1" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="C735" s="2" t="n">
         <v>80</v>
@@ -11900,10 +12156,10 @@
     </row>
     <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B736" s="1" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="C736" s="2" t="n">
         <v>210</v>
@@ -11911,10 +12167,10 @@
     </row>
     <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B737" s="1" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="C737" s="2" t="n">
         <v>80</v>
@@ -11922,10 +12178,10 @@
     </row>
     <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B738" s="1" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="C738" s="2" t="n">
         <v>80</v>
@@ -11933,10 +12189,10 @@
     </row>
     <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B739" s="1" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="C739" s="2" t="n">
         <v>80</v>
@@ -11944,10 +12200,10 @@
     </row>
     <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B740" s="1" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="C740" s="2" t="n">
         <v>140</v>
@@ -11955,10 +12211,10 @@
     </row>
     <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B741" s="1" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="C741" s="2" t="n">
         <v>80</v>
@@ -11966,10 +12222,10 @@
     </row>
     <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B742" s="1" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="C742" s="2" t="n">
         <v>80</v>
@@ -11977,10 +12233,10 @@
     </row>
     <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B743" s="1" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="C743" s="2" t="n">
         <v>80</v>
@@ -11988,10 +12244,10 @@
     </row>
     <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B744" s="1" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="C744" s="2" t="n">
         <v>80</v>
@@ -11999,10 +12255,10 @@
     </row>
     <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B745" s="1" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="C745" s="2" t="n">
         <v>80</v>
@@ -12010,10 +12266,10 @@
     </row>
     <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B746" s="1" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="C746" s="2" t="n">
         <v>80</v>
@@ -12021,10 +12277,10 @@
     </row>
     <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B747" s="1" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="C747" s="2" t="n">
         <v>80</v>
@@ -12032,10 +12288,10 @@
     </row>
     <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B748" s="1" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="C748" s="2" t="n">
         <v>80</v>
@@ -12043,10 +12299,10 @@
     </row>
     <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B749" s="1" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="C749" s="2" t="n">
         <v>80</v>
@@ -12054,10 +12310,10 @@
     </row>
     <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B750" s="1" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="C750" s="2" t="n">
         <v>80</v>
@@ -12065,10 +12321,10 @@
     </row>
     <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B751" s="1" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="C751" s="2" t="n">
         <v>80</v>
@@ -12076,10 +12332,10 @@
     </row>
     <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B752" s="1" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="C752" s="2" t="n">
         <v>80</v>
@@ -12087,10 +12343,10 @@
     </row>
     <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B753" s="1" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="C753" s="2" t="n">
         <v>80</v>
@@ -12098,10 +12354,10 @@
     </row>
     <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B754" s="1" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="C754" s="2" t="n">
         <v>80</v>
@@ -12109,10 +12365,10 @@
     </row>
     <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B755" s="1" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="C755" s="2" t="n">
         <v>80</v>
@@ -12120,10 +12376,10 @@
     </row>
     <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B756" s="1" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="C756" s="2" t="n">
         <v>80</v>
@@ -12131,10 +12387,10 @@
     </row>
     <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B757" s="1" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="C757" s="2" t="n">
         <v>80</v>
@@ -12142,10 +12398,10 @@
     </row>
     <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B758" s="1" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="C758" s="2" t="n">
         <v>80</v>
@@ -12153,10 +12409,10 @@
     </row>
     <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B759" s="1" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="C759" s="2" t="n">
         <v>80</v>
@@ -12164,10 +12420,10 @@
     </row>
     <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B760" s="1" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="C760" s="2" t="n">
         <v>80</v>
@@ -12175,10 +12431,10 @@
     </row>
     <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B761" s="1" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="C761" s="2" t="n">
         <v>80</v>
@@ -12186,10 +12442,10 @@
     </row>
     <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B762" s="1" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="C762" s="2" t="n">
         <v>80</v>
@@ -12197,10 +12453,10 @@
     </row>
     <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B763" s="1" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="C763" s="2" t="n">
         <v>80</v>
@@ -12208,10 +12464,10 @@
     </row>
     <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B764" s="1" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="C764" s="2" t="n">
         <v>80</v>
@@ -12219,10 +12475,10 @@
     </row>
     <row r="765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B765" s="1" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="C765" s="2" t="n">
         <v>80</v>
@@ -12230,10 +12486,10 @@
     </row>
     <row r="766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B766" s="1" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="C766" s="2" t="n">
         <v>80</v>
@@ -12241,10 +12497,10 @@
     </row>
     <row r="767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B767" s="1" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="C767" s="2" t="n">
         <v>80</v>
@@ -12252,10 +12508,10 @@
     </row>
     <row r="768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B768" s="1" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="C768" s="2" t="n">
         <v>80</v>
@@ -12263,10 +12519,10 @@
     </row>
     <row r="769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B769" s="1" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="C769" s="2" t="n">
         <v>80</v>
@@ -12274,10 +12530,10 @@
     </row>
     <row r="770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B770" s="1" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="C770" s="2" t="n">
         <v>140</v>
@@ -12285,10 +12541,10 @@
     </row>
     <row r="771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B771" s="1" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="C771" s="2" t="n">
         <v>80</v>
@@ -12296,10 +12552,10 @@
     </row>
     <row r="772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B772" s="1" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="C772" s="2" t="n">
         <v>80</v>
@@ -12307,10 +12563,10 @@
     </row>
     <row r="773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B773" s="1" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="C773" s="2" t="n">
         <v>80</v>
@@ -12318,10 +12574,10 @@
     </row>
     <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B774" s="1" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="C774" s="2" t="n">
         <v>80</v>
@@ -12329,10 +12585,10 @@
     </row>
     <row r="775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B775" s="1" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="C775" s="2" t="n">
         <v>80</v>
@@ -12340,10 +12596,10 @@
     </row>
     <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B776" s="1" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="C776" s="2" t="n">
         <v>80</v>
@@ -12351,10 +12607,10 @@
     </row>
     <row r="777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B777" s="1" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="C777" s="2" t="n">
         <v>100</v>
@@ -12362,10 +12618,10 @@
     </row>
     <row r="778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B778" s="1" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="C778" s="2" t="n">
         <v>160</v>
@@ -12373,10 +12629,10 @@
     </row>
     <row r="779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B779" s="1" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="C779" s="2" t="n">
         <v>100</v>
@@ -12384,10 +12640,10 @@
     </row>
     <row r="780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B780" s="1" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="C780" s="2" t="n">
         <v>160</v>
@@ -12395,10 +12651,10 @@
     </row>
     <row r="781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B781" s="1" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="C781" s="2" t="n">
         <v>160</v>
@@ -12406,10 +12662,10 @@
     </row>
     <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B782" s="1" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="C782" s="2" t="n">
         <v>100</v>
@@ -12417,10 +12673,10 @@
     </row>
     <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B783" s="1" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="C783" s="2" t="n">
         <v>210</v>
@@ -12428,10 +12684,10 @@
     </row>
     <row r="784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B784" s="1" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="C784" s="2" t="n">
         <v>210</v>
@@ -12439,10 +12695,10 @@
     </row>
     <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B785" s="1" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="C785" s="2" t="n">
         <v>310</v>
@@ -12450,10 +12706,10 @@
     </row>
     <row r="786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="0" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B786" s="1" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="C786" s="2" t="n">
         <v>90</v>

--- a/colaborador/sistemas/orcamento/valores_exames_samvida.xlsx
+++ b/colaborador/sistemas/orcamento/valores_exames_samvida.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="473">
   <si>
     <t xml:space="preserve">Local</t>
   </si>
@@ -1190,6 +1190,12 @@
   </si>
   <si>
     <t xml:space="preserve">UROGRAFIA EXCRETORA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CITOLOGIA ONCOTICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG PAREDE ABDOMINAL (Dra. JULIANA) NÃO FAZ REGIÃO INGUINAL</t>
   </si>
   <si>
     <t xml:space="preserve">USG ABDOME SUPERIOR (Dra. JULIANA)</t>
@@ -1888,8 +1894,8 @@
   </sheetPr>
   <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A391" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C400" activeCellId="0" sqref="B400:C400"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A374" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C389" activeCellId="0" sqref="C389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6164,7 +6170,7 @@
         <v>390</v>
       </c>
       <c r="C388" s="9" t="n">
-        <v>90</v>
+        <v>35</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6175,7 +6181,7 @@
         <v>391</v>
       </c>
       <c r="C389" s="9" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6186,7 +6192,7 @@
         <v>392</v>
       </c>
       <c r="C390" s="9" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6197,7 +6203,7 @@
         <v>393</v>
       </c>
       <c r="C391" s="9" t="n">
-        <v>86</v>
+        <v>130</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6208,7 +6214,7 @@
         <v>394</v>
       </c>
       <c r="C392" s="9" t="n">
-        <v>66</v>
+        <v>120</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6219,7 +6225,7 @@
         <v>395</v>
       </c>
       <c r="C393" s="9" t="n">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6241,7 +6247,7 @@
         <v>397</v>
       </c>
       <c r="C395" s="9" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6263,7 +6269,7 @@
         <v>399</v>
       </c>
       <c r="C397" s="9" t="n">
-        <v>145</v>
+        <v>110</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6274,7 +6280,7 @@
         <v>400</v>
       </c>
       <c r="C398" s="9" t="n">
-        <v>100</v>
+        <v>66</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6285,7 +6291,7 @@
         <v>401</v>
       </c>
       <c r="C399" s="9" t="n">
-        <v>66</v>
+        <v>145</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6296,7 +6302,7 @@
         <v>402</v>
       </c>
       <c r="C400" s="9" t="n">
-        <v>66</v>
+        <v>100</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6314,11 +6320,11 @@
       <c r="A402" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B402" s="10" t="s">
+      <c r="B402" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="C402" s="2" t="n">
-        <v>80</v>
+      <c r="C402" s="9" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6329,18 +6335,18 @@
         <v>405</v>
       </c>
       <c r="C403" s="9" t="n">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B404" s="8" t="s">
+      <c r="B404" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="C404" s="9" t="n">
-        <v>66</v>
+      <c r="C404" s="2" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6351,7 +6357,7 @@
         <v>407</v>
       </c>
       <c r="C405" s="9" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6362,10 +6368,13 @@
         <v>408</v>
       </c>
       <c r="C406" s="9" t="n">
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="0" t="s">
+        <v>52</v>
+      </c>
       <c r="B407" s="8" t="s">
         <v>409</v>
       </c>
@@ -6461,31 +6470,31 @@
         <v>90</v>
       </c>
     </row>
-    <row r="416" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B416" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="B416" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="C416" s="2" t="n">
-        <v>80</v>
+      <c r="C416" s="9" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="B417" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B417" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="C417" s="9" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A418" s="0" t="s">
         <v>420</v>
-      </c>
-      <c r="C417" s="2" t="n">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="0" t="s">
-        <v>418</v>
       </c>
       <c r="B418" s="1" t="s">
         <v>421</v>
@@ -6496,18 +6505,18 @@
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B419" s="1" t="s">
         <v>422</v>
       </c>
       <c r="C419" s="2" t="n">
-        <v>80</v>
+        <v>210</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B420" s="1" t="s">
         <v>423</v>
@@ -6518,18 +6527,18 @@
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B421" s="1" t="s">
         <v>424</v>
       </c>
       <c r="C421" s="2" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B422" s="1" t="s">
         <v>425</v>
@@ -6540,18 +6549,18 @@
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B423" s="1" t="s">
         <v>426</v>
       </c>
       <c r="C423" s="2" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B424" s="1" t="s">
         <v>427</v>
@@ -6562,7 +6571,7 @@
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B425" s="1" t="s">
         <v>428</v>
@@ -6573,7 +6582,7 @@
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B426" s="1" t="s">
         <v>429</v>
@@ -6584,7 +6593,7 @@
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B427" s="1" t="s">
         <v>430</v>
@@ -6595,7 +6604,7 @@
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B428" s="1" t="s">
         <v>431</v>
@@ -6606,7 +6615,7 @@
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B429" s="1" t="s">
         <v>432</v>
@@ -6617,7 +6626,7 @@
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B430" s="1" t="s">
         <v>433</v>
@@ -6628,7 +6637,7 @@
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B431" s="1" t="s">
         <v>434</v>
@@ -6639,7 +6648,7 @@
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B432" s="1" t="s">
         <v>435</v>
@@ -6650,7 +6659,7 @@
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B433" s="1" t="s">
         <v>436</v>
@@ -6661,7 +6670,7 @@
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B434" s="1" t="s">
         <v>437</v>
@@ -6672,7 +6681,7 @@
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B435" s="1" t="s">
         <v>438</v>
@@ -6683,7 +6692,7 @@
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B436" s="1" t="s">
         <v>439</v>
@@ -6694,7 +6703,7 @@
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B437" s="1" t="s">
         <v>440</v>
@@ -6705,7 +6714,7 @@
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B438" s="1" t="s">
         <v>441</v>
@@ -6716,7 +6725,7 @@
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B439" s="1" t="s">
         <v>442</v>
@@ -6727,7 +6736,7 @@
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B440" s="1" t="s">
         <v>443</v>
@@ -6738,7 +6747,7 @@
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B441" s="1" t="s">
         <v>444</v>
@@ -6749,7 +6758,7 @@
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B442" s="1" t="s">
         <v>445</v>
@@ -6760,7 +6769,7 @@
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B443" s="1" t="s">
         <v>446</v>
@@ -6771,7 +6780,7 @@
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B444" s="1" t="s">
         <v>447</v>
@@ -6782,7 +6791,7 @@
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B445" s="1" t="s">
         <v>448</v>
@@ -6793,7 +6802,7 @@
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B446" s="1" t="s">
         <v>449</v>
@@ -6804,7 +6813,7 @@
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B447" s="1" t="s">
         <v>450</v>
@@ -6815,7 +6824,7 @@
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B448" s="1" t="s">
         <v>451</v>
@@ -6826,7 +6835,7 @@
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B449" s="1" t="s">
         <v>452</v>
@@ -6837,7 +6846,7 @@
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B450" s="1" t="s">
         <v>453</v>
@@ -6848,18 +6857,18 @@
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B451" s="1" t="s">
         <v>454</v>
       </c>
       <c r="C451" s="2" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B452" s="1" t="s">
         <v>455</v>
@@ -6870,18 +6879,18 @@
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B453" s="1" t="s">
         <v>456</v>
       </c>
       <c r="C453" s="2" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B454" s="1" t="s">
         <v>457</v>
@@ -6892,7 +6901,7 @@
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B455" s="1" t="s">
         <v>458</v>
@@ -6903,7 +6912,7 @@
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B456" s="1" t="s">
         <v>459</v>
@@ -6914,7 +6923,7 @@
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B457" s="1" t="s">
         <v>460</v>
@@ -6925,29 +6934,29 @@
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B458" s="1" t="s">
         <v>461</v>
       </c>
       <c r="C458" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B459" s="1" t="s">
         <v>462</v>
       </c>
       <c r="C459" s="2" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B460" s="1" t="s">
         <v>463</v>
@@ -6958,7 +6967,7 @@
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B461" s="1" t="s">
         <v>464</v>
@@ -6969,76 +6978,96 @@
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B462" s="1" t="s">
         <v>465</v>
       </c>
       <c r="C462" s="2" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B463" s="1" t="s">
         <v>466</v>
       </c>
       <c r="C463" s="2" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B464" s="1" t="s">
         <v>467</v>
       </c>
       <c r="C464" s="2" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B465" s="1" t="s">
         <v>468</v>
       </c>
       <c r="C465" s="2" t="n">
-        <v>210</v>
+        <v>100</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B466" s="1" t="s">
         <v>469</v>
       </c>
       <c r="C466" s="2" t="n">
-        <v>310</v>
+        <v>210</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B467" s="1" t="s">
         <v>470</v>
       </c>
       <c r="C467" s="2" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A468" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C468" s="2" t="n">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A469" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C469" s="2" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="1048255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/colaborador/sistemas/orcamento/valores_exames_samvida.xlsx
+++ b/colaborador/sistemas/orcamento/valores_exames_samvida.xlsx
@@ -6170,7 +6170,7 @@
         <v>390</v>
       </c>
       <c r="C388" s="9" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/colaborador/sistemas/orcamento/valores_exames_samvida.xlsx
+++ b/colaborador/sistemas/orcamento/valores_exames_samvida.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="483">
   <si>
     <t xml:space="preserve">Local</t>
   </si>
@@ -1195,7 +1195,13 @@
     <t xml:space="preserve">CITOLOGIA ONCOTICA</t>
   </si>
   <si>
+    <t xml:space="preserve">USG PAREDE ABDOMINAL C DOPPLER (Dra. JULIANA) NÃO FAZ REGIÃO INGUINAL</t>
+  </si>
+  <si>
     <t xml:space="preserve">USG PAREDE ABDOMINAL (Dra. JULIANA) NÃO FAZ REGIÃO INGUINAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG ABDOME SUPERIOR C DOPPLER (Dra. JULIANA)</t>
   </si>
   <si>
     <t xml:space="preserve">USG ABDOME SUPERIOR (Dra. JULIANA)</t>
@@ -1235,6 +1241,48 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">USG AXILAS C DOPPLER </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(Dra. JULIANA)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">USG AXILAS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(Dra. JULIANA)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">USG AXILAS </t>
     </r>
     <r>
@@ -1247,6 +1295,9 @@
       </rPr>
       <t xml:space="preserve">(Dr. JOSE GERALDO)</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">USG ENDOVAGINAL + PELVICA C DOPPLER (Dra. JULIANA)</t>
   </si>
   <si>
     <t xml:space="preserve">USG ENDOVAGINAL + PELVICA (Dra. JULIANA)</t>
@@ -1280,6 +1331,27 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">USG GESTACIONAL C DOPPLER </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(Dra, JULIANA)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">USG GESTACIONAL </t>
     </r>
     <r>
@@ -1380,30 +1452,17 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(</t>
+      <t xml:space="preserve">(Dr. JOSE GERALDO)</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Dr. JOSE GERALDO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">USG TIREOIDE C DOPPLER (Dra. JULIANA)</t>
   </si>
   <si>
     <t xml:space="preserve">USG TIREOIDE (Dra. JULIANA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG VIAS URINARIAS C DOPPLER (Dra. JULIANA)</t>
   </si>
   <si>
     <t xml:space="preserve">USG VIAS URINARIAS (Dra. JULIANA)</t>
@@ -1426,30 +1485,17 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(</t>
+      <t xml:space="preserve">(Dr. JOSE GERALDO)</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Dr. JOSE GERALDO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">USG ESCROTO C DOPPLER (Dra. JULIANA)</t>
   </si>
   <si>
     <t xml:space="preserve">USG ESCROTO (Dra. JULIANA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG CERVICAL / PESCOÇO C DOPPLER (Dra. JULIANA)</t>
   </si>
   <si>
     <t xml:space="preserve">USG CERVICAL / PESCOÇO (Dra. JULIANA)</t>
@@ -1648,7 +1694,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1699,12 +1745,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1894,8 +1934,8 @@
   </sheetPr>
   <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A374" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C389" activeCellId="0" sqref="C389"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A410" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B424" activeCellId="0" sqref="B424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6181,7 +6221,7 @@
         <v>391</v>
       </c>
       <c r="C389" s="9" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6192,7 +6232,7 @@
         <v>392</v>
       </c>
       <c r="C390" s="9" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6203,7 +6243,7 @@
         <v>393</v>
       </c>
       <c r="C391" s="9" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6214,7 +6254,7 @@
         <v>394</v>
       </c>
       <c r="C392" s="9" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6225,7 +6265,7 @@
         <v>395</v>
       </c>
       <c r="C393" s="9" t="n">
-        <v>86</v>
+        <v>130</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6236,7 +6276,7 @@
         <v>396</v>
       </c>
       <c r="C394" s="9" t="n">
-        <v>66</v>
+        <v>160</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6244,10 +6284,10 @@
         <v>52</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C395" s="9" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6255,10 +6295,10 @@
         <v>52</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C396" s="9" t="n">
-        <v>66</v>
+        <v>86</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6266,10 +6306,10 @@
         <v>52</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C397" s="9" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6277,10 +6317,10 @@
         <v>52</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C398" s="9" t="n">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6288,10 +6328,10 @@
         <v>52</v>
       </c>
       <c r="B399" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C399" s="9" t="n">
-        <v>145</v>
+        <v>66</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6299,10 +6339,10 @@
         <v>52</v>
       </c>
       <c r="B400" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C400" s="9" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6310,10 +6350,10 @@
         <v>52</v>
       </c>
       <c r="B401" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C401" s="9" t="n">
-        <v>66</v>
+        <v>90</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6321,7 +6361,7 @@
         <v>52</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C402" s="9" t="n">
         <v>66</v>
@@ -6332,21 +6372,21 @@
         <v>52</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C403" s="9" t="n">
-        <v>66</v>
+        <v>170</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B404" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="C404" s="2" t="n">
-        <v>80</v>
+      <c r="B404" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="C404" s="9" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6354,10 +6394,10 @@
         <v>52</v>
       </c>
       <c r="B405" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C405" s="9" t="n">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6365,10 +6405,10 @@
         <v>52</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C406" s="9" t="n">
-        <v>66</v>
+        <v>145</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6376,10 +6416,10 @@
         <v>52</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C407" s="9" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6387,10 +6427,10 @@
         <v>52</v>
       </c>
       <c r="B408" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C408" s="9" t="n">
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6398,10 +6438,10 @@
         <v>52</v>
       </c>
       <c r="B409" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C409" s="9" t="n">
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6409,32 +6449,32 @@
         <v>52</v>
       </c>
       <c r="B410" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C410" s="9" t="n">
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B411" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="C411" s="9" t="n">
-        <v>90</v>
+      <c r="B411" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="C411" s="2" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B412" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="C412" s="9" t="n">
-        <v>90</v>
+      <c r="B412" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="C412" s="2" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6442,10 +6482,10 @@
         <v>52</v>
       </c>
       <c r="B413" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C413" s="9" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6453,10 +6493,10 @@
         <v>52</v>
       </c>
       <c r="B414" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C414" s="9" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6464,10 +6504,10 @@
         <v>52</v>
       </c>
       <c r="B415" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C415" s="9" t="n">
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6475,10 +6515,10 @@
         <v>52</v>
       </c>
       <c r="B416" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C416" s="9" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6486,139 +6526,139 @@
         <v>52</v>
       </c>
       <c r="B417" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C417" s="9" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="418" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="0" t="s">
-        <v>420</v>
-      </c>
-      <c r="B418" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="C418" s="2" t="n">
-        <v>80</v>
+        <v>52</v>
+      </c>
+      <c r="B418" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="C418" s="9" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B419" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="B419" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C419" s="2" t="n">
-        <v>210</v>
+      <c r="C419" s="9" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="0" t="s">
-        <v>420</v>
-      </c>
-      <c r="B420" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="C420" s="2" t="n">
-        <v>80</v>
+        <v>52</v>
+      </c>
+      <c r="B420" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="C420" s="9" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="0" t="s">
-        <v>420</v>
-      </c>
-      <c r="B421" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C421" s="2" t="n">
-        <v>80</v>
+        <v>52</v>
+      </c>
+      <c r="B421" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="C421" s="9" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="0" t="s">
-        <v>420</v>
-      </c>
-      <c r="B422" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="C422" s="2" t="n">
-        <v>80</v>
+        <v>52</v>
+      </c>
+      <c r="B422" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="C422" s="9" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="0" t="s">
-        <v>420</v>
-      </c>
-      <c r="B423" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="C423" s="2" t="n">
-        <v>140</v>
+        <v>52</v>
+      </c>
+      <c r="B423" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="C423" s="9" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="0" t="s">
-        <v>420</v>
-      </c>
-      <c r="B424" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="C424" s="2" t="n">
-        <v>80</v>
+        <v>52</v>
+      </c>
+      <c r="B424" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="C424" s="9" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="0" t="s">
-        <v>420</v>
-      </c>
-      <c r="B425" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="C425" s="2" t="n">
-        <v>80</v>
+        <v>52</v>
+      </c>
+      <c r="B425" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="C425" s="9" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="0" t="s">
-        <v>420</v>
-      </c>
-      <c r="B426" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="C426" s="2" t="n">
-        <v>80</v>
+        <v>52</v>
+      </c>
+      <c r="B426" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="C426" s="9" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="0" t="s">
-        <v>420</v>
-      </c>
-      <c r="B427" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="C427" s="2" t="n">
-        <v>80</v>
+        <v>52</v>
+      </c>
+      <c r="B427" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="C427" s="9" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="0" t="s">
-        <v>420</v>
-      </c>
-      <c r="B428" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B428" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="C428" s="9" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="B429" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="C428" s="2" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="0" t="s">
-        <v>420</v>
-      </c>
-      <c r="B429" s="1" t="s">
-        <v>432</v>
       </c>
       <c r="C429" s="2" t="n">
         <v>80</v>
@@ -6626,21 +6666,21 @@
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="0" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C430" s="2" t="n">
-        <v>80</v>
+        <v>210</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="0" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C431" s="2" t="n">
         <v>80</v>
@@ -6648,10 +6688,10 @@
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="0" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C432" s="2" t="n">
         <v>80</v>
@@ -6659,10 +6699,10 @@
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="0" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C433" s="2" t="n">
         <v>80</v>
@@ -6670,21 +6710,21 @@
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="0" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C434" s="2" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="0" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C435" s="2" t="n">
         <v>80</v>
@@ -6692,10 +6732,10 @@
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="0" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C436" s="2" t="n">
         <v>80</v>
@@ -6703,10 +6743,10 @@
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="0" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C437" s="2" t="n">
         <v>80</v>
@@ -6714,10 +6754,10 @@
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="0" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C438" s="2" t="n">
         <v>80</v>
@@ -6725,10 +6765,10 @@
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="0" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C439" s="2" t="n">
         <v>80</v>
@@ -6736,10 +6776,10 @@
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="0" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C440" s="2" t="n">
         <v>80</v>
@@ -6747,10 +6787,10 @@
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="0" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C441" s="2" t="n">
         <v>80</v>
@@ -6758,10 +6798,10 @@
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="0" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C442" s="2" t="n">
         <v>80</v>
@@ -6769,10 +6809,10 @@
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="0" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C443" s="2" t="n">
         <v>80</v>
@@ -6780,10 +6820,10 @@
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="0" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C444" s="2" t="n">
         <v>80</v>
@@ -6791,10 +6831,10 @@
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="0" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C445" s="2" t="n">
         <v>80</v>
@@ -6802,10 +6842,10 @@
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="0" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C446" s="2" t="n">
         <v>80</v>
@@ -6813,10 +6853,10 @@
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="0" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C447" s="2" t="n">
         <v>80</v>
@@ -6824,10 +6864,10 @@
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="0" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C448" s="2" t="n">
         <v>80</v>
@@ -6835,10 +6875,10 @@
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="0" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C449" s="2" t="n">
         <v>80</v>
@@ -6846,10 +6886,10 @@
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="0" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C450" s="2" t="n">
         <v>80</v>
@@ -6857,10 +6897,10 @@
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="0" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C451" s="2" t="n">
         <v>80</v>
@@ -6868,10 +6908,10 @@
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="0" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C452" s="2" t="n">
         <v>80</v>
@@ -6879,21 +6919,21 @@
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="0" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C453" s="2" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="0" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C454" s="2" t="n">
         <v>80</v>
@@ -6901,10 +6941,10 @@
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="0" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C455" s="2" t="n">
         <v>80</v>
@@ -6912,10 +6952,10 @@
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="0" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C456" s="2" t="n">
         <v>80</v>
@@ -6923,10 +6963,10 @@
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="0" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C457" s="2" t="n">
         <v>80</v>
@@ -6934,10 +6974,10 @@
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="0" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C458" s="2" t="n">
         <v>80</v>
@@ -6945,10 +6985,10 @@
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="0" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C459" s="2" t="n">
         <v>80</v>
@@ -6956,129 +6996,239 @@
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="0" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C460" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="0" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C461" s="2" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="0" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C462" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="0" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C463" s="2" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="0" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C464" s="2" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="0" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C465" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="0" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C466" s="2" t="n">
-        <v>210</v>
+        <v>80</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="0" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C467" s="2" t="n">
-        <v>210</v>
+        <v>80</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="0" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C468" s="2" t="n">
-        <v>310</v>
+        <v>80</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="0" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B469" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C469" s="2" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A470" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="B470" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C469" s="2" t="n">
+      <c r="C470" s="2" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A471" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C471" s="2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A472" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C472" s="2" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A473" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C473" s="2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C474" s="2" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C475" s="2" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C476" s="2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A477" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C477" s="2" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A478" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C478" s="2" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A479" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C479" s="2" t="n">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A480" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C480" s="2" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="1048257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/colaborador/sistemas/orcamento/valores_exames_samvida.xlsx
+++ b/colaborador/sistemas/orcamento/valores_exames_samvida.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="484">
   <si>
     <t xml:space="preserve">Local</t>
   </si>
@@ -1226,6 +1226,9 @@
       </rPr>
       <t xml:space="preserve">(Dr. JOSE GERALDO)</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">USG ABDOME TOTAL C DOPPLER (Dra. JULIANA)</t>
   </si>
   <si>
     <t xml:space="preserve">USG ABDOME TOTAL (Dra. JULIANA)</t>
@@ -1934,8 +1937,8 @@
   </sheetPr>
   <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A410" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B424" activeCellId="0" sqref="B424"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A380" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B395" activeCellId="0" sqref="B395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6284,7 +6287,7 @@
         <v>52</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C395" s="9" t="n">
         <v>120</v>
@@ -6295,7 +6298,7 @@
         <v>52</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C396" s="9" t="n">
         <v>86</v>
@@ -6306,7 +6309,7 @@
         <v>52</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C397" s="9" t="n">
         <v>140</v>
@@ -6317,7 +6320,7 @@
         <v>52</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C398" s="9" t="n">
         <v>80</v>
@@ -6328,7 +6331,7 @@
         <v>52</v>
       </c>
       <c r="B399" s="8" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C399" s="9" t="n">
         <v>66</v>
@@ -6339,7 +6342,7 @@
         <v>52</v>
       </c>
       <c r="B400" s="8" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C400" s="9" t="n">
         <v>140</v>
@@ -6350,7 +6353,7 @@
         <v>52</v>
       </c>
       <c r="B401" s="8" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C401" s="9" t="n">
         <v>90</v>
@@ -6361,7 +6364,7 @@
         <v>52</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C402" s="9" t="n">
         <v>66</v>
@@ -6372,7 +6375,7 @@
         <v>52</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C403" s="9" t="n">
         <v>170</v>
@@ -6383,7 +6386,7 @@
         <v>52</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C404" s="9" t="n">
         <v>110</v>
@@ -6394,7 +6397,7 @@
         <v>52</v>
       </c>
       <c r="B405" s="8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C405" s="9" t="n">
         <v>66</v>
@@ -6405,7 +6408,7 @@
         <v>52</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C406" s="9" t="n">
         <v>145</v>
@@ -6416,7 +6419,7 @@
         <v>52</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C407" s="9" t="n">
         <v>100</v>
@@ -6427,7 +6430,7 @@
         <v>52</v>
       </c>
       <c r="B408" s="8" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C408" s="9" t="n">
         <v>66</v>
@@ -6438,7 +6441,7 @@
         <v>52</v>
       </c>
       <c r="B409" s="8" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C409" s="9" t="n">
         <v>66</v>
@@ -6449,7 +6452,7 @@
         <v>52</v>
       </c>
       <c r="B410" s="8" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C410" s="9" t="n">
         <v>66</v>
@@ -6460,7 +6463,7 @@
         <v>52</v>
       </c>
       <c r="B411" s="10" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C411" s="2" t="n">
         <v>140</v>
@@ -6471,7 +6474,7 @@
         <v>52</v>
       </c>
       <c r="B412" s="10" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C412" s="2" t="n">
         <v>80</v>
@@ -6482,7 +6485,7 @@
         <v>52</v>
       </c>
       <c r="B413" s="8" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C413" s="9" t="n">
         <v>140</v>
@@ -6493,7 +6496,7 @@
         <v>52</v>
       </c>
       <c r="B414" s="8" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C414" s="9" t="n">
         <v>80</v>
@@ -6504,7 +6507,7 @@
         <v>52</v>
       </c>
       <c r="B415" s="8" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C415" s="9" t="n">
         <v>66</v>
@@ -6515,7 +6518,7 @@
         <v>52</v>
       </c>
       <c r="B416" s="8" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C416" s="9" t="n">
         <v>140</v>
@@ -6526,7 +6529,7 @@
         <v>52</v>
       </c>
       <c r="B417" s="8" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C417" s="9" t="n">
         <v>90</v>
@@ -6537,7 +6540,7 @@
         <v>52</v>
       </c>
       <c r="B418" s="8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C418" s="9" t="n">
         <v>140</v>
@@ -6548,7 +6551,7 @@
         <v>52</v>
       </c>
       <c r="B419" s="8" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C419" s="9" t="n">
         <v>90</v>
@@ -6559,7 +6562,7 @@
         <v>52</v>
       </c>
       <c r="B420" s="8" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C420" s="9" t="n">
         <v>90</v>
@@ -6570,7 +6573,7 @@
         <v>52</v>
       </c>
       <c r="B421" s="8" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C421" s="9" t="n">
         <v>90</v>
@@ -6581,7 +6584,7 @@
         <v>52</v>
       </c>
       <c r="B422" s="8" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C422" s="9" t="n">
         <v>90</v>
@@ -6592,7 +6595,7 @@
         <v>52</v>
       </c>
       <c r="B423" s="8" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C423" s="9" t="n">
         <v>90</v>
@@ -6603,7 +6606,7 @@
         <v>52</v>
       </c>
       <c r="B424" s="8" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C424" s="9" t="n">
         <v>90</v>
@@ -6614,7 +6617,7 @@
         <v>52</v>
       </c>
       <c r="B425" s="8" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C425" s="9" t="n">
         <v>90</v>
@@ -6625,7 +6628,7 @@
         <v>52</v>
       </c>
       <c r="B426" s="8" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C426" s="9" t="n">
         <v>90</v>
@@ -6636,7 +6639,7 @@
         <v>52</v>
       </c>
       <c r="B427" s="8" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C427" s="9" t="n">
         <v>90</v>
@@ -6647,7 +6650,7 @@
         <v>52</v>
       </c>
       <c r="B428" s="8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C428" s="9" t="n">
         <v>90</v>
@@ -6655,10 +6658,10 @@
     </row>
     <row r="429" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C429" s="2" t="n">
         <v>80</v>
@@ -6666,10 +6669,10 @@
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C430" s="2" t="n">
         <v>210</v>
@@ -6677,10 +6680,10 @@
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C431" s="2" t="n">
         <v>80</v>
@@ -6688,10 +6691,10 @@
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C432" s="2" t="n">
         <v>80</v>
@@ -6699,10 +6702,10 @@
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C433" s="2" t="n">
         <v>80</v>
@@ -6710,10 +6713,10 @@
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C434" s="2" t="n">
         <v>140</v>
@@ -6721,10 +6724,10 @@
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C435" s="2" t="n">
         <v>80</v>
@@ -6732,10 +6735,10 @@
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C436" s="2" t="n">
         <v>80</v>
@@ -6743,10 +6746,10 @@
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C437" s="2" t="n">
         <v>80</v>
@@ -6754,10 +6757,10 @@
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C438" s="2" t="n">
         <v>80</v>
@@ -6765,10 +6768,10 @@
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C439" s="2" t="n">
         <v>80</v>
@@ -6776,10 +6779,10 @@
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C440" s="2" t="n">
         <v>80</v>
@@ -6787,10 +6790,10 @@
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C441" s="2" t="n">
         <v>80</v>
@@ -6798,10 +6801,10 @@
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C442" s="2" t="n">
         <v>80</v>
@@ -6809,10 +6812,10 @@
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C443" s="2" t="n">
         <v>80</v>
@@ -6820,10 +6823,10 @@
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C444" s="2" t="n">
         <v>80</v>
@@ -6831,10 +6834,10 @@
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C445" s="2" t="n">
         <v>80</v>
@@ -6842,10 +6845,10 @@
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C446" s="2" t="n">
         <v>80</v>
@@ -6853,10 +6856,10 @@
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C447" s="2" t="n">
         <v>80</v>
@@ -6864,10 +6867,10 @@
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C448" s="2" t="n">
         <v>80</v>
@@ -6875,10 +6878,10 @@
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C449" s="2" t="n">
         <v>80</v>
@@ -6886,10 +6889,10 @@
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C450" s="2" t="n">
         <v>80</v>
@@ -6897,10 +6900,10 @@
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C451" s="2" t="n">
         <v>80</v>
@@ -6908,10 +6911,10 @@
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C452" s="2" t="n">
         <v>80</v>
@@ -6919,10 +6922,10 @@
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C453" s="2" t="n">
         <v>80</v>
@@ -6930,10 +6933,10 @@
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C454" s="2" t="n">
         <v>80</v>
@@ -6941,10 +6944,10 @@
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C455" s="2" t="n">
         <v>80</v>
@@ -6952,10 +6955,10 @@
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C456" s="2" t="n">
         <v>80</v>
@@ -6963,10 +6966,10 @@
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C457" s="2" t="n">
         <v>80</v>
@@ -6974,10 +6977,10 @@
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C458" s="2" t="n">
         <v>80</v>
@@ -6985,10 +6988,10 @@
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C459" s="2" t="n">
         <v>80</v>
@@ -6996,10 +6999,10 @@
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C460" s="2" t="n">
         <v>80</v>
@@ -7007,10 +7010,10 @@
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C461" s="2" t="n">
         <v>80</v>
@@ -7018,10 +7021,10 @@
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C462" s="2" t="n">
         <v>80</v>
@@ -7029,10 +7032,10 @@
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C463" s="2" t="n">
         <v>80</v>
@@ -7040,10 +7043,10 @@
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C464" s="2" t="n">
         <v>140</v>
@@ -7051,10 +7054,10 @@
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C465" s="2" t="n">
         <v>80</v>
@@ -7062,10 +7065,10 @@
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C466" s="2" t="n">
         <v>80</v>
@@ -7073,10 +7076,10 @@
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C467" s="2" t="n">
         <v>80</v>
@@ -7084,10 +7087,10 @@
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C468" s="2" t="n">
         <v>80</v>
@@ -7095,10 +7098,10 @@
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C469" s="2" t="n">
         <v>80</v>
@@ -7106,10 +7109,10 @@
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C470" s="2" t="n">
         <v>80</v>
@@ -7117,10 +7120,10 @@
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C471" s="2" t="n">
         <v>100</v>
@@ -7128,10 +7131,10 @@
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C472" s="2" t="n">
         <v>160</v>
@@ -7139,10 +7142,10 @@
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C473" s="2" t="n">
         <v>100</v>
@@ -7150,10 +7153,10 @@
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C474" s="2" t="n">
         <v>160</v>
@@ -7161,10 +7164,10 @@
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C475" s="2" t="n">
         <v>160</v>
@@ -7172,10 +7175,10 @@
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C476" s="2" t="n">
         <v>100</v>
@@ -7183,10 +7186,10 @@
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C477" s="2" t="n">
         <v>210</v>
@@ -7194,10 +7197,10 @@
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C478" s="2" t="n">
         <v>210</v>
@@ -7205,10 +7208,10 @@
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C479" s="2" t="n">
         <v>310</v>
@@ -7216,10 +7219,10 @@
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C480" s="2" t="n">
         <v>90</v>

--- a/colaborador/sistemas/orcamento/valores_exames_samvida.xlsx
+++ b/colaborador/sistemas/orcamento/valores_exames_samvida.xlsx
@@ -1938,7 +1938,7 @@
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A380" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B395" activeCellId="0" sqref="B395"/>
+      <selection pane="topLeft" activeCell="C396" activeCellId="0" sqref="C396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6290,7 +6290,7 @@
         <v>397</v>
       </c>
       <c r="C395" s="9" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/colaborador/sistemas/orcamento/valores_exames_samvida.xlsx
+++ b/colaborador/sistemas/orcamento/valores_exames_samvida.xlsx
@@ -1,34 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr date1904="0"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="484">
-  <si>
-    <t xml:space="preserve">Local</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valor</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="487">
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>Exame</t>
+  </si>
+  <si>
+    <t>Valor</t>
   </si>
   <si>
     <t xml:space="preserve">Clínica Nova Imagem</t>
@@ -175,22 +169,22 @@
     <t xml:space="preserve">DOPPLER VENOSO DE MEMBRO SUPERIOR E</t>
   </si>
   <si>
-    <t xml:space="preserve">ECOCARDIOGRAMA</t>
+    <t>ECOCARDIOGRAMA</t>
   </si>
   <si>
     <t xml:space="preserve">Centro Médico Bruno Sampaio</t>
   </si>
   <si>
-    <t xml:space="preserve">ELETROCARDIOGRAMA</t>
+    <t>ELETROCARDIOGRAMA</t>
   </si>
   <si>
     <t xml:space="preserve">ENDOSCOPIA DIGESTIVA ALTA</t>
   </si>
   <si>
-    <t xml:space="preserve">Histopatologico-(endoscopia)-Laboratorio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOLTER</t>
+    <t>Histopatologico-(endoscopia)-Laboratorio</t>
+  </si>
+  <si>
+    <t>HOLTER</t>
   </si>
   <si>
     <t xml:space="preserve">MAMOGRAFIA CONVENCIONAL</t>
@@ -199,7 +193,7 @@
     <t xml:space="preserve">MAMOGRAFIA DIGITAL</t>
   </si>
   <si>
-    <t xml:space="preserve">MAPA</t>
+    <t>MAPA</t>
   </si>
   <si>
     <t xml:space="preserve">Pesquisa H. Pylori (Endoscopia)</t>
@@ -1211,18 +1205,14 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">USG ABDOME SUPERIOR </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Dr. JOSE GERALDO)</t>
     </r>
@@ -1241,18 +1231,14 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">USG AXILAS C DOPPLER </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Dra. JULIANA)</t>
     </r>
@@ -1262,18 +1248,14 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">USG AXILAS </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Dra. JULIANA)</t>
     </r>
@@ -1283,18 +1265,14 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">USG AXILAS </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Dr. JOSE GERALDO)</t>
     </r>
@@ -1310,18 +1288,14 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">USG ENDOVAGINAL + PELVICA </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Dr. JOSE GERALDO)</t>
     </r>
@@ -1331,18 +1305,14 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">USG GESTACIONAL C DOPPLER </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Dra, JULIANA)</t>
     </r>
@@ -1352,18 +1322,14 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">USG GESTACIONAL </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Dra, JULIANA)</t>
     </r>
@@ -1373,18 +1339,14 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">USG GESTACIONAL </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Dr. JOSE GERALDO)</t>
     </r>
@@ -1400,18 +1362,14 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">USG MAMAS </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Dr. JOSE GERALDO)</t>
     </r>
@@ -1421,18 +1379,14 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">USG PROSTATA TRANS ABD </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Dr. JOSE GERALDO)</t>
     </r>
@@ -1442,18 +1396,14 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">USG PELVICA </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Dr. JOSE GERALDO)</t>
     </r>
@@ -1475,18 +1425,14 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">USG VIAS URINARIAS </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Dr. JOSE GERALDO)</t>
     </r>
@@ -1688,66 +1634,47 @@
   </si>
   <si>
     <t xml:space="preserve">COLPOSCOPIA (Dr. MOARCY)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAAF - NODULO ADICIONAL R$ 100,00 (Dra. JULIANE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORE BIOPSIA (Dra. JULIANE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANALISE DO MATERIAL PARA BIOPSIA (Dra. JULIANE)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="11.000000"/>
+      <color indexed="64"/>
       <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.000000"/>
       <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.000000"/>
+      <color indexed="64"/>
       <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <b/>
+      <sz val="11.000000"/>
+      <color indexed="65"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="10.000000"/>
+      <color indexed="65"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1759,20 +1686,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
+        <fgColor indexed="64"/>
+        <bgColor indexed="58"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FFCCCCCC"/>
       </left>
@@ -1785,170 +1712,552 @@
       <bottom style="thin">
         <color rgb="FFCCCCCC"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="6">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+      <alignment wrapText="1"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="3" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="4" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="4" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
+      <alignment wrapText="1"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="0" locked="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFCCCCCC"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="">
+  <a:themeElements>
+    <a:clrScheme name="">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="">
+      <a:majorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+        </a:ln>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr filterMode="0">
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A380" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C396" activeCellId="0" sqref="C396"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" view="normal" topLeftCell="A463" zoomScale="100" workbookViewId="0">
+      <selection activeCell="C396" activeCellId="0" sqref="C396"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="6.85"/>
+    <col customWidth="1" min="1" max="1" style="0" width="27"/>
+    <col customWidth="1" min="2" max="2" style="1" width="93"/>
+    <col customWidth="1" min="3" max="3" style="2" width="6.8499999999999996"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" ht="14.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1959,5294 +2268,5328 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" ht="14.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="n">
+      <c r="C2" s="7">
         <v>46</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" ht="14.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="7">
         <v>46</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" ht="14.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="7">
         <v>46</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" ht="14.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="9" t="n">
+      <c r="C5" s="9">
         <v>46</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" ht="14.25">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="7" t="n">
+      <c r="C6" s="7">
         <v>566</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" ht="14.25">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7" t="n">
+      <c r="C7" s="7">
         <v>726</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" ht="14.25">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="7" t="n">
+      <c r="C8" s="7">
         <v>896</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" ht="14.25">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="7" t="n">
+      <c r="C9" s="7">
         <v>1056</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" ht="14.25">
+      <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="7" t="n">
+      <c r="C10" s="7">
         <v>106</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" ht="14.25">
+      <c r="A11" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="7" t="n">
+      <c r="C11" s="7">
         <v>106</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" ht="14.25">
+      <c r="A12" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="7" t="n">
+      <c r="C12" s="7">
         <v>196</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" ht="14.25">
+      <c r="A13" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="7" t="n">
+      <c r="C13" s="7">
         <v>226</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" ht="14.25">
+      <c r="A14" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="7" t="n">
+      <c r="C14" s="7">
         <v>226</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" ht="14.25">
+      <c r="A15" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="7" t="n">
+      <c r="C15" s="7">
         <v>406</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" ht="14.25">
+      <c r="A16" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="7" t="n">
+      <c r="C16" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" ht="14.25">
+      <c r="A17" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="7" t="n">
+      <c r="C17" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" ht="14.25">
+      <c r="A18" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="7" t="n">
+      <c r="C18" s="7">
         <v>406</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" ht="14.25">
+      <c r="A19" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="7" t="n">
+      <c r="C19" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" ht="14.25">
+      <c r="A20" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="7" t="n">
+      <c r="C20" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" ht="14.25">
+      <c r="A21" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="7" t="n">
+      <c r="C21" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" ht="14.25">
+      <c r="A22" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="7" t="n">
+      <c r="C22" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" ht="14.25">
+      <c r="A23" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="7" t="n">
+      <c r="C23" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" ht="14.25">
+      <c r="A24" t="s">
         <v>3</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="7" t="n">
+      <c r="C24" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" ht="14.25">
+      <c r="A25" t="s">
         <v>3</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="7" t="n">
+      <c r="C25" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" ht="14.25">
+      <c r="A26" t="s">
         <v>3</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="7" t="n">
+      <c r="C26" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" ht="14.25">
+      <c r="A27" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="7" t="n">
+      <c r="C27" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" ht="14.25">
+      <c r="A28" t="s">
         <v>3</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="7" t="n">
+      <c r="C28" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" ht="14.25">
+      <c r="A29" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="7" t="n">
+      <c r="C29" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" ht="14.25">
+      <c r="A30" t="s">
         <v>3</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="7" t="n">
+      <c r="C30" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" ht="14.25">
+      <c r="A31" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="7" t="n">
+      <c r="C31" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" ht="14.25">
+      <c r="A32" t="s">
         <v>3</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="7" t="n">
+      <c r="C32" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" ht="14.25">
+      <c r="A33" t="s">
         <v>3</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="7" t="n">
+      <c r="C33" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" ht="14.25">
+      <c r="A34" t="s">
         <v>3</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="7" t="n">
+      <c r="C34" s="7">
         <v>226</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" ht="14.25">
+      <c r="A35" t="s">
         <v>3</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="7" t="n">
+      <c r="C35" s="7">
         <v>326</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" ht="14.25">
+      <c r="A36" t="s">
         <v>3</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="7" t="n">
+      <c r="C36" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" ht="14.25">
+      <c r="A37" t="s">
         <v>3</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="7" t="n">
+      <c r="C37" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" ht="14.25">
+      <c r="A38" t="s">
         <v>3</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="7" t="n">
+      <c r="C38" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" ht="14.25">
+      <c r="A39" t="s">
         <v>3</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="7" t="n">
+      <c r="C39" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" ht="14.25">
+      <c r="A40" t="s">
         <v>3</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="7" t="n">
+      <c r="C40" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" ht="14.25">
+      <c r="A41" t="s">
         <v>3</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="7" t="n">
+      <c r="C41" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" ht="14.25">
+      <c r="A42" t="s">
         <v>3</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="7" t="n">
+      <c r="C42" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" ht="14.25">
+      <c r="A43" t="s">
         <v>3</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="7" t="n">
+      <c r="C43" s="7">
         <v>406</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" ht="14.25">
+      <c r="A44" t="s">
         <v>3</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="7" t="n">
+      <c r="C44" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="45" ht="14.25">
+      <c r="A45" t="s">
         <v>3</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="7" t="n">
+      <c r="C45" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="46" ht="14.25">
+      <c r="A46" t="s">
         <v>3</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="7" t="n">
+      <c r="C46" s="7">
         <v>406</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row r="47" ht="14.25">
+      <c r="A47" t="s">
         <v>3</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="7" t="n">
+      <c r="C47" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+    <row r="48" ht="14.25">
+      <c r="A48" t="s">
         <v>3</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="7" t="n">
+      <c r="C48" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row r="49" ht="14.25">
+      <c r="A49" t="s">
         <v>3</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="7" t="n">
+      <c r="C49" s="7">
         <v>186</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    <row r="50" ht="14.25">
+      <c r="A50" t="s">
         <v>52</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="7" t="n">
+      <c r="C50" s="7">
         <v>41</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+    <row r="51" ht="14.25">
+      <c r="A51" t="s">
         <v>3</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="7" t="n">
+      <c r="C51" s="7">
         <v>51</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+    <row r="52" ht="14.25">
+      <c r="A52" t="s">
         <v>3</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="7" t="n">
+      <c r="C52" s="7">
         <v>410</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+    <row r="53" ht="14.25">
+      <c r="A53" t="s">
         <v>3</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="7" t="n">
+      <c r="C53" s="7">
         <v>106</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+    <row r="54" ht="14.25">
+      <c r="A54" t="s">
         <v>3</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="7" t="n">
+      <c r="C54" s="7">
         <v>156</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+    <row r="55" ht="14.25">
+      <c r="A55" t="s">
         <v>3</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C55" s="7" t="n">
+      <c r="C55" s="7">
         <v>106</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+    <row r="56" ht="14.25">
+      <c r="A56" t="s">
         <v>3</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="7" t="n">
+      <c r="C56" s="7">
         <v>106</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+    <row r="57" ht="14.25">
+      <c r="A57" t="s">
         <v>3</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="7" t="n">
+      <c r="C57" s="7">
         <v>156</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+    <row r="58" ht="14.25">
+      <c r="A58" t="s">
         <v>3</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C58" s="7" t="n">
+      <c r="C58" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+    <row r="59" ht="14.25">
+      <c r="A59" t="s">
         <v>3</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C59" s="7" t="n">
+      <c r="C59" s="7">
         <v>556</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+    <row r="60" ht="14.25">
+      <c r="A60" t="s">
         <v>3</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="7" t="n">
+      <c r="C60" s="7">
         <v>506</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+    <row r="61" ht="14.25">
+      <c r="A61" t="s">
         <v>3</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="7" t="n">
+      <c r="C61" s="7">
         <v>656</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+    <row r="62" ht="14.25">
+      <c r="A62" t="s">
         <v>3</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="7" t="n">
+      <c r="C62" s="7">
         <v>906</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+    <row r="63" ht="14.25">
+      <c r="A63" t="s">
         <v>3</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="7" t="n">
+      <c r="C63" s="7">
         <v>1006</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+    <row r="64" ht="14.25">
+      <c r="A64" t="s">
         <v>3</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="7" t="n">
+      <c r="C64" s="7">
         <v>466</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+    <row r="65" ht="14.25">
+      <c r="A65" t="s">
         <v>3</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C65" s="7" t="n">
+      <c r="C65" s="7">
         <v>611</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+    <row r="66" ht="14.25">
+      <c r="A66" t="s">
         <v>3</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C66" s="7" t="n">
+      <c r="C66" s="7">
         <v>466</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+    <row r="67" ht="14.25">
+      <c r="A67" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C67" s="7" t="n">
+      <c r="C67" s="7">
         <v>611</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+    <row r="68" ht="14.25">
+      <c r="A68" t="s">
         <v>3</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C68" s="7" t="n">
+      <c r="C68" s="7">
         <v>466</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+    <row r="69" ht="14.25">
+      <c r="A69" t="s">
         <v>3</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C69" s="7" t="n">
+      <c r="C69" s="7">
         <v>466</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+    <row r="70" ht="14.25">
+      <c r="A70" t="s">
         <v>3</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C70" s="7" t="n">
+      <c r="C70" s="7">
         <v>611</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+    <row r="71" ht="14.25">
+      <c r="A71" t="s">
         <v>3</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C71" s="7" t="n">
+      <c r="C71" s="7">
         <v>611</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+    <row r="72" ht="14.25">
+      <c r="A72" t="s">
         <v>3</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C72" s="7" t="n">
+      <c r="C72" s="7">
         <v>611</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+    <row r="73" ht="14.25">
+      <c r="A73" t="s">
         <v>3</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C73" s="7" t="n">
+      <c r="C73" s="7">
         <v>466</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+    <row r="74" ht="14.25">
+      <c r="A74" t="s">
         <v>3</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C74" s="7" t="n">
+      <c r="C74" s="7">
         <v>466</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+    <row r="75" ht="14.25">
+      <c r="A75" t="s">
         <v>3</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C75" s="7" t="n">
+      <c r="C75" s="7">
         <v>611</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+    <row r="76" ht="14.25">
+      <c r="A76" t="s">
         <v>3</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C76" s="7" t="n">
+      <c r="C76" s="7">
         <v>466</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+    <row r="77" ht="14.25">
+      <c r="A77" t="s">
         <v>3</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C77" s="7" t="n">
+      <c r="C77" s="7">
         <v>466</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+    <row r="78" ht="14.25">
+      <c r="A78" t="s">
         <v>3</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C78" s="7" t="n">
+      <c r="C78" s="7">
         <v>466</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+    <row r="79" ht="14.25">
+      <c r="A79" t="s">
         <v>3</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C79" s="9" t="n">
+      <c r="C79" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+    <row r="80" ht="14.25">
+      <c r="A80" t="s">
         <v>3</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C80" s="9" t="n">
+      <c r="C80" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+    <row r="81" ht="14.25">
+      <c r="A81" t="s">
         <v>3</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C81" s="9" t="n">
+      <c r="C81" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+    <row r="82" ht="14.25">
+      <c r="A82" t="s">
         <v>3</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C82" s="9" t="n">
+      <c r="C82" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+    <row r="83" ht="14.25">
+      <c r="A83" t="s">
         <v>3</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C83" s="9" t="n">
+      <c r="C83" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+    <row r="84" ht="14.25">
+      <c r="A84" t="s">
         <v>3</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C84" s="9" t="n">
+      <c r="C84" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+    <row r="85" ht="14.25">
+      <c r="A85" t="s">
         <v>3</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C85" s="9" t="n">
+      <c r="C85" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+    <row r="86" ht="14.25">
+      <c r="A86" t="s">
         <v>3</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C86" s="9" t="n">
+      <c r="C86" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+    <row r="87" ht="14.25">
+      <c r="A87" t="s">
         <v>3</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C87" s="9" t="n">
+      <c r="C87" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+    <row r="88" ht="14.25">
+      <c r="A88" t="s">
         <v>3</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C88" s="9" t="n">
+      <c r="C88" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+    <row r="89" ht="14.25">
+      <c r="A89" t="s">
         <v>3</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C89" s="9" t="n">
+      <c r="C89" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+    <row r="90" ht="14.25">
+      <c r="A90" t="s">
         <v>3</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C90" s="9" t="n">
+      <c r="C90" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+    <row r="91" ht="14.25">
+      <c r="A91" t="s">
         <v>3</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C91" s="9" t="n">
+      <c r="C91" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+    <row r="92" ht="14.25">
+      <c r="A92" t="s">
         <v>3</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C92" s="9" t="n">
+      <c r="C92" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+    <row r="93" ht="14.25">
+      <c r="A93" t="s">
         <v>3</v>
       </c>
       <c r="B93" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C93" s="9" t="n">
+      <c r="C93" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+    <row r="94" ht="14.25">
+      <c r="A94" t="s">
         <v>3</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C94" s="9" t="n">
+      <c r="C94" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+    <row r="95" ht="14.25">
+      <c r="A95" t="s">
         <v>3</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C95" s="9" t="n">
+      <c r="C95" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+    <row r="96" ht="14.25">
+      <c r="A96" t="s">
         <v>3</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C96" s="9" t="n">
+      <c r="C96" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+    <row r="97" ht="14.25">
+      <c r="A97" t="s">
         <v>3</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C97" s="9" t="n">
+      <c r="C97" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+    <row r="98" ht="14.25">
+      <c r="A98" t="s">
         <v>3</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C98" s="9" t="n">
+      <c r="C98" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+    <row r="99" ht="14.25">
+      <c r="A99" t="s">
         <v>3</v>
       </c>
       <c r="B99" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="9" t="n">
+      <c r="C99" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+    <row r="100" ht="14.25">
+      <c r="A100" t="s">
         <v>3</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C100" s="9" t="n">
+      <c r="C100" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+    <row r="101" ht="14.25">
+      <c r="A101" t="s">
         <v>3</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C101" s="9" t="n">
+      <c r="C101" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+    <row r="102" ht="14.25">
+      <c r="A102" t="s">
         <v>3</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C102" s="9" t="n">
+      <c r="C102" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+    <row r="103" ht="14.25">
+      <c r="A103" t="s">
         <v>3</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C103" s="9" t="n">
+      <c r="C103" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+    <row r="104" ht="14.25">
+      <c r="A104" t="s">
         <v>3</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C104" s="9" t="n">
+      <c r="C104" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+    <row r="105" ht="14.25">
+      <c r="A105" t="s">
         <v>3</v>
       </c>
       <c r="B105" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C105" s="9" t="n">
+      <c r="C105" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+    <row r="106" ht="14.25">
+      <c r="A106" t="s">
         <v>3</v>
       </c>
       <c r="B106" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C106" s="9" t="n">
+      <c r="C106" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
+    <row r="107" ht="14.25">
+      <c r="A107" t="s">
         <v>3</v>
       </c>
       <c r="B107" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C107" s="9" t="n">
+      <c r="C107" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
+    <row r="108" ht="14.25">
+      <c r="A108" t="s">
         <v>3</v>
       </c>
       <c r="B108" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C108" s="9" t="n">
+      <c r="C108" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+    <row r="109" ht="14.25">
+      <c r="A109" t="s">
         <v>3</v>
       </c>
       <c r="B109" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C109" s="9" t="n">
+      <c r="C109" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
+    <row r="110" ht="14.25">
+      <c r="A110" t="s">
         <v>3</v>
       </c>
       <c r="B110" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C110" s="9" t="n">
+      <c r="C110" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
+    <row r="111" ht="14.25">
+      <c r="A111" t="s">
         <v>3</v>
       </c>
       <c r="B111" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C111" s="9" t="n">
+      <c r="C111" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
+    <row r="112" ht="14.25">
+      <c r="A112" t="s">
         <v>3</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C112" s="9" t="n">
+      <c r="C112" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
+    <row r="113" ht="14.25">
+      <c r="A113" t="s">
         <v>3</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C113" s="9" t="n">
+      <c r="C113" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+    <row r="114" ht="14.25">
+      <c r="A114" t="s">
         <v>3</v>
       </c>
       <c r="B114" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C114" s="9" t="n">
+      <c r="C114" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
+    <row r="115" ht="14.25">
+      <c r="A115" t="s">
         <v>3</v>
       </c>
       <c r="B115" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C115" s="9" t="n">
+      <c r="C115" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
+    <row r="116" ht="14.25">
+      <c r="A116" t="s">
         <v>3</v>
       </c>
       <c r="B116" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C116" s="9" t="n">
+      <c r="C116" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
+    <row r="117" ht="14.25">
+      <c r="A117" t="s">
         <v>3</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C117" s="9" t="n">
+      <c r="C117" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
+    <row r="118" ht="14.25">
+      <c r="A118" t="s">
         <v>3</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C118" s="9" t="n">
+      <c r="C118" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
+    <row r="119" ht="14.25">
+      <c r="A119" t="s">
         <v>3</v>
       </c>
       <c r="B119" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C119" s="9" t="n">
+      <c r="C119" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
+    <row r="120" ht="14.25">
+      <c r="A120" t="s">
         <v>3</v>
       </c>
       <c r="B120" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C120" s="9" t="n">
+      <c r="C120" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
+    <row r="121" ht="14.25">
+      <c r="A121" t="s">
         <v>3</v>
       </c>
       <c r="B121" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C121" s="9" t="n">
+      <c r="C121" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
+    <row r="122" ht="14.25">
+      <c r="A122" t="s">
         <v>3</v>
       </c>
       <c r="B122" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C122" s="9" t="n">
+      <c r="C122" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
+    <row r="123" ht="14.25">
+      <c r="A123" t="s">
         <v>3</v>
       </c>
       <c r="B123" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C123" s="9" t="n">
+      <c r="C123" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
+    <row r="124" ht="14.25">
+      <c r="A124" t="s">
         <v>3</v>
       </c>
       <c r="B124" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C124" s="9" t="n">
+      <c r="C124" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
+    <row r="125" ht="14.25">
+      <c r="A125" t="s">
         <v>3</v>
       </c>
       <c r="B125" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C125" s="9" t="n">
+      <c r="C125" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
+    <row r="126" ht="14.25">
+      <c r="A126" t="s">
         <v>3</v>
       </c>
       <c r="B126" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C126" s="9" t="n">
+      <c r="C126" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
+    <row r="127" ht="14.25">
+      <c r="A127" t="s">
         <v>3</v>
       </c>
       <c r="B127" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C127" s="9" t="n">
+      <c r="C127" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
+    <row r="128" ht="14.25">
+      <c r="A128" t="s">
         <v>3</v>
       </c>
       <c r="B128" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C128" s="9" t="n">
+      <c r="C128" s="9">
         <v>486</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
+    <row r="129" ht="14.25">
+      <c r="A129" t="s">
         <v>3</v>
       </c>
       <c r="B129" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C129" s="9" t="n">
+      <c r="C129" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
+    <row r="130" ht="14.25">
+      <c r="A130" t="s">
         <v>3</v>
       </c>
       <c r="B130" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C130" s="9" t="n">
+      <c r="C130" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
+    <row r="131" ht="14.25">
+      <c r="A131" t="s">
         <v>3</v>
       </c>
       <c r="B131" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C131" s="9" t="n">
+      <c r="C131" s="9">
         <v>486</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
+    <row r="132" ht="14.25">
+      <c r="A132" t="s">
         <v>3</v>
       </c>
       <c r="B132" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C132" s="9" t="n">
+      <c r="C132" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
+    <row r="133" ht="14.25">
+      <c r="A133" t="s">
         <v>3</v>
       </c>
       <c r="B133" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C133" s="9" t="n">
+      <c r="C133" s="9">
         <v>866</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
+    <row r="134" ht="14.25">
+      <c r="A134" t="s">
         <v>3</v>
       </c>
       <c r="B134" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C134" s="9" t="n">
+      <c r="C134" s="9">
         <v>866</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
+    <row r="135" ht="14.25">
+      <c r="A135" t="s">
         <v>3</v>
       </c>
       <c r="B135" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C135" s="9" t="n">
+      <c r="C135" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
+    <row r="136" ht="14.25">
+      <c r="A136" t="s">
         <v>3</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C136" s="9" t="n">
+      <c r="C136" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
+    <row r="137" ht="14.25">
+      <c r="A137" t="s">
         <v>3</v>
       </c>
       <c r="B137" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C137" s="9" t="n">
+      <c r="C137" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
+    <row r="138" ht="14.25">
+      <c r="A138" t="s">
         <v>3</v>
       </c>
       <c r="B138" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C138" s="9" t="n">
+      <c r="C138" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
+    <row r="139" ht="14.25">
+      <c r="A139" t="s">
         <v>3</v>
       </c>
       <c r="B139" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C139" s="9" t="n">
+      <c r="C139" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
+    <row r="140" ht="14.25">
+      <c r="A140" t="s">
         <v>3</v>
       </c>
       <c r="B140" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C140" s="9" t="n">
+      <c r="C140" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
+    <row r="141" ht="14.25">
+      <c r="A141" t="s">
         <v>3</v>
       </c>
       <c r="B141" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C141" s="9" t="n">
+      <c r="C141" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
+    <row r="142" ht="14.25">
+      <c r="A142" t="s">
         <v>3</v>
       </c>
       <c r="B142" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C142" s="9" t="n">
+      <c r="C142" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
+    <row r="143" ht="14.25">
+      <c r="A143" t="s">
         <v>3</v>
       </c>
       <c r="B143" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C143" s="9" t="n">
+      <c r="C143" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
+    <row r="144" ht="14.25">
+      <c r="A144" t="s">
         <v>3</v>
       </c>
       <c r="B144" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C144" s="9" t="n">
+      <c r="C144" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
+    <row r="145" ht="14.25">
+      <c r="A145" t="s">
         <v>3</v>
       </c>
       <c r="B145" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C145" s="9" t="n">
+      <c r="C145" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
+    <row r="146" ht="14.25">
+      <c r="A146" t="s">
         <v>3</v>
       </c>
       <c r="B146" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C146" s="9" t="n">
+      <c r="C146" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
+    <row r="147" ht="14.25">
+      <c r="A147" t="s">
         <v>3</v>
       </c>
       <c r="B147" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C147" s="9" t="n">
+      <c r="C147" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="s">
+    <row r="148" ht="14.25">
+      <c r="A148" t="s">
         <v>3</v>
       </c>
       <c r="B148" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C148" s="9" t="n">
+      <c r="C148" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
+    <row r="149" ht="14.25">
+      <c r="A149" t="s">
         <v>3</v>
       </c>
       <c r="B149" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C149" s="9" t="n">
+      <c r="C149" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="s">
+    <row r="150" ht="14.25">
+      <c r="A150" t="s">
         <v>3</v>
       </c>
       <c r="B150" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C150" s="9" t="n">
+      <c r="C150" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="s">
+    <row r="151" ht="14.25">
+      <c r="A151" t="s">
         <v>3</v>
       </c>
       <c r="B151" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C151" s="9" t="n">
+      <c r="C151" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="s">
+    <row r="152" ht="14.25">
+      <c r="A152" t="s">
         <v>3</v>
       </c>
       <c r="B152" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C152" s="9" t="n">
+      <c r="C152" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="s">
+    <row r="153" ht="14.25">
+      <c r="A153" t="s">
         <v>3</v>
       </c>
       <c r="B153" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C153" s="9" t="n">
+      <c r="C153" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="s">
+    <row r="154" ht="14.25">
+      <c r="A154" t="s">
         <v>3</v>
       </c>
       <c r="B154" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C154" s="9" t="n">
+      <c r="C154" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="s">
+    <row r="155" ht="14.25">
+      <c r="A155" t="s">
         <v>3</v>
       </c>
       <c r="B155" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C155" s="9" t="n">
+      <c r="C155" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="s">
+    <row r="156" ht="14.25">
+      <c r="A156" t="s">
         <v>3</v>
       </c>
       <c r="B156" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C156" s="9" t="n">
+      <c r="C156" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="s">
+    <row r="157" ht="14.25">
+      <c r="A157" t="s">
         <v>3</v>
       </c>
       <c r="B157" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C157" s="9" t="n">
+      <c r="C157" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="s">
+    <row r="158" ht="14.25">
+      <c r="A158" t="s">
         <v>3</v>
       </c>
       <c r="B158" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C158" s="9" t="n">
+      <c r="C158" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
+    <row r="159" ht="14.25">
+      <c r="A159" t="s">
         <v>3</v>
       </c>
       <c r="B159" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C159" s="9" t="n">
+      <c r="C159" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="s">
+    <row r="160" ht="14.25">
+      <c r="A160" t="s">
         <v>3</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C160" s="9" t="n">
+      <c r="C160" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0" t="s">
+    <row r="161" ht="14.25">
+      <c r="A161" t="s">
         <v>3</v>
       </c>
       <c r="B161" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C161" s="9" t="n">
+      <c r="C161" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="s">
+    <row r="162" ht="14.25">
+      <c r="A162" t="s">
         <v>3</v>
       </c>
       <c r="B162" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C162" s="9" t="n">
+      <c r="C162" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0" t="s">
+    <row r="163" ht="14.25">
+      <c r="A163" t="s">
         <v>3</v>
       </c>
       <c r="B163" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C163" s="9" t="n">
+      <c r="C163" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0" t="s">
+    <row r="164" ht="14.25">
+      <c r="A164" t="s">
         <v>3</v>
       </c>
       <c r="B164" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C164" s="9" t="n">
+      <c r="C164" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0" t="s">
+    <row r="165" ht="14.25">
+      <c r="A165" t="s">
         <v>3</v>
       </c>
       <c r="B165" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C165" s="9" t="n">
+      <c r="C165" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0" t="s">
+    <row r="166" ht="14.25">
+      <c r="A166" t="s">
         <v>3</v>
       </c>
       <c r="B166" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C166" s="9" t="n">
+      <c r="C166" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0" t="s">
+    <row r="167" ht="14.25">
+      <c r="A167" t="s">
         <v>3</v>
       </c>
       <c r="B167" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C167" s="9" t="n">
+      <c r="C167" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0" t="s">
+    <row r="168" ht="14.25">
+      <c r="A168" t="s">
         <v>3</v>
       </c>
       <c r="B168" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C168" s="9" t="n">
+      <c r="C168" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0" t="s">
+    <row r="169" ht="14.25">
+      <c r="A169" t="s">
         <v>3</v>
       </c>
       <c r="B169" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C169" s="9" t="n">
+      <c r="C169" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="s">
+    <row r="170" ht="14.25">
+      <c r="A170" t="s">
         <v>3</v>
       </c>
       <c r="B170" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="C170" s="9" t="n">
+      <c r="C170" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="s">
+    <row r="171" ht="14.25">
+      <c r="A171" t="s">
         <v>3</v>
       </c>
       <c r="B171" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="C171" s="9" t="n">
+      <c r="C171" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="s">
+    <row r="172" ht="14.25">
+      <c r="A172" t="s">
         <v>3</v>
       </c>
       <c r="B172" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C172" s="9" t="n">
+      <c r="C172" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0" t="s">
+    <row r="173" ht="14.25">
+      <c r="A173" t="s">
         <v>3</v>
       </c>
       <c r="B173" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C173" s="9" t="n">
+      <c r="C173" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="s">
+    <row r="174" ht="14.25">
+      <c r="A174" t="s">
         <v>3</v>
       </c>
       <c r="B174" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="C174" s="9" t="n">
+      <c r="C174" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0" t="s">
+    <row r="175" ht="14.25">
+      <c r="A175" t="s">
         <v>3</v>
       </c>
       <c r="B175" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="C175" s="9" t="n">
+      <c r="C175" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0" t="s">
+    <row r="176" ht="14.25">
+      <c r="A176" t="s">
         <v>3</v>
       </c>
       <c r="B176" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C176" s="9" t="n">
+      <c r="C176" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0" t="s">
+    <row r="177" ht="14.25">
+      <c r="A177" t="s">
         <v>3</v>
       </c>
       <c r="B177" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C177" s="9" t="n">
+      <c r="C177" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0" t="s">
+    <row r="178" ht="14.25">
+      <c r="A178" t="s">
         <v>3</v>
       </c>
       <c r="B178" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C178" s="9" t="n">
+      <c r="C178" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0" t="s">
+    <row r="179" ht="14.25">
+      <c r="A179" t="s">
         <v>3</v>
       </c>
       <c r="B179" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="C179" s="9" t="n">
+      <c r="C179" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0" t="s">
+    <row r="180" ht="14.25">
+      <c r="A180" t="s">
         <v>3</v>
       </c>
       <c r="B180" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="C180" s="9" t="n">
+      <c r="C180" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0" t="s">
+    <row r="181" ht="14.25">
+      <c r="A181" t="s">
         <v>3</v>
       </c>
       <c r="B181" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C181" s="9" t="n">
+      <c r="C181" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0" t="s">
+    <row r="182" ht="14.25">
+      <c r="A182" t="s">
         <v>3</v>
       </c>
       <c r="B182" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="C182" s="9" t="n">
+      <c r="C182" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0" t="s">
+    <row r="183" ht="14.25">
+      <c r="A183" t="s">
         <v>3</v>
       </c>
       <c r="B183" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C183" s="9" t="n">
+      <c r="C183" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="0" t="s">
+    <row r="184" ht="14.25">
+      <c r="A184" t="s">
         <v>3</v>
       </c>
       <c r="B184" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="C184" s="9" t="n">
+      <c r="C184" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0" t="s">
+    <row r="185" ht="14.25">
+      <c r="A185" t="s">
         <v>3</v>
       </c>
       <c r="B185" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C185" s="9" t="n">
+      <c r="C185" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="0" t="s">
+    <row r="186" ht="14.25">
+      <c r="A186" t="s">
         <v>3</v>
       </c>
       <c r="B186" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C186" s="9" t="n">
+      <c r="C186" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="0" t="s">
+    <row r="187" ht="14.25">
+      <c r="A187" t="s">
         <v>3</v>
       </c>
       <c r="B187" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="C187" s="9" t="n">
+      <c r="C187" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="0" t="s">
+    <row r="188" ht="14.25">
+      <c r="A188" t="s">
         <v>3</v>
       </c>
       <c r="B188" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C188" s="9" t="n">
+      <c r="C188" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="0" t="s">
+    <row r="189" ht="14.25">
+      <c r="A189" t="s">
         <v>3</v>
       </c>
       <c r="B189" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C189" s="9" t="n">
+      <c r="C189" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="0" t="s">
+    <row r="190" ht="14.25">
+      <c r="A190" t="s">
         <v>3</v>
       </c>
       <c r="B190" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="C190" s="9" t="n">
+      <c r="C190" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="0" t="s">
+    <row r="191" ht="14.25">
+      <c r="A191" t="s">
         <v>3</v>
       </c>
       <c r="B191" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C191" s="9" t="n">
+      <c r="C191" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="0" t="s">
+    <row r="192" ht="14.25">
+      <c r="A192" t="s">
         <v>3</v>
       </c>
       <c r="B192" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="C192" s="9" t="n">
+      <c r="C192" s="9">
         <v>506</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="0" t="s">
+    <row r="193" ht="14.25">
+      <c r="A193" t="s">
         <v>3</v>
       </c>
       <c r="B193" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C193" s="9" t="n">
+      <c r="C193" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="0" t="s">
+    <row r="194" ht="14.25">
+      <c r="A194" t="s">
         <v>3</v>
       </c>
       <c r="B194" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C194" s="9" t="n">
+      <c r="C194" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="0" t="s">
+    <row r="195" ht="14.25">
+      <c r="A195" t="s">
         <v>3</v>
       </c>
       <c r="B195" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="C195" s="9" t="n">
+      <c r="C195" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="0" t="s">
+    <row r="196" ht="14.25">
+      <c r="A196" t="s">
         <v>3</v>
       </c>
       <c r="B196" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="C196" s="9" t="n">
+      <c r="C196" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="0" t="s">
+    <row r="197" ht="14.25">
+      <c r="A197" t="s">
         <v>3</v>
       </c>
       <c r="B197" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C197" s="9" t="n">
+      <c r="C197" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="0" t="s">
+    <row r="198" ht="14.25">
+      <c r="A198" t="s">
         <v>3</v>
       </c>
       <c r="B198" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="C198" s="9" t="n">
+      <c r="C198" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="0" t="s">
+    <row r="199" ht="14.25">
+      <c r="A199" t="s">
         <v>3</v>
       </c>
       <c r="B199" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C199" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="s">
+      <c r="C199" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="200" ht="14.25">
+      <c r="A200" t="s">
         <v>3</v>
       </c>
       <c r="B200" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="C200" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="0" t="s">
+      <c r="C200" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="201" ht="14.25">
+      <c r="A201" t="s">
         <v>3</v>
       </c>
       <c r="B201" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="C201" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="0" t="s">
+      <c r="C201" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="202" ht="14.25">
+      <c r="A202" t="s">
         <v>3</v>
       </c>
       <c r="B202" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="C202" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="0" t="s">
+      <c r="C202" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="203" ht="14.25">
+      <c r="A203" t="s">
         <v>3</v>
       </c>
       <c r="B203" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C203" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="0" t="s">
+      <c r="C203" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="204" ht="14.25">
+      <c r="A204" t="s">
         <v>3</v>
       </c>
       <c r="B204" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="C204" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="0" t="s">
+      <c r="C204" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="205" ht="14.25">
+      <c r="A205" t="s">
         <v>3</v>
       </c>
       <c r="B205" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="C205" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="0" t="s">
+      <c r="C205" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="206" ht="14.25">
+      <c r="A206" t="s">
         <v>3</v>
       </c>
       <c r="B206" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="C206" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="0" t="s">
+      <c r="C206" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="207" ht="14.25">
+      <c r="A207" t="s">
         <v>3</v>
       </c>
       <c r="B207" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="C207" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="0" t="s">
+      <c r="C207" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="208" ht="14.25">
+      <c r="A208" t="s">
         <v>3</v>
       </c>
       <c r="B208" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C208" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="0" t="s">
+      <c r="C208" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="209" ht="14.25">
+      <c r="A209" t="s">
         <v>3</v>
       </c>
       <c r="B209" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C209" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="0" t="s">
+      <c r="C209" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="210" ht="14.25">
+      <c r="A210" t="s">
         <v>3</v>
       </c>
       <c r="B210" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="C210" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="0" t="s">
+      <c r="C210" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="211" ht="14.25">
+      <c r="A211" t="s">
         <v>3</v>
       </c>
       <c r="B211" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C211" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="0" t="s">
+      <c r="C211" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="212" ht="14.25">
+      <c r="A212" t="s">
         <v>3</v>
       </c>
       <c r="B212" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="C212" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="0" t="s">
+      <c r="C212" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="213" ht="14.25">
+      <c r="A213" t="s">
         <v>3</v>
       </c>
       <c r="B213" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C213" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="0" t="s">
+      <c r="C213" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="214" ht="14.25">
+      <c r="A214" t="s">
         <v>3</v>
       </c>
       <c r="B214" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="C214" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="0" t="s">
+      <c r="C214" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="215" ht="14.25">
+      <c r="A215" t="s">
         <v>3</v>
       </c>
       <c r="B215" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="C215" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="0" t="s">
+      <c r="C215" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="216" ht="14.25">
+      <c r="A216" t="s">
         <v>3</v>
       </c>
       <c r="B216" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C216" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="0" t="s">
+      <c r="C216" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="217" ht="14.25">
+      <c r="A217" t="s">
         <v>3</v>
       </c>
       <c r="B217" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="C217" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="0" t="s">
+      <c r="C217" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="218" ht="14.25">
+      <c r="A218" t="s">
         <v>3</v>
       </c>
       <c r="B218" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="C218" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="0" t="s">
+      <c r="C218" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="219" ht="14.25">
+      <c r="A219" t="s">
         <v>3</v>
       </c>
       <c r="B219" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="C219" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="0" t="s">
+      <c r="C219" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="220" ht="14.25">
+      <c r="A220" t="s">
         <v>3</v>
       </c>
       <c r="B220" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="C220" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="0" t="s">
+      <c r="C220" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="221" ht="14.25">
+      <c r="A221" t="s">
         <v>3</v>
       </c>
       <c r="B221" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C221" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="0" t="s">
+      <c r="C221" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="222" ht="14.25">
+      <c r="A222" t="s">
         <v>3</v>
       </c>
       <c r="B222" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="C222" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="0" t="s">
+      <c r="C222" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="223" ht="14.25">
+      <c r="A223" t="s">
         <v>3</v>
       </c>
       <c r="B223" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="C223" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="0" t="s">
+      <c r="C223" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="224" ht="14.25">
+      <c r="A224" t="s">
         <v>3</v>
       </c>
       <c r="B224" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="C224" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="0" t="s">
+      <c r="C224" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="225" ht="14.25">
+      <c r="A225" t="s">
         <v>3</v>
       </c>
       <c r="B225" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="C225" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="0" t="s">
+      <c r="C225" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="226" ht="14.25">
+      <c r="A226" t="s">
         <v>3</v>
       </c>
       <c r="B226" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="C226" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="0" t="s">
+      <c r="C226" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="227" ht="14.25">
+      <c r="A227" t="s">
         <v>3</v>
       </c>
       <c r="B227" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="C227" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="0" t="s">
+      <c r="C227" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="228" ht="14.25">
+      <c r="A228" t="s">
         <v>3</v>
       </c>
       <c r="B228" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="C228" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="0" t="s">
+      <c r="C228" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="229" ht="14.25">
+      <c r="A229" t="s">
         <v>3</v>
       </c>
       <c r="B229" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="C229" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="0" t="s">
+      <c r="C229" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="230" ht="14.25">
+      <c r="A230" t="s">
         <v>3</v>
       </c>
       <c r="B230" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="C230" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="0" t="s">
+      <c r="C230" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="231" ht="14.25">
+      <c r="A231" t="s">
         <v>3</v>
       </c>
       <c r="B231" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="C231" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="0" t="s">
+      <c r="C231" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="232" ht="14.25">
+      <c r="A232" t="s">
         <v>3</v>
       </c>
       <c r="B232" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="C232" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="0" t="s">
+      <c r="C232" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="233" ht="14.25">
+      <c r="A233" t="s">
         <v>3</v>
       </c>
       <c r="B233" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="C233" s="9" t="n">
+      <c r="C233" s="9">
         <v>156</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="0" t="s">
+    <row r="234" ht="14.25">
+      <c r="A234" t="s">
         <v>3</v>
       </c>
       <c r="B234" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="C234" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="0" t="s">
+      <c r="C234" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="235" ht="14.25">
+      <c r="A235" t="s">
         <v>3</v>
       </c>
       <c r="B235" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C235" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="236" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="0" t="s">
+      <c r="C235" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="236" ht="14.25">
+      <c r="A236" t="s">
         <v>3</v>
       </c>
       <c r="B236" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="C236" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="237" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="0" t="s">
+      <c r="C236" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="237" ht="14.25">
+      <c r="A237" t="s">
         <v>3</v>
       </c>
       <c r="B237" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="C237" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="238" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="0" t="s">
+      <c r="C237" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="238" ht="14.25">
+      <c r="A238" t="s">
         <v>3</v>
       </c>
       <c r="B238" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="C238" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="0" t="s">
+      <c r="C238" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="239" ht="14.25">
+      <c r="A239" t="s">
         <v>3</v>
       </c>
       <c r="B239" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C239" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="0" t="s">
+      <c r="C239" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="240" ht="14.25">
+      <c r="A240" t="s">
         <v>3</v>
       </c>
       <c r="B240" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="C240" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="0" t="s">
+      <c r="C240" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="241" ht="14.25">
+      <c r="A241" t="s">
         <v>3</v>
       </c>
       <c r="B241" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="C241" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="0" t="s">
+      <c r="C241" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="242" ht="14.25">
+      <c r="A242" t="s">
         <v>3</v>
       </c>
       <c r="B242" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C242" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="0" t="s">
+      <c r="C242" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="243" ht="14.25">
+      <c r="A243" t="s">
         <v>3</v>
       </c>
       <c r="B243" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C243" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="0" t="s">
+      <c r="C243" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="244" ht="14.25">
+      <c r="A244" t="s">
         <v>3</v>
       </c>
       <c r="B244" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="C244" s="9" t="n">
+      <c r="C244" s="9">
         <v>126</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="0" t="s">
+    <row r="245" ht="14.25">
+      <c r="A245" t="s">
         <v>3</v>
       </c>
       <c r="B245" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="C245" s="9" t="n">
+      <c r="C245" s="9">
         <v>156</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="0" t="s">
+    <row r="246" ht="14.25">
+      <c r="A246" t="s">
         <v>3</v>
       </c>
       <c r="B246" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="C246" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="0" t="s">
+      <c r="C246" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="247" ht="14.25">
+      <c r="A247" t="s">
         <v>3</v>
       </c>
       <c r="B247" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="C247" s="9" t="n">
+      <c r="C247" s="9">
         <v>21</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="0" t="s">
+    <row r="248" ht="14.25">
+      <c r="A248" t="s">
         <v>3</v>
       </c>
       <c r="B248" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="C248" s="9" t="n">
+      <c r="C248" s="9">
         <v>21</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="0" t="s">
+    <row r="249" ht="14.25">
+      <c r="A249" t="s">
         <v>3</v>
       </c>
       <c r="B249" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="C249" s="9" t="n">
+      <c r="C249" s="9">
         <v>21</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="0" t="s">
+    <row r="250" ht="14.25">
+      <c r="A250" t="s">
         <v>3</v>
       </c>
       <c r="B250" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C250" s="9" t="n">
+      <c r="C250" s="9">
         <v>21</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="0" t="s">
+    <row r="251" ht="14.25">
+      <c r="A251" t="s">
         <v>3</v>
       </c>
       <c r="B251" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="C251" s="9" t="n">
+      <c r="C251" s="9">
         <v>21</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="0" t="s">
+    <row r="252" ht="14.25">
+      <c r="A252" t="s">
         <v>3</v>
       </c>
       <c r="B252" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="C252" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="253" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="0" t="s">
+      <c r="C252" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="253" ht="14.25">
+      <c r="A253" t="s">
         <v>3</v>
       </c>
       <c r="B253" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C253" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="0" t="s">
+      <c r="C253" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="254" ht="14.25">
+      <c r="A254" t="s">
         <v>3</v>
       </c>
       <c r="B254" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="C254" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="0" t="s">
+      <c r="C254" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="255" ht="14.25">
+      <c r="A255" t="s">
         <v>3</v>
       </c>
       <c r="B255" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="C255" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="256" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="0" t="s">
+      <c r="C255" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="256" ht="14.25">
+      <c r="A256" t="s">
         <v>3</v>
       </c>
       <c r="B256" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="C256" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="257" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="0" t="s">
+      <c r="C256" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="257" ht="14.25">
+      <c r="A257" t="s">
         <v>3</v>
       </c>
       <c r="B257" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="C257" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="258" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="0" t="s">
+      <c r="C257" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="258" ht="14.25">
+      <c r="A258" t="s">
         <v>3</v>
       </c>
       <c r="B258" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="C258" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="259" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="0" t="s">
+      <c r="C258" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="259" ht="14.25">
+      <c r="A259" t="s">
         <v>3</v>
       </c>
       <c r="B259" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="C259" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="260" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="0" t="s">
+      <c r="C259" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="260" ht="14.25">
+      <c r="A260" t="s">
         <v>3</v>
       </c>
       <c r="B260" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="C260" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="261" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="0" t="s">
+      <c r="C260" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="261" ht="14.25">
+      <c r="A261" t="s">
         <v>3</v>
       </c>
       <c r="B261" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="C261" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="0" t="s">
+      <c r="C261" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="262" ht="14.25">
+      <c r="A262" t="s">
         <v>3</v>
       </c>
       <c r="B262" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C262" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="263" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="0" t="s">
+      <c r="C262" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="263" ht="14.25">
+      <c r="A263" t="s">
         <v>3</v>
       </c>
       <c r="B263" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="C263" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="0" t="s">
+      <c r="C263" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="264" ht="14.25">
+      <c r="A264" t="s">
         <v>3</v>
       </c>
       <c r="B264" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C264" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="265" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="0" t="s">
+      <c r="C264" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="265" ht="14.25">
+      <c r="A265" t="s">
         <v>3</v>
       </c>
       <c r="B265" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="C265" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="266" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="0" t="s">
+      <c r="C265" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="266" ht="14.25">
+      <c r="A266" t="s">
         <v>3</v>
       </c>
       <c r="B266" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="C266" s="9" t="n">
+      <c r="C266" s="9">
         <v>156</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="0" t="s">
+    <row r="267" ht="14.25">
+      <c r="A267" t="s">
         <v>3</v>
       </c>
       <c r="B267" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="C267" s="9" t="n">
+      <c r="C267" s="9">
         <v>156</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="0" t="s">
+    <row r="268" ht="14.25">
+      <c r="A268" t="s">
         <v>3</v>
       </c>
       <c r="B268" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="C268" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="269" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="0" t="s">
+      <c r="C268" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="269" ht="14.25">
+      <c r="A269" t="s">
         <v>3</v>
       </c>
       <c r="B269" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C269" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="270" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="0" t="s">
+      <c r="C269" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="270" ht="14.25">
+      <c r="A270" t="s">
         <v>3</v>
       </c>
       <c r="B270" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="C270" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="271" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="0" t="s">
+      <c r="C270" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="271" ht="14.25">
+      <c r="A271" t="s">
         <v>3</v>
       </c>
       <c r="B271" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="C271" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="272" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="0" t="s">
+      <c r="C271" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="272" ht="14.25">
+      <c r="A272" t="s">
         <v>3</v>
       </c>
       <c r="B272" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="C272" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="273" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="0" t="s">
+      <c r="C272" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="273" ht="14.25">
+      <c r="A273" t="s">
         <v>3</v>
       </c>
       <c r="B273" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="C273" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="274" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="0" t="s">
+      <c r="C273" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="274" ht="14.25">
+      <c r="A274" t="s">
         <v>3</v>
       </c>
       <c r="B274" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="C274" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="275" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="0" t="s">
+      <c r="C274" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="275" ht="14.25">
+      <c r="A275" t="s">
         <v>3</v>
       </c>
       <c r="B275" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="C275" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="276" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="0" t="s">
+      <c r="C275" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="276" ht="14.25">
+      <c r="A276" t="s">
         <v>3</v>
       </c>
       <c r="B276" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="C276" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="277" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="0" t="s">
+      <c r="C276" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="277" ht="14.25">
+      <c r="A277" t="s">
         <v>3</v>
       </c>
       <c r="B277" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="C277" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="278" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="0" t="s">
+      <c r="C277" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="278" ht="14.25">
+      <c r="A278" t="s">
         <v>3</v>
       </c>
       <c r="B278" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="C278" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="279" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="0" t="s">
+      <c r="C278" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="279" ht="14.25">
+      <c r="A279" t="s">
         <v>3</v>
       </c>
       <c r="B279" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="C279" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="280" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="0" t="s">
+      <c r="C279" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="280" ht="14.25">
+      <c r="A280" t="s">
         <v>3</v>
       </c>
       <c r="B280" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="C280" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="281" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="0" t="s">
+      <c r="C280" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="281" ht="14.25">
+      <c r="A281" t="s">
         <v>3</v>
       </c>
       <c r="B281" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="C281" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="282" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="0" t="s">
+      <c r="C281" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="282" ht="14.25">
+      <c r="A282" t="s">
         <v>3</v>
       </c>
       <c r="B282" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="C282" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="283" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="0" t="s">
+      <c r="C282" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="283" ht="14.25">
+      <c r="A283" t="s">
         <v>3</v>
       </c>
       <c r="B283" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="C283" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="284" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="0" t="s">
+      <c r="C283" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="284" ht="14.25">
+      <c r="A284" t="s">
         <v>3</v>
       </c>
       <c r="B284" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C284" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="285" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="0" t="s">
+      <c r="C284" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="285" ht="14.25">
+      <c r="A285" t="s">
         <v>3</v>
       </c>
       <c r="B285" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="C285" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="286" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="0" t="s">
+      <c r="C285" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="286" ht="14.25">
+      <c r="A286" t="s">
         <v>3</v>
       </c>
       <c r="B286" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="C286" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="287" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="0" t="s">
+      <c r="C286" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="287" ht="14.25">
+      <c r="A287" t="s">
         <v>3</v>
       </c>
       <c r="B287" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="C287" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="288" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="0" t="s">
+      <c r="C287" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="288" ht="14.25">
+      <c r="A288" t="s">
         <v>3</v>
       </c>
       <c r="B288" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="C288" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="289" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="0" t="s">
+      <c r="C288" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="289" ht="14.25">
+      <c r="A289" t="s">
         <v>3</v>
       </c>
       <c r="B289" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="C289" s="9" t="n">
+      <c r="C289" s="9">
         <v>406</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="0" t="s">
+    <row r="290" ht="14.25">
+      <c r="A290" t="s">
         <v>3</v>
       </c>
       <c r="B290" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="C290" s="9" t="n">
+      <c r="C290" s="9">
         <v>476</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="0" t="s">
+    <row r="291" ht="14.25">
+      <c r="A291" t="s">
         <v>3</v>
       </c>
       <c r="B291" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="C291" s="9" t="n">
+      <c r="C291" s="9">
         <v>476</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="0" t="s">
+    <row r="292" ht="14.25">
+      <c r="A292" t="s">
         <v>3</v>
       </c>
       <c r="B292" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="C292" s="9" t="n">
+      <c r="C292" s="9">
         <v>556</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="0" t="s">
+    <row r="293" ht="14.25">
+      <c r="A293" t="s">
         <v>3</v>
       </c>
       <c r="B293" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="C293" s="9" t="n">
+      <c r="C293" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="0" t="s">
+    <row r="294" ht="14.25">
+      <c r="A294" t="s">
         <v>3</v>
       </c>
       <c r="B294" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="C294" s="9" t="n">
+      <c r="C294" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="0" t="s">
+    <row r="295" ht="14.25">
+      <c r="A295" t="s">
         <v>3</v>
       </c>
       <c r="B295" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="C295" s="9" t="n">
+      <c r="C295" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="0" t="s">
+    <row r="296" ht="14.25">
+      <c r="A296" t="s">
         <v>3</v>
       </c>
       <c r="B296" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="C296" s="9" t="n">
+      <c r="C296" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="0" t="s">
+    <row r="297" ht="14.25">
+      <c r="A297" t="s">
         <v>3</v>
       </c>
       <c r="B297" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="C297" s="9" t="n">
+      <c r="C297" s="9">
         <v>476</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="0" t="s">
+    <row r="298" ht="14.25">
+      <c r="A298" t="s">
         <v>3</v>
       </c>
       <c r="B298" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="C298" s="9" t="n">
+      <c r="C298" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="0" t="s">
+    <row r="299" ht="14.25">
+      <c r="A299" t="s">
         <v>3</v>
       </c>
       <c r="B299" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="C299" s="9" t="n">
+      <c r="C299" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="0" t="s">
+    <row r="300" ht="14.25">
+      <c r="A300" t="s">
         <v>3</v>
       </c>
       <c r="B300" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="C300" s="9" t="n">
+      <c r="C300" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="0" t="s">
+    <row r="301" ht="14.25">
+      <c r="A301" t="s">
         <v>3</v>
       </c>
       <c r="B301" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="C301" s="9" t="n">
+      <c r="C301" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="0" t="s">
+    <row r="302" ht="14.25">
+      <c r="A302" t="s">
         <v>3</v>
       </c>
       <c r="B302" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="C302" s="9" t="n">
+      <c r="C302" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="0" t="s">
+    <row r="303" ht="14.25">
+      <c r="A303" t="s">
         <v>3</v>
       </c>
       <c r="B303" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="C303" s="9" t="n">
+      <c r="C303" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="0" t="s">
+    <row r="304" ht="14.25">
+      <c r="A304" t="s">
         <v>3</v>
       </c>
       <c r="B304" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="C304" s="9" t="n">
+      <c r="C304" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="0" t="s">
+    <row r="305" ht="14.25">
+      <c r="A305" t="s">
         <v>3</v>
       </c>
       <c r="B305" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="C305" s="9" t="n">
+      <c r="C305" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="0" t="s">
+    <row r="306" ht="14.25">
+      <c r="A306" t="s">
         <v>3</v>
       </c>
       <c r="B306" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="C306" s="9" t="n">
+      <c r="C306" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="0" t="s">
+    <row r="307" ht="14.25">
+      <c r="A307" t="s">
         <v>3</v>
       </c>
       <c r="B307" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="C307" s="9" t="n">
+      <c r="C307" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="0" t="s">
+    <row r="308" ht="14.25">
+      <c r="A308" t="s">
         <v>3</v>
       </c>
       <c r="B308" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="C308" s="9" t="n">
+      <c r="C308" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="0" t="s">
+    <row r="309" ht="14.25">
+      <c r="A309" t="s">
         <v>3</v>
       </c>
       <c r="B309" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="C309" s="9" t="n">
+      <c r="C309" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="0" t="s">
+    <row r="310" ht="14.25">
+      <c r="A310" t="s">
         <v>3</v>
       </c>
       <c r="B310" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="C310" s="9" t="n">
+      <c r="C310" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="0" t="s">
+    <row r="311" ht="14.25">
+      <c r="A311" t="s">
         <v>3</v>
       </c>
       <c r="B311" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="C311" s="9" t="n">
+      <c r="C311" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="0" t="s">
+    <row r="312" ht="14.25">
+      <c r="A312" t="s">
         <v>3</v>
       </c>
       <c r="B312" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="C312" s="9" t="n">
+      <c r="C312" s="9">
         <v>46</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="0" t="s">
+    <row r="313" ht="14.25">
+      <c r="A313" t="s">
         <v>3</v>
       </c>
       <c r="B313" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="C313" s="9" t="n">
+      <c r="C313" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="0" t="s">
+    <row r="314" ht="14.25">
+      <c r="A314" t="s">
         <v>3</v>
       </c>
       <c r="B314" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="C314" s="9" t="n">
+      <c r="C314" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="0" t="s">
+    <row r="315" ht="14.25">
+      <c r="A315" t="s">
         <v>3</v>
       </c>
       <c r="B315" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="C315" s="9" t="n">
+      <c r="C315" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="0" t="s">
+    <row r="316" ht="14.25">
+      <c r="A316" t="s">
         <v>3</v>
       </c>
       <c r="B316" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="C316" s="9" t="n">
+      <c r="C316" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="0" t="s">
+    <row r="317" ht="14.25">
+      <c r="A317" t="s">
         <v>3</v>
       </c>
       <c r="B317" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="C317" s="9" t="n">
+      <c r="C317" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="0" t="s">
+    <row r="318" ht="14.25">
+      <c r="A318" t="s">
         <v>3</v>
       </c>
       <c r="B318" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="C318" s="9" t="n">
+      <c r="C318" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="0" t="s">
+    <row r="319" ht="14.25">
+      <c r="A319" t="s">
         <v>3</v>
       </c>
       <c r="B319" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="C319" s="9" t="n">
+      <c r="C319" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="0" t="s">
+    <row r="320" ht="14.25">
+      <c r="A320" t="s">
         <v>3</v>
       </c>
       <c r="B320" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="C320" s="9" t="n">
+      <c r="C320" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="0" t="s">
+    <row r="321" ht="14.25">
+      <c r="A321" t="s">
         <v>3</v>
       </c>
       <c r="B321" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="C321" s="9" t="n">
+      <c r="C321" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="0" t="s">
+    <row r="322" ht="14.25">
+      <c r="A322" t="s">
         <v>3</v>
       </c>
       <c r="B322" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="C322" s="9" t="n">
+      <c r="C322" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="0" t="s">
+    <row r="323" ht="14.25">
+      <c r="A323" t="s">
         <v>3</v>
       </c>
       <c r="B323" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="C323" s="9" t="n">
+      <c r="C323" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="0" t="s">
+    <row r="324" ht="14.25">
+      <c r="A324" t="s">
         <v>3</v>
       </c>
       <c r="B324" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="C324" s="9" t="n">
+      <c r="C324" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="0" t="s">
+    <row r="325" ht="14.25">
+      <c r="A325" t="s">
         <v>3</v>
       </c>
       <c r="B325" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="C325" s="9" t="n">
+      <c r="C325" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="0" t="s">
+    <row r="326" ht="14.25">
+      <c r="A326" t="s">
         <v>3</v>
       </c>
       <c r="B326" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="C326" s="9" t="n">
+      <c r="C326" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="0" t="s">
+    <row r="327" ht="14.25">
+      <c r="A327" t="s">
         <v>3</v>
       </c>
       <c r="B327" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="C327" s="9" t="n">
+      <c r="C327" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="0" t="s">
+    <row r="328" ht="14.25">
+      <c r="A328" t="s">
         <v>3</v>
       </c>
       <c r="B328" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="C328" s="9" t="n">
+      <c r="C328" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="0" t="s">
+    <row r="329" ht="14.25">
+      <c r="A329" t="s">
         <v>3</v>
       </c>
       <c r="B329" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="C329" s="9" t="n">
+      <c r="C329" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="0" t="s">
+    <row r="330" ht="14.25">
+      <c r="A330" t="s">
         <v>3</v>
       </c>
       <c r="B330" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="C330" s="9" t="n">
+      <c r="C330" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="0" t="s">
+    <row r="331" ht="14.25">
+      <c r="A331" t="s">
         <v>3</v>
       </c>
       <c r="B331" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="C331" s="9" t="n">
+      <c r="C331" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="0" t="s">
+    <row r="332" ht="14.25">
+      <c r="A332" t="s">
         <v>3</v>
       </c>
       <c r="B332" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="C332" s="9" t="n">
+      <c r="C332" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="0" t="s">
+    <row r="333" ht="14.25">
+      <c r="A333" t="s">
         <v>3</v>
       </c>
       <c r="B333" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="C333" s="9" t="n">
+      <c r="C333" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="0" t="s">
+    <row r="334" ht="14.25">
+      <c r="A334" t="s">
         <v>3</v>
       </c>
       <c r="B334" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="C334" s="9" t="n">
+      <c r="C334" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="0" t="s">
+    <row r="335" ht="14.25">
+      <c r="A335" t="s">
         <v>3</v>
       </c>
       <c r="B335" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="C335" s="9" t="n">
+      <c r="C335" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="0" t="s">
+    <row r="336" ht="14.25">
+      <c r="A336" t="s">
         <v>3</v>
       </c>
       <c r="B336" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="C336" s="9" t="n">
+      <c r="C336" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="0" t="s">
+    <row r="337" ht="14.25">
+      <c r="A337" t="s">
         <v>3</v>
       </c>
       <c r="B337" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="C337" s="9" t="n">
+      <c r="C337" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="0" t="s">
+    <row r="338" ht="14.25">
+      <c r="A338" t="s">
         <v>3</v>
       </c>
       <c r="B338" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="C338" s="9" t="n">
+      <c r="C338" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="0" t="s">
+    <row r="339" ht="14.25">
+      <c r="A339" t="s">
         <v>3</v>
       </c>
       <c r="B339" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="C339" s="9" t="n">
+      <c r="C339" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="0" t="s">
+    <row r="340" ht="14.25">
+      <c r="A340" t="s">
         <v>3</v>
       </c>
       <c r="B340" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="C340" s="9" t="n">
+      <c r="C340" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="0" t="s">
+    <row r="341" ht="14.25">
+      <c r="A341" t="s">
         <v>3</v>
       </c>
       <c r="B341" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="C341" s="9" t="n">
+      <c r="C341" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="0" t="s">
+    <row r="342" ht="14.25">
+      <c r="A342" t="s">
         <v>3</v>
       </c>
       <c r="B342" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="C342" s="9" t="n">
+      <c r="C342" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="0" t="s">
+    <row r="343" ht="14.25">
+      <c r="A343" t="s">
         <v>3</v>
       </c>
       <c r="B343" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="C343" s="9" t="n">
+      <c r="C343" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="0" t="s">
+    <row r="344" ht="14.25">
+      <c r="A344" t="s">
         <v>3</v>
       </c>
       <c r="B344" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="C344" s="9" t="n">
+      <c r="C344" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="0" t="s">
+    <row r="345" ht="14.25">
+      <c r="A345" t="s">
         <v>3</v>
       </c>
       <c r="B345" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="C345" s="9" t="n">
+      <c r="C345" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="0" t="s">
+    <row r="346" ht="14.25">
+      <c r="A346" t="s">
         <v>3</v>
       </c>
       <c r="B346" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="C346" s="9" t="n">
+      <c r="C346" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="0" t="s">
+    <row r="347" ht="14.25">
+      <c r="A347" t="s">
         <v>3</v>
       </c>
       <c r="B347" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="C347" s="9" t="n">
+      <c r="C347" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="0" t="s">
+    <row r="348" ht="14.25">
+      <c r="A348" t="s">
         <v>3</v>
       </c>
       <c r="B348" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="C348" s="9" t="n">
+      <c r="C348" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="0" t="s">
+    <row r="349" ht="14.25">
+      <c r="A349" t="s">
         <v>3</v>
       </c>
       <c r="B349" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="C349" s="9" t="n">
+      <c r="C349" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="0" t="s">
+    <row r="350" ht="14.25">
+      <c r="A350" t="s">
         <v>3</v>
       </c>
       <c r="B350" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="C350" s="9" t="n">
+      <c r="C350" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="0" t="s">
+    <row r="351" ht="14.25">
+      <c r="A351" t="s">
         <v>3</v>
       </c>
       <c r="B351" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="C351" s="9" t="n">
+      <c r="C351" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="0" t="s">
+    <row r="352" ht="14.25">
+      <c r="A352" t="s">
         <v>3</v>
       </c>
       <c r="B352" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="C352" s="9" t="n">
+      <c r="C352" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="0" t="s">
+    <row r="353" ht="14.25">
+      <c r="A353" t="s">
         <v>3</v>
       </c>
       <c r="B353" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="C353" s="9" t="n">
+      <c r="C353" s="9">
         <v>456</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="0" t="s">
+    <row r="354" ht="14.25">
+      <c r="A354" t="s">
         <v>3</v>
       </c>
       <c r="B354" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="C354" s="9" t="n">
+      <c r="C354" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="0" t="s">
+    <row r="355" ht="14.25">
+      <c r="A355" t="s">
         <v>3</v>
       </c>
       <c r="B355" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C355" s="9" t="n">
+      <c r="C355" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="356" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="0" t="s">
+    <row r="356" ht="14.25">
+      <c r="A356" t="s">
         <v>3</v>
       </c>
       <c r="B356" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="C356" s="9" t="n">
+      <c r="C356" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="0" t="s">
+    <row r="357" ht="14.25">
+      <c r="A357" t="s">
         <v>3</v>
       </c>
       <c r="B357" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="C357" s="9" t="n">
+      <c r="C357" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="0" t="s">
+    <row r="358" ht="14.25">
+      <c r="A358" t="s">
         <v>3</v>
       </c>
       <c r="B358" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="C358" s="9" t="n">
+      <c r="C358" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="0" t="s">
+    <row r="359" ht="14.25">
+      <c r="A359" t="s">
         <v>3</v>
       </c>
       <c r="B359" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="C359" s="9" t="n">
+      <c r="C359" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="0" t="s">
+    <row r="360" ht="14.25">
+      <c r="A360" t="s">
         <v>3</v>
       </c>
       <c r="B360" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="C360" s="9" t="n">
+      <c r="C360" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="0" t="s">
+    <row r="361" ht="14.25">
+      <c r="A361" t="s">
         <v>3</v>
       </c>
       <c r="B361" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="C361" s="9" t="n">
+      <c r="C361" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="0" t="s">
+    <row r="362" ht="14.25">
+      <c r="A362" t="s">
         <v>3</v>
       </c>
       <c r="B362" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="C362" s="9" t="n">
+      <c r="C362" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="0" t="s">
+    <row r="363" ht="14.25">
+      <c r="A363" t="s">
         <v>3</v>
       </c>
       <c r="B363" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="C363" s="9" t="n">
+      <c r="C363" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="0" t="s">
+    <row r="364" ht="14.25">
+      <c r="A364" t="s">
         <v>3</v>
       </c>
       <c r="B364" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="C364" s="9" t="n">
+      <c r="C364" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="0" t="s">
+    <row r="365" ht="14.25">
+      <c r="A365" t="s">
         <v>3</v>
       </c>
       <c r="B365" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="C365" s="9" t="n">
+      <c r="C365" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="0" t="s">
+    <row r="366" ht="14.25">
+      <c r="A366" t="s">
         <v>3</v>
       </c>
       <c r="B366" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="C366" s="9" t="n">
+      <c r="C366" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="0" t="s">
+    <row r="367" ht="14.25">
+      <c r="A367" t="s">
         <v>3</v>
       </c>
       <c r="B367" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="C367" s="9" t="n">
+      <c r="C367" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="0" t="s">
+    <row r="368" ht="14.25">
+      <c r="A368" t="s">
         <v>3</v>
       </c>
       <c r="B368" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="C368" s="9" t="n">
+      <c r="C368" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="369" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="0" t="s">
+    <row r="369" ht="14.25">
+      <c r="A369" t="s">
         <v>3</v>
       </c>
       <c r="B369" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="C369" s="9" t="n">
+      <c r="C369" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="0" t="s">
+    <row r="370" ht="14.25">
+      <c r="A370" t="s">
         <v>3</v>
       </c>
       <c r="B370" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="C370" s="9" t="n">
+      <c r="C370" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="0" t="s">
+    <row r="371" ht="14.25">
+      <c r="A371" t="s">
         <v>3</v>
       </c>
       <c r="B371" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="C371" s="9" t="n">
+      <c r="C371" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="0" t="s">
+    <row r="372" ht="14.25">
+      <c r="A372" t="s">
         <v>3</v>
       </c>
       <c r="B372" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="C372" s="9" t="n">
+      <c r="C372" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="0" t="s">
+    <row r="373" ht="14.25">
+      <c r="A373" t="s">
         <v>3</v>
       </c>
       <c r="B373" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="C373" s="9" t="n">
+      <c r="C373" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="0" t="s">
+    <row r="374" ht="14.25">
+      <c r="A374" t="s">
         <v>3</v>
       </c>
       <c r="B374" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="C374" s="9" t="n">
+      <c r="C374" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="0" t="s">
+    <row r="375" ht="14.25">
+      <c r="A375" t="s">
         <v>3</v>
       </c>
       <c r="B375" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="C375" s="9" t="n">
+      <c r="C375" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="0" t="s">
+    <row r="376" ht="14.25">
+      <c r="A376" t="s">
         <v>3</v>
       </c>
       <c r="B376" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="C376" s="9" t="n">
+      <c r="C376" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="377" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="0" t="s">
+    <row r="377" ht="14.25">
+      <c r="A377" t="s">
         <v>3</v>
       </c>
       <c r="B377" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="C377" s="9" t="n">
+      <c r="C377" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="0" t="s">
+    <row r="378" ht="14.25">
+      <c r="A378" t="s">
         <v>3</v>
       </c>
       <c r="B378" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="C378" s="9" t="n">
+      <c r="C378" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="0" t="s">
+    <row r="379" ht="14.25">
+      <c r="A379" t="s">
         <v>3</v>
       </c>
       <c r="B379" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="C379" s="9" t="n">
+      <c r="C379" s="9">
         <v>456</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="0" t="s">
+    <row r="380" ht="14.25">
+      <c r="A380" t="s">
         <v>3</v>
       </c>
       <c r="B380" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="C380" s="9" t="n">
+      <c r="C380" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="0" t="s">
+    <row r="381" ht="14.25">
+      <c r="A381" t="s">
         <v>3</v>
       </c>
       <c r="B381" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="C381" s="9" t="n">
+      <c r="C381" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="0" t="s">
+    <row r="382" ht="14.25">
+      <c r="A382" t="s">
         <v>3</v>
       </c>
       <c r="B382" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="C382" s="9" t="n">
+      <c r="C382" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="0" t="s">
+    <row r="383" ht="14.25">
+      <c r="A383" t="s">
         <v>3</v>
       </c>
       <c r="B383" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="C383" s="9" t="n">
+      <c r="C383" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="0" t="s">
+    <row r="384" ht="14.25">
+      <c r="A384" t="s">
         <v>3</v>
       </c>
       <c r="B384" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="C384" s="9" t="n">
+      <c r="C384" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="385" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="0" t="s">
+    <row r="385" ht="14.25">
+      <c r="A385" t="s">
         <v>3</v>
       </c>
       <c r="B385" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="C385" s="9" t="n">
+      <c r="C385" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="386" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="0" t="s">
+    <row r="386" ht="14.25">
+      <c r="A386" t="s">
         <v>3</v>
       </c>
       <c r="B386" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="C386" s="9" t="n">
+      <c r="C386" s="9">
         <v>186</v>
       </c>
     </row>
-    <row r="387" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="0" t="s">
+    <row r="387" ht="14.25">
+      <c r="A387" t="s">
         <v>3</v>
       </c>
       <c r="B387" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="C387" s="9" t="n">
+      <c r="C387" s="9">
         <v>226</v>
       </c>
     </row>
-    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="0" t="s">
+    <row r="388" ht="13.800000000000001">
+      <c r="A388" t="s">
         <v>52</v>
       </c>
       <c r="B388" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="C388" s="9" t="n">
+      <c r="C388" s="9">
         <v>26</v>
       </c>
     </row>
-    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="0" t="s">
+    <row r="389" ht="13.800000000000001">
+      <c r="A389" t="s">
         <v>52</v>
       </c>
       <c r="B389" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="C389" s="9" t="n">
+      <c r="C389" s="9">
         <v>140</v>
       </c>
     </row>
-    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="0" t="s">
+    <row r="390" ht="13.800000000000001">
+      <c r="A390" t="s">
         <v>52</v>
       </c>
       <c r="B390" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="C390" s="9" t="n">
+      <c r="C390" s="9">
         <v>80</v>
       </c>
     </row>
-    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="0" t="s">
+    <row r="391" ht="13.800000000000001">
+      <c r="A391" t="s">
         <v>52</v>
       </c>
       <c r="B391" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="C391" s="9" t="n">
+      <c r="C391" s="9">
         <v>160</v>
       </c>
     </row>
-    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="0" t="s">
+    <row r="392" ht="13.800000000000001">
+      <c r="A392" t="s">
         <v>52</v>
       </c>
       <c r="B392" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="C392" s="9" t="n">
+      <c r="C392" s="9">
         <v>90</v>
       </c>
     </row>
-    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="0" t="s">
+    <row r="393" ht="13.800000000000001">
+      <c r="A393" t="s">
         <v>52</v>
       </c>
       <c r="B393" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="C393" s="9" t="n">
+      <c r="C393" s="9">
         <v>130</v>
       </c>
     </row>
-    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A394" s="0" t="s">
+    <row r="394" ht="13.800000000000001">
+      <c r="A394" t="s">
         <v>52</v>
       </c>
       <c r="B394" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="C394" s="9" t="n">
+      <c r="C394" s="9">
         <v>160</v>
       </c>
     </row>
-    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="0" t="s">
+    <row r="395" ht="13.800000000000001">
+      <c r="A395" t="s">
         <v>52</v>
       </c>
       <c r="B395" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="C395" s="9" t="n">
+      <c r="C395" s="9">
         <v>110</v>
       </c>
     </row>
-    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="0" t="s">
+    <row r="396" ht="13.800000000000001">
+      <c r="A396" t="s">
         <v>52</v>
       </c>
       <c r="B396" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="C396" s="9" t="n">
+      <c r="C396" s="9">
         <v>86</v>
       </c>
     </row>
-    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="0" t="s">
+    <row r="397" ht="13.800000000000001">
+      <c r="A397" t="s">
         <v>52</v>
       </c>
       <c r="B397" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="C397" s="9" t="n">
+      <c r="C397" s="9">
         <v>140</v>
       </c>
     </row>
-    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="0" t="s">
+    <row r="398" ht="13.800000000000001">
+      <c r="A398" t="s">
         <v>52</v>
       </c>
       <c r="B398" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="C398" s="9" t="n">
+      <c r="C398" s="9">
         <v>80</v>
       </c>
     </row>
-    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="0" t="s">
+    <row r="399" ht="13.800000000000001">
+      <c r="A399" t="s">
         <v>52</v>
       </c>
       <c r="B399" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="C399" s="9" t="n">
+      <c r="C399" s="9">
         <v>66</v>
       </c>
     </row>
-    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="0" t="s">
+    <row r="400" ht="13.800000000000001">
+      <c r="A400" t="s">
         <v>52</v>
       </c>
       <c r="B400" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="C400" s="9" t="n">
+      <c r="C400" s="9">
         <v>140</v>
       </c>
     </row>
-    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="0" t="s">
+    <row r="401" ht="13.800000000000001">
+      <c r="A401" t="s">
         <v>52</v>
       </c>
       <c r="B401" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="C401" s="9" t="n">
+      <c r="C401" s="9">
         <v>90</v>
       </c>
     </row>
-    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="0" t="s">
+    <row r="402" ht="13.800000000000001">
+      <c r="A402" t="s">
         <v>52</v>
       </c>
       <c r="B402" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="C402" s="9" t="n">
+      <c r="C402" s="9">
         <v>66</v>
       </c>
     </row>
-    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="0" t="s">
+    <row r="403" ht="13.800000000000001">
+      <c r="A403" t="s">
         <v>52</v>
       </c>
       <c r="B403" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="C403" s="9" t="n">
+      <c r="C403" s="9">
         <v>170</v>
       </c>
     </row>
-    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="0" t="s">
+    <row r="404" ht="13.800000000000001">
+      <c r="A404" t="s">
         <v>52</v>
       </c>
       <c r="B404" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="C404" s="9" t="n">
+      <c r="C404" s="9">
         <v>110</v>
       </c>
     </row>
-    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="0" t="s">
+    <row r="405" ht="13.800000000000001">
+      <c r="A405" t="s">
         <v>52</v>
       </c>
       <c r="B405" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="C405" s="9" t="n">
+      <c r="C405" s="9">
         <v>66</v>
       </c>
     </row>
-    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="0" t="s">
+    <row r="406" ht="13.800000000000001">
+      <c r="A406" t="s">
         <v>52</v>
       </c>
       <c r="B406" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="C406" s="9" t="n">
+      <c r="C406" s="9">
         <v>145</v>
       </c>
     </row>
-    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="0" t="s">
+    <row r="407" ht="13.800000000000001">
+      <c r="A407" t="s">
         <v>52</v>
       </c>
       <c r="B407" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="C407" s="9" t="n">
+      <c r="C407" s="9">
         <v>100</v>
       </c>
     </row>
-    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="0" t="s">
+    <row r="408" ht="13.800000000000001">
+      <c r="A408" t="s">
         <v>52</v>
       </c>
       <c r="B408" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="C408" s="9" t="n">
+      <c r="C408" s="9">
         <v>66</v>
       </c>
     </row>
-    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="0" t="s">
+    <row r="409" ht="13.800000000000001">
+      <c r="A409" t="s">
         <v>52</v>
       </c>
       <c r="B409" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="C409" s="9" t="n">
+      <c r="C409" s="9">
         <v>66</v>
       </c>
     </row>
-    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="0" t="s">
+    <row r="410" ht="13.800000000000001">
+      <c r="A410" t="s">
         <v>52</v>
       </c>
       <c r="B410" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="C410" s="9" t="n">
+      <c r="C410" s="9">
         <v>66</v>
       </c>
     </row>
-    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="0" t="s">
+    <row r="411" ht="13.800000000000001">
+      <c r="A411" t="s">
         <v>52</v>
       </c>
       <c r="B411" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="C411" s="2" t="n">
+      <c r="C411" s="2">
         <v>140</v>
       </c>
     </row>
-    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="0" t="s">
+    <row r="412" ht="13.800000000000001">
+      <c r="A412" t="s">
         <v>52</v>
       </c>
       <c r="B412" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="C412" s="2" t="n">
+      <c r="C412" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="0" t="s">
+    <row r="413" ht="13.800000000000001">
+      <c r="A413" t="s">
         <v>52</v>
       </c>
       <c r="B413" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="C413" s="9" t="n">
+      <c r="C413" s="9">
         <v>140</v>
       </c>
     </row>
-    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="0" t="s">
+    <row r="414" ht="13.800000000000001">
+      <c r="A414" t="s">
         <v>52</v>
       </c>
       <c r="B414" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="C414" s="9" t="n">
+      <c r="C414" s="9">
         <v>80</v>
       </c>
     </row>
-    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="0" t="s">
+    <row r="415" ht="13.800000000000001">
+      <c r="A415" t="s">
         <v>52</v>
       </c>
       <c r="B415" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="C415" s="9" t="n">
+      <c r="C415" s="9">
         <v>66</v>
       </c>
     </row>
-    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="0" t="s">
+    <row r="416" ht="13.800000000000001">
+      <c r="A416" t="s">
         <v>52</v>
       </c>
       <c r="B416" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="C416" s="9" t="n">
+      <c r="C416" s="9">
         <v>140</v>
       </c>
     </row>
-    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="0" t="s">
+    <row r="417" ht="13.800000000000001">
+      <c r="A417" t="s">
         <v>52</v>
       </c>
       <c r="B417" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="C417" s="9" t="n">
+      <c r="C417" s="9">
         <v>90</v>
       </c>
     </row>
-    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="0" t="s">
+    <row r="418" ht="13.800000000000001">
+      <c r="A418" t="s">
         <v>52</v>
       </c>
       <c r="B418" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="C418" s="9" t="n">
+      <c r="C418" s="9">
         <v>140</v>
       </c>
     </row>
-    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="0" t="s">
+    <row r="419" ht="13.800000000000001">
+      <c r="A419" t="s">
         <v>52</v>
       </c>
       <c r="B419" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="C419" s="9" t="n">
+      <c r="C419" s="9">
         <v>90</v>
       </c>
     </row>
-    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="0" t="s">
+    <row r="420" ht="13.800000000000001">
+      <c r="A420" t="s">
         <v>52</v>
       </c>
       <c r="B420" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="C420" s="9" t="n">
+      <c r="C420" s="9">
         <v>90</v>
       </c>
     </row>
-    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="0" t="s">
+    <row r="421" ht="13.800000000000001">
+      <c r="A421" t="s">
         <v>52</v>
       </c>
       <c r="B421" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="C421" s="9" t="n">
+      <c r="C421" s="9">
         <v>90</v>
       </c>
     </row>
-    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="0" t="s">
+    <row r="422" ht="13.800000000000001">
+      <c r="A422" t="s">
         <v>52</v>
       </c>
       <c r="B422" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="C422" s="9" t="n">
+      <c r="C422" s="9">
         <v>90</v>
       </c>
     </row>
-    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="0" t="s">
+    <row r="423" ht="13.800000000000001">
+      <c r="A423" t="s">
         <v>52</v>
       </c>
       <c r="B423" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="C423" s="9" t="n">
+      <c r="C423" s="9">
         <v>90</v>
       </c>
     </row>
-    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A424" s="0" t="s">
+    <row r="424" ht="13.800000000000001">
+      <c r="A424" t="s">
         <v>52</v>
       </c>
       <c r="B424" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="C424" s="9" t="n">
+      <c r="C424" s="9">
         <v>90</v>
       </c>
     </row>
-    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="0" t="s">
+    <row r="425" ht="13.800000000000001">
+      <c r="A425" t="s">
         <v>52</v>
       </c>
       <c r="B425" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="C425" s="9" t="n">
+      <c r="C425" s="9">
         <v>90</v>
       </c>
     </row>
-    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="0" t="s">
+    <row r="426" ht="13.800000000000001">
+      <c r="A426" t="s">
         <v>52</v>
       </c>
       <c r="B426" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="C426" s="9" t="n">
+      <c r="C426" s="9">
         <v>90</v>
       </c>
     </row>
-    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="0" t="s">
+    <row r="427" ht="13.800000000000001">
+      <c r="A427" t="s">
         <v>52</v>
       </c>
       <c r="B427" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="C427" s="9" t="n">
+      <c r="C427" s="9">
         <v>90</v>
       </c>
     </row>
-    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A428" s="0" t="s">
+    <row r="428" ht="13.800000000000001">
+      <c r="A428" t="s">
         <v>52</v>
       </c>
       <c r="B428" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="C428" s="9" t="n">
+      <c r="C428" s="9">
         <v>90</v>
       </c>
     </row>
-    <row r="429" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="0" t="s">
+    <row r="429" ht="14.25">
+      <c r="A429" t="s">
         <v>431</v>
       </c>
       <c r="B429" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C429" s="2" t="n">
+      <c r="C429" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A430" s="0" t="s">
+    <row r="430" ht="13.800000000000001">
+      <c r="A430" t="s">
         <v>431</v>
       </c>
       <c r="B430" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C430" s="2" t="n">
+      <c r="C430" s="2">
         <v>210</v>
       </c>
     </row>
-    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="0" t="s">
+    <row r="431" ht="13.800000000000001">
+      <c r="A431" t="s">
         <v>431</v>
       </c>
       <c r="B431" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C431" s="2" t="n">
+      <c r="C431" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A432" s="0" t="s">
+    <row r="432" ht="13.800000000000001">
+      <c r="A432" t="s">
         <v>431</v>
       </c>
       <c r="B432" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="C432" s="2" t="n">
+      <c r="C432" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="0" t="s">
+    <row r="433" ht="13.800000000000001">
+      <c r="A433" t="s">
         <v>431</v>
       </c>
       <c r="B433" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C433" s="2" t="n">
+      <c r="C433" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="0" t="s">
+    <row r="434" ht="13.800000000000001">
+      <c r="A434" t="s">
         <v>431</v>
       </c>
       <c r="B434" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C434" s="2" t="n">
+      <c r="C434" s="2">
         <v>140</v>
       </c>
     </row>
-    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="0" t="s">
+    <row r="435" ht="13.800000000000001">
+      <c r="A435" t="s">
         <v>431</v>
       </c>
       <c r="B435" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C435" s="2" t="n">
+      <c r="C435" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="0" t="s">
+    <row r="436" ht="13.800000000000001">
+      <c r="A436" t="s">
         <v>431</v>
       </c>
       <c r="B436" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="C436" s="2" t="n">
+      <c r="C436" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A437" s="0" t="s">
+    <row r="437" ht="13.800000000000001">
+      <c r="A437" t="s">
         <v>431</v>
       </c>
       <c r="B437" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="C437" s="2" t="n">
+      <c r="C437" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A438" s="0" t="s">
+    <row r="438" ht="13.800000000000001">
+      <c r="A438" t="s">
         <v>431</v>
       </c>
       <c r="B438" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C438" s="2" t="n">
+      <c r="C438" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A439" s="0" t="s">
+    <row r="439" ht="13.800000000000001">
+      <c r="A439" t="s">
         <v>431</v>
       </c>
       <c r="B439" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C439" s="2" t="n">
+      <c r="C439" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A440" s="0" t="s">
+    <row r="440" ht="13.800000000000001">
+      <c r="A440" t="s">
         <v>431</v>
       </c>
       <c r="B440" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C440" s="2" t="n">
+      <c r="C440" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A441" s="0" t="s">
+    <row r="441" ht="13.800000000000001">
+      <c r="A441" t="s">
         <v>431</v>
       </c>
       <c r="B441" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C441" s="2" t="n">
+      <c r="C441" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A442" s="0" t="s">
+    <row r="442" ht="13.800000000000001">
+      <c r="A442" t="s">
         <v>431</v>
       </c>
       <c r="B442" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C442" s="2" t="n">
+      <c r="C442" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A443" s="0" t="s">
+    <row r="443" ht="13.800000000000001">
+      <c r="A443" t="s">
         <v>431</v>
       </c>
       <c r="B443" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="C443" s="2" t="n">
+      <c r="C443" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A444" s="0" t="s">
+    <row r="444" ht="13.800000000000001">
+      <c r="A444" t="s">
         <v>431</v>
       </c>
       <c r="B444" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C444" s="2" t="n">
+      <c r="C444" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A445" s="0" t="s">
+    <row r="445" ht="13.800000000000001">
+      <c r="A445" t="s">
         <v>431</v>
       </c>
       <c r="B445" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="C445" s="2" t="n">
+      <c r="C445" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A446" s="0" t="s">
+    <row r="446" ht="13.800000000000001">
+      <c r="A446" t="s">
         <v>431</v>
       </c>
       <c r="B446" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C446" s="2" t="n">
+      <c r="C446" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A447" s="0" t="s">
+    <row r="447" ht="13.800000000000001">
+      <c r="A447" t="s">
         <v>431</v>
       </c>
       <c r="B447" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="C447" s="2" t="n">
+      <c r="C447" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A448" s="0" t="s">
+    <row r="448" ht="13.800000000000001">
+      <c r="A448" t="s">
         <v>431</v>
       </c>
       <c r="B448" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="C448" s="2" t="n">
+      <c r="C448" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A449" s="0" t="s">
+    <row r="449" ht="13.800000000000001">
+      <c r="A449" t="s">
         <v>431</v>
       </c>
       <c r="B449" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C449" s="2" t="n">
+      <c r="C449" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A450" s="0" t="s">
+    <row r="450" ht="13.800000000000001">
+      <c r="A450" t="s">
         <v>431</v>
       </c>
       <c r="B450" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="C450" s="2" t="n">
+      <c r="C450" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A451" s="0" t="s">
+    <row r="451" ht="13.800000000000001">
+      <c r="A451" t="s">
         <v>431</v>
       </c>
       <c r="B451" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C451" s="2" t="n">
+      <c r="C451" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A452" s="0" t="s">
+    <row r="452" ht="13.800000000000001">
+      <c r="A452" t="s">
         <v>431</v>
       </c>
       <c r="B452" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="C452" s="2" t="n">
+      <c r="C452" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A453" s="0" t="s">
+    <row r="453" ht="13.800000000000001">
+      <c r="A453" t="s">
         <v>431</v>
       </c>
       <c r="B453" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C453" s="2" t="n">
+      <c r="C453" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A454" s="0" t="s">
+    <row r="454" ht="13.800000000000001">
+      <c r="A454" t="s">
         <v>431</v>
       </c>
       <c r="B454" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="C454" s="2" t="n">
+      <c r="C454" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A455" s="0" t="s">
+    <row r="455" ht="13.800000000000001">
+      <c r="A455" t="s">
         <v>431</v>
       </c>
       <c r="B455" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C455" s="2" t="n">
+      <c r="C455" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A456" s="0" t="s">
+    <row r="456" ht="13.800000000000001">
+      <c r="A456" t="s">
         <v>431</v>
       </c>
       <c r="B456" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C456" s="2" t="n">
+      <c r="C456" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A457" s="0" t="s">
+    <row r="457" ht="13.800000000000001">
+      <c r="A457" t="s">
         <v>431</v>
       </c>
       <c r="B457" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C457" s="2" t="n">
+      <c r="C457" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A458" s="0" t="s">
+    <row r="458" ht="13.800000000000001">
+      <c r="A458" t="s">
         <v>431</v>
       </c>
       <c r="B458" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="C458" s="2" t="n">
+      <c r="C458" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A459" s="0" t="s">
+    <row r="459" ht="13.800000000000001">
+      <c r="A459" t="s">
         <v>431</v>
       </c>
       <c r="B459" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="C459" s="2" t="n">
+      <c r="C459" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A460" s="0" t="s">
+    <row r="460" ht="13.800000000000001">
+      <c r="A460" t="s">
         <v>431</v>
       </c>
       <c r="B460" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="C460" s="2" t="n">
+      <c r="C460" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A461" s="0" t="s">
+    <row r="461" ht="13.800000000000001">
+      <c r="A461" t="s">
         <v>431</v>
       </c>
       <c r="B461" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="C461" s="2" t="n">
+      <c r="C461" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A462" s="0" t="s">
+    <row r="462" ht="13.800000000000001">
+      <c r="A462" t="s">
         <v>431</v>
       </c>
       <c r="B462" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="C462" s="2" t="n">
+      <c r="C462" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A463" s="0" t="s">
+    <row r="463" ht="13.800000000000001">
+      <c r="A463" t="s">
         <v>431</v>
       </c>
       <c r="B463" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="C463" s="2" t="n">
+      <c r="C463" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A464" s="0" t="s">
+    <row r="464" ht="13.800000000000001">
+      <c r="A464" t="s">
         <v>431</v>
       </c>
       <c r="B464" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="C464" s="2" t="n">
+      <c r="C464" s="2">
         <v>140</v>
       </c>
     </row>
-    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A465" s="0" t="s">
+    <row r="465" ht="13.800000000000001">
+      <c r="A465" t="s">
         <v>431</v>
       </c>
       <c r="B465" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="C465" s="2" t="n">
+      <c r="C465" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A466" s="0" t="s">
+    <row r="466" ht="13.800000000000001">
+      <c r="A466" t="s">
         <v>431</v>
       </c>
       <c r="B466" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="C466" s="2" t="n">
+      <c r="C466" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A467" s="0" t="s">
+    <row r="467" ht="13.800000000000001">
+      <c r="A467" t="s">
         <v>431</v>
       </c>
       <c r="B467" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C467" s="2" t="n">
+      <c r="C467" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A468" s="0" t="s">
+    <row r="468" ht="13.800000000000001">
+      <c r="A468" t="s">
         <v>431</v>
       </c>
       <c r="B468" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="C468" s="2" t="n">
+      <c r="C468" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A469" s="0" t="s">
+    <row r="469" ht="13.800000000000001">
+      <c r="A469" t="s">
         <v>431</v>
       </c>
       <c r="B469" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C469" s="2" t="n">
+      <c r="C469" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A470" s="0" t="s">
+    <row r="470" ht="13.800000000000001">
+      <c r="A470" t="s">
         <v>431</v>
       </c>
       <c r="B470" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="C470" s="2" t="n">
+      <c r="C470" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A471" s="0" t="s">
+    <row r="471" ht="13.800000000000001">
+      <c r="A471" t="s">
         <v>431</v>
       </c>
       <c r="B471" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C471" s="2" t="n">
+      <c r="C471" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A472" s="0" t="s">
+    <row r="472" ht="13.800000000000001">
+      <c r="A472" t="s">
         <v>431</v>
       </c>
       <c r="B472" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="C472" s="2" t="n">
+      <c r="C472" s="2">
         <v>160</v>
       </c>
     </row>
-    <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A473" s="0" t="s">
+    <row r="473" ht="13.800000000000001">
+      <c r="A473" t="s">
         <v>431</v>
       </c>
       <c r="B473" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="C473" s="2" t="n">
+      <c r="C473" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A474" s="0" t="s">
+    <row r="474" ht="13.800000000000001">
+      <c r="A474" t="s">
         <v>431</v>
       </c>
       <c r="B474" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="C474" s="2" t="n">
+      <c r="C474" s="2">
         <v>160</v>
       </c>
     </row>
-    <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A475" s="0" t="s">
+    <row r="475" ht="13.800000000000001">
+      <c r="A475" t="s">
         <v>431</v>
       </c>
       <c r="B475" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="C475" s="2" t="n">
+      <c r="C475" s="2">
         <v>160</v>
       </c>
     </row>
-    <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A476" s="0" t="s">
+    <row r="476" ht="13.800000000000001">
+      <c r="A476" t="s">
         <v>431</v>
       </c>
       <c r="B476" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="C476" s="2" t="n">
+      <c r="C476" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A477" s="0" t="s">
+    <row r="477" ht="13.800000000000001">
+      <c r="A477" t="s">
         <v>431</v>
       </c>
       <c r="B477" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="C477" s="2" t="n">
+      <c r="C477" s="2">
         <v>210</v>
       </c>
     </row>
-    <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A478" s="0" t="s">
+    <row r="478" ht="13.800000000000001">
+      <c r="A478" t="s">
         <v>431</v>
       </c>
       <c r="B478" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C478" s="2" t="n">
+      <c r="C478" s="2">
         <v>210</v>
       </c>
     </row>
-    <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A479" s="0" t="s">
+    <row r="479" ht="13.800000000000001">
+      <c r="A479" t="s">
         <v>431</v>
       </c>
       <c r="B479" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="C479" s="2" t="n">
+      <c r="C479" s="2">
         <v>310</v>
       </c>
     </row>
-    <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A480" s="0" t="s">
+    <row r="480" ht="13.800000000000001">
+      <c r="A480" t="s">
         <v>431</v>
       </c>
       <c r="B480" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="C480" s="2" t="n">
+      <c r="C480" s="2">
         <v>90</v>
       </c>
     </row>
-    <row r="1048268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="481" ht="14.25">
+      <c r="A481" t="s">
+        <v>52</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C481" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="482" ht="14.25">
+      <c r="A482" t="s">
+        <v>52</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C482" s="2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="483" ht="14.25">
+      <c r="A483" t="s">
+        <v>52</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C483" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="484" ht="14.25">
+      <c r="A484"/>
+      <c r="C484" s="2"/>
+    </row>
+    <row r="1048267" ht="12.800000000000001"/>
+    <row r="1048268" ht="12.800000000000001"/>
+    <row r="1048269" ht="12.800000000000001"/>
+    <row r="1048270" ht="12.800000000000001"/>
+    <row r="1048568" ht="12.800000000000001"/>
+    <row r="1048569" ht="12.800000000000001"/>
+    <row r="1048570" ht="12.800000000000001"/>
+    <row r="1048571" ht="12.800000000000001"/>
+    <row r="1048572" ht="12.800000000000001"/>
+    <row r="1048573" ht="12.800000000000001"/>
+    <row r="1048574" ht="12.800000000000001"/>
+    <row r="1048575" ht="12.800000000000001"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.700694444444444" right="0.700694444444444" top="0.752083333333333" bottom="0.752083333333333" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70069444444444395" right="0.70069444444444395" top="0.75208333333333299" bottom="0.75208333333333299" header="0.51181102362204689" footer="0.51181102362204689"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/colaborador/sistemas/orcamento/valores_exames_samvida.xlsx
+++ b/colaborador/sistemas/orcamento/valores_exames_samvida.xlsx
@@ -1,28 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="0"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="487">
-  <si>
-    <t>Local</t>
-  </si>
-  <si>
-    <t>Exame</t>
-  </si>
-  <si>
-    <t>Valor</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="488">
+  <si>
+    <t xml:space="preserve">Local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor</t>
   </si>
   <si>
     <t xml:space="preserve">Clínica Nova Imagem</t>
@@ -169,22 +175,22 @@
     <t xml:space="preserve">DOPPLER VENOSO DE MEMBRO SUPERIOR E</t>
   </si>
   <si>
-    <t>ECOCARDIOGRAMA</t>
+    <t xml:space="preserve">ECOCARDIOGRAMA</t>
   </si>
   <si>
     <t xml:space="preserve">Centro Médico Bruno Sampaio</t>
   </si>
   <si>
-    <t>ELETROCARDIOGRAMA</t>
+    <t xml:space="preserve">ELETROCARDIOGRAMA</t>
   </si>
   <si>
     <t xml:space="preserve">ENDOSCOPIA DIGESTIVA ALTA</t>
   </si>
   <si>
-    <t>Histopatologico-(endoscopia)-Laboratorio</t>
-  </si>
-  <si>
-    <t>HOLTER</t>
+    <t xml:space="preserve">Histopatologico-(endoscopia)-Laboratorio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOLTER</t>
   </si>
   <si>
     <t xml:space="preserve">MAMOGRAFIA CONVENCIONAL</t>
@@ -193,7 +199,7 @@
     <t xml:space="preserve">MAMOGRAFIA DIGITAL</t>
   </si>
   <si>
-    <t>MAPA</t>
+    <t xml:space="preserve">MAPA</t>
   </si>
   <si>
     <t xml:space="preserve">Pesquisa H. Pylori (Endoscopia)</t>
@@ -1205,14 +1211,18 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">USG ABDOME SUPERIOR </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Dr. JOSE GERALDO)</t>
     </r>
@@ -1231,14 +1241,18 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">USG AXILAS C DOPPLER </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Dra. JULIANA)</t>
     </r>
@@ -1248,14 +1262,18 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">USG AXILAS </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Dra. JULIANA)</t>
     </r>
@@ -1265,14 +1283,18 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">USG AXILAS </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Dr. JOSE GERALDO)</t>
     </r>
@@ -1288,14 +1310,18 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">USG ENDOVAGINAL + PELVICA </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Dr. JOSE GERALDO)</t>
     </r>
@@ -1305,14 +1331,18 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">USG GESTACIONAL C DOPPLER </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Dra, JULIANA)</t>
     </r>
@@ -1322,14 +1352,18 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">USG GESTACIONAL </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Dra, JULIANA)</t>
     </r>
@@ -1339,14 +1373,18 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">USG GESTACIONAL </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Dr. JOSE GERALDO)</t>
     </r>
@@ -1362,14 +1400,18 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">USG MAMAS </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Dr. JOSE GERALDO)</t>
     </r>
@@ -1379,14 +1421,18 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">USG PROSTATA TRANS ABD </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Dr. JOSE GERALDO)</t>
     </r>
@@ -1396,14 +1442,18 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">USG PELVICA </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Dr. JOSE GERALDO)</t>
     </r>
@@ -1425,14 +1475,18 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">USG VIAS URINARIAS </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Dr. JOSE GERALDO)</t>
     </r>
@@ -1642,39 +1696,70 @@
     <t xml:space="preserve">CORE BIOPSIA (Dra. JULIANE)</t>
   </si>
   <si>
-    <t xml:space="preserve">ANALISE DO MATERIAL PARA BIOPSIA (Dra. JULIANE)</t>
+    <t xml:space="preserve">ANALISE DO MATERIAL PARA BIOPSIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG MEMBRO INFERIOR (Dra. JULIANE)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="8">
     <font>
-      <sz val="11.000000"/>
-      <color indexed="64"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
-      <sz val="10.000000"/>
-      <color indexed="64"/>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="11.000000"/>
-      <color indexed="65"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="10.000000"/>
-      <color indexed="65"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1686,20 +1771,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="64"/>
-        <bgColor indexed="58"/>
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
         <color rgb="FFCCCCCC"/>
       </left>
@@ -1712,552 +1797,170 @@
       <bottom style="thin">
         <color rgb="FFCCCCCC"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="0" locked="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
-      <protection hidden="0" locked="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
-      <alignment wrapText="1"/>
-      <protection hidden="0" locked="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf fontId="3" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf fontId="4" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf fontId="4" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
-      <alignment wrapText="1"/>
-      <protection hidden="0" locked="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection hidden="0" locked="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection hidden="0" locked="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFCCCCCC"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="">
-  <a:themeElements>
-    <a:clrScheme name="">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="">
-      <a:majorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-        </a:ln>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:srgbClr val="000000"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:srgbClr val="000000"/>
-        </a:solidFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr filterMode="0">
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:C1048568"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" view="normal" topLeftCell="A463" zoomScale="100" workbookViewId="0">
-      <selection activeCell="C396" activeCellId="0" sqref="C396"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A463" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B485" activeCellId="0" sqref="B485"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="0" width="27"/>
-    <col customWidth="1" min="2" max="2" style="1" width="93"/>
-    <col customWidth="1" min="3" max="3" style="2" width="6.8499999999999996"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="6.85"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2268,5328 +1971,5338 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="14.25">
-      <c r="A2" t="s">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="7" t="n">
         <v>46</v>
       </c>
     </row>
-    <row r="3" ht="14.25">
-      <c r="A3" t="s">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="7" t="n">
         <v>46</v>
       </c>
     </row>
-    <row r="4" ht="14.25">
-      <c r="A4" t="s">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="7" t="n">
         <v>46</v>
       </c>
     </row>
-    <row r="5" ht="14.25">
-      <c r="A5" t="s">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="9" t="n">
         <v>46</v>
       </c>
     </row>
-    <row r="6" ht="14.25">
-      <c r="A6" t="s">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="7" t="n">
         <v>566</v>
       </c>
     </row>
-    <row r="7" ht="14.25">
-      <c r="A7" t="s">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="7" t="n">
         <v>726</v>
       </c>
     </row>
-    <row r="8" ht="14.25">
-      <c r="A8" t="s">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="7" t="n">
         <v>896</v>
       </c>
     </row>
-    <row r="9" ht="14.25">
-      <c r="A9" t="s">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="7" t="n">
         <v>1056</v>
       </c>
     </row>
-    <row r="10" ht="14.25">
-      <c r="A10" t="s">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="7" t="n">
         <v>106</v>
       </c>
     </row>
-    <row r="11" ht="14.25">
-      <c r="A11" t="s">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="7" t="n">
         <v>106</v>
       </c>
     </row>
-    <row r="12" ht="14.25">
-      <c r="A12" t="s">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="7" t="n">
         <v>196</v>
       </c>
     </row>
-    <row r="13" ht="14.25">
-      <c r="A13" t="s">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="7" t="n">
         <v>226</v>
       </c>
     </row>
-    <row r="14" ht="14.25">
-      <c r="A14" t="s">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="7" t="n">
         <v>226</v>
       </c>
     </row>
-    <row r="15" ht="14.25">
-      <c r="A15" t="s">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="7" t="n">
         <v>406</v>
       </c>
     </row>
-    <row r="16" ht="14.25">
-      <c r="A16" t="s">
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="7" t="n">
         <v>206</v>
       </c>
     </row>
-    <row r="17" ht="14.25">
-      <c r="A17" t="s">
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="7" t="n">
         <v>206</v>
       </c>
     </row>
-    <row r="18" ht="14.25">
-      <c r="A18" t="s">
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="7" t="n">
         <v>406</v>
       </c>
     </row>
-    <row r="19" ht="14.25">
-      <c r="A19" t="s">
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="7" t="n">
         <v>206</v>
       </c>
     </row>
-    <row r="20" ht="14.25">
-      <c r="A20" t="s">
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="7" t="n">
         <v>206</v>
       </c>
     </row>
-    <row r="21" ht="14.25">
-      <c r="A21" t="s">
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="7" t="n">
         <v>206</v>
       </c>
     </row>
-    <row r="22" ht="14.25">
-      <c r="A22" t="s">
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="7" t="n">
         <v>206</v>
       </c>
     </row>
-    <row r="23" ht="14.25">
-      <c r="A23" t="s">
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="7" t="n">
         <v>206</v>
       </c>
     </row>
-    <row r="24" ht="14.25">
-      <c r="A24" t="s">
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="7" t="n">
         <v>206</v>
       </c>
     </row>
-    <row r="25" ht="14.25">
-      <c r="A25" t="s">
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="7" t="n">
         <v>206</v>
       </c>
     </row>
-    <row r="26" ht="14.25">
-      <c r="A26" t="s">
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="7" t="n">
         <v>206</v>
       </c>
     </row>
-    <row r="27" ht="14.25">
-      <c r="A27" t="s">
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="7" t="n">
         <v>206</v>
       </c>
     </row>
-    <row r="28" ht="14.25">
-      <c r="A28" t="s">
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="7" t="n">
         <v>206</v>
       </c>
     </row>
-    <row r="29" ht="14.25">
-      <c r="A29" t="s">
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="7" t="n">
         <v>206</v>
       </c>
     </row>
-    <row r="30" ht="14.25">
-      <c r="A30" t="s">
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="7" t="n">
         <v>206</v>
       </c>
     </row>
-    <row r="31" ht="14.25">
-      <c r="A31" t="s">
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="7" t="n">
         <v>206</v>
       </c>
     </row>
-    <row r="32" ht="14.25">
-      <c r="A32" t="s">
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="7" t="n">
         <v>206</v>
       </c>
     </row>
-    <row r="33" ht="14.25">
-      <c r="A33" t="s">
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="7" t="n">
         <v>206</v>
       </c>
     </row>
-    <row r="34" ht="14.25">
-      <c r="A34" t="s">
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="7" t="n">
         <v>226</v>
       </c>
     </row>
-    <row r="35" ht="14.25">
-      <c r="A35" t="s">
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="7" t="n">
         <v>326</v>
       </c>
     </row>
-    <row r="36" ht="14.25">
-      <c r="A36" t="s">
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="7" t="n">
         <v>206</v>
       </c>
     </row>
-    <row r="37" ht="14.25">
-      <c r="A37" t="s">
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="7" t="n">
         <v>206</v>
       </c>
     </row>
-    <row r="38" ht="14.25">
-      <c r="A38" t="s">
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="7" t="n">
         <v>206</v>
       </c>
     </row>
-    <row r="39" ht="14.25">
-      <c r="A39" t="s">
+    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="7" t="n">
         <v>206</v>
       </c>
     </row>
-    <row r="40" ht="14.25">
-      <c r="A40" t="s">
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="7" t="n">
         <v>206</v>
       </c>
     </row>
-    <row r="41" ht="14.25">
-      <c r="A41" t="s">
+    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="7" t="n">
         <v>206</v>
       </c>
     </row>
-    <row r="42" ht="14.25">
-      <c r="A42" t="s">
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="7" t="n">
         <v>206</v>
       </c>
     </row>
-    <row r="43" ht="14.25">
-      <c r="A43" t="s">
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="7" t="n">
         <v>406</v>
       </c>
     </row>
-    <row r="44" ht="14.25">
-      <c r="A44" t="s">
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="7" t="n">
         <v>206</v>
       </c>
     </row>
-    <row r="45" ht="14.25">
-      <c r="A45" t="s">
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="7" t="n">
         <v>206</v>
       </c>
     </row>
-    <row r="46" ht="14.25">
-      <c r="A46" t="s">
+    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="7" t="n">
         <v>406</v>
       </c>
     </row>
-    <row r="47" ht="14.25">
-      <c r="A47" t="s">
+    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="7" t="n">
         <v>206</v>
       </c>
     </row>
-    <row r="48" ht="14.25">
-      <c r="A48" t="s">
+    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="7" t="n">
         <v>206</v>
       </c>
     </row>
-    <row r="49" ht="14.25">
-      <c r="A49" t="s">
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="7" t="n">
         <v>186</v>
       </c>
     </row>
-    <row r="50" ht="14.25">
-      <c r="A50" t="s">
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
         <v>52</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="7" t="n">
         <v>41</v>
       </c>
     </row>
-    <row r="51" ht="14.25">
-      <c r="A51" t="s">
+    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="7" t="n">
         <v>51</v>
       </c>
     </row>
-    <row r="52" ht="14.25">
-      <c r="A52" t="s">
+    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="7" t="n">
         <v>410</v>
       </c>
     </row>
-    <row r="53" ht="14.25">
-      <c r="A53" t="s">
+    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="7" t="n">
         <v>106</v>
       </c>
     </row>
-    <row r="54" ht="14.25">
-      <c r="A54" t="s">
+    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="7" t="n">
         <v>156</v>
       </c>
     </row>
-    <row r="55" ht="14.25">
-      <c r="A55" t="s">
+    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="7" t="n">
         <v>106</v>
       </c>
     </row>
-    <row r="56" ht="14.25">
-      <c r="A56" t="s">
+    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="7" t="n">
         <v>106</v>
       </c>
     </row>
-    <row r="57" ht="14.25">
-      <c r="A57" t="s">
+    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="7" t="n">
         <v>156</v>
       </c>
     </row>
-    <row r="58" ht="14.25">
-      <c r="A58" t="s">
+    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="7" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="59" ht="14.25">
-      <c r="A59" t="s">
+    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="7" t="n">
         <v>556</v>
       </c>
     </row>
-    <row r="60" ht="14.25">
-      <c r="A60" t="s">
+    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="7" t="n">
         <v>506</v>
       </c>
     </row>
-    <row r="61" ht="14.25">
-      <c r="A61" t="s">
+    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="7" t="n">
         <v>656</v>
       </c>
     </row>
-    <row r="62" ht="14.25">
-      <c r="A62" t="s">
+    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="7" t="n">
         <v>906</v>
       </c>
     </row>
-    <row r="63" ht="14.25">
-      <c r="A63" t="s">
+    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="7" t="n">
         <v>1006</v>
       </c>
     </row>
-    <row r="64" ht="14.25">
-      <c r="A64" t="s">
+    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="7" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="65" ht="14.25">
-      <c r="A65" t="s">
+    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65" s="7" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="66" ht="14.25">
-      <c r="A66" t="s">
+    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="7" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="67" ht="14.25">
-      <c r="A67" t="s">
+    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="7" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="68" ht="14.25">
-      <c r="A68" t="s">
+    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="7" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="69" ht="14.25">
-      <c r="A69" t="s">
+    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C69" s="7" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="70" ht="14.25">
-      <c r="A70" t="s">
+    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70" s="7" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="71" ht="14.25">
-      <c r="A71" t="s">
+    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71" s="7" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="72" ht="14.25">
-      <c r="A72" t="s">
+    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72" s="7" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="73" ht="14.25">
-      <c r="A73" t="s">
+    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73" s="7" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="74" ht="14.25">
-      <c r="A74" t="s">
+    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74" s="7" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="75" ht="14.25">
-      <c r="A75" t="s">
+    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C75" s="7" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="76" ht="14.25">
-      <c r="A76" t="s">
+    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C76" s="7" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="77" ht="14.25">
-      <c r="A77" t="s">
+    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77" s="7" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="78" ht="14.25">
-      <c r="A78" t="s">
+    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C78" s="7" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="79" ht="14.25">
-      <c r="A79" t="s">
+    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C79" s="9">
+      <c r="C79" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="80" ht="14.25">
-      <c r="A80" t="s">
+    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C80" s="9">
+      <c r="C80" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="81" ht="14.25">
-      <c r="A81" t="s">
+    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C81" s="9">
+      <c r="C81" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="82" ht="14.25">
-      <c r="A82" t="s">
+    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C82" s="9">
+      <c r="C82" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="83" ht="14.25">
-      <c r="A83" t="s">
+    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C83" s="9">
+      <c r="C83" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="84" ht="14.25">
-      <c r="A84" t="s">
+    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C84" s="9">
+      <c r="C84" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="85" ht="14.25">
-      <c r="A85" t="s">
+    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C85" s="9">
+      <c r="C85" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="86" ht="14.25">
-      <c r="A86" t="s">
+    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C86" s="9">
+      <c r="C86" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="87" ht="14.25">
-      <c r="A87" t="s">
+    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C87" s="9">
+      <c r="C87" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="88" ht="14.25">
-      <c r="A88" t="s">
+    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C88" s="9">
+      <c r="C88" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="89" ht="14.25">
-      <c r="A89" t="s">
+    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C89" s="9">
+      <c r="C89" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="90" ht="14.25">
-      <c r="A90" t="s">
+    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C90" s="9">
+      <c r="C90" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="91" ht="14.25">
-      <c r="A91" t="s">
+    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C91" s="9">
+      <c r="C91" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="92" ht="14.25">
-      <c r="A92" t="s">
+    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C92" s="9">
+      <c r="C92" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="93" ht="14.25">
-      <c r="A93" t="s">
+    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B93" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C93" s="9">
+      <c r="C93" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="94" ht="14.25">
-      <c r="A94" t="s">
+    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C94" s="9">
+      <c r="C94" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="95" ht="14.25">
-      <c r="A95" t="s">
+    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C95" s="9">
+      <c r="C95" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="96" ht="14.25">
-      <c r="A96" t="s">
+    <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C96" s="9">
+      <c r="C96" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="97" ht="14.25">
-      <c r="A97" t="s">
+    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C97" s="9">
+      <c r="C97" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="98" ht="14.25">
-      <c r="A98" t="s">
+    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C98" s="9">
+      <c r="C98" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="99" ht="14.25">
-      <c r="A99" t="s">
+    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B99" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="9">
+      <c r="C99" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="100" ht="14.25">
-      <c r="A100" t="s">
+    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C100" s="9">
+      <c r="C100" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="101" ht="14.25">
-      <c r="A101" t="s">
+    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C101" s="9">
+      <c r="C101" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="102" ht="14.25">
-      <c r="A102" t="s">
+    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C102" s="9">
+      <c r="C102" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="103" ht="14.25">
-      <c r="A103" t="s">
+    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C103" s="9">
+      <c r="C103" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="104" ht="14.25">
-      <c r="A104" t="s">
+    <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C104" s="9">
+      <c r="C104" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="105" ht="14.25">
-      <c r="A105" t="s">
+    <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B105" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C105" s="9">
+      <c r="C105" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="106" ht="14.25">
-      <c r="A106" t="s">
+    <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B106" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C106" s="9">
+      <c r="C106" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="107" ht="14.25">
-      <c r="A107" t="s">
+    <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B107" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C107" s="9">
+      <c r="C107" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="108" ht="14.25">
-      <c r="A108" t="s">
+    <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B108" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C108" s="9">
+      <c r="C108" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="109" ht="14.25">
-      <c r="A109" t="s">
+    <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B109" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C109" s="9">
+      <c r="C109" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="110" ht="14.25">
-      <c r="A110" t="s">
+    <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B110" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C110" s="9">
+      <c r="C110" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="111" ht="14.25">
-      <c r="A111" t="s">
+    <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B111" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C111" s="9">
+      <c r="C111" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="112" ht="14.25">
-      <c r="A112" t="s">
+    <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C112" s="9">
+      <c r="C112" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="113" ht="14.25">
-      <c r="A113" t="s">
+    <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C113" s="9">
+      <c r="C113" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="114" ht="14.25">
-      <c r="A114" t="s">
+    <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B114" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C114" s="9">
+      <c r="C114" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="115" ht="14.25">
-      <c r="A115" t="s">
+    <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B115" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C115" s="9">
+      <c r="C115" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="116" ht="14.25">
-      <c r="A116" t="s">
+    <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B116" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C116" s="9">
+      <c r="C116" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="117" ht="14.25">
-      <c r="A117" t="s">
+    <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C117" s="9">
+      <c r="C117" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="118" ht="14.25">
-      <c r="A118" t="s">
+    <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C118" s="9">
+      <c r="C118" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="119" ht="14.25">
-      <c r="A119" t="s">
+    <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B119" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C119" s="9">
+      <c r="C119" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="120" ht="14.25">
-      <c r="A120" t="s">
+    <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B120" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C120" s="9">
+      <c r="C120" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="121" ht="14.25">
-      <c r="A121" t="s">
+    <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B121" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C121" s="9">
+      <c r="C121" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="122" ht="14.25">
-      <c r="A122" t="s">
+    <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B122" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C122" s="9">
+      <c r="C122" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="123" ht="14.25">
-      <c r="A123" t="s">
+    <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B123" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C123" s="9">
+      <c r="C123" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="124" ht="14.25">
-      <c r="A124" t="s">
+    <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B124" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C124" s="9">
+      <c r="C124" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="125" ht="14.25">
-      <c r="A125" t="s">
+    <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B125" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C125" s="9">
+      <c r="C125" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="126" ht="14.25">
-      <c r="A126" t="s">
+    <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B126" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C126" s="9">
+      <c r="C126" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="127" ht="14.25">
-      <c r="A127" t="s">
+    <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B127" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C127" s="9">
+      <c r="C127" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="128" ht="14.25">
-      <c r="A128" t="s">
+    <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B128" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C128" s="9">
+      <c r="C128" s="9" t="n">
         <v>486</v>
       </c>
     </row>
-    <row r="129" ht="14.25">
-      <c r="A129" t="s">
+    <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B129" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C129" s="9">
+      <c r="C129" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="130" ht="14.25">
-      <c r="A130" t="s">
+    <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B130" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C130" s="9">
+      <c r="C130" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="131" ht="14.25">
-      <c r="A131" t="s">
+    <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B131" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C131" s="9">
+      <c r="C131" s="9" t="n">
         <v>486</v>
       </c>
     </row>
-    <row r="132" ht="14.25">
-      <c r="A132" t="s">
+    <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B132" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C132" s="9">
+      <c r="C132" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="133" ht="14.25">
-      <c r="A133" t="s">
+    <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B133" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C133" s="9">
+      <c r="C133" s="9" t="n">
         <v>866</v>
       </c>
     </row>
-    <row r="134" ht="14.25">
-      <c r="A134" t="s">
+    <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B134" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C134" s="9">
+      <c r="C134" s="9" t="n">
         <v>866</v>
       </c>
     </row>
-    <row r="135" ht="14.25">
-      <c r="A135" t="s">
+    <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B135" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C135" s="9">
+      <c r="C135" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="136" ht="14.25">
-      <c r="A136" t="s">
+    <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C136" s="9">
+      <c r="C136" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="137" ht="14.25">
-      <c r="A137" t="s">
+    <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B137" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C137" s="9">
+      <c r="C137" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="138" ht="14.25">
-      <c r="A138" t="s">
+    <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B138" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C138" s="9">
+      <c r="C138" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="139" ht="14.25">
-      <c r="A139" t="s">
+    <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B139" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C139" s="9">
+      <c r="C139" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="140" ht="14.25">
-      <c r="A140" t="s">
+    <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B140" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C140" s="9">
+      <c r="C140" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="141" ht="14.25">
-      <c r="A141" t="s">
+    <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B141" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C141" s="9">
+      <c r="C141" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="142" ht="14.25">
-      <c r="A142" t="s">
+    <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B142" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C142" s="9">
+      <c r="C142" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="143" ht="14.25">
-      <c r="A143" t="s">
+    <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B143" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C143" s="9">
+      <c r="C143" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="144" ht="14.25">
-      <c r="A144" t="s">
+    <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B144" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C144" s="9">
+      <c r="C144" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="145" ht="14.25">
-      <c r="A145" t="s">
+    <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B145" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C145" s="9">
+      <c r="C145" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="146" ht="14.25">
-      <c r="A146" t="s">
+    <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B146" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C146" s="9">
+      <c r="C146" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="147" ht="14.25">
-      <c r="A147" t="s">
+    <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B147" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C147" s="9">
+      <c r="C147" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="148" ht="14.25">
-      <c r="A148" t="s">
+    <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B148" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C148" s="9">
+      <c r="C148" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="149" ht="14.25">
-      <c r="A149" t="s">
+    <row r="149" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B149" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C149" s="9">
+      <c r="C149" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="150" ht="14.25">
-      <c r="A150" t="s">
+    <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B150" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C150" s="9">
+      <c r="C150" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="151" ht="14.25">
-      <c r="A151" t="s">
+    <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B151" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C151" s="9">
+      <c r="C151" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="152" ht="14.25">
-      <c r="A152" t="s">
+    <row r="152" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B152" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C152" s="9">
+      <c r="C152" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="153" ht="14.25">
-      <c r="A153" t="s">
+    <row r="153" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B153" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C153" s="9">
+      <c r="C153" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="154" ht="14.25">
-      <c r="A154" t="s">
+    <row r="154" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B154" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C154" s="9">
+      <c r="C154" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="155" ht="14.25">
-      <c r="A155" t="s">
+    <row r="155" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B155" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C155" s="9">
+      <c r="C155" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="156" ht="14.25">
-      <c r="A156" t="s">
+    <row r="156" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B156" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C156" s="9">
+      <c r="C156" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="157" ht="14.25">
-      <c r="A157" t="s">
+    <row r="157" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B157" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C157" s="9">
+      <c r="C157" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="158" ht="14.25">
-      <c r="A158" t="s">
+    <row r="158" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B158" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C158" s="9">
+      <c r="C158" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="159" ht="14.25">
-      <c r="A159" t="s">
+    <row r="159" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B159" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C159" s="9">
+      <c r="C159" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="160" ht="14.25">
-      <c r="A160" t="s">
+    <row r="160" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C160" s="9">
+      <c r="C160" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="161" ht="14.25">
-      <c r="A161" t="s">
+    <row r="161" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B161" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C161" s="9">
+      <c r="C161" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="162" ht="14.25">
-      <c r="A162" t="s">
+    <row r="162" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B162" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C162" s="9">
+      <c r="C162" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="163" ht="14.25">
-      <c r="A163" t="s">
+    <row r="163" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B163" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C163" s="9">
+      <c r="C163" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="164" ht="14.25">
-      <c r="A164" t="s">
+    <row r="164" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B164" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C164" s="9">
+      <c r="C164" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="165" ht="14.25">
-      <c r="A165" t="s">
+    <row r="165" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B165" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C165" s="9">
+      <c r="C165" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="166" ht="14.25">
-      <c r="A166" t="s">
+    <row r="166" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B166" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C166" s="9">
+      <c r="C166" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="167" ht="14.25">
-      <c r="A167" t="s">
+    <row r="167" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B167" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C167" s="9">
+      <c r="C167" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="168" ht="14.25">
-      <c r="A168" t="s">
+    <row r="168" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B168" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C168" s="9">
+      <c r="C168" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="169" ht="14.25">
-      <c r="A169" t="s">
+    <row r="169" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B169" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C169" s="9">
+      <c r="C169" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="170" ht="14.25">
-      <c r="A170" t="s">
+    <row r="170" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B170" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="C170" s="9">
+      <c r="C170" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="171" ht="14.25">
-      <c r="A171" t="s">
+    <row r="171" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B171" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="C171" s="9">
+      <c r="C171" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="172" ht="14.25">
-      <c r="A172" t="s">
+    <row r="172" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B172" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C172" s="9">
+      <c r="C172" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="173" ht="14.25">
-      <c r="A173" t="s">
+    <row r="173" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B173" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C173" s="9">
+      <c r="C173" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="174" ht="14.25">
-      <c r="A174" t="s">
+    <row r="174" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B174" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="C174" s="9">
+      <c r="C174" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="175" ht="14.25">
-      <c r="A175" t="s">
+    <row r="175" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B175" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="C175" s="9">
+      <c r="C175" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="176" ht="14.25">
-      <c r="A176" t="s">
+    <row r="176" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B176" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C176" s="9">
+      <c r="C176" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="177" ht="14.25">
-      <c r="A177" t="s">
+    <row r="177" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B177" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C177" s="9">
+      <c r="C177" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="178" ht="14.25">
-      <c r="A178" t="s">
+    <row r="178" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B178" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C178" s="9">
+      <c r="C178" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="179" ht="14.25">
-      <c r="A179" t="s">
+    <row r="179" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B179" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="C179" s="9">
+      <c r="C179" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="180" ht="14.25">
-      <c r="A180" t="s">
+    <row r="180" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B180" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="C180" s="9">
+      <c r="C180" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="181" ht="14.25">
-      <c r="A181" t="s">
+    <row r="181" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B181" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C181" s="9">
+      <c r="C181" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="182" ht="14.25">
-      <c r="A182" t="s">
+    <row r="182" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B182" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="C182" s="9">
+      <c r="C182" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="183" ht="14.25">
-      <c r="A183" t="s">
+    <row r="183" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B183" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C183" s="9">
+      <c r="C183" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="184" ht="14.25">
-      <c r="A184" t="s">
+    <row r="184" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B184" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="C184" s="9">
+      <c r="C184" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="185" ht="14.25">
-      <c r="A185" t="s">
+    <row r="185" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B185" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C185" s="9">
+      <c r="C185" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="186" ht="14.25">
-      <c r="A186" t="s">
+    <row r="186" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B186" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C186" s="9">
+      <c r="C186" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="187" ht="14.25">
-      <c r="A187" t="s">
+    <row r="187" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B187" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="C187" s="9">
+      <c r="C187" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="188" ht="14.25">
-      <c r="A188" t="s">
+    <row r="188" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B188" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C188" s="9">
+      <c r="C188" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="189" ht="14.25">
-      <c r="A189" t="s">
+    <row r="189" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B189" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C189" s="9">
+      <c r="C189" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="190" ht="14.25">
-      <c r="A190" t="s">
+    <row r="190" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B190" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="C190" s="9">
+      <c r="C190" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="191" ht="14.25">
-      <c r="A191" t="s">
+    <row r="191" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B191" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C191" s="9">
+      <c r="C191" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="192" ht="14.25">
-      <c r="A192" t="s">
+    <row r="192" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B192" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="C192" s="9">
+      <c r="C192" s="9" t="n">
         <v>506</v>
       </c>
     </row>
-    <row r="193" ht="14.25">
-      <c r="A193" t="s">
+    <row r="193" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B193" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C193" s="9">
+      <c r="C193" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="194" ht="14.25">
-      <c r="A194" t="s">
+    <row r="194" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B194" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C194" s="9">
+      <c r="C194" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="195" ht="14.25">
-      <c r="A195" t="s">
+    <row r="195" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B195" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="C195" s="9">
+      <c r="C195" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="196" ht="14.25">
-      <c r="A196" t="s">
+    <row r="196" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B196" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="C196" s="9">
+      <c r="C196" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="197" ht="14.25">
-      <c r="A197" t="s">
+    <row r="197" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B197" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C197" s="9">
+      <c r="C197" s="9" t="n">
         <v>611</v>
       </c>
     </row>
-    <row r="198" ht="14.25">
-      <c r="A198" t="s">
+    <row r="198" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B198" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="C198" s="9">
+      <c r="C198" s="9" t="n">
         <v>466</v>
       </c>
     </row>
-    <row r="199" ht="14.25">
-      <c r="A199" t="s">
+    <row r="199" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B199" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C199" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="200" ht="14.25">
-      <c r="A200" t="s">
+      <c r="C199" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B200" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="C200" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="201" ht="14.25">
-      <c r="A201" t="s">
+      <c r="C200" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B201" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="C201" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="202" ht="14.25">
-      <c r="A202" t="s">
+      <c r="C201" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B202" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="C202" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="203" ht="14.25">
-      <c r="A203" t="s">
+      <c r="C202" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B203" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C203" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="204" ht="14.25">
-      <c r="A204" t="s">
+      <c r="C203" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B204" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="C204" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="205" ht="14.25">
-      <c r="A205" t="s">
+      <c r="C204" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B205" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="C205" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="206" ht="14.25">
-      <c r="A206" t="s">
+      <c r="C205" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B206" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="C206" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="207" ht="14.25">
-      <c r="A207" t="s">
+      <c r="C206" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B207" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="C207" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="208" ht="14.25">
-      <c r="A208" t="s">
+      <c r="C207" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B208" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C208" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="209" ht="14.25">
-      <c r="A209" t="s">
+      <c r="C208" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B209" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C209" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="210" ht="14.25">
-      <c r="A210" t="s">
+      <c r="C209" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B210" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="C210" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="211" ht="14.25">
-      <c r="A211" t="s">
+      <c r="C210" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B211" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C211" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="212" ht="14.25">
-      <c r="A212" t="s">
+      <c r="C211" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B212" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="C212" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="213" ht="14.25">
-      <c r="A213" t="s">
+      <c r="C212" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B213" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C213" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="214" ht="14.25">
-      <c r="A214" t="s">
+      <c r="C213" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B214" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="C214" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="215" ht="14.25">
-      <c r="A215" t="s">
+      <c r="C214" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B215" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="C215" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="216" ht="14.25">
-      <c r="A216" t="s">
+      <c r="C215" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B216" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C216" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="217" ht="14.25">
-      <c r="A217" t="s">
+      <c r="C216" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B217" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="C217" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="218" ht="14.25">
-      <c r="A218" t="s">
+      <c r="C217" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B218" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="C218" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="219" ht="14.25">
-      <c r="A219" t="s">
+      <c r="C218" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B219" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="C219" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="220" ht="14.25">
-      <c r="A220" t="s">
+      <c r="C219" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B220" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="C220" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="221" ht="14.25">
-      <c r="A221" t="s">
+      <c r="C220" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B221" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C221" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="222" ht="14.25">
-      <c r="A222" t="s">
+      <c r="C221" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B222" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="C222" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="223" ht="14.25">
-      <c r="A223" t="s">
+      <c r="C222" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B223" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="C223" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="224" ht="14.25">
-      <c r="A224" t="s">
+      <c r="C223" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B224" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="C224" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="225" ht="14.25">
-      <c r="A225" t="s">
+      <c r="C224" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B225" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="C225" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="226" ht="14.25">
-      <c r="A226" t="s">
+      <c r="C225" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B226" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="C226" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="227" ht="14.25">
-      <c r="A227" t="s">
+      <c r="C226" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B227" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="C227" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="228" ht="14.25">
-      <c r="A228" t="s">
+      <c r="C227" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B228" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="C228" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="229" ht="14.25">
-      <c r="A229" t="s">
+      <c r="C228" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B229" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="C229" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="230" ht="14.25">
-      <c r="A230" t="s">
+      <c r="C229" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B230" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="C230" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="231" ht="14.25">
-      <c r="A231" t="s">
+      <c r="C230" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B231" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="C231" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="232" ht="14.25">
-      <c r="A232" t="s">
+      <c r="C231" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B232" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="C232" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="233" ht="14.25">
-      <c r="A233" t="s">
+      <c r="C232" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B233" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="C233" s="9">
+      <c r="C233" s="9" t="n">
         <v>156</v>
       </c>
     </row>
-    <row r="234" ht="14.25">
-      <c r="A234" t="s">
+    <row r="234" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B234" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="C234" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="235" ht="14.25">
-      <c r="A235" t="s">
+      <c r="C234" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B235" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C235" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="236" ht="14.25">
-      <c r="A236" t="s">
+      <c r="C235" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B236" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="C236" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="237" ht="14.25">
-      <c r="A237" t="s">
+      <c r="C236" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B237" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="C237" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="238" ht="14.25">
-      <c r="A238" t="s">
+      <c r="C237" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B238" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="C238" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="239" ht="14.25">
-      <c r="A239" t="s">
+      <c r="C238" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B239" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C239" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="240" ht="14.25">
-      <c r="A240" t="s">
+      <c r="C239" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B240" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="C240" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="241" ht="14.25">
-      <c r="A241" t="s">
+      <c r="C240" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B241" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="C241" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="242" ht="14.25">
-      <c r="A242" t="s">
+      <c r="C241" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B242" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C242" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="243" ht="14.25">
-      <c r="A243" t="s">
+      <c r="C242" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B243" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C243" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="244" ht="14.25">
-      <c r="A244" t="s">
+      <c r="C243" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B244" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="C244" s="9">
+      <c r="C244" s="9" t="n">
         <v>126</v>
       </c>
     </row>
-    <row r="245" ht="14.25">
-      <c r="A245" t="s">
+    <row r="245" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B245" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="C245" s="9">
+      <c r="C245" s="9" t="n">
         <v>156</v>
       </c>
     </row>
-    <row r="246" ht="14.25">
-      <c r="A246" t="s">
+    <row r="246" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B246" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="C246" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="247" ht="14.25">
-      <c r="A247" t="s">
+      <c r="C246" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B247" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="C247" s="9">
+      <c r="C247" s="9" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="248" ht="14.25">
-      <c r="A248" t="s">
+    <row r="248" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B248" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="C248" s="9">
+      <c r="C248" s="9" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="249" ht="14.25">
-      <c r="A249" t="s">
+    <row r="249" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B249" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="C249" s="9">
+      <c r="C249" s="9" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="250" ht="14.25">
-      <c r="A250" t="s">
+    <row r="250" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B250" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C250" s="9">
+      <c r="C250" s="9" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="251" ht="14.25">
-      <c r="A251" t="s">
+    <row r="251" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B251" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="C251" s="9">
+      <c r="C251" s="9" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="252" ht="14.25">
-      <c r="A252" t="s">
+    <row r="252" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B252" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="C252" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="253" ht="14.25">
-      <c r="A253" t="s">
+      <c r="C252" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B253" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C253" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="254" ht="14.25">
-      <c r="A254" t="s">
+      <c r="C253" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B254" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="C254" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="255" ht="14.25">
-      <c r="A255" t="s">
+      <c r="C254" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B255" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="C255" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="256" ht="14.25">
-      <c r="A256" t="s">
+      <c r="C255" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B256" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="C256" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="257" ht="14.25">
-      <c r="A257" t="s">
+      <c r="C256" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B257" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="C257" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="258" ht="14.25">
-      <c r="A258" t="s">
+      <c r="C257" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B258" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="C258" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="259" ht="14.25">
-      <c r="A259" t="s">
+      <c r="C258" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B259" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="C259" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="260" ht="14.25">
-      <c r="A260" t="s">
+      <c r="C259" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B260" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="C260" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="261" ht="14.25">
-      <c r="A261" t="s">
+      <c r="C260" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B261" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="C261" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="262" ht="14.25">
-      <c r="A262" t="s">
+      <c r="C261" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B262" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C262" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="263" ht="14.25">
-      <c r="A263" t="s">
+      <c r="C262" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B263" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="C263" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="264" ht="14.25">
-      <c r="A264" t="s">
+      <c r="C263" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B264" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C264" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="265" ht="14.25">
-      <c r="A265" t="s">
+      <c r="C264" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B265" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="C265" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="266" ht="14.25">
-      <c r="A266" t="s">
+      <c r="C265" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B266" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="C266" s="9">
+      <c r="C266" s="9" t="n">
         <v>156</v>
       </c>
     </row>
-    <row r="267" ht="14.25">
-      <c r="A267" t="s">
+    <row r="267" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B267" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="C267" s="9">
+      <c r="C267" s="9" t="n">
         <v>156</v>
       </c>
     </row>
-    <row r="268" ht="14.25">
-      <c r="A268" t="s">
+    <row r="268" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B268" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="C268" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="269" ht="14.25">
-      <c r="A269" t="s">
+      <c r="C268" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B269" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C269" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="270" ht="14.25">
-      <c r="A270" t="s">
+      <c r="C269" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B270" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="C270" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="271" ht="14.25">
-      <c r="A271" t="s">
+      <c r="C270" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B271" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="C271" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="272" ht="14.25">
-      <c r="A272" t="s">
+      <c r="C271" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B272" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="C272" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="273" ht="14.25">
-      <c r="A273" t="s">
+      <c r="C272" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B273" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="C273" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="274" ht="14.25">
-      <c r="A274" t="s">
+      <c r="C273" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B274" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="C274" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="275" ht="14.25">
-      <c r="A275" t="s">
+      <c r="C274" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B275" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="C275" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="276" ht="14.25">
-      <c r="A276" t="s">
+      <c r="C275" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B276" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="C276" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="277" ht="14.25">
-      <c r="A277" t="s">
+      <c r="C276" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B277" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="C277" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="278" ht="14.25">
-      <c r="A278" t="s">
+      <c r="C277" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B278" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="C278" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="279" ht="14.25">
-      <c r="A279" t="s">
+      <c r="C278" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B279" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="C279" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="280" ht="14.25">
-      <c r="A280" t="s">
+      <c r="C279" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B280" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="C280" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="281" ht="14.25">
-      <c r="A281" t="s">
+      <c r="C280" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B281" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="C281" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="282" ht="14.25">
-      <c r="A282" t="s">
+      <c r="C281" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B282" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="C282" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="283" ht="14.25">
-      <c r="A283" t="s">
+      <c r="C282" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B283" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="C283" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="284" ht="14.25">
-      <c r="A284" t="s">
+      <c r="C283" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B284" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C284" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="285" ht="14.25">
-      <c r="A285" t="s">
+      <c r="C284" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B285" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="C285" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="286" ht="14.25">
-      <c r="A286" t="s">
+      <c r="C285" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B286" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="C286" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="287" ht="14.25">
-      <c r="A287" t="s">
+      <c r="C286" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B287" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="C287" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="288" ht="14.25">
-      <c r="A288" t="s">
+      <c r="C287" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B288" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="C288" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="289" ht="14.25">
-      <c r="A289" t="s">
+      <c r="C288" s="9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B289" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="C289" s="9">
+      <c r="C289" s="9" t="n">
         <v>406</v>
       </c>
     </row>
-    <row r="290" ht="14.25">
-      <c r="A290" t="s">
+    <row r="290" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B290" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="C290" s="9">
+      <c r="C290" s="9" t="n">
         <v>476</v>
       </c>
     </row>
-    <row r="291" ht="14.25">
-      <c r="A291" t="s">
+    <row r="291" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B291" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="C291" s="9">
+      <c r="C291" s="9" t="n">
         <v>476</v>
       </c>
     </row>
-    <row r="292" ht="14.25">
-      <c r="A292" t="s">
+    <row r="292" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B292" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="C292" s="9">
+      <c r="C292" s="9" t="n">
         <v>556</v>
       </c>
     </row>
-    <row r="293" ht="14.25">
-      <c r="A293" t="s">
+    <row r="293" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B293" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="C293" s="9">
+      <c r="C293" s="9" t="n">
         <v>271</v>
       </c>
     </row>
-    <row r="294" ht="14.25">
-      <c r="A294" t="s">
+    <row r="294" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B294" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="C294" s="9">
+      <c r="C294" s="9" t="n">
         <v>271</v>
       </c>
     </row>
-    <row r="295" ht="14.25">
-      <c r="A295" t="s">
+    <row r="295" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B295" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="C295" s="9">
+      <c r="C295" s="9" t="n">
         <v>356</v>
       </c>
     </row>
-    <row r="296" ht="14.25">
-      <c r="A296" t="s">
+    <row r="296" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B296" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="C296" s="9">
+      <c r="C296" s="9" t="n">
         <v>356</v>
       </c>
     </row>
-    <row r="297" ht="14.25">
-      <c r="A297" t="s">
+    <row r="297" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B297" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="C297" s="9">
+      <c r="C297" s="9" t="n">
         <v>476</v>
       </c>
     </row>
-    <row r="298" ht="14.25">
-      <c r="A298" t="s">
+    <row r="298" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B298" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="C298" s="9">
+      <c r="C298" s="9" t="n">
         <v>271</v>
       </c>
     </row>
-    <row r="299" ht="14.25">
-      <c r="A299" t="s">
+    <row r="299" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B299" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="C299" s="9">
+      <c r="C299" s="9" t="n">
         <v>271</v>
       </c>
     </row>
-    <row r="300" ht="14.25">
-      <c r="A300" t="s">
+    <row r="300" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B300" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="C300" s="9">
+      <c r="C300" s="9" t="n">
         <v>271</v>
       </c>
     </row>
-    <row r="301" ht="14.25">
-      <c r="A301" t="s">
+    <row r="301" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B301" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="C301" s="9">
+      <c r="C301" s="9" t="n">
         <v>271</v>
       </c>
     </row>
-    <row r="302" ht="14.25">
-      <c r="A302" t="s">
+    <row r="302" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B302" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="C302" s="9">
+      <c r="C302" s="9" t="n">
         <v>271</v>
       </c>
     </row>
-    <row r="303" ht="14.25">
-      <c r="A303" t="s">
+    <row r="303" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B303" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="C303" s="9">
+      <c r="C303" s="9" t="n">
         <v>356</v>
       </c>
     </row>
-    <row r="304" ht="14.25">
-      <c r="A304" t="s">
+    <row r="304" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B304" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="C304" s="9">
+      <c r="C304" s="9" t="n">
         <v>271</v>
       </c>
     </row>
-    <row r="305" ht="14.25">
-      <c r="A305" t="s">
+    <row r="305" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B305" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="C305" s="9">
+      <c r="C305" s="9" t="n">
         <v>356</v>
       </c>
     </row>
-    <row r="306" ht="14.25">
-      <c r="A306" t="s">
+    <row r="306" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B306" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="C306" s="9">
+      <c r="C306" s="9" t="n">
         <v>271</v>
       </c>
     </row>
-    <row r="307" ht="14.25">
-      <c r="A307" t="s">
+    <row r="307" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B307" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="C307" s="9">
+      <c r="C307" s="9" t="n">
         <v>356</v>
       </c>
     </row>
-    <row r="308" ht="14.25">
-      <c r="A308" t="s">
+    <row r="308" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B308" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="C308" s="9">
+      <c r="C308" s="9" t="n">
         <v>271</v>
       </c>
     </row>
-    <row r="309" ht="14.25">
-      <c r="A309" t="s">
+    <row r="309" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B309" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="C309" s="9">
+      <c r="C309" s="9" t="n">
         <v>356</v>
       </c>
     </row>
-    <row r="310" ht="14.25">
-      <c r="A310" t="s">
+    <row r="310" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B310" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="C310" s="9">
+      <c r="C310" s="9" t="n">
         <v>271</v>
       </c>
     </row>
-    <row r="311" ht="14.25">
-      <c r="A311" t="s">
+    <row r="311" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B311" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="C311" s="9">
+      <c r="C311" s="9" t="n">
         <v>356</v>
       </c>
     </row>
-    <row r="312" ht="14.25">
-      <c r="A312" t="s">
+    <row r="312" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B312" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="C312" s="9">
+      <c r="C312" s="9" t="n">
         <v>46</v>
       </c>
     </row>
-    <row r="313" ht="14.25">
-      <c r="A313" t="s">
+    <row r="313" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B313" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="C313" s="9">
+      <c r="C313" s="9" t="n">
         <v>271</v>
       </c>
     </row>
-    <row r="314" ht="14.25">
-      <c r="A314" t="s">
+    <row r="314" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B314" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="C314" s="9">
+      <c r="C314" s="9" t="n">
         <v>356</v>
       </c>
     </row>
-    <row r="315" ht="14.25">
-      <c r="A315" t="s">
+    <row r="315" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B315" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="C315" s="9">
+      <c r="C315" s="9" t="n">
         <v>271</v>
       </c>
     </row>
-    <row r="316" ht="14.25">
-      <c r="A316" t="s">
+    <row r="316" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B316" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="C316" s="9">
+      <c r="C316" s="9" t="n">
         <v>356</v>
       </c>
     </row>
-    <row r="317" ht="14.25">
-      <c r="A317" t="s">
+    <row r="317" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B317" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="C317" s="9">
+      <c r="C317" s="9" t="n">
         <v>271</v>
       </c>
     </row>
-    <row r="318" ht="14.25">
-      <c r="A318" t="s">
+    <row r="318" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B318" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="C318" s="9">
+      <c r="C318" s="9" t="n">
         <v>356</v>
       </c>
     </row>
-    <row r="319" ht="14.25">
-      <c r="A319" t="s">
+    <row r="319" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B319" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="C319" s="9">
+      <c r="C319" s="9" t="n">
         <v>271</v>
       </c>
     </row>
-    <row r="320" ht="14.25">
-      <c r="A320" t="s">
+    <row r="320" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B320" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="C320" s="9">
+      <c r="C320" s="9" t="n">
         <v>356</v>
       </c>
     </row>
-    <row r="321" ht="14.25">
-      <c r="A321" t="s">
+    <row r="321" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B321" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="C321" s="9">
+      <c r="C321" s="9" t="n">
         <v>271</v>
       </c>
     </row>
-    <row r="322" ht="14.25">
-      <c r="A322" t="s">
+    <row r="322" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B322" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="C322" s="9">
+      <c r="C322" s="9" t="n">
         <v>356</v>
       </c>
     </row>
-    <row r="323" ht="14.25">
-      <c r="A323" t="s">
+    <row r="323" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B323" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="C323" s="9">
+      <c r="C323" s="9" t="n">
         <v>271</v>
       </c>
     </row>
-    <row r="324" ht="14.25">
-      <c r="A324" t="s">
+    <row r="324" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B324" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="C324" s="9">
+      <c r="C324" s="9" t="n">
         <v>356</v>
       </c>
     </row>
-    <row r="325" ht="14.25">
-      <c r="A325" t="s">
+    <row r="325" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B325" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="C325" s="9">
+      <c r="C325" s="9" t="n">
         <v>271</v>
       </c>
     </row>
-    <row r="326" ht="14.25">
-      <c r="A326" t="s">
+    <row r="326" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B326" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="C326" s="9">
+      <c r="C326" s="9" t="n">
         <v>356</v>
       </c>
     </row>
-    <row r="327" ht="14.25">
-      <c r="A327" t="s">
+    <row r="327" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B327" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="C327" s="9">
+      <c r="C327" s="9" t="n">
         <v>271</v>
       </c>
     </row>
-    <row r="328" ht="14.25">
-      <c r="A328" t="s">
+    <row r="328" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B328" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="C328" s="9">
+      <c r="C328" s="9" t="n">
         <v>356</v>
       </c>
     </row>
-    <row r="329" ht="14.25">
-      <c r="A329" t="s">
+    <row r="329" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B329" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="C329" s="9">
+      <c r="C329" s="9" t="n">
         <v>356</v>
       </c>
     </row>
-    <row r="330" ht="14.25">
-      <c r="A330" t="s">
+    <row r="330" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B330" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="C330" s="9">
+      <c r="C330" s="9" t="n">
         <v>271</v>
       </c>
     </row>
-    <row r="331" ht="14.25">
-      <c r="A331" t="s">
+    <row r="331" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B331" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="C331" s="9">
+      <c r="C331" s="9" t="n">
         <v>271</v>
       </c>
     </row>
-    <row r="332" ht="14.25">
-      <c r="A332" t="s">
+    <row r="332" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B332" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="C332" s="9">
+      <c r="C332" s="9" t="n">
         <v>356</v>
       </c>
     </row>
-    <row r="333" ht="14.25">
-      <c r="A333" t="s">
+    <row r="333" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B333" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="C333" s="9">
+      <c r="C333" s="9" t="n">
         <v>271</v>
       </c>
     </row>
-    <row r="334" ht="14.25">
-      <c r="A334" t="s">
+    <row r="334" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B334" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="C334" s="9">
+      <c r="C334" s="9" t="n">
         <v>356</v>
       </c>
     </row>
-    <row r="335" ht="14.25">
-      <c r="A335" t="s">
+    <row r="335" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B335" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="C335" s="9">
+      <c r="C335" s="9" t="n">
         <v>271</v>
       </c>
     </row>
-    <row r="336" ht="14.25">
-      <c r="A336" t="s">
+    <row r="336" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B336" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="C336" s="9">
+      <c r="C336" s="9" t="n">
         <v>271</v>
       </c>
     </row>
-    <row r="337" ht="14.25">
-      <c r="A337" t="s">
+    <row r="337" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B337" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="C337" s="9">
+      <c r="C337" s="9" t="n">
         <v>356</v>
       </c>
     </row>
-    <row r="338" ht="14.25">
-      <c r="A338" t="s">
+    <row r="338" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B338" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="C338" s="9">
+      <c r="C338" s="9" t="n">
         <v>271</v>
       </c>
     </row>
-    <row r="339" ht="14.25">
-      <c r="A339" t="s">
+    <row r="339" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B339" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="C339" s="9">
+      <c r="C339" s="9" t="n">
         <v>356</v>
       </c>
     </row>
-    <row r="340" ht="14.25">
-      <c r="A340" t="s">
+    <row r="340" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B340" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="C340" s="9">
+      <c r="C340" s="9" t="n">
         <v>271</v>
       </c>
     </row>
-    <row r="341" ht="14.25">
-      <c r="A341" t="s">
+    <row r="341" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B341" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="C341" s="9">
+      <c r="C341" s="9" t="n">
         <v>356</v>
       </c>
     </row>
-    <row r="342" ht="14.25">
-      <c r="A342" t="s">
+    <row r="342" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B342" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="C342" s="9">
+      <c r="C342" s="9" t="n">
         <v>271</v>
       </c>
     </row>
-    <row r="343" ht="14.25">
-      <c r="A343" t="s">
+    <row r="343" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B343" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="C343" s="9">
+      <c r="C343" s="9" t="n">
         <v>356</v>
       </c>
     </row>
-    <row r="344" ht="14.25">
-      <c r="A344" t="s">
+    <row r="344" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B344" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="C344" s="9">
+      <c r="C344" s="9" t="n">
         <v>271</v>
       </c>
     </row>
-    <row r="345" ht="14.25">
-      <c r="A345" t="s">
+    <row r="345" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B345" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="C345" s="9">
+      <c r="C345" s="9" t="n">
         <v>356</v>
       </c>
     </row>
-    <row r="346" ht="14.25">
-      <c r="A346" t="s">
+    <row r="346" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B346" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="C346" s="9">
+      <c r="C346" s="9" t="n">
         <v>271</v>
       </c>
     </row>
-    <row r="347" ht="14.25">
-      <c r="A347" t="s">
+    <row r="347" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B347" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="C347" s="9">
+      <c r="C347" s="9" t="n">
         <v>356</v>
       </c>
     </row>
-    <row r="348" ht="14.25">
-      <c r="A348" t="s">
+    <row r="348" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B348" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="C348" s="9">
+      <c r="C348" s="9" t="n">
         <v>271</v>
       </c>
     </row>
-    <row r="349" ht="14.25">
-      <c r="A349" t="s">
+    <row r="349" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B349" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="C349" s="9">
+      <c r="C349" s="9" t="n">
         <v>356</v>
       </c>
     </row>
-    <row r="350" ht="14.25">
-      <c r="A350" t="s">
+    <row r="350" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B350" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="C350" s="9">
+      <c r="C350" s="9" t="n">
         <v>271</v>
       </c>
     </row>
-    <row r="351" ht="14.25">
-      <c r="A351" t="s">
+    <row r="351" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B351" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="C351" s="9">
+      <c r="C351" s="9" t="n">
         <v>356</v>
       </c>
     </row>
-    <row r="352" ht="14.25">
-      <c r="A352" t="s">
+    <row r="352" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B352" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="C352" s="9">
+      <c r="C352" s="9" t="n">
         <v>271</v>
       </c>
     </row>
-    <row r="353" ht="14.25">
-      <c r="A353" t="s">
+    <row r="353" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B353" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="C353" s="9">
+      <c r="C353" s="9" t="n">
         <v>456</v>
       </c>
     </row>
-    <row r="354" ht="14.25">
-      <c r="A354" t="s">
+    <row r="354" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B354" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="C354" s="9">
+      <c r="C354" s="9" t="n">
         <v>271</v>
       </c>
     </row>
-    <row r="355" ht="14.25">
-      <c r="A355" t="s">
+    <row r="355" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B355" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C355" s="9">
+      <c r="C355" s="9" t="n">
         <v>356</v>
       </c>
     </row>
-    <row r="356" ht="14.25">
-      <c r="A356" t="s">
+    <row r="356" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B356" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="C356" s="9">
+      <c r="C356" s="9" t="n">
         <v>271</v>
       </c>
     </row>
-    <row r="357" ht="14.25">
-      <c r="A357" t="s">
+    <row r="357" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B357" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="C357" s="9">
+      <c r="C357" s="9" t="n">
         <v>356</v>
       </c>
     </row>
-    <row r="358" ht="14.25">
-      <c r="A358" t="s">
+    <row r="358" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B358" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="C358" s="9">
+      <c r="C358" s="9" t="n">
         <v>271</v>
       </c>
     </row>
-    <row r="359" ht="14.25">
-      <c r="A359" t="s">
+    <row r="359" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B359" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="C359" s="9">
+      <c r="C359" s="9" t="n">
         <v>356</v>
       </c>
     </row>
-    <row r="360" ht="14.25">
-      <c r="A360" t="s">
+    <row r="360" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B360" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="C360" s="9">
+      <c r="C360" s="9" t="n">
         <v>271</v>
       </c>
     </row>
-    <row r="361" ht="14.25">
-      <c r="A361" t="s">
+    <row r="361" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B361" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="C361" s="9">
+      <c r="C361" s="9" t="n">
         <v>356</v>
       </c>
     </row>
-    <row r="362" ht="14.25">
-      <c r="A362" t="s">
+    <row r="362" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B362" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="C362" s="9">
+      <c r="C362" s="9" t="n">
         <v>271</v>
       </c>
     </row>
-    <row r="363" ht="14.25">
-      <c r="A363" t="s">
+    <row r="363" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B363" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="C363" s="9">
+      <c r="C363" s="9" t="n">
         <v>356</v>
       </c>
     </row>
-    <row r="364" ht="14.25">
-      <c r="A364" t="s">
+    <row r="364" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B364" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="C364" s="9">
+      <c r="C364" s="9" t="n">
         <v>271</v>
       </c>
     </row>
-    <row r="365" ht="14.25">
-      <c r="A365" t="s">
+    <row r="365" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B365" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="C365" s="9">
+      <c r="C365" s="9" t="n">
         <v>356</v>
       </c>
     </row>
-    <row r="366" ht="14.25">
-      <c r="A366" t="s">
+    <row r="366" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B366" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="C366" s="9">
+      <c r="C366" s="9" t="n">
         <v>271</v>
       </c>
     </row>
-    <row r="367" ht="14.25">
-      <c r="A367" t="s">
+    <row r="367" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B367" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="C367" s="9">
+      <c r="C367" s="9" t="n">
         <v>356</v>
       </c>
     </row>
-    <row r="368" ht="14.25">
-      <c r="A368" t="s">
+    <row r="368" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B368" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="C368" s="9">
+      <c r="C368" s="9" t="n">
         <v>271</v>
       </c>
     </row>
-    <row r="369" ht="14.25">
-      <c r="A369" t="s">
+    <row r="369" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B369" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="C369" s="9">
+      <c r="C369" s="9" t="n">
         <v>356</v>
       </c>
     </row>
-    <row r="370" ht="14.25">
-      <c r="A370" t="s">
+    <row r="370" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B370" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="C370" s="9">
+      <c r="C370" s="9" t="n">
         <v>271</v>
       </c>
     </row>
-    <row r="371" ht="14.25">
-      <c r="A371" t="s">
+    <row r="371" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B371" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="C371" s="9">
+      <c r="C371" s="9" t="n">
         <v>356</v>
       </c>
     </row>
-    <row r="372" ht="14.25">
-      <c r="A372" t="s">
+    <row r="372" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B372" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="C372" s="9">
+      <c r="C372" s="9" t="n">
         <v>271</v>
       </c>
     </row>
-    <row r="373" ht="14.25">
-      <c r="A373" t="s">
+    <row r="373" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B373" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="C373" s="9">
+      <c r="C373" s="9" t="n">
         <v>356</v>
       </c>
     </row>
-    <row r="374" ht="14.25">
-      <c r="A374" t="s">
+    <row r="374" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B374" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="C374" s="9">
+      <c r="C374" s="9" t="n">
         <v>271</v>
       </c>
     </row>
-    <row r="375" ht="14.25">
-      <c r="A375" t="s">
+    <row r="375" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B375" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="C375" s="9">
+      <c r="C375" s="9" t="n">
         <v>356</v>
       </c>
     </row>
-    <row r="376" ht="14.25">
-      <c r="A376" t="s">
+    <row r="376" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B376" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="C376" s="9">
+      <c r="C376" s="9" t="n">
         <v>271</v>
       </c>
     </row>
-    <row r="377" ht="14.25">
-      <c r="A377" t="s">
+    <row r="377" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B377" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="C377" s="9">
+      <c r="C377" s="9" t="n">
         <v>356</v>
       </c>
     </row>
-    <row r="378" ht="14.25">
-      <c r="A378" t="s">
+    <row r="378" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B378" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="C378" s="9">
+      <c r="C378" s="9" t="n">
         <v>356</v>
       </c>
     </row>
-    <row r="379" ht="14.25">
-      <c r="A379" t="s">
+    <row r="379" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B379" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="C379" s="9">
+      <c r="C379" s="9" t="n">
         <v>456</v>
       </c>
     </row>
-    <row r="380" ht="14.25">
-      <c r="A380" t="s">
+    <row r="380" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B380" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="C380" s="9">
+      <c r="C380" s="9" t="n">
         <v>271</v>
       </c>
     </row>
-    <row r="381" ht="14.25">
-      <c r="A381" t="s">
+    <row r="381" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A381" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B381" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="C381" s="9">
+      <c r="C381" s="9" t="n">
         <v>356</v>
       </c>
     </row>
-    <row r="382" ht="14.25">
-      <c r="A382" t="s">
+    <row r="382" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B382" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="C382" s="9">
+      <c r="C382" s="9" t="n">
         <v>271</v>
       </c>
     </row>
-    <row r="383" ht="14.25">
-      <c r="A383" t="s">
+    <row r="383" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B383" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="C383" s="9">
+      <c r="C383" s="9" t="n">
         <v>356</v>
       </c>
     </row>
-    <row r="384" ht="14.25">
-      <c r="A384" t="s">
+    <row r="384" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B384" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="C384" s="9">
+      <c r="C384" s="9" t="n">
         <v>271</v>
       </c>
     </row>
-    <row r="385" ht="14.25">
-      <c r="A385" t="s">
+    <row r="385" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B385" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="C385" s="9">
+      <c r="C385" s="9" t="n">
         <v>271</v>
       </c>
     </row>
-    <row r="386" ht="14.25">
-      <c r="A386" t="s">
+    <row r="386" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B386" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="C386" s="9">
+      <c r="C386" s="9" t="n">
         <v>186</v>
       </c>
     </row>
-    <row r="387" ht="14.25">
-      <c r="A387" t="s">
+    <row r="387" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B387" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="C387" s="9">
+      <c r="C387" s="9" t="n">
         <v>226</v>
       </c>
     </row>
-    <row r="388" ht="13.800000000000001">
-      <c r="A388" t="s">
+    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="0" t="s">
         <v>52</v>
       </c>
       <c r="B388" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="C388" s="9">
+      <c r="C388" s="9" t="n">
         <v>26</v>
       </c>
     </row>
-    <row r="389" ht="13.800000000000001">
-      <c r="A389" t="s">
+    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="0" t="s">
         <v>52</v>
       </c>
       <c r="B389" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="C389" s="9">
+      <c r="C389" s="9" t="n">
         <v>140</v>
       </c>
     </row>
-    <row r="390" ht="13.800000000000001">
-      <c r="A390" t="s">
+    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A390" s="0" t="s">
         <v>52</v>
       </c>
       <c r="B390" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="C390" s="9">
+      <c r="C390" s="9" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="391" ht="13.800000000000001">
-      <c r="A391" t="s">
+    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A391" s="0" t="s">
         <v>52</v>
       </c>
       <c r="B391" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="C391" s="9">
+      <c r="C391" s="9" t="n">
         <v>160</v>
       </c>
     </row>
-    <row r="392" ht="13.800000000000001">
-      <c r="A392" t="s">
+    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A392" s="0" t="s">
         <v>52</v>
       </c>
       <c r="B392" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="C392" s="9">
+      <c r="C392" s="9" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="393" ht="13.800000000000001">
-      <c r="A393" t="s">
+    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A393" s="0" t="s">
         <v>52</v>
       </c>
       <c r="B393" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="C393" s="9">
+      <c r="C393" s="9" t="n">
         <v>130</v>
       </c>
     </row>
-    <row r="394" ht="13.800000000000001">
-      <c r="A394" t="s">
+    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A394" s="0" t="s">
         <v>52</v>
       </c>
       <c r="B394" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="C394" s="9">
+      <c r="C394" s="9" t="n">
         <v>160</v>
       </c>
     </row>
-    <row r="395" ht="13.800000000000001">
-      <c r="A395" t="s">
+    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A395" s="0" t="s">
         <v>52</v>
       </c>
       <c r="B395" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="C395" s="9">
+      <c r="C395" s="9" t="n">
         <v>110</v>
       </c>
     </row>
-    <row r="396" ht="13.800000000000001">
-      <c r="A396" t="s">
+    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A396" s="0" t="s">
         <v>52</v>
       </c>
       <c r="B396" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="C396" s="9">
+      <c r="C396" s="9" t="n">
         <v>86</v>
       </c>
     </row>
-    <row r="397" ht="13.800000000000001">
-      <c r="A397" t="s">
+    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A397" s="0" t="s">
         <v>52</v>
       </c>
       <c r="B397" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="C397" s="9">
+      <c r="C397" s="9" t="n">
         <v>140</v>
       </c>
     </row>
-    <row r="398" ht="13.800000000000001">
-      <c r="A398" t="s">
+    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A398" s="0" t="s">
         <v>52</v>
       </c>
       <c r="B398" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="C398" s="9">
+      <c r="C398" s="9" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="399" ht="13.800000000000001">
-      <c r="A399" t="s">
+    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A399" s="0" t="s">
         <v>52</v>
       </c>
       <c r="B399" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="C399" s="9">
+      <c r="C399" s="9" t="n">
         <v>66</v>
       </c>
     </row>
-    <row r="400" ht="13.800000000000001">
-      <c r="A400" t="s">
+    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A400" s="0" t="s">
         <v>52</v>
       </c>
       <c r="B400" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="C400" s="9">
+      <c r="C400" s="9" t="n">
         <v>140</v>
       </c>
     </row>
-    <row r="401" ht="13.800000000000001">
-      <c r="A401" t="s">
+    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="0" t="s">
         <v>52</v>
       </c>
       <c r="B401" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="C401" s="9">
+      <c r="C401" s="9" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="402" ht="13.800000000000001">
-      <c r="A402" t="s">
+    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A402" s="0" t="s">
         <v>52</v>
       </c>
       <c r="B402" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="C402" s="9">
+      <c r="C402" s="9" t="n">
         <v>66</v>
       </c>
     </row>
-    <row r="403" ht="13.800000000000001">
-      <c r="A403" t="s">
+    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="0" t="s">
         <v>52</v>
       </c>
       <c r="B403" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="C403" s="9">
+      <c r="C403" s="9" t="n">
         <v>170</v>
       </c>
     </row>
-    <row r="404" ht="13.800000000000001">
-      <c r="A404" t="s">
+    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="0" t="s">
         <v>52</v>
       </c>
       <c r="B404" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="C404" s="9">
+      <c r="C404" s="9" t="n">
         <v>110</v>
       </c>
     </row>
-    <row r="405" ht="13.800000000000001">
-      <c r="A405" t="s">
+    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="0" t="s">
         <v>52</v>
       </c>
       <c r="B405" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="C405" s="9">
+      <c r="C405" s="9" t="n">
         <v>66</v>
       </c>
     </row>
-    <row r="406" ht="13.800000000000001">
-      <c r="A406" t="s">
+    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="0" t="s">
         <v>52</v>
       </c>
       <c r="B406" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="C406" s="9">
+      <c r="C406" s="9" t="n">
         <v>145</v>
       </c>
     </row>
-    <row r="407" ht="13.800000000000001">
-      <c r="A407" t="s">
+    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="0" t="s">
         <v>52</v>
       </c>
       <c r="B407" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="C407" s="9">
+      <c r="C407" s="9" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="408" ht="13.800000000000001">
-      <c r="A408" t="s">
+    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="0" t="s">
         <v>52</v>
       </c>
       <c r="B408" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="C408" s="9">
+      <c r="C408" s="9" t="n">
         <v>66</v>
       </c>
     </row>
-    <row r="409" ht="13.800000000000001">
-      <c r="A409" t="s">
+    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="0" t="s">
         <v>52</v>
       </c>
       <c r="B409" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="C409" s="9">
+      <c r="C409" s="9" t="n">
         <v>66</v>
       </c>
     </row>
-    <row r="410" ht="13.800000000000001">
-      <c r="A410" t="s">
+    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="0" t="s">
         <v>52</v>
       </c>
       <c r="B410" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="C410" s="9">
+      <c r="C410" s="9" t="n">
         <v>66</v>
       </c>
     </row>
-    <row r="411" ht="13.800000000000001">
-      <c r="A411" t="s">
+    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="0" t="s">
         <v>52</v>
       </c>
       <c r="B411" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="C411" s="2">
+      <c r="C411" s="2" t="n">
         <v>140</v>
       </c>
     </row>
-    <row r="412" ht="13.800000000000001">
-      <c r="A412" t="s">
+    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="0" t="s">
         <v>52</v>
       </c>
       <c r="B412" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="C412" s="2">
+      <c r="C412" s="2" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="413" ht="13.800000000000001">
-      <c r="A413" t="s">
+    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="0" t="s">
         <v>52</v>
       </c>
       <c r="B413" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="C413" s="9">
+      <c r="C413" s="9" t="n">
         <v>140</v>
       </c>
     </row>
-    <row r="414" ht="13.800000000000001">
-      <c r="A414" t="s">
+    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="0" t="s">
         <v>52</v>
       </c>
       <c r="B414" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="C414" s="9">
+      <c r="C414" s="9" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="415" ht="13.800000000000001">
-      <c r="A415" t="s">
+    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="0" t="s">
         <v>52</v>
       </c>
       <c r="B415" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="C415" s="9">
+      <c r="C415" s="9" t="n">
         <v>66</v>
       </c>
     </row>
-    <row r="416" ht="13.800000000000001">
-      <c r="A416" t="s">
+    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="0" t="s">
         <v>52</v>
       </c>
       <c r="B416" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="C416" s="9">
+      <c r="C416" s="9" t="n">
         <v>140</v>
       </c>
     </row>
-    <row r="417" ht="13.800000000000001">
-      <c r="A417" t="s">
+    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="0" t="s">
         <v>52</v>
       </c>
       <c r="B417" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="C417" s="9">
+      <c r="C417" s="9" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="418" ht="13.800000000000001">
-      <c r="A418" t="s">
+    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A418" s="0" t="s">
         <v>52</v>
       </c>
       <c r="B418" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="C418" s="9">
+      <c r="C418" s="9" t="n">
         <v>140</v>
       </c>
     </row>
-    <row r="419" ht="13.800000000000001">
-      <c r="A419" t="s">
+    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A419" s="0" t="s">
         <v>52</v>
       </c>
       <c r="B419" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="C419" s="9">
+      <c r="C419" s="9" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="420" ht="13.800000000000001">
-      <c r="A420" t="s">
+    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="0" t="s">
         <v>52</v>
       </c>
       <c r="B420" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="C420" s="9">
+      <c r="C420" s="9" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="421" ht="13.800000000000001">
-      <c r="A421" t="s">
+    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="0" t="s">
         <v>52</v>
       </c>
       <c r="B421" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="C421" s="9">
+      <c r="C421" s="9" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="422" ht="13.800000000000001">
-      <c r="A422" t="s">
+    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="0" t="s">
         <v>52</v>
       </c>
       <c r="B422" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="C422" s="9">
+      <c r="C422" s="9" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="423" ht="13.800000000000001">
-      <c r="A423" t="s">
+    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A423" s="0" t="s">
         <v>52</v>
       </c>
       <c r="B423" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="C423" s="9">
+      <c r="C423" s="9" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="424" ht="13.800000000000001">
-      <c r="A424" t="s">
+    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A424" s="0" t="s">
         <v>52</v>
       </c>
       <c r="B424" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="C424" s="9">
+      <c r="C424" s="9" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="425" ht="13.800000000000001">
-      <c r="A425" t="s">
+    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="0" t="s">
         <v>52</v>
       </c>
       <c r="B425" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="C425" s="9">
+      <c r="C425" s="9" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="426" ht="13.800000000000001">
-      <c r="A426" t="s">
+    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="0" t="s">
         <v>52</v>
       </c>
       <c r="B426" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="C426" s="9">
+      <c r="C426" s="9" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="427" ht="13.800000000000001">
-      <c r="A427" t="s">
+    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="0" t="s">
         <v>52</v>
       </c>
       <c r="B427" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="C427" s="9">
+      <c r="C427" s="9" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="428" ht="13.800000000000001">
-      <c r="A428" t="s">
+    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A428" s="0" t="s">
         <v>52</v>
       </c>
       <c r="B428" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="C428" s="9">
+      <c r="C428" s="9" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="429" ht="14.25">
-      <c r="A429" t="s">
+    <row r="429" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B429" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C429" s="2">
+      <c r="C429" s="2" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="430" ht="13.800000000000001">
-      <c r="A430" t="s">
+    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B430" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C430" s="2">
+      <c r="C430" s="2" t="n">
         <v>210</v>
       </c>
     </row>
-    <row r="431" ht="13.800000000000001">
-      <c r="A431" t="s">
+    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B431" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C431" s="2">
+      <c r="C431" s="2" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="432" ht="13.800000000000001">
-      <c r="A432" t="s">
+    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B432" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="C432" s="2">
+      <c r="C432" s="2" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="433" ht="13.800000000000001">
-      <c r="A433" t="s">
+    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B433" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C433" s="2">
+      <c r="C433" s="2" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="434" ht="13.800000000000001">
-      <c r="A434" t="s">
+    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B434" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C434" s="2">
+      <c r="C434" s="2" t="n">
         <v>140</v>
       </c>
     </row>
-    <row r="435" ht="13.800000000000001">
-      <c r="A435" t="s">
+    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B435" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C435" s="2">
+      <c r="C435" s="2" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="436" ht="13.800000000000001">
-      <c r="A436" t="s">
+    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B436" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="C436" s="2">
+      <c r="C436" s="2" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="437" ht="13.800000000000001">
-      <c r="A437" t="s">
+    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B437" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="C437" s="2">
+      <c r="C437" s="2" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="438" ht="13.800000000000001">
-      <c r="A438" t="s">
+    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B438" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C438" s="2">
+      <c r="C438" s="2" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="439" ht="13.800000000000001">
-      <c r="A439" t="s">
+    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B439" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C439" s="2">
+      <c r="C439" s="2" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="440" ht="13.800000000000001">
-      <c r="A440" t="s">
+    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A440" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B440" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C440" s="2">
+      <c r="C440" s="2" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="441" ht="13.800000000000001">
-      <c r="A441" t="s">
+    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A441" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B441" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C441" s="2">
+      <c r="C441" s="2" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="442" ht="13.800000000000001">
-      <c r="A442" t="s">
+    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A442" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B442" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C442" s="2">
+      <c r="C442" s="2" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="443" ht="13.800000000000001">
-      <c r="A443" t="s">
+    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A443" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B443" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="C443" s="2">
+      <c r="C443" s="2" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="444" ht="13.800000000000001">
-      <c r="A444" t="s">
+    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A444" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B444" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C444" s="2">
+      <c r="C444" s="2" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="445" ht="13.800000000000001">
-      <c r="A445" t="s">
+    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A445" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B445" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="C445" s="2">
+      <c r="C445" s="2" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="446" ht="13.800000000000001">
-      <c r="A446" t="s">
+    <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A446" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B446" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C446" s="2">
+      <c r="C446" s="2" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="447" ht="13.800000000000001">
-      <c r="A447" t="s">
+    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A447" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B447" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="C447" s="2">
+      <c r="C447" s="2" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="448" ht="13.800000000000001">
-      <c r="A448" t="s">
+    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A448" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B448" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="C448" s="2">
+      <c r="C448" s="2" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="449" ht="13.800000000000001">
-      <c r="A449" t="s">
+    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A449" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B449" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C449" s="2">
+      <c r="C449" s="2" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="450" ht="13.800000000000001">
-      <c r="A450" t="s">
+    <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A450" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B450" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="C450" s="2">
+      <c r="C450" s="2" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="451" ht="13.800000000000001">
-      <c r="A451" t="s">
+    <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A451" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B451" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C451" s="2">
+      <c r="C451" s="2" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="452" ht="13.800000000000001">
-      <c r="A452" t="s">
+    <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A452" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B452" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="C452" s="2">
+      <c r="C452" s="2" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="453" ht="13.800000000000001">
-      <c r="A453" t="s">
+    <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A453" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B453" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C453" s="2">
+      <c r="C453" s="2" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="454" ht="13.800000000000001">
-      <c r="A454" t="s">
+    <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A454" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B454" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="C454" s="2">
+      <c r="C454" s="2" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="455" ht="13.800000000000001">
-      <c r="A455" t="s">
+    <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A455" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B455" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C455" s="2">
+      <c r="C455" s="2" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="456" ht="13.800000000000001">
-      <c r="A456" t="s">
+    <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A456" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B456" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C456" s="2">
+      <c r="C456" s="2" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="457" ht="13.800000000000001">
-      <c r="A457" t="s">
+    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A457" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B457" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C457" s="2">
+      <c r="C457" s="2" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="458" ht="13.800000000000001">
-      <c r="A458" t="s">
+    <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A458" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B458" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="C458" s="2">
+      <c r="C458" s="2" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="459" ht="13.800000000000001">
-      <c r="A459" t="s">
+    <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A459" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B459" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="C459" s="2">
+      <c r="C459" s="2" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="460" ht="13.800000000000001">
-      <c r="A460" t="s">
+    <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A460" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B460" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="C460" s="2">
+      <c r="C460" s="2" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="461" ht="13.800000000000001">
-      <c r="A461" t="s">
+    <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A461" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B461" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="C461" s="2">
+      <c r="C461" s="2" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="462" ht="13.800000000000001">
-      <c r="A462" t="s">
+    <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A462" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B462" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="C462" s="2">
+      <c r="C462" s="2" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="463" ht="13.800000000000001">
-      <c r="A463" t="s">
+    <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A463" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B463" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="C463" s="2">
+      <c r="C463" s="2" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="464" ht="13.800000000000001">
-      <c r="A464" t="s">
+    <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A464" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B464" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="C464" s="2">
+      <c r="C464" s="2" t="n">
         <v>140</v>
       </c>
     </row>
-    <row r="465" ht="13.800000000000001">
-      <c r="A465" t="s">
+    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A465" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B465" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="C465" s="2">
+      <c r="C465" s="2" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="466" ht="13.800000000000001">
-      <c r="A466" t="s">
+    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A466" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B466" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="C466" s="2">
+      <c r="C466" s="2" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="467" ht="13.800000000000001">
-      <c r="A467" t="s">
+    <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A467" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B467" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C467" s="2">
+      <c r="C467" s="2" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="468" ht="13.800000000000001">
-      <c r="A468" t="s">
+    <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A468" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B468" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="C468" s="2">
+      <c r="C468" s="2" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="469" ht="13.800000000000001">
-      <c r="A469" t="s">
+    <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A469" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B469" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C469" s="2">
+      <c r="C469" s="2" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="470" ht="13.800000000000001">
-      <c r="A470" t="s">
+    <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A470" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B470" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="C470" s="2">
+      <c r="C470" s="2" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="471" ht="13.800000000000001">
-      <c r="A471" t="s">
+    <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A471" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B471" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C471" s="2">
+      <c r="C471" s="2" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="472" ht="13.800000000000001">
-      <c r="A472" t="s">
+    <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A472" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B472" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="C472" s="2">
+      <c r="C472" s="2" t="n">
         <v>160</v>
       </c>
     </row>
-    <row r="473" ht="13.800000000000001">
-      <c r="A473" t="s">
+    <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A473" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B473" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="C473" s="2">
+      <c r="C473" s="2" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="474" ht="13.800000000000001">
-      <c r="A474" t="s">
+    <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B474" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="C474" s="2">
+      <c r="C474" s="2" t="n">
         <v>160</v>
       </c>
     </row>
-    <row r="475" ht="13.800000000000001">
-      <c r="A475" t="s">
+    <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B475" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="C475" s="2">
+      <c r="C475" s="2" t="n">
         <v>160</v>
       </c>
     </row>
-    <row r="476" ht="13.800000000000001">
-      <c r="A476" t="s">
+    <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B476" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="C476" s="2">
+      <c r="C476" s="2" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="477" ht="13.800000000000001">
-      <c r="A477" t="s">
+    <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A477" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B477" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="C477" s="2">
+      <c r="C477" s="2" t="n">
         <v>210</v>
       </c>
     </row>
-    <row r="478" ht="13.800000000000001">
-      <c r="A478" t="s">
+    <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A478" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B478" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C478" s="2">
+      <c r="C478" s="2" t="n">
         <v>210</v>
       </c>
     </row>
-    <row r="479" ht="13.800000000000001">
-      <c r="A479" t="s">
+    <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A479" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B479" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="C479" s="2">
+      <c r="C479" s="2" t="n">
         <v>310</v>
       </c>
     </row>
-    <row r="480" ht="13.800000000000001">
-      <c r="A480" t="s">
+    <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A480" s="0" t="s">
         <v>431</v>
       </c>
       <c r="B480" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="C480" s="2">
+      <c r="C480" s="2" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="481" ht="14.25">
-      <c r="A481" t="s">
+    <row r="481" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A481" s="0" t="s">
         <v>52</v>
       </c>
       <c r="B481" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="C481" s="2">
+      <c r="C481" s="2" t="n">
         <v>210</v>
       </c>
     </row>
-    <row r="482" ht="14.25">
-      <c r="A482" t="s">
+    <row r="482" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A482" s="0" t="s">
         <v>52</v>
       </c>
       <c r="B482" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C482" s="2">
+      <c r="C482" s="2" t="n">
         <v>430</v>
       </c>
     </row>
-    <row r="483" ht="14.25">
-      <c r="A483" t="s">
+    <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A483" s="0" t="s">
         <v>52</v>
       </c>
       <c r="B483" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C483" s="2">
+      <c r="C483" s="2" t="n">
         <v>140</v>
       </c>
     </row>
-    <row r="484" ht="14.25">
-      <c r="A484"/>
-      <c r="C484" s="2"/>
-    </row>
-    <row r="1048267" ht="12.800000000000001"/>
-    <row r="1048268" ht="12.800000000000001"/>
-    <row r="1048269" ht="12.800000000000001"/>
-    <row r="1048270" ht="12.800000000000001"/>
-    <row r="1048568" ht="12.800000000000001"/>
-    <row r="1048569" ht="12.800000000000001"/>
-    <row r="1048570" ht="12.800000000000001"/>
-    <row r="1048571" ht="12.800000000000001"/>
-    <row r="1048572" ht="12.800000000000001"/>
-    <row r="1048573" ht="12.800000000000001"/>
-    <row r="1048574" ht="12.800000000000001"/>
-    <row r="1048575" ht="12.800000000000001"/>
+    <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A484" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C484" s="2" t="n">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="1048267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70069444444444395" right="0.70069444444444395" top="0.75208333333333299" bottom="0.75208333333333299" header="0.51181102362204689" footer="0.51181102362204689"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.700694444444444" right="0.700694444444444" top="0.752083333333333" bottom="0.752083333333333" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/colaborador/sistemas/orcamento/valores_exames_samvida.xlsx
+++ b/colaborador/sistemas/orcamento/valores_exames_samvida.xlsx
@@ -1,34 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr date1904="0"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="488">
-  <si>
-    <t xml:space="preserve">Local</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valor</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="487">
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>Exame</t>
+  </si>
+  <si>
+    <t>Valor</t>
   </si>
   <si>
     <t xml:space="preserve">Clínica Nova Imagem</t>
@@ -175,22 +169,22 @@
     <t xml:space="preserve">DOPPLER VENOSO DE MEMBRO SUPERIOR E</t>
   </si>
   <si>
-    <t xml:space="preserve">ECOCARDIOGRAMA</t>
+    <t>ECOCARDIOGRAMA</t>
   </si>
   <si>
     <t xml:space="preserve">Centro Médico Bruno Sampaio</t>
   </si>
   <si>
-    <t xml:space="preserve">ELETROCARDIOGRAMA</t>
+    <t>ELETROCARDIOGRAMA</t>
   </si>
   <si>
     <t xml:space="preserve">ENDOSCOPIA DIGESTIVA ALTA</t>
   </si>
   <si>
-    <t xml:space="preserve">Histopatologico-(endoscopia)-Laboratorio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOLTER</t>
+    <t>Histopatologico-(endoscopia)-Laboratorio</t>
+  </si>
+  <si>
+    <t>HOLTER</t>
   </si>
   <si>
     <t xml:space="preserve">MAMOGRAFIA CONVENCIONAL</t>
@@ -199,7 +193,7 @@
     <t xml:space="preserve">MAMOGRAFIA DIGITAL</t>
   </si>
   <si>
-    <t xml:space="preserve">MAPA</t>
+    <t>MAPA</t>
   </si>
   <si>
     <t xml:space="preserve">Pesquisa H. Pylori (Endoscopia)</t>
@@ -1211,18 +1205,14 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">USG ABDOME SUPERIOR </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Dr. JOSE GERALDO)</t>
     </r>
@@ -1241,18 +1231,14 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">USG AXILAS C DOPPLER </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Dra. JULIANA)</t>
     </r>
@@ -1262,18 +1248,14 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">USG AXILAS </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Dra. JULIANA)</t>
     </r>
@@ -1283,18 +1265,14 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">USG AXILAS </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Dr. JOSE GERALDO)</t>
     </r>
@@ -1310,18 +1288,14 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">USG ENDOVAGINAL + PELVICA </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Dr. JOSE GERALDO)</t>
     </r>
@@ -1331,18 +1305,14 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">USG GESTACIONAL C DOPPLER </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Dra, JULIANA)</t>
     </r>
@@ -1352,66 +1322,37 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">USG GESTACIONAL </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Dra, JULIANA)</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">USG MAMAS C DOPPLER (Dra. JULIANA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG MAMAS (Dra. JULIANA)</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">USG GESTACIONAL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(Dr. JOSE GERALDO)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">USG MAMAS C DOPPLER (Dra. JULIANA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USG MAMAS (Dra. JULIANA)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">USG MAMAS </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Dr. JOSE GERALDO)</t>
     </r>
@@ -1421,18 +1362,14 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">USG PROSTATA TRANS ABD </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Dr. JOSE GERALDO)</t>
     </r>
@@ -1442,18 +1379,14 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">USG PELVICA </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Dr. JOSE GERALDO)</t>
     </r>
@@ -1475,18 +1408,14 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">USG VIAS URINARIAS </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
         <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Dr. JOSE GERALDO)</t>
     </r>
@@ -1705,61 +1634,33 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="11.000000"/>
+      <color indexed="64"/>
       <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.000000"/>
       <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.000000"/>
+      <color indexed="64"/>
       <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <b/>
+      <sz val="11.000000"/>
+      <color indexed="65"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="10.000000"/>
+      <color indexed="65"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1771,20 +1672,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
+        <fgColor indexed="64"/>
+        <bgColor indexed="58"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FFCCCCCC"/>
       </left>
@@ -1797,170 +1698,552 @@
       <bottom style="thin">
         <color rgb="FFCCCCCC"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="6">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+      <alignment wrapText="1"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="3" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="4" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="4" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
+      <alignment wrapText="1"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="0" locked="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFCCCCCC"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="">
+  <a:themeElements>
+    <a:clrScheme name="">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="">
+      <a:majorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+        </a:ln>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr filterMode="0">
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C1048568"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A463" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B485" activeCellId="0" sqref="B485"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" view="normal" topLeftCell="A384" zoomScale="100" workbookViewId="0">
+      <selection activeCell="B485" activeCellId="0" sqref="B485"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="6.85"/>
+    <col customWidth="1" min="1" max="1" style="0" width="27"/>
+    <col customWidth="1" min="2" max="2" style="1" width="93"/>
+    <col customWidth="1" min="3" max="3" style="2" width="6.8499999999999996"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" ht="14.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1971,5338 +2254,5324 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" ht="14.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="n">
+      <c r="C2" s="7">
         <v>46</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" ht="14.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="7">
         <v>46</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" ht="14.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="7">
         <v>46</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" ht="14.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="9" t="n">
+      <c r="C5" s="9">
         <v>46</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" ht="14.25">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="7" t="n">
+      <c r="C6" s="7">
         <v>566</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" ht="14.25">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7" t="n">
+      <c r="C7" s="7">
         <v>726</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" ht="14.25">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="7" t="n">
+      <c r="C8" s="7">
         <v>896</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" ht="14.25">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="7" t="n">
+      <c r="C9" s="7">
         <v>1056</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" ht="14.25">
+      <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="7" t="n">
+      <c r="C10" s="7">
         <v>106</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" ht="14.25">
+      <c r="A11" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="7" t="n">
+      <c r="C11" s="7">
         <v>106</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" ht="14.25">
+      <c r="A12" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="7" t="n">
+      <c r="C12" s="7">
         <v>196</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" ht="14.25">
+      <c r="A13" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="7" t="n">
+      <c r="C13" s="7">
         <v>226</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" ht="14.25">
+      <c r="A14" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="7" t="n">
+      <c r="C14" s="7">
         <v>226</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" ht="14.25">
+      <c r="A15" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="7" t="n">
+      <c r="C15" s="7">
         <v>406</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" ht="14.25">
+      <c r="A16" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="7" t="n">
+      <c r="C16" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" ht="14.25">
+      <c r="A17" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="7" t="n">
+      <c r="C17" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" ht="14.25">
+      <c r="A18" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="7" t="n">
+      <c r="C18" s="7">
         <v>406</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" ht="14.25">
+      <c r="A19" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="7" t="n">
+      <c r="C19" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" ht="14.25">
+      <c r="A20" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="7" t="n">
+      <c r="C20" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" ht="14.25">
+      <c r="A21" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="7" t="n">
+      <c r="C21" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" ht="14.25">
+      <c r="A22" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="7" t="n">
+      <c r="C22" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" ht="14.25">
+      <c r="A23" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="7" t="n">
+      <c r="C23" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" ht="14.25">
+      <c r="A24" t="s">
         <v>3</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="7" t="n">
+      <c r="C24" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" ht="14.25">
+      <c r="A25" t="s">
         <v>3</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="7" t="n">
+      <c r="C25" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" ht="14.25">
+      <c r="A26" t="s">
         <v>3</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="7" t="n">
+      <c r="C26" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" ht="14.25">
+      <c r="A27" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="7" t="n">
+      <c r="C27" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" ht="14.25">
+      <c r="A28" t="s">
         <v>3</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="7" t="n">
+      <c r="C28" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" ht="14.25">
+      <c r="A29" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="7" t="n">
+      <c r="C29" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" ht="14.25">
+      <c r="A30" t="s">
         <v>3</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="7" t="n">
+      <c r="C30" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" ht="14.25">
+      <c r="A31" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="7" t="n">
+      <c r="C31" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" ht="14.25">
+      <c r="A32" t="s">
         <v>3</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="7" t="n">
+      <c r="C32" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" ht="14.25">
+      <c r="A33" t="s">
         <v>3</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="7" t="n">
+      <c r="C33" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" ht="14.25">
+      <c r="A34" t="s">
         <v>3</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="7" t="n">
+      <c r="C34" s="7">
         <v>226</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" ht="14.25">
+      <c r="A35" t="s">
         <v>3</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="7" t="n">
+      <c r="C35" s="7">
         <v>326</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" ht="14.25">
+      <c r="A36" t="s">
         <v>3</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="7" t="n">
+      <c r="C36" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" ht="14.25">
+      <c r="A37" t="s">
         <v>3</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="7" t="n">
+      <c r="C37" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" ht="14.25">
+      <c r="A38" t="s">
         <v>3</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="7" t="n">
+      <c r="C38" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" ht="14.25">
+      <c r="A39" t="s">
         <v>3</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="7" t="n">
+      <c r="C39" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" ht="14.25">
+      <c r="A40" t="s">
         <v>3</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="7" t="n">
+      <c r="C40" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" ht="14.25">
+      <c r="A41" t="s">
         <v>3</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="7" t="n">
+      <c r="C41" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" ht="14.25">
+      <c r="A42" t="s">
         <v>3</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="7" t="n">
+      <c r="C42" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" ht="14.25">
+      <c r="A43" t="s">
         <v>3</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="7" t="n">
+      <c r="C43" s="7">
         <v>406</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" ht="14.25">
+      <c r="A44" t="s">
         <v>3</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="7" t="n">
+      <c r="C44" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="45" ht="14.25">
+      <c r="A45" t="s">
         <v>3</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="7" t="n">
+      <c r="C45" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="46" ht="14.25">
+      <c r="A46" t="s">
         <v>3</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="7" t="n">
+      <c r="C46" s="7">
         <v>406</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row r="47" ht="14.25">
+      <c r="A47" t="s">
         <v>3</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="7" t="n">
+      <c r="C47" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+    <row r="48" ht="14.25">
+      <c r="A48" t="s">
         <v>3</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="7" t="n">
+      <c r="C48" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row r="49" ht="14.25">
+      <c r="A49" t="s">
         <v>3</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="7" t="n">
+      <c r="C49" s="7">
         <v>186</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    <row r="50" ht="14.25">
+      <c r="A50" t="s">
         <v>52</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="7" t="n">
+      <c r="C50" s="7">
         <v>41</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+    <row r="51" ht="14.25">
+      <c r="A51" t="s">
         <v>3</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="7" t="n">
+      <c r="C51" s="7">
         <v>51</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+    <row r="52" ht="14.25">
+      <c r="A52" t="s">
         <v>3</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="7" t="n">
+      <c r="C52" s="7">
         <v>410</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+    <row r="53" ht="14.25">
+      <c r="A53" t="s">
         <v>3</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="7" t="n">
+      <c r="C53" s="7">
         <v>106</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+    <row r="54" ht="14.25">
+      <c r="A54" t="s">
         <v>3</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="7" t="n">
+      <c r="C54" s="7">
         <v>156</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+    <row r="55" ht="14.25">
+      <c r="A55" t="s">
         <v>3</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C55" s="7" t="n">
+      <c r="C55" s="7">
         <v>106</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+    <row r="56" ht="14.25">
+      <c r="A56" t="s">
         <v>3</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="7" t="n">
+      <c r="C56" s="7">
         <v>106</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+    <row r="57" ht="14.25">
+      <c r="A57" t="s">
         <v>3</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="7" t="n">
+      <c r="C57" s="7">
         <v>156</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+    <row r="58" ht="14.25">
+      <c r="A58" t="s">
         <v>3</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C58" s="7" t="n">
+      <c r="C58" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+    <row r="59" ht="14.25">
+      <c r="A59" t="s">
         <v>3</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C59" s="7" t="n">
+      <c r="C59" s="7">
         <v>556</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+    <row r="60" ht="14.25">
+      <c r="A60" t="s">
         <v>3</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="7" t="n">
+      <c r="C60" s="7">
         <v>506</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+    <row r="61" ht="14.25">
+      <c r="A61" t="s">
         <v>3</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="7" t="n">
+      <c r="C61" s="7">
         <v>656</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+    <row r="62" ht="14.25">
+      <c r="A62" t="s">
         <v>3</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="7" t="n">
+      <c r="C62" s="7">
         <v>906</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+    <row r="63" ht="14.25">
+      <c r="A63" t="s">
         <v>3</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="7" t="n">
+      <c r="C63" s="7">
         <v>1006</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+    <row r="64" ht="14.25">
+      <c r="A64" t="s">
         <v>3</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="7" t="n">
+      <c r="C64" s="7">
         <v>466</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+    <row r="65" ht="14.25">
+      <c r="A65" t="s">
         <v>3</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C65" s="7" t="n">
+      <c r="C65" s="7">
         <v>611</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+    <row r="66" ht="14.25">
+      <c r="A66" t="s">
         <v>3</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C66" s="7" t="n">
+      <c r="C66" s="7">
         <v>466</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+    <row r="67" ht="14.25">
+      <c r="A67" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C67" s="7" t="n">
+      <c r="C67" s="7">
         <v>611</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+    <row r="68" ht="14.25">
+      <c r="A68" t="s">
         <v>3</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C68" s="7" t="n">
+      <c r="C68" s="7">
         <v>466</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+    <row r="69" ht="14.25">
+      <c r="A69" t="s">
         <v>3</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C69" s="7" t="n">
+      <c r="C69" s="7">
         <v>466</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+    <row r="70" ht="14.25">
+      <c r="A70" t="s">
         <v>3</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C70" s="7" t="n">
+      <c r="C70" s="7">
         <v>611</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+    <row r="71" ht="14.25">
+      <c r="A71" t="s">
         <v>3</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C71" s="7" t="n">
+      <c r="C71" s="7">
         <v>611</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+    <row r="72" ht="14.25">
+      <c r="A72" t="s">
         <v>3</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C72" s="7" t="n">
+      <c r="C72" s="7">
         <v>611</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+    <row r="73" ht="14.25">
+      <c r="A73" t="s">
         <v>3</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C73" s="7" t="n">
+      <c r="C73" s="7">
         <v>466</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+    <row r="74" ht="14.25">
+      <c r="A74" t="s">
         <v>3</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C74" s="7" t="n">
+      <c r="C74" s="7">
         <v>466</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+    <row r="75" ht="14.25">
+      <c r="A75" t="s">
         <v>3</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C75" s="7" t="n">
+      <c r="C75" s="7">
         <v>611</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+    <row r="76" ht="14.25">
+      <c r="A76" t="s">
         <v>3</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C76" s="7" t="n">
+      <c r="C76" s="7">
         <v>466</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+    <row r="77" ht="14.25">
+      <c r="A77" t="s">
         <v>3</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C77" s="7" t="n">
+      <c r="C77" s="7">
         <v>466</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+    <row r="78" ht="14.25">
+      <c r="A78" t="s">
         <v>3</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C78" s="7" t="n">
+      <c r="C78" s="7">
         <v>466</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+    <row r="79" ht="14.25">
+      <c r="A79" t="s">
         <v>3</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C79" s="9" t="n">
+      <c r="C79" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+    <row r="80" ht="14.25">
+      <c r="A80" t="s">
         <v>3</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C80" s="9" t="n">
+      <c r="C80" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+    <row r="81" ht="14.25">
+      <c r="A81" t="s">
         <v>3</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C81" s="9" t="n">
+      <c r="C81" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+    <row r="82" ht="14.25">
+      <c r="A82" t="s">
         <v>3</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C82" s="9" t="n">
+      <c r="C82" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+    <row r="83" ht="14.25">
+      <c r="A83" t="s">
         <v>3</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C83" s="9" t="n">
+      <c r="C83" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+    <row r="84" ht="14.25">
+      <c r="A84" t="s">
         <v>3</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C84" s="9" t="n">
+      <c r="C84" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+    <row r="85" ht="14.25">
+      <c r="A85" t="s">
         <v>3</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C85" s="9" t="n">
+      <c r="C85" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+    <row r="86" ht="14.25">
+      <c r="A86" t="s">
         <v>3</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C86" s="9" t="n">
+      <c r="C86" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+    <row r="87" ht="14.25">
+      <c r="A87" t="s">
         <v>3</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C87" s="9" t="n">
+      <c r="C87" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+    <row r="88" ht="14.25">
+      <c r="A88" t="s">
         <v>3</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C88" s="9" t="n">
+      <c r="C88" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+    <row r="89" ht="14.25">
+      <c r="A89" t="s">
         <v>3</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C89" s="9" t="n">
+      <c r="C89" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+    <row r="90" ht="14.25">
+      <c r="A90" t="s">
         <v>3</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C90" s="9" t="n">
+      <c r="C90" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+    <row r="91" ht="14.25">
+      <c r="A91" t="s">
         <v>3</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C91" s="9" t="n">
+      <c r="C91" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+    <row r="92" ht="14.25">
+      <c r="A92" t="s">
         <v>3</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C92" s="9" t="n">
+      <c r="C92" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+    <row r="93" ht="14.25">
+      <c r="A93" t="s">
         <v>3</v>
       </c>
       <c r="B93" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C93" s="9" t="n">
+      <c r="C93" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+    <row r="94" ht="14.25">
+      <c r="A94" t="s">
         <v>3</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C94" s="9" t="n">
+      <c r="C94" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+    <row r="95" ht="14.25">
+      <c r="A95" t="s">
         <v>3</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C95" s="9" t="n">
+      <c r="C95" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+    <row r="96" ht="14.25">
+      <c r="A96" t="s">
         <v>3</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C96" s="9" t="n">
+      <c r="C96" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+    <row r="97" ht="14.25">
+      <c r="A97" t="s">
         <v>3</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C97" s="9" t="n">
+      <c r="C97" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+    <row r="98" ht="14.25">
+      <c r="A98" t="s">
         <v>3</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C98" s="9" t="n">
+      <c r="C98" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+    <row r="99" ht="14.25">
+      <c r="A99" t="s">
         <v>3</v>
       </c>
       <c r="B99" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="9" t="n">
+      <c r="C99" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+    <row r="100" ht="14.25">
+      <c r="A100" t="s">
         <v>3</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C100" s="9" t="n">
+      <c r="C100" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+    <row r="101" ht="14.25">
+      <c r="A101" t="s">
         <v>3</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C101" s="9" t="n">
+      <c r="C101" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+    <row r="102" ht="14.25">
+      <c r="A102" t="s">
         <v>3</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C102" s="9" t="n">
+      <c r="C102" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+    <row r="103" ht="14.25">
+      <c r="A103" t="s">
         <v>3</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C103" s="9" t="n">
+      <c r="C103" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+    <row r="104" ht="14.25">
+      <c r="A104" t="s">
         <v>3</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C104" s="9" t="n">
+      <c r="C104" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+    <row r="105" ht="14.25">
+      <c r="A105" t="s">
         <v>3</v>
       </c>
       <c r="B105" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C105" s="9" t="n">
+      <c r="C105" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+    <row r="106" ht="14.25">
+      <c r="A106" t="s">
         <v>3</v>
       </c>
       <c r="B106" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C106" s="9" t="n">
+      <c r="C106" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
+    <row r="107" ht="14.25">
+      <c r="A107" t="s">
         <v>3</v>
       </c>
       <c r="B107" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C107" s="9" t="n">
+      <c r="C107" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
+    <row r="108" ht="14.25">
+      <c r="A108" t="s">
         <v>3</v>
       </c>
       <c r="B108" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C108" s="9" t="n">
+      <c r="C108" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+    <row r="109" ht="14.25">
+      <c r="A109" t="s">
         <v>3</v>
       </c>
       <c r="B109" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C109" s="9" t="n">
+      <c r="C109" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
+    <row r="110" ht="14.25">
+      <c r="A110" t="s">
         <v>3</v>
       </c>
       <c r="B110" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C110" s="9" t="n">
+      <c r="C110" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
+    <row r="111" ht="14.25">
+      <c r="A111" t="s">
         <v>3</v>
       </c>
       <c r="B111" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C111" s="9" t="n">
+      <c r="C111" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
+    <row r="112" ht="14.25">
+      <c r="A112" t="s">
         <v>3</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C112" s="9" t="n">
+      <c r="C112" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
+    <row r="113" ht="14.25">
+      <c r="A113" t="s">
         <v>3</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C113" s="9" t="n">
+      <c r="C113" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+    <row r="114" ht="14.25">
+      <c r="A114" t="s">
         <v>3</v>
       </c>
       <c r="B114" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C114" s="9" t="n">
+      <c r="C114" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
+    <row r="115" ht="14.25">
+      <c r="A115" t="s">
         <v>3</v>
       </c>
       <c r="B115" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C115" s="9" t="n">
+      <c r="C115" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
+    <row r="116" ht="14.25">
+      <c r="A116" t="s">
         <v>3</v>
       </c>
       <c r="B116" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C116" s="9" t="n">
+      <c r="C116" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
+    <row r="117" ht="14.25">
+      <c r="A117" t="s">
         <v>3</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C117" s="9" t="n">
+      <c r="C117" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
+    <row r="118" ht="14.25">
+      <c r="A118" t="s">
         <v>3</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C118" s="9" t="n">
+      <c r="C118" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
+    <row r="119" ht="14.25">
+      <c r="A119" t="s">
         <v>3</v>
       </c>
       <c r="B119" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C119" s="9" t="n">
+      <c r="C119" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
+    <row r="120" ht="14.25">
+      <c r="A120" t="s">
         <v>3</v>
       </c>
       <c r="B120" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C120" s="9" t="n">
+      <c r="C120" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
+    <row r="121" ht="14.25">
+      <c r="A121" t="s">
         <v>3</v>
       </c>
       <c r="B121" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C121" s="9" t="n">
+      <c r="C121" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
+    <row r="122" ht="14.25">
+      <c r="A122" t="s">
         <v>3</v>
       </c>
       <c r="B122" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C122" s="9" t="n">
+      <c r="C122" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
+    <row r="123" ht="14.25">
+      <c r="A123" t="s">
         <v>3</v>
       </c>
       <c r="B123" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C123" s="9" t="n">
+      <c r="C123" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
+    <row r="124" ht="14.25">
+      <c r="A124" t="s">
         <v>3</v>
       </c>
       <c r="B124" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C124" s="9" t="n">
+      <c r="C124" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
+    <row r="125" ht="14.25">
+      <c r="A125" t="s">
         <v>3</v>
       </c>
       <c r="B125" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C125" s="9" t="n">
+      <c r="C125" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
+    <row r="126" ht="14.25">
+      <c r="A126" t="s">
         <v>3</v>
       </c>
       <c r="B126" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C126" s="9" t="n">
+      <c r="C126" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
+    <row r="127" ht="14.25">
+      <c r="A127" t="s">
         <v>3</v>
       </c>
       <c r="B127" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C127" s="9" t="n">
+      <c r="C127" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
+    <row r="128" ht="14.25">
+      <c r="A128" t="s">
         <v>3</v>
       </c>
       <c r="B128" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C128" s="9" t="n">
+      <c r="C128" s="9">
         <v>486</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
+    <row r="129" ht="14.25">
+      <c r="A129" t="s">
         <v>3</v>
       </c>
       <c r="B129" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C129" s="9" t="n">
+      <c r="C129" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
+    <row r="130" ht="14.25">
+      <c r="A130" t="s">
         <v>3</v>
       </c>
       <c r="B130" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C130" s="9" t="n">
+      <c r="C130" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
+    <row r="131" ht="14.25">
+      <c r="A131" t="s">
         <v>3</v>
       </c>
       <c r="B131" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C131" s="9" t="n">
+      <c r="C131" s="9">
         <v>486</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
+    <row r="132" ht="14.25">
+      <c r="A132" t="s">
         <v>3</v>
       </c>
       <c r="B132" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C132" s="9" t="n">
+      <c r="C132" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
+    <row r="133" ht="14.25">
+      <c r="A133" t="s">
         <v>3</v>
       </c>
       <c r="B133" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C133" s="9" t="n">
+      <c r="C133" s="9">
         <v>866</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
+    <row r="134" ht="14.25">
+      <c r="A134" t="s">
         <v>3</v>
       </c>
       <c r="B134" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C134" s="9" t="n">
+      <c r="C134" s="9">
         <v>866</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
+    <row r="135" ht="14.25">
+      <c r="A135" t="s">
         <v>3</v>
       </c>
       <c r="B135" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C135" s="9" t="n">
+      <c r="C135" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
+    <row r="136" ht="14.25">
+      <c r="A136" t="s">
         <v>3</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C136" s="9" t="n">
+      <c r="C136" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
+    <row r="137" ht="14.25">
+      <c r="A137" t="s">
         <v>3</v>
       </c>
       <c r="B137" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C137" s="9" t="n">
+      <c r="C137" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
+    <row r="138" ht="14.25">
+      <c r="A138" t="s">
         <v>3</v>
       </c>
       <c r="B138" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C138" s="9" t="n">
+      <c r="C138" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
+    <row r="139" ht="14.25">
+      <c r="A139" t="s">
         <v>3</v>
       </c>
       <c r="B139" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C139" s="9" t="n">
+      <c r="C139" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
+    <row r="140" ht="14.25">
+      <c r="A140" t="s">
         <v>3</v>
       </c>
       <c r="B140" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C140" s="9" t="n">
+      <c r="C140" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
+    <row r="141" ht="14.25">
+      <c r="A141" t="s">
         <v>3</v>
       </c>
       <c r="B141" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C141" s="9" t="n">
+      <c r="C141" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
+    <row r="142" ht="14.25">
+      <c r="A142" t="s">
         <v>3</v>
       </c>
       <c r="B142" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C142" s="9" t="n">
+      <c r="C142" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
+    <row r="143" ht="14.25">
+      <c r="A143" t="s">
         <v>3</v>
       </c>
       <c r="B143" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C143" s="9" t="n">
+      <c r="C143" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
+    <row r="144" ht="14.25">
+      <c r="A144" t="s">
         <v>3</v>
       </c>
       <c r="B144" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C144" s="9" t="n">
+      <c r="C144" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
+    <row r="145" ht="14.25">
+      <c r="A145" t="s">
         <v>3</v>
       </c>
       <c r="B145" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C145" s="9" t="n">
+      <c r="C145" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
+    <row r="146" ht="14.25">
+      <c r="A146" t="s">
         <v>3</v>
       </c>
       <c r="B146" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C146" s="9" t="n">
+      <c r="C146" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
+    <row r="147" ht="14.25">
+      <c r="A147" t="s">
         <v>3</v>
       </c>
       <c r="B147" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C147" s="9" t="n">
+      <c r="C147" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="s">
+    <row r="148" ht="14.25">
+      <c r="A148" t="s">
         <v>3</v>
       </c>
       <c r="B148" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C148" s="9" t="n">
+      <c r="C148" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
+    <row r="149" ht="14.25">
+      <c r="A149" t="s">
         <v>3</v>
       </c>
       <c r="B149" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C149" s="9" t="n">
+      <c r="C149" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="s">
+    <row r="150" ht="14.25">
+      <c r="A150" t="s">
         <v>3</v>
       </c>
       <c r="B150" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C150" s="9" t="n">
+      <c r="C150" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="s">
+    <row r="151" ht="14.25">
+      <c r="A151" t="s">
         <v>3</v>
       </c>
       <c r="B151" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C151" s="9" t="n">
+      <c r="C151" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="s">
+    <row r="152" ht="14.25">
+      <c r="A152" t="s">
         <v>3</v>
       </c>
       <c r="B152" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C152" s="9" t="n">
+      <c r="C152" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="s">
+    <row r="153" ht="14.25">
+      <c r="A153" t="s">
         <v>3</v>
       </c>
       <c r="B153" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C153" s="9" t="n">
+      <c r="C153" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="s">
+    <row r="154" ht="14.25">
+      <c r="A154" t="s">
         <v>3</v>
       </c>
       <c r="B154" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C154" s="9" t="n">
+      <c r="C154" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="s">
+    <row r="155" ht="14.25">
+      <c r="A155" t="s">
         <v>3</v>
       </c>
       <c r="B155" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C155" s="9" t="n">
+      <c r="C155" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="s">
+    <row r="156" ht="14.25">
+      <c r="A156" t="s">
         <v>3</v>
       </c>
       <c r="B156" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C156" s="9" t="n">
+      <c r="C156" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="s">
+    <row r="157" ht="14.25">
+      <c r="A157" t="s">
         <v>3</v>
       </c>
       <c r="B157" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C157" s="9" t="n">
+      <c r="C157" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="s">
+    <row r="158" ht="14.25">
+      <c r="A158" t="s">
         <v>3</v>
       </c>
       <c r="B158" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C158" s="9" t="n">
+      <c r="C158" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
+    <row r="159" ht="14.25">
+      <c r="A159" t="s">
         <v>3</v>
       </c>
       <c r="B159" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C159" s="9" t="n">
+      <c r="C159" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="s">
+    <row r="160" ht="14.25">
+      <c r="A160" t="s">
         <v>3</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C160" s="9" t="n">
+      <c r="C160" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0" t="s">
+    <row r="161" ht="14.25">
+      <c r="A161" t="s">
         <v>3</v>
       </c>
       <c r="B161" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C161" s="9" t="n">
+      <c r="C161" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="s">
+    <row r="162" ht="14.25">
+      <c r="A162" t="s">
         <v>3</v>
       </c>
       <c r="B162" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C162" s="9" t="n">
+      <c r="C162" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0" t="s">
+    <row r="163" ht="14.25">
+      <c r="A163" t="s">
         <v>3</v>
       </c>
       <c r="B163" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C163" s="9" t="n">
+      <c r="C163" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0" t="s">
+    <row r="164" ht="14.25">
+      <c r="A164" t="s">
         <v>3</v>
       </c>
       <c r="B164" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C164" s="9" t="n">
+      <c r="C164" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0" t="s">
+    <row r="165" ht="14.25">
+      <c r="A165" t="s">
         <v>3</v>
       </c>
       <c r="B165" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C165" s="9" t="n">
+      <c r="C165" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0" t="s">
+    <row r="166" ht="14.25">
+      <c r="A166" t="s">
         <v>3</v>
       </c>
       <c r="B166" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C166" s="9" t="n">
+      <c r="C166" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0" t="s">
+    <row r="167" ht="14.25">
+      <c r="A167" t="s">
         <v>3</v>
       </c>
       <c r="B167" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C167" s="9" t="n">
+      <c r="C167" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0" t="s">
+    <row r="168" ht="14.25">
+      <c r="A168" t="s">
         <v>3</v>
       </c>
       <c r="B168" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C168" s="9" t="n">
+      <c r="C168" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0" t="s">
+    <row r="169" ht="14.25">
+      <c r="A169" t="s">
         <v>3</v>
       </c>
       <c r="B169" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C169" s="9" t="n">
+      <c r="C169" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="s">
+    <row r="170" ht="14.25">
+      <c r="A170" t="s">
         <v>3</v>
       </c>
       <c r="B170" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="C170" s="9" t="n">
+      <c r="C170" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="s">
+    <row r="171" ht="14.25">
+      <c r="A171" t="s">
         <v>3</v>
       </c>
       <c r="B171" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="C171" s="9" t="n">
+      <c r="C171" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="s">
+    <row r="172" ht="14.25">
+      <c r="A172" t="s">
         <v>3</v>
       </c>
       <c r="B172" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C172" s="9" t="n">
+      <c r="C172" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0" t="s">
+    <row r="173" ht="14.25">
+      <c r="A173" t="s">
         <v>3</v>
       </c>
       <c r="B173" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C173" s="9" t="n">
+      <c r="C173" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="s">
+    <row r="174" ht="14.25">
+      <c r="A174" t="s">
         <v>3</v>
       </c>
       <c r="B174" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="C174" s="9" t="n">
+      <c r="C174" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0" t="s">
+    <row r="175" ht="14.25">
+      <c r="A175" t="s">
         <v>3</v>
       </c>
       <c r="B175" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="C175" s="9" t="n">
+      <c r="C175" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0" t="s">
+    <row r="176" ht="14.25">
+      <c r="A176" t="s">
         <v>3</v>
       </c>
       <c r="B176" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C176" s="9" t="n">
+      <c r="C176" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0" t="s">
+    <row r="177" ht="14.25">
+      <c r="A177" t="s">
         <v>3</v>
       </c>
       <c r="B177" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C177" s="9" t="n">
+      <c r="C177" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0" t="s">
+    <row r="178" ht="14.25">
+      <c r="A178" t="s">
         <v>3</v>
       </c>
       <c r="B178" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C178" s="9" t="n">
+      <c r="C178" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0" t="s">
+    <row r="179" ht="14.25">
+      <c r="A179" t="s">
         <v>3</v>
       </c>
       <c r="B179" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="C179" s="9" t="n">
+      <c r="C179" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0" t="s">
+    <row r="180" ht="14.25">
+      <c r="A180" t="s">
         <v>3</v>
       </c>
       <c r="B180" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="C180" s="9" t="n">
+      <c r="C180" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0" t="s">
+    <row r="181" ht="14.25">
+      <c r="A181" t="s">
         <v>3</v>
       </c>
       <c r="B181" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C181" s="9" t="n">
+      <c r="C181" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0" t="s">
+    <row r="182" ht="14.25">
+      <c r="A182" t="s">
         <v>3</v>
       </c>
       <c r="B182" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="C182" s="9" t="n">
+      <c r="C182" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0" t="s">
+    <row r="183" ht="14.25">
+      <c r="A183" t="s">
         <v>3</v>
       </c>
       <c r="B183" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C183" s="9" t="n">
+      <c r="C183" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="0" t="s">
+    <row r="184" ht="14.25">
+      <c r="A184" t="s">
         <v>3</v>
       </c>
       <c r="B184" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="C184" s="9" t="n">
+      <c r="C184" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0" t="s">
+    <row r="185" ht="14.25">
+      <c r="A185" t="s">
         <v>3</v>
       </c>
       <c r="B185" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C185" s="9" t="n">
+      <c r="C185" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="0" t="s">
+    <row r="186" ht="14.25">
+      <c r="A186" t="s">
         <v>3</v>
       </c>
       <c r="B186" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C186" s="9" t="n">
+      <c r="C186" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="0" t="s">
+    <row r="187" ht="14.25">
+      <c r="A187" t="s">
         <v>3</v>
       </c>
       <c r="B187" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="C187" s="9" t="n">
+      <c r="C187" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="0" t="s">
+    <row r="188" ht="14.25">
+      <c r="A188" t="s">
         <v>3</v>
       </c>
       <c r="B188" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C188" s="9" t="n">
+      <c r="C188" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="0" t="s">
+    <row r="189" ht="14.25">
+      <c r="A189" t="s">
         <v>3</v>
       </c>
       <c r="B189" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C189" s="9" t="n">
+      <c r="C189" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="0" t="s">
+    <row r="190" ht="14.25">
+      <c r="A190" t="s">
         <v>3</v>
       </c>
       <c r="B190" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="C190" s="9" t="n">
+      <c r="C190" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="0" t="s">
+    <row r="191" ht="14.25">
+      <c r="A191" t="s">
         <v>3</v>
       </c>
       <c r="B191" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C191" s="9" t="n">
+      <c r="C191" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="0" t="s">
+    <row r="192" ht="14.25">
+      <c r="A192" t="s">
         <v>3</v>
       </c>
       <c r="B192" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="C192" s="9" t="n">
+      <c r="C192" s="9">
         <v>506</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="0" t="s">
+    <row r="193" ht="14.25">
+      <c r="A193" t="s">
         <v>3</v>
       </c>
       <c r="B193" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C193" s="9" t="n">
+      <c r="C193" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="0" t="s">
+    <row r="194" ht="14.25">
+      <c r="A194" t="s">
         <v>3</v>
       </c>
       <c r="B194" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C194" s="9" t="n">
+      <c r="C194" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="0" t="s">
+    <row r="195" ht="14.25">
+      <c r="A195" t="s">
         <v>3</v>
       </c>
       <c r="B195" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="C195" s="9" t="n">
+      <c r="C195" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="0" t="s">
+    <row r="196" ht="14.25">
+      <c r="A196" t="s">
         <v>3</v>
       </c>
       <c r="B196" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="C196" s="9" t="n">
+      <c r="C196" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="0" t="s">
+    <row r="197" ht="14.25">
+      <c r="A197" t="s">
         <v>3</v>
       </c>
       <c r="B197" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C197" s="9" t="n">
+      <c r="C197" s="9">
         <v>611</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="0" t="s">
+    <row r="198" ht="14.25">
+      <c r="A198" t="s">
         <v>3</v>
       </c>
       <c r="B198" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="C198" s="9" t="n">
+      <c r="C198" s="9">
         <v>466</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="0" t="s">
+    <row r="199" ht="14.25">
+      <c r="A199" t="s">
         <v>3</v>
       </c>
       <c r="B199" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C199" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="s">
+      <c r="C199" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="200" ht="14.25">
+      <c r="A200" t="s">
         <v>3</v>
       </c>
       <c r="B200" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="C200" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="0" t="s">
+      <c r="C200" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="201" ht="14.25">
+      <c r="A201" t="s">
         <v>3</v>
       </c>
       <c r="B201" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="C201" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="0" t="s">
+      <c r="C201" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="202" ht="14.25">
+      <c r="A202" t="s">
         <v>3</v>
       </c>
       <c r="B202" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="C202" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="0" t="s">
+      <c r="C202" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="203" ht="14.25">
+      <c r="A203" t="s">
         <v>3</v>
       </c>
       <c r="B203" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C203" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="0" t="s">
+      <c r="C203" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="204" ht="14.25">
+      <c r="A204" t="s">
         <v>3</v>
       </c>
       <c r="B204" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="C204" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="0" t="s">
+      <c r="C204" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="205" ht="14.25">
+      <c r="A205" t="s">
         <v>3</v>
       </c>
       <c r="B205" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="C205" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="0" t="s">
+      <c r="C205" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="206" ht="14.25">
+      <c r="A206" t="s">
         <v>3</v>
       </c>
       <c r="B206" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="C206" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="0" t="s">
+      <c r="C206" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="207" ht="14.25">
+      <c r="A207" t="s">
         <v>3</v>
       </c>
       <c r="B207" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="C207" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="0" t="s">
+      <c r="C207" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="208" ht="14.25">
+      <c r="A208" t="s">
         <v>3</v>
       </c>
       <c r="B208" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C208" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="0" t="s">
+      <c r="C208" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="209" ht="14.25">
+      <c r="A209" t="s">
         <v>3</v>
       </c>
       <c r="B209" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C209" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="0" t="s">
+      <c r="C209" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="210" ht="14.25">
+      <c r="A210" t="s">
         <v>3</v>
       </c>
       <c r="B210" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="C210" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="0" t="s">
+      <c r="C210" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="211" ht="14.25">
+      <c r="A211" t="s">
         <v>3</v>
       </c>
       <c r="B211" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C211" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="0" t="s">
+      <c r="C211" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="212" ht="14.25">
+      <c r="A212" t="s">
         <v>3</v>
       </c>
       <c r="B212" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="C212" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="0" t="s">
+      <c r="C212" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="213" ht="14.25">
+      <c r="A213" t="s">
         <v>3</v>
       </c>
       <c r="B213" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C213" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="0" t="s">
+      <c r="C213" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="214" ht="14.25">
+      <c r="A214" t="s">
         <v>3</v>
       </c>
       <c r="B214" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="C214" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="0" t="s">
+      <c r="C214" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="215" ht="14.25">
+      <c r="A215" t="s">
         <v>3</v>
       </c>
       <c r="B215" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="C215" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="0" t="s">
+      <c r="C215" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="216" ht="14.25">
+      <c r="A216" t="s">
         <v>3</v>
       </c>
       <c r="B216" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C216" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="0" t="s">
+      <c r="C216" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="217" ht="14.25">
+      <c r="A217" t="s">
         <v>3</v>
       </c>
       <c r="B217" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="C217" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="0" t="s">
+      <c r="C217" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="218" ht="14.25">
+      <c r="A218" t="s">
         <v>3</v>
       </c>
       <c r="B218" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="C218" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="0" t="s">
+      <c r="C218" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="219" ht="14.25">
+      <c r="A219" t="s">
         <v>3</v>
       </c>
       <c r="B219" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="C219" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="0" t="s">
+      <c r="C219" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="220" ht="14.25">
+      <c r="A220" t="s">
         <v>3</v>
       </c>
       <c r="B220" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="C220" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="0" t="s">
+      <c r="C220" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="221" ht="14.25">
+      <c r="A221" t="s">
         <v>3</v>
       </c>
       <c r="B221" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C221" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="0" t="s">
+      <c r="C221" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="222" ht="14.25">
+      <c r="A222" t="s">
         <v>3</v>
       </c>
       <c r="B222" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="C222" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="0" t="s">
+      <c r="C222" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="223" ht="14.25">
+      <c r="A223" t="s">
         <v>3</v>
       </c>
       <c r="B223" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="C223" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="0" t="s">
+      <c r="C223" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="224" ht="14.25">
+      <c r="A224" t="s">
         <v>3</v>
       </c>
       <c r="B224" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="C224" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="0" t="s">
+      <c r="C224" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="225" ht="14.25">
+      <c r="A225" t="s">
         <v>3</v>
       </c>
       <c r="B225" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="C225" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="0" t="s">
+      <c r="C225" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="226" ht="14.25">
+      <c r="A226" t="s">
         <v>3</v>
       </c>
       <c r="B226" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="C226" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="0" t="s">
+      <c r="C226" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="227" ht="14.25">
+      <c r="A227" t="s">
         <v>3</v>
       </c>
       <c r="B227" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="C227" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="0" t="s">
+      <c r="C227" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="228" ht="14.25">
+      <c r="A228" t="s">
         <v>3</v>
       </c>
       <c r="B228" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="C228" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="0" t="s">
+      <c r="C228" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="229" ht="14.25">
+      <c r="A229" t="s">
         <v>3</v>
       </c>
       <c r="B229" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="C229" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="0" t="s">
+      <c r="C229" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="230" ht="14.25">
+      <c r="A230" t="s">
         <v>3</v>
       </c>
       <c r="B230" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="C230" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="0" t="s">
+      <c r="C230" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="231" ht="14.25">
+      <c r="A231" t="s">
         <v>3</v>
       </c>
       <c r="B231" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="C231" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="0" t="s">
+      <c r="C231" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="232" ht="14.25">
+      <c r="A232" t="s">
         <v>3</v>
       </c>
       <c r="B232" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="C232" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="0" t="s">
+      <c r="C232" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="233" ht="14.25">
+      <c r="A233" t="s">
         <v>3</v>
       </c>
       <c r="B233" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="C233" s="9" t="n">
+      <c r="C233" s="9">
         <v>156</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="0" t="s">
+    <row r="234" ht="14.25">
+      <c r="A234" t="s">
         <v>3</v>
       </c>
       <c r="B234" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="C234" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="0" t="s">
+      <c r="C234" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="235" ht="14.25">
+      <c r="A235" t="s">
         <v>3</v>
       </c>
       <c r="B235" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C235" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="236" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="0" t="s">
+      <c r="C235" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="236" ht="14.25">
+      <c r="A236" t="s">
         <v>3</v>
       </c>
       <c r="B236" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="C236" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="237" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="0" t="s">
+      <c r="C236" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="237" ht="14.25">
+      <c r="A237" t="s">
         <v>3</v>
       </c>
       <c r="B237" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="C237" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="238" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="0" t="s">
+      <c r="C237" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="238" ht="14.25">
+      <c r="A238" t="s">
         <v>3</v>
       </c>
       <c r="B238" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="C238" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="0" t="s">
+      <c r="C238" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="239" ht="14.25">
+      <c r="A239" t="s">
         <v>3</v>
       </c>
       <c r="B239" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C239" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="0" t="s">
+      <c r="C239" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="240" ht="14.25">
+      <c r="A240" t="s">
         <v>3</v>
       </c>
       <c r="B240" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="C240" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="0" t="s">
+      <c r="C240" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="241" ht="14.25">
+      <c r="A241" t="s">
         <v>3</v>
       </c>
       <c r="B241" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="C241" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="0" t="s">
+      <c r="C241" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="242" ht="14.25">
+      <c r="A242" t="s">
         <v>3</v>
       </c>
       <c r="B242" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C242" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="0" t="s">
+      <c r="C242" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="243" ht="14.25">
+      <c r="A243" t="s">
         <v>3</v>
       </c>
       <c r="B243" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C243" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="0" t="s">
+      <c r="C243" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="244" ht="14.25">
+      <c r="A244" t="s">
         <v>3</v>
       </c>
       <c r="B244" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="C244" s="9" t="n">
+      <c r="C244" s="9">
         <v>126</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="0" t="s">
+    <row r="245" ht="14.25">
+      <c r="A245" t="s">
         <v>3</v>
       </c>
       <c r="B245" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="C245" s="9" t="n">
+      <c r="C245" s="9">
         <v>156</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="0" t="s">
+    <row r="246" ht="14.25">
+      <c r="A246" t="s">
         <v>3</v>
       </c>
       <c r="B246" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="C246" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="0" t="s">
+      <c r="C246" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="247" ht="14.25">
+      <c r="A247" t="s">
         <v>3</v>
       </c>
       <c r="B247" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="C247" s="9" t="n">
+      <c r="C247" s="9">
         <v>21</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="0" t="s">
+    <row r="248" ht="14.25">
+      <c r="A248" t="s">
         <v>3</v>
       </c>
       <c r="B248" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="C248" s="9" t="n">
+      <c r="C248" s="9">
         <v>21</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="0" t="s">
+    <row r="249" ht="14.25">
+      <c r="A249" t="s">
         <v>3</v>
       </c>
       <c r="B249" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="C249" s="9" t="n">
+      <c r="C249" s="9">
         <v>21</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="0" t="s">
+    <row r="250" ht="14.25">
+      <c r="A250" t="s">
         <v>3</v>
       </c>
       <c r="B250" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C250" s="9" t="n">
+      <c r="C250" s="9">
         <v>21</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="0" t="s">
+    <row r="251" ht="14.25">
+      <c r="A251" t="s">
         <v>3</v>
       </c>
       <c r="B251" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="C251" s="9" t="n">
+      <c r="C251" s="9">
         <v>21</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="0" t="s">
+    <row r="252" ht="14.25">
+      <c r="A252" t="s">
         <v>3</v>
       </c>
       <c r="B252" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="C252" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="253" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="0" t="s">
+      <c r="C252" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="253" ht="14.25">
+      <c r="A253" t="s">
         <v>3</v>
       </c>
       <c r="B253" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C253" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="0" t="s">
+      <c r="C253" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="254" ht="14.25">
+      <c r="A254" t="s">
         <v>3</v>
       </c>
       <c r="B254" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="C254" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="0" t="s">
+      <c r="C254" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="255" ht="14.25">
+      <c r="A255" t="s">
         <v>3</v>
       </c>
       <c r="B255" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="C255" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="256" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="0" t="s">
+      <c r="C255" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="256" ht="14.25">
+      <c r="A256" t="s">
         <v>3</v>
       </c>
       <c r="B256" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="C256" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="257" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="0" t="s">
+      <c r="C256" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="257" ht="14.25">
+      <c r="A257" t="s">
         <v>3</v>
       </c>
       <c r="B257" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="C257" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="258" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="0" t="s">
+      <c r="C257" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="258" ht="14.25">
+      <c r="A258" t="s">
         <v>3</v>
       </c>
       <c r="B258" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="C258" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="259" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="0" t="s">
+      <c r="C258" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="259" ht="14.25">
+      <c r="A259" t="s">
         <v>3</v>
       </c>
       <c r="B259" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="C259" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="260" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="0" t="s">
+      <c r="C259" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="260" ht="14.25">
+      <c r="A260" t="s">
         <v>3</v>
       </c>
       <c r="B260" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="C260" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="261" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="0" t="s">
+      <c r="C260" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="261" ht="14.25">
+      <c r="A261" t="s">
         <v>3</v>
       </c>
       <c r="B261" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="C261" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="0" t="s">
+      <c r="C261" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="262" ht="14.25">
+      <c r="A262" t="s">
         <v>3</v>
       </c>
       <c r="B262" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C262" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="263" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="0" t="s">
+      <c r="C262" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="263" ht="14.25">
+      <c r="A263" t="s">
         <v>3</v>
       </c>
       <c r="B263" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="C263" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="0" t="s">
+      <c r="C263" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="264" ht="14.25">
+      <c r="A264" t="s">
         <v>3</v>
       </c>
       <c r="B264" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C264" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="265" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="0" t="s">
+      <c r="C264" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="265" ht="14.25">
+      <c r="A265" t="s">
         <v>3</v>
       </c>
       <c r="B265" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="C265" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="266" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="0" t="s">
+      <c r="C265" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="266" ht="14.25">
+      <c r="A266" t="s">
         <v>3</v>
       </c>
       <c r="B266" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="C266" s="9" t="n">
+      <c r="C266" s="9">
         <v>156</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="0" t="s">
+    <row r="267" ht="14.25">
+      <c r="A267" t="s">
         <v>3</v>
       </c>
       <c r="B267" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="C267" s="9" t="n">
+      <c r="C267" s="9">
         <v>156</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="0" t="s">
+    <row r="268" ht="14.25">
+      <c r="A268" t="s">
         <v>3</v>
       </c>
       <c r="B268" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="C268" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="269" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="0" t="s">
+      <c r="C268" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="269" ht="14.25">
+      <c r="A269" t="s">
         <v>3</v>
       </c>
       <c r="B269" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C269" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="270" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="0" t="s">
+      <c r="C269" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="270" ht="14.25">
+      <c r="A270" t="s">
         <v>3</v>
       </c>
       <c r="B270" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="C270" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="271" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="0" t="s">
+      <c r="C270" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="271" ht="14.25">
+      <c r="A271" t="s">
         <v>3</v>
       </c>
       <c r="B271" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="C271" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="272" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="0" t="s">
+      <c r="C271" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="272" ht="14.25">
+      <c r="A272" t="s">
         <v>3</v>
       </c>
       <c r="B272" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="C272" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="273" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="0" t="s">
+      <c r="C272" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="273" ht="14.25">
+      <c r="A273" t="s">
         <v>3</v>
       </c>
       <c r="B273" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="C273" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="274" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="0" t="s">
+      <c r="C273" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="274" ht="14.25">
+      <c r="A274" t="s">
         <v>3</v>
       </c>
       <c r="B274" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="C274" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="275" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="0" t="s">
+      <c r="C274" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="275" ht="14.25">
+      <c r="A275" t="s">
         <v>3</v>
       </c>
       <c r="B275" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="C275" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="276" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="0" t="s">
+      <c r="C275" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="276" ht="14.25">
+      <c r="A276" t="s">
         <v>3</v>
       </c>
       <c r="B276" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="C276" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="277" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="0" t="s">
+      <c r="C276" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="277" ht="14.25">
+      <c r="A277" t="s">
         <v>3</v>
       </c>
       <c r="B277" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="C277" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="278" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="0" t="s">
+      <c r="C277" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="278" ht="14.25">
+      <c r="A278" t="s">
         <v>3</v>
       </c>
       <c r="B278" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="C278" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="279" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="0" t="s">
+      <c r="C278" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="279" ht="14.25">
+      <c r="A279" t="s">
         <v>3</v>
       </c>
       <c r="B279" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="C279" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="280" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="0" t="s">
+      <c r="C279" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="280" ht="14.25">
+      <c r="A280" t="s">
         <v>3</v>
       </c>
       <c r="B280" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="C280" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="281" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="0" t="s">
+      <c r="C280" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="281" ht="14.25">
+      <c r="A281" t="s">
         <v>3</v>
       </c>
       <c r="B281" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="C281" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="282" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="0" t="s">
+      <c r="C281" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="282" ht="14.25">
+      <c r="A282" t="s">
         <v>3</v>
       </c>
       <c r="B282" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="C282" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="283" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="0" t="s">
+      <c r="C282" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="283" ht="14.25">
+      <c r="A283" t="s">
         <v>3</v>
       </c>
       <c r="B283" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="C283" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="284" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="0" t="s">
+      <c r="C283" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="284" ht="14.25">
+      <c r="A284" t="s">
         <v>3</v>
       </c>
       <c r="B284" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C284" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="285" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="0" t="s">
+      <c r="C284" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="285" ht="14.25">
+      <c r="A285" t="s">
         <v>3</v>
       </c>
       <c r="B285" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="C285" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="286" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="0" t="s">
+      <c r="C285" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="286" ht="14.25">
+      <c r="A286" t="s">
         <v>3</v>
       </c>
       <c r="B286" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="C286" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="287" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="0" t="s">
+      <c r="C286" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="287" ht="14.25">
+      <c r="A287" t="s">
         <v>3</v>
       </c>
       <c r="B287" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="C287" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="288" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="0" t="s">
+      <c r="C287" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="288" ht="14.25">
+      <c r="A288" t="s">
         <v>3</v>
       </c>
       <c r="B288" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="C288" s="9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="289" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="0" t="s">
+      <c r="C288" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="289" ht="14.25">
+      <c r="A289" t="s">
         <v>3</v>
       </c>
       <c r="B289" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="C289" s="9" t="n">
+      <c r="C289" s="9">
         <v>406</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="0" t="s">
+    <row r="290" ht="14.25">
+      <c r="A290" t="s">
         <v>3</v>
       </c>
       <c r="B290" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="C290" s="9" t="n">
+      <c r="C290" s="9">
         <v>476</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="0" t="s">
+    <row r="291" ht="14.25">
+      <c r="A291" t="s">
         <v>3</v>
       </c>
       <c r="B291" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="C291" s="9" t="n">
+      <c r="C291" s="9">
         <v>476</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="0" t="s">
+    <row r="292" ht="14.25">
+      <c r="A292" t="s">
         <v>3</v>
       </c>
       <c r="B292" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="C292" s="9" t="n">
+      <c r="C292" s="9">
         <v>556</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="0" t="s">
+    <row r="293" ht="14.25">
+      <c r="A293" t="s">
         <v>3</v>
       </c>
       <c r="B293" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="C293" s="9" t="n">
+      <c r="C293" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="0" t="s">
+    <row r="294" ht="14.25">
+      <c r="A294" t="s">
         <v>3</v>
       </c>
       <c r="B294" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="C294" s="9" t="n">
+      <c r="C294" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="0" t="s">
+    <row r="295" ht="14.25">
+      <c r="A295" t="s">
         <v>3</v>
       </c>
       <c r="B295" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="C295" s="9" t="n">
+      <c r="C295" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="0" t="s">
+    <row r="296" ht="14.25">
+      <c r="A296" t="s">
         <v>3</v>
       </c>
       <c r="B296" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="C296" s="9" t="n">
+      <c r="C296" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="0" t="s">
+    <row r="297" ht="14.25">
+      <c r="A297" t="s">
         <v>3</v>
       </c>
       <c r="B297" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="C297" s="9" t="n">
+      <c r="C297" s="9">
         <v>476</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="0" t="s">
+    <row r="298" ht="14.25">
+      <c r="A298" t="s">
         <v>3</v>
       </c>
       <c r="B298" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="C298" s="9" t="n">
+      <c r="C298" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="0" t="s">
+    <row r="299" ht="14.25">
+      <c r="A299" t="s">
         <v>3</v>
       </c>
       <c r="B299" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="C299" s="9" t="n">
+      <c r="C299" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="0" t="s">
+    <row r="300" ht="14.25">
+      <c r="A300" t="s">
         <v>3</v>
       </c>
       <c r="B300" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="C300" s="9" t="n">
+      <c r="C300" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="0" t="s">
+    <row r="301" ht="14.25">
+      <c r="A301" t="s">
         <v>3</v>
       </c>
       <c r="B301" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="C301" s="9" t="n">
+      <c r="C301" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="0" t="s">
+    <row r="302" ht="14.25">
+      <c r="A302" t="s">
         <v>3</v>
       </c>
       <c r="B302" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="C302" s="9" t="n">
+      <c r="C302" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="0" t="s">
+    <row r="303" ht="14.25">
+      <c r="A303" t="s">
         <v>3</v>
       </c>
       <c r="B303" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="C303" s="9" t="n">
+      <c r="C303" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="0" t="s">
+    <row r="304" ht="14.25">
+      <c r="A304" t="s">
         <v>3</v>
       </c>
       <c r="B304" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="C304" s="9" t="n">
+      <c r="C304" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="0" t="s">
+    <row r="305" ht="14.25">
+      <c r="A305" t="s">
         <v>3</v>
       </c>
       <c r="B305" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="C305" s="9" t="n">
+      <c r="C305" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="0" t="s">
+    <row r="306" ht="14.25">
+      <c r="A306" t="s">
         <v>3</v>
       </c>
       <c r="B306" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="C306" s="9" t="n">
+      <c r="C306" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="0" t="s">
+    <row r="307" ht="14.25">
+      <c r="A307" t="s">
         <v>3</v>
       </c>
       <c r="B307" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="C307" s="9" t="n">
+      <c r="C307" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="0" t="s">
+    <row r="308" ht="14.25">
+      <c r="A308" t="s">
         <v>3</v>
       </c>
       <c r="B308" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="C308" s="9" t="n">
+      <c r="C308" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="0" t="s">
+    <row r="309" ht="14.25">
+      <c r="A309" t="s">
         <v>3</v>
       </c>
       <c r="B309" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="C309" s="9" t="n">
+      <c r="C309" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="0" t="s">
+    <row r="310" ht="14.25">
+      <c r="A310" t="s">
         <v>3</v>
       </c>
       <c r="B310" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="C310" s="9" t="n">
+      <c r="C310" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="0" t="s">
+    <row r="311" ht="14.25">
+      <c r="A311" t="s">
         <v>3</v>
       </c>
       <c r="B311" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="C311" s="9" t="n">
+      <c r="C311" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="0" t="s">
+    <row r="312" ht="14.25">
+      <c r="A312" t="s">
         <v>3</v>
       </c>
       <c r="B312" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="C312" s="9" t="n">
+      <c r="C312" s="9">
         <v>46</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="0" t="s">
+    <row r="313" ht="14.25">
+      <c r="A313" t="s">
         <v>3</v>
       </c>
       <c r="B313" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="C313" s="9" t="n">
+      <c r="C313" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="0" t="s">
+    <row r="314" ht="14.25">
+      <c r="A314" t="s">
         <v>3</v>
       </c>
       <c r="B314" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="C314" s="9" t="n">
+      <c r="C314" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="0" t="s">
+    <row r="315" ht="14.25">
+      <c r="A315" t="s">
         <v>3</v>
       </c>
       <c r="B315" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="C315" s="9" t="n">
+      <c r="C315" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="0" t="s">
+    <row r="316" ht="14.25">
+      <c r="A316" t="s">
         <v>3</v>
       </c>
       <c r="B316" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="C316" s="9" t="n">
+      <c r="C316" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="0" t="s">
+    <row r="317" ht="14.25">
+      <c r="A317" t="s">
         <v>3</v>
       </c>
       <c r="B317" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="C317" s="9" t="n">
+      <c r="C317" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="0" t="s">
+    <row r="318" ht="14.25">
+      <c r="A318" t="s">
         <v>3</v>
       </c>
       <c r="B318" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="C318" s="9" t="n">
+      <c r="C318" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="0" t="s">
+    <row r="319" ht="14.25">
+      <c r="A319" t="s">
         <v>3</v>
       </c>
       <c r="B319" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="C319" s="9" t="n">
+      <c r="C319" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="0" t="s">
+    <row r="320" ht="14.25">
+      <c r="A320" t="s">
         <v>3</v>
       </c>
       <c r="B320" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="C320" s="9" t="n">
+      <c r="C320" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="0" t="s">
+    <row r="321" ht="14.25">
+      <c r="A321" t="s">
         <v>3</v>
       </c>
       <c r="B321" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="C321" s="9" t="n">
+      <c r="C321" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="0" t="s">
+    <row r="322" ht="14.25">
+      <c r="A322" t="s">
         <v>3</v>
       </c>
       <c r="B322" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="C322" s="9" t="n">
+      <c r="C322" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="0" t="s">
+    <row r="323" ht="14.25">
+      <c r="A323" t="s">
         <v>3</v>
       </c>
       <c r="B323" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="C323" s="9" t="n">
+      <c r="C323" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="0" t="s">
+    <row r="324" ht="14.25">
+      <c r="A324" t="s">
         <v>3</v>
       </c>
       <c r="B324" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="C324" s="9" t="n">
+      <c r="C324" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="0" t="s">
+    <row r="325" ht="14.25">
+      <c r="A325" t="s">
         <v>3</v>
       </c>
       <c r="B325" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="C325" s="9" t="n">
+      <c r="C325" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="0" t="s">
+    <row r="326" ht="14.25">
+      <c r="A326" t="s">
         <v>3</v>
       </c>
       <c r="B326" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="C326" s="9" t="n">
+      <c r="C326" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="0" t="s">
+    <row r="327" ht="14.25">
+      <c r="A327" t="s">
         <v>3</v>
       </c>
       <c r="B327" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="C327" s="9" t="n">
+      <c r="C327" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="0" t="s">
+    <row r="328" ht="14.25">
+      <c r="A328" t="s">
         <v>3</v>
       </c>
       <c r="B328" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="C328" s="9" t="n">
+      <c r="C328" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="0" t="s">
+    <row r="329" ht="14.25">
+      <c r="A329" t="s">
         <v>3</v>
       </c>
       <c r="B329" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="C329" s="9" t="n">
+      <c r="C329" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="0" t="s">
+    <row r="330" ht="14.25">
+      <c r="A330" t="s">
         <v>3</v>
       </c>
       <c r="B330" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="C330" s="9" t="n">
+      <c r="C330" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="0" t="s">
+    <row r="331" ht="14.25">
+      <c r="A331" t="s">
         <v>3</v>
       </c>
       <c r="B331" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="C331" s="9" t="n">
+      <c r="C331" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="0" t="s">
+    <row r="332" ht="14.25">
+      <c r="A332" t="s">
         <v>3</v>
       </c>
       <c r="B332" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="C332" s="9" t="n">
+      <c r="C332" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="0" t="s">
+    <row r="333" ht="14.25">
+      <c r="A333" t="s">
         <v>3</v>
       </c>
       <c r="B333" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="C333" s="9" t="n">
+      <c r="C333" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="0" t="s">
+    <row r="334" ht="14.25">
+      <c r="A334" t="s">
         <v>3</v>
       </c>
       <c r="B334" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="C334" s="9" t="n">
+      <c r="C334" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="0" t="s">
+    <row r="335" ht="14.25">
+      <c r="A335" t="s">
         <v>3</v>
       </c>
       <c r="B335" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="C335" s="9" t="n">
+      <c r="C335" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="0" t="s">
+    <row r="336" ht="14.25">
+      <c r="A336" t="s">
         <v>3</v>
       </c>
       <c r="B336" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="C336" s="9" t="n">
+      <c r="C336" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="0" t="s">
+    <row r="337" ht="14.25">
+      <c r="A337" t="s">
         <v>3</v>
       </c>
       <c r="B337" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="C337" s="9" t="n">
+      <c r="C337" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="0" t="s">
+    <row r="338" ht="14.25">
+      <c r="A338" t="s">
         <v>3</v>
       </c>
       <c r="B338" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="C338" s="9" t="n">
+      <c r="C338" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="0" t="s">
+    <row r="339" ht="14.25">
+      <c r="A339" t="s">
         <v>3</v>
       </c>
       <c r="B339" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="C339" s="9" t="n">
+      <c r="C339" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="0" t="s">
+    <row r="340" ht="14.25">
+      <c r="A340" t="s">
         <v>3</v>
       </c>
       <c r="B340" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="C340" s="9" t="n">
+      <c r="C340" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="0" t="s">
+    <row r="341" ht="14.25">
+      <c r="A341" t="s">
         <v>3</v>
       </c>
       <c r="B341" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="C341" s="9" t="n">
+      <c r="C341" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="0" t="s">
+    <row r="342" ht="14.25">
+      <c r="A342" t="s">
         <v>3</v>
       </c>
       <c r="B342" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="C342" s="9" t="n">
+      <c r="C342" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="0" t="s">
+    <row r="343" ht="14.25">
+      <c r="A343" t="s">
         <v>3</v>
       </c>
       <c r="B343" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="C343" s="9" t="n">
+      <c r="C343" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="0" t="s">
+    <row r="344" ht="14.25">
+      <c r="A344" t="s">
         <v>3</v>
       </c>
       <c r="B344" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="C344" s="9" t="n">
+      <c r="C344" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="0" t="s">
+    <row r="345" ht="14.25">
+      <c r="A345" t="s">
         <v>3</v>
       </c>
       <c r="B345" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="C345" s="9" t="n">
+      <c r="C345" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="0" t="s">
+    <row r="346" ht="14.25">
+      <c r="A346" t="s">
         <v>3</v>
       </c>
       <c r="B346" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="C346" s="9" t="n">
+      <c r="C346" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="0" t="s">
+    <row r="347" ht="14.25">
+      <c r="A347" t="s">
         <v>3</v>
       </c>
       <c r="B347" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="C347" s="9" t="n">
+      <c r="C347" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="0" t="s">
+    <row r="348" ht="14.25">
+      <c r="A348" t="s">
         <v>3</v>
       </c>
       <c r="B348" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="C348" s="9" t="n">
+      <c r="C348" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="0" t="s">
+    <row r="349" ht="14.25">
+      <c r="A349" t="s">
         <v>3</v>
       </c>
       <c r="B349" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="C349" s="9" t="n">
+      <c r="C349" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="0" t="s">
+    <row r="350" ht="14.25">
+      <c r="A350" t="s">
         <v>3</v>
       </c>
       <c r="B350" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="C350" s="9" t="n">
+      <c r="C350" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="0" t="s">
+    <row r="351" ht="14.25">
+      <c r="A351" t="s">
         <v>3</v>
       </c>
       <c r="B351" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="C351" s="9" t="n">
+      <c r="C351" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="0" t="s">
+    <row r="352" ht="14.25">
+      <c r="A352" t="s">
         <v>3</v>
       </c>
       <c r="B352" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="C352" s="9" t="n">
+      <c r="C352" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="0" t="s">
+    <row r="353" ht="14.25">
+      <c r="A353" t="s">
         <v>3</v>
       </c>
       <c r="B353" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="C353" s="9" t="n">
+      <c r="C353" s="9">
         <v>456</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="0" t="s">
+    <row r="354" ht="14.25">
+      <c r="A354" t="s">
         <v>3</v>
       </c>
       <c r="B354" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="C354" s="9" t="n">
+      <c r="C354" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="0" t="s">
+    <row r="355" ht="14.25">
+      <c r="A355" t="s">
         <v>3</v>
       </c>
       <c r="B355" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C355" s="9" t="n">
+      <c r="C355" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="356" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="0" t="s">
+    <row r="356" ht="14.25">
+      <c r="A356" t="s">
         <v>3</v>
       </c>
       <c r="B356" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="C356" s="9" t="n">
+      <c r="C356" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="0" t="s">
+    <row r="357" ht="14.25">
+      <c r="A357" t="s">
         <v>3</v>
       </c>
       <c r="B357" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="C357" s="9" t="n">
+      <c r="C357" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="0" t="s">
+    <row r="358" ht="14.25">
+      <c r="A358" t="s">
         <v>3</v>
       </c>
       <c r="B358" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="C358" s="9" t="n">
+      <c r="C358" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="0" t="s">
+    <row r="359" ht="14.25">
+      <c r="A359" t="s">
         <v>3</v>
       </c>
       <c r="B359" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="C359" s="9" t="n">
+      <c r="C359" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="0" t="s">
+    <row r="360" ht="14.25">
+      <c r="A360" t="s">
         <v>3</v>
       </c>
       <c r="B360" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="C360" s="9" t="n">
+      <c r="C360" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="0" t="s">
+    <row r="361" ht="14.25">
+      <c r="A361" t="s">
         <v>3</v>
       </c>
       <c r="B361" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="C361" s="9" t="n">
+      <c r="C361" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="0" t="s">
+    <row r="362" ht="14.25">
+      <c r="A362" t="s">
         <v>3</v>
       </c>
       <c r="B362" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="C362" s="9" t="n">
+      <c r="C362" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="0" t="s">
+    <row r="363" ht="14.25">
+      <c r="A363" t="s">
         <v>3</v>
       </c>
       <c r="B363" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="C363" s="9" t="n">
+      <c r="C363" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="0" t="s">
+    <row r="364" ht="14.25">
+      <c r="A364" t="s">
         <v>3</v>
       </c>
       <c r="B364" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="C364" s="9" t="n">
+      <c r="C364" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="0" t="s">
+    <row r="365" ht="14.25">
+      <c r="A365" t="s">
         <v>3</v>
       </c>
       <c r="B365" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="C365" s="9" t="n">
+      <c r="C365" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="0" t="s">
+    <row r="366" ht="14.25">
+      <c r="A366" t="s">
         <v>3</v>
       </c>
       <c r="B366" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="C366" s="9" t="n">
+      <c r="C366" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="0" t="s">
+    <row r="367" ht="14.25">
+      <c r="A367" t="s">
         <v>3</v>
       </c>
       <c r="B367" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="C367" s="9" t="n">
+      <c r="C367" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="0" t="s">
+    <row r="368" ht="14.25">
+      <c r="A368" t="s">
         <v>3</v>
       </c>
       <c r="B368" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="C368" s="9" t="n">
+      <c r="C368" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="369" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="0" t="s">
+    <row r="369" ht="14.25">
+      <c r="A369" t="s">
         <v>3</v>
       </c>
       <c r="B369" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="C369" s="9" t="n">
+      <c r="C369" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="0" t="s">
+    <row r="370" ht="14.25">
+      <c r="A370" t="s">
         <v>3</v>
       </c>
       <c r="B370" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="C370" s="9" t="n">
+      <c r="C370" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="0" t="s">
+    <row r="371" ht="14.25">
+      <c r="A371" t="s">
         <v>3</v>
       </c>
       <c r="B371" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="C371" s="9" t="n">
+      <c r="C371" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="0" t="s">
+    <row r="372" ht="14.25">
+      <c r="A372" t="s">
         <v>3</v>
       </c>
       <c r="B372" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="C372" s="9" t="n">
+      <c r="C372" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="0" t="s">
+    <row r="373" ht="14.25">
+      <c r="A373" t="s">
         <v>3</v>
       </c>
       <c r="B373" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="C373" s="9" t="n">
+      <c r="C373" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="0" t="s">
+    <row r="374" ht="14.25">
+      <c r="A374" t="s">
         <v>3</v>
       </c>
       <c r="B374" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="C374" s="9" t="n">
+      <c r="C374" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="0" t="s">
+    <row r="375" ht="14.25">
+      <c r="A375" t="s">
         <v>3</v>
       </c>
       <c r="B375" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="C375" s="9" t="n">
+      <c r="C375" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="0" t="s">
+    <row r="376" ht="14.25">
+      <c r="A376" t="s">
         <v>3</v>
       </c>
       <c r="B376" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="C376" s="9" t="n">
+      <c r="C376" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="377" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="0" t="s">
+    <row r="377" ht="14.25">
+      <c r="A377" t="s">
         <v>3</v>
       </c>
       <c r="B377" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="C377" s="9" t="n">
+      <c r="C377" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="0" t="s">
+    <row r="378" ht="14.25">
+      <c r="A378" t="s">
         <v>3</v>
       </c>
       <c r="B378" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="C378" s="9" t="n">
+      <c r="C378" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="0" t="s">
+    <row r="379" ht="14.25">
+      <c r="A379" t="s">
         <v>3</v>
       </c>
       <c r="B379" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="C379" s="9" t="n">
+      <c r="C379" s="9">
         <v>456</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="0" t="s">
+    <row r="380" ht="14.25">
+      <c r="A380" t="s">
         <v>3</v>
       </c>
       <c r="B380" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="C380" s="9" t="n">
+      <c r="C380" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="0" t="s">
+    <row r="381" ht="14.25">
+      <c r="A381" t="s">
         <v>3</v>
       </c>
       <c r="B381" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="C381" s="9" t="n">
+      <c r="C381" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="0" t="s">
+    <row r="382" ht="14.25">
+      <c r="A382" t="s">
         <v>3</v>
       </c>
       <c r="B382" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="C382" s="9" t="n">
+      <c r="C382" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="0" t="s">
+    <row r="383" ht="14.25">
+      <c r="A383" t="s">
         <v>3</v>
       </c>
       <c r="B383" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="C383" s="9" t="n">
+      <c r="C383" s="9">
         <v>356</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="0" t="s">
+    <row r="384" ht="14.25">
+      <c r="A384" t="s">
         <v>3</v>
       </c>
       <c r="B384" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="C384" s="9" t="n">
+      <c r="C384" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="385" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="0" t="s">
+    <row r="385" ht="14.25">
+      <c r="A385" t="s">
         <v>3</v>
       </c>
       <c r="B385" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="C385" s="9" t="n">
+      <c r="C385" s="9">
         <v>271</v>
       </c>
     </row>
-    <row r="386" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="0" t="s">
+    <row r="386" ht="14.25">
+      <c r="A386" t="s">
         <v>3</v>
       </c>
       <c r="B386" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="C386" s="9" t="n">
+      <c r="C386" s="9">
         <v>186</v>
       </c>
     </row>
-    <row r="387" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="0" t="s">
+    <row r="387" ht="14.25">
+      <c r="A387" t="s">
         <v>3</v>
       </c>
       <c r="B387" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="C387" s="9" t="n">
+      <c r="C387" s="9">
         <v>226</v>
       </c>
     </row>
-    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="0" t="s">
+    <row r="388" ht="13.800000000000001">
+      <c r="A388" t="s">
         <v>52</v>
       </c>
       <c r="B388" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="C388" s="9" t="n">
+      <c r="C388" s="9">
         <v>26</v>
       </c>
     </row>
-    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="0" t="s">
+    <row r="389" ht="13.800000000000001">
+      <c r="A389" t="s">
         <v>52</v>
       </c>
       <c r="B389" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="C389" s="9" t="n">
+      <c r="C389" s="9">
         <v>140</v>
       </c>
     </row>
-    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="0" t="s">
+    <row r="390" ht="13.800000000000001">
+      <c r="A390" t="s">
         <v>52</v>
       </c>
       <c r="B390" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="C390" s="9" t="n">
+      <c r="C390" s="9">
         <v>80</v>
       </c>
     </row>
-    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="0" t="s">
+    <row r="391" ht="13.800000000000001">
+      <c r="A391" t="s">
         <v>52</v>
       </c>
       <c r="B391" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="C391" s="9" t="n">
+      <c r="C391" s="9">
         <v>160</v>
       </c>
     </row>
-    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="0" t="s">
+    <row r="392" ht="13.800000000000001">
+      <c r="A392" t="s">
         <v>52</v>
       </c>
       <c r="B392" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="C392" s="9" t="n">
+      <c r="C392" s="9">
         <v>90</v>
       </c>
     </row>
-    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="0" t="s">
+    <row r="393" ht="13.800000000000001">
+      <c r="A393" t="s">
         <v>52</v>
       </c>
       <c r="B393" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="C393" s="9" t="n">
+      <c r="C393" s="9">
         <v>130</v>
       </c>
     </row>
-    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A394" s="0" t="s">
+    <row r="394" ht="13.800000000000001">
+      <c r="A394" t="s">
         <v>52</v>
       </c>
       <c r="B394" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="C394" s="9" t="n">
+      <c r="C394" s="9">
         <v>160</v>
       </c>
     </row>
-    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="0" t="s">
+    <row r="395" ht="13.800000000000001">
+      <c r="A395" t="s">
         <v>52</v>
       </c>
       <c r="B395" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="C395" s="9" t="n">
+      <c r="C395" s="9">
         <v>110</v>
       </c>
     </row>
-    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="0" t="s">
+    <row r="396" ht="13.800000000000001">
+      <c r="A396" t="s">
         <v>52</v>
       </c>
       <c r="B396" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="C396" s="9" t="n">
+      <c r="C396" s="9">
         <v>86</v>
       </c>
     </row>
-    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="0" t="s">
+    <row r="397" ht="13.800000000000001">
+      <c r="A397" t="s">
         <v>52</v>
       </c>
       <c r="B397" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="C397" s="9" t="n">
+      <c r="C397" s="9">
         <v>140</v>
       </c>
     </row>
-    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="0" t="s">
+    <row r="398" ht="13.800000000000001">
+      <c r="A398" t="s">
         <v>52</v>
       </c>
       <c r="B398" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="C398" s="9" t="n">
+      <c r="C398" s="9">
         <v>80</v>
       </c>
     </row>
-    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="0" t="s">
+    <row r="399" ht="13.800000000000001">
+      <c r="A399" t="s">
         <v>52</v>
       </c>
       <c r="B399" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="C399" s="9" t="n">
+      <c r="C399" s="9">
         <v>66</v>
       </c>
     </row>
-    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="0" t="s">
+    <row r="400" ht="13.800000000000001">
+      <c r="A400" t="s">
         <v>52</v>
       </c>
       <c r="B400" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="C400" s="9" t="n">
+      <c r="C400" s="9">
         <v>140</v>
       </c>
     </row>
-    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="0" t="s">
+    <row r="401" ht="13.800000000000001">
+      <c r="A401" t="s">
         <v>52</v>
       </c>
       <c r="B401" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="C401" s="9" t="n">
+      <c r="C401" s="9">
         <v>90</v>
       </c>
     </row>
-    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="0" t="s">
+    <row r="402" ht="13.800000000000001">
+      <c r="A402" t="s">
         <v>52</v>
       </c>
       <c r="B402" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="C402" s="9" t="n">
+      <c r="C402" s="9">
         <v>66</v>
       </c>
     </row>
-    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="0" t="s">
+    <row r="403" ht="13.800000000000001">
+      <c r="A403" t="s">
         <v>52</v>
       </c>
       <c r="B403" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="C403" s="9" t="n">
+      <c r="C403" s="9">
         <v>170</v>
       </c>
     </row>
-    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="0" t="s">
+    <row r="404" ht="13.800000000000001">
+      <c r="A404" t="s">
         <v>52</v>
       </c>
       <c r="B404" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="C404" s="9" t="n">
+      <c r="C404" s="9">
         <v>110</v>
       </c>
     </row>
-    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="0" t="s">
+    <row r="405" ht="13.800000000000001">
+      <c r="A405" t="s">
         <v>52</v>
       </c>
       <c r="B405" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="C405" s="9" t="n">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="0" t="s">
+      <c r="C405" s="9">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="406" ht="13.800000000000001">
+      <c r="A406" t="s">
         <v>52</v>
       </c>
       <c r="B406" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="C406" s="9" t="n">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="0" t="s">
+      <c r="C406" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="407" ht="13.800000000000001">
+      <c r="A407" t="s">
         <v>52</v>
       </c>
       <c r="B407" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="C407" s="9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="0" t="s">
+      <c r="C407" s="9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="408" ht="13.800000000000001">
+      <c r="A408" t="s">
         <v>52</v>
       </c>
       <c r="B408" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="C408" s="9" t="n">
+      <c r="C408" s="9">
         <v>66</v>
       </c>
     </row>
-    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="0" t="s">
+    <row r="409" ht="13.800000000000001">
+      <c r="A409" t="s">
         <v>52</v>
       </c>
       <c r="B409" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="C409" s="9" t="n">
+      <c r="C409" s="9">
         <v>66</v>
       </c>
     </row>
-    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="0" t="s">
+    <row r="410" ht="13.800000000000001">
+      <c r="A410" t="s">
         <v>52</v>
       </c>
-      <c r="B410" s="8" t="s">
+      <c r="B410" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="C410" s="9" t="n">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="0" t="s">
+      <c r="C410" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="411" ht="13.800000000000001">
+      <c r="A411" t="s">
         <v>52</v>
       </c>
       <c r="B411" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="C411" s="2" t="n">
+      <c r="C411" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="412" ht="13.800000000000001">
+      <c r="A412" t="s">
+        <v>52</v>
+      </c>
+      <c r="B412" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="C412" s="9">
         <v>140</v>
       </c>
     </row>
-    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B412" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="C412" s="2" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="0" t="s">
+    <row r="413" ht="13.800000000000001">
+      <c r="A413" t="s">
         <v>52</v>
       </c>
       <c r="B413" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="C413" s="9" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="0" t="s">
+      <c r="C413" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="414" ht="13.800000000000001">
+      <c r="A414" t="s">
         <v>52</v>
       </c>
       <c r="B414" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="C414" s="9" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="0" t="s">
+      <c r="C414" s="9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="415" ht="13.800000000000001">
+      <c r="A415" t="s">
         <v>52</v>
       </c>
       <c r="B415" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="C415" s="9" t="n">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="0" t="s">
+      <c r="C415" s="9">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="416" ht="13.800000000000001">
+      <c r="A416" t="s">
         <v>52</v>
       </c>
       <c r="B416" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="C416" s="9" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="0" t="s">
+      <c r="C416" s="9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="417" ht="13.800000000000001">
+      <c r="A417" t="s">
         <v>52</v>
       </c>
       <c r="B417" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="C417" s="9" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="0" t="s">
+      <c r="C417" s="9">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="418" ht="13.800000000000001">
+      <c r="A418" t="s">
         <v>52</v>
       </c>
       <c r="B418" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="C418" s="9" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="0" t="s">
+      <c r="C418" s="9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="419" ht="13.800000000000001">
+      <c r="A419" t="s">
         <v>52</v>
       </c>
       <c r="B419" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="C419" s="9" t="n">
+      <c r="C419" s="9">
         <v>90</v>
       </c>
     </row>
-    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="0" t="s">
+    <row r="420" ht="13.800000000000001">
+      <c r="A420" t="s">
         <v>52</v>
       </c>
       <c r="B420" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="C420" s="9" t="n">
+      <c r="C420" s="9">
         <v>90</v>
       </c>
     </row>
-    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="0" t="s">
+    <row r="421" ht="13.800000000000001">
+      <c r="A421" t="s">
         <v>52</v>
       </c>
       <c r="B421" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="C421" s="9" t="n">
+      <c r="C421" s="9">
         <v>90</v>
       </c>
     </row>
-    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="0" t="s">
+    <row r="422" ht="13.800000000000001">
+      <c r="A422" t="s">
         <v>52</v>
       </c>
       <c r="B422" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="C422" s="9" t="n">
+      <c r="C422" s="9">
         <v>90</v>
       </c>
     </row>
-    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="0" t="s">
+    <row r="423" ht="13.800000000000001">
+      <c r="A423" t="s">
         <v>52</v>
       </c>
       <c r="B423" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="C423" s="9" t="n">
+      <c r="C423" s="9">
         <v>90</v>
       </c>
     </row>
-    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A424" s="0" t="s">
+    <row r="424" ht="13.800000000000001">
+      <c r="A424" t="s">
         <v>52</v>
       </c>
       <c r="B424" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="C424" s="9" t="n">
+      <c r="C424" s="9">
         <v>90</v>
       </c>
     </row>
-    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="0" t="s">
+    <row r="425" ht="13.800000000000001">
+      <c r="A425" t="s">
         <v>52</v>
       </c>
       <c r="B425" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="C425" s="9" t="n">
+      <c r="C425" s="9">
         <v>90</v>
       </c>
     </row>
-    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="0" t="s">
+    <row r="426" ht="13.800000000000001">
+      <c r="A426" t="s">
         <v>52</v>
       </c>
       <c r="B426" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="C426" s="9" t="n">
+      <c r="C426" s="9">
         <v>90</v>
       </c>
     </row>
-    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="0" t="s">
+    <row r="427" ht="13.800000000000001">
+      <c r="A427" t="s">
         <v>52</v>
       </c>
       <c r="B427" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="C427" s="9" t="n">
+      <c r="C427" s="9">
         <v>90</v>
       </c>
     </row>
-    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A428" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B428" s="8" t="s">
+    <row r="428" ht="14.25">
+      <c r="A428" t="s">
         <v>430</v>
       </c>
-      <c r="C428" s="9" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="429" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="0" t="s">
+      <c r="B428" s="1" t="s">
         <v>431</v>
+      </c>
+      <c r="C428" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="429" ht="13.800000000000001">
+      <c r="A429" t="s">
+        <v>430</v>
       </c>
       <c r="B429" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C429" s="2" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A430" s="0" t="s">
-        <v>431</v>
+      <c r="C429" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="430" ht="13.800000000000001">
+      <c r="A430" t="s">
+        <v>430</v>
       </c>
       <c r="B430" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C430" s="2" t="n">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="0" t="s">
-        <v>431</v>
+      <c r="C430" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="431" ht="13.800000000000001">
+      <c r="A431" t="s">
+        <v>430</v>
       </c>
       <c r="B431" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C431" s="2" t="n">
+      <c r="C431" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A432" s="0" t="s">
-        <v>431</v>
+    <row r="432" ht="13.800000000000001">
+      <c r="A432" t="s">
+        <v>430</v>
       </c>
       <c r="B432" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="C432" s="2" t="n">
+      <c r="C432" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="0" t="s">
-        <v>431</v>
+    <row r="433" ht="13.800000000000001">
+      <c r="A433" t="s">
+        <v>430</v>
       </c>
       <c r="B433" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C433" s="2" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="0" t="s">
-        <v>431</v>
+      <c r="C433" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="434" ht="13.800000000000001">
+      <c r="A434" t="s">
+        <v>430</v>
       </c>
       <c r="B434" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C434" s="2" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="0" t="s">
-        <v>431</v>
+      <c r="C434" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="435" ht="13.800000000000001">
+      <c r="A435" t="s">
+        <v>430</v>
       </c>
       <c r="B435" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C435" s="2" t="n">
+      <c r="C435" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="0" t="s">
-        <v>431</v>
+    <row r="436" ht="13.800000000000001">
+      <c r="A436" t="s">
+        <v>430</v>
       </c>
       <c r="B436" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="C436" s="2" t="n">
+      <c r="C436" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A437" s="0" t="s">
-        <v>431</v>
+    <row r="437" ht="13.800000000000001">
+      <c r="A437" t="s">
+        <v>430</v>
       </c>
       <c r="B437" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="C437" s="2" t="n">
+      <c r="C437" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A438" s="0" t="s">
-        <v>431</v>
+    <row r="438" ht="13.800000000000001">
+      <c r="A438" t="s">
+        <v>430</v>
       </c>
       <c r="B438" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C438" s="2" t="n">
+      <c r="C438" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A439" s="0" t="s">
-        <v>431</v>
+    <row r="439" ht="13.800000000000001">
+      <c r="A439" t="s">
+        <v>430</v>
       </c>
       <c r="B439" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C439" s="2" t="n">
+      <c r="C439" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A440" s="0" t="s">
-        <v>431</v>
+    <row r="440" ht="13.800000000000001">
+      <c r="A440" t="s">
+        <v>430</v>
       </c>
       <c r="B440" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C440" s="2" t="n">
+      <c r="C440" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A441" s="0" t="s">
-        <v>431</v>
+    <row r="441" ht="13.800000000000001">
+      <c r="A441" t="s">
+        <v>430</v>
       </c>
       <c r="B441" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C441" s="2" t="n">
+      <c r="C441" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A442" s="0" t="s">
-        <v>431</v>
+    <row r="442" ht="13.800000000000001">
+      <c r="A442" t="s">
+        <v>430</v>
       </c>
       <c r="B442" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C442" s="2" t="n">
+      <c r="C442" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A443" s="0" t="s">
-        <v>431</v>
+    <row r="443" ht="13.800000000000001">
+      <c r="A443" t="s">
+        <v>430</v>
       </c>
       <c r="B443" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="C443" s="2" t="n">
+      <c r="C443" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A444" s="0" t="s">
-        <v>431</v>
+    <row r="444" ht="13.800000000000001">
+      <c r="A444" t="s">
+        <v>430</v>
       </c>
       <c r="B444" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C444" s="2" t="n">
+      <c r="C444" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A445" s="0" t="s">
-        <v>431</v>
+    <row r="445" ht="13.800000000000001">
+      <c r="A445" t="s">
+        <v>430</v>
       </c>
       <c r="B445" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="C445" s="2" t="n">
+      <c r="C445" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A446" s="0" t="s">
-        <v>431</v>
+    <row r="446" ht="13.800000000000001">
+      <c r="A446" t="s">
+        <v>430</v>
       </c>
       <c r="B446" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C446" s="2" t="n">
+      <c r="C446" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A447" s="0" t="s">
-        <v>431</v>
+    <row r="447" ht="13.800000000000001">
+      <c r="A447" t="s">
+        <v>430</v>
       </c>
       <c r="B447" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="C447" s="2" t="n">
+      <c r="C447" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A448" s="0" t="s">
-        <v>431</v>
+    <row r="448" ht="13.800000000000001">
+      <c r="A448" t="s">
+        <v>430</v>
       </c>
       <c r="B448" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="C448" s="2" t="n">
+      <c r="C448" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A449" s="0" t="s">
-        <v>431</v>
+    <row r="449" ht="13.800000000000001">
+      <c r="A449" t="s">
+        <v>430</v>
       </c>
       <c r="B449" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C449" s="2" t="n">
+      <c r="C449" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A450" s="0" t="s">
-        <v>431</v>
+    <row r="450" ht="13.800000000000001">
+      <c r="A450" t="s">
+        <v>430</v>
       </c>
       <c r="B450" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="C450" s="2" t="n">
+      <c r="C450" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A451" s="0" t="s">
-        <v>431</v>
+    <row r="451" ht="13.800000000000001">
+      <c r="A451" t="s">
+        <v>430</v>
       </c>
       <c r="B451" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C451" s="2" t="n">
+      <c r="C451" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A452" s="0" t="s">
-        <v>431</v>
+    <row r="452" ht="13.800000000000001">
+      <c r="A452" t="s">
+        <v>430</v>
       </c>
       <c r="B452" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="C452" s="2" t="n">
+      <c r="C452" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A453" s="0" t="s">
-        <v>431</v>
+    <row r="453" ht="13.800000000000001">
+      <c r="A453" t="s">
+        <v>430</v>
       </c>
       <c r="B453" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C453" s="2" t="n">
+      <c r="C453" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A454" s="0" t="s">
-        <v>431</v>
+    <row r="454" ht="13.800000000000001">
+      <c r="A454" t="s">
+        <v>430</v>
       </c>
       <c r="B454" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="C454" s="2" t="n">
+      <c r="C454" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A455" s="0" t="s">
-        <v>431</v>
+    <row r="455" ht="13.800000000000001">
+      <c r="A455" t="s">
+        <v>430</v>
       </c>
       <c r="B455" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C455" s="2" t="n">
+      <c r="C455" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A456" s="0" t="s">
-        <v>431</v>
+    <row r="456" ht="13.800000000000001">
+      <c r="A456" t="s">
+        <v>430</v>
       </c>
       <c r="B456" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C456" s="2" t="n">
+      <c r="C456" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A457" s="0" t="s">
-        <v>431</v>
+    <row r="457" ht="13.800000000000001">
+      <c r="A457" t="s">
+        <v>430</v>
       </c>
       <c r="B457" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C457" s="2" t="n">
+      <c r="C457" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A458" s="0" t="s">
-        <v>431</v>
+    <row r="458" ht="13.800000000000001">
+      <c r="A458" t="s">
+        <v>430</v>
       </c>
       <c r="B458" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="C458" s="2" t="n">
+      <c r="C458" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A459" s="0" t="s">
-        <v>431</v>
+    <row r="459" ht="13.800000000000001">
+      <c r="A459" t="s">
+        <v>430</v>
       </c>
       <c r="B459" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="C459" s="2" t="n">
+      <c r="C459" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A460" s="0" t="s">
-        <v>431</v>
+    <row r="460" ht="13.800000000000001">
+      <c r="A460" t="s">
+        <v>430</v>
       </c>
       <c r="B460" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="C460" s="2" t="n">
+      <c r="C460" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A461" s="0" t="s">
-        <v>431</v>
+    <row r="461" ht="13.800000000000001">
+      <c r="A461" t="s">
+        <v>430</v>
       </c>
       <c r="B461" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="C461" s="2" t="n">
+      <c r="C461" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A462" s="0" t="s">
-        <v>431</v>
+    <row r="462" ht="13.800000000000001">
+      <c r="A462" t="s">
+        <v>430</v>
       </c>
       <c r="B462" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="C462" s="2" t="n">
+      <c r="C462" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A463" s="0" t="s">
-        <v>431</v>
+    <row r="463" ht="13.800000000000001">
+      <c r="A463" t="s">
+        <v>430</v>
       </c>
       <c r="B463" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="C463" s="2" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A464" s="0" t="s">
-        <v>431</v>
+      <c r="C463" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="464" ht="13.800000000000001">
+      <c r="A464" t="s">
+        <v>430</v>
       </c>
       <c r="B464" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="C464" s="2" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A465" s="0" t="s">
-        <v>431</v>
+      <c r="C464" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="465" ht="13.800000000000001">
+      <c r="A465" t="s">
+        <v>430</v>
       </c>
       <c r="B465" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="C465" s="2" t="n">
+      <c r="C465" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A466" s="0" t="s">
-        <v>431</v>
+    <row r="466" ht="13.800000000000001">
+      <c r="A466" t="s">
+        <v>430</v>
       </c>
       <c r="B466" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="C466" s="2" t="n">
+      <c r="C466" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A467" s="0" t="s">
-        <v>431</v>
+    <row r="467" ht="13.800000000000001">
+      <c r="A467" t="s">
+        <v>430</v>
       </c>
       <c r="B467" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C467" s="2" t="n">
+      <c r="C467" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A468" s="0" t="s">
-        <v>431</v>
+    <row r="468" ht="13.800000000000001">
+      <c r="A468" t="s">
+        <v>430</v>
       </c>
       <c r="B468" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="C468" s="2" t="n">
+      <c r="C468" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A469" s="0" t="s">
-        <v>431</v>
+    <row r="469" ht="13.800000000000001">
+      <c r="A469" t="s">
+        <v>430</v>
       </c>
       <c r="B469" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C469" s="2" t="n">
+      <c r="C469" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A470" s="0" t="s">
-        <v>431</v>
+    <row r="470" ht="13.800000000000001">
+      <c r="A470" t="s">
+        <v>430</v>
       </c>
       <c r="B470" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="C470" s="2" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A471" s="0" t="s">
-        <v>431</v>
+      <c r="C470" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="471" ht="13.800000000000001">
+      <c r="A471" t="s">
+        <v>430</v>
       </c>
       <c r="B471" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C471" s="2" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A472" s="0" t="s">
-        <v>431</v>
+      <c r="C471" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="472" ht="13.800000000000001">
+      <c r="A472" t="s">
+        <v>430</v>
       </c>
       <c r="B472" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="C472" s="2" t="n">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A473" s="0" t="s">
-        <v>431</v>
+      <c r="C472" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="473" ht="13.800000000000001">
+      <c r="A473" t="s">
+        <v>430</v>
       </c>
       <c r="B473" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="C473" s="2" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A474" s="0" t="s">
-        <v>431</v>
+      <c r="C473" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="474" ht="13.800000000000001">
+      <c r="A474" t="s">
+        <v>430</v>
       </c>
       <c r="B474" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="C474" s="2" t="n">
+      <c r="C474" s="2">
         <v>160</v>
       </c>
     </row>
-    <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A475" s="0" t="s">
-        <v>431</v>
+    <row r="475" ht="13.800000000000001">
+      <c r="A475" t="s">
+        <v>430</v>
       </c>
       <c r="B475" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="C475" s="2" t="n">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A476" s="0" t="s">
-        <v>431</v>
+      <c r="C475" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="476" ht="13.800000000000001">
+      <c r="A476" t="s">
+        <v>430</v>
       </c>
       <c r="B476" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="C476" s="2" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A477" s="0" t="s">
-        <v>431</v>
+      <c r="C476" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="477" ht="13.800000000000001">
+      <c r="A477" t="s">
+        <v>430</v>
       </c>
       <c r="B477" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="C477" s="2" t="n">
+      <c r="C477" s="2">
         <v>210</v>
       </c>
     </row>
-    <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A478" s="0" t="s">
-        <v>431</v>
+    <row r="478" ht="13.800000000000001">
+      <c r="A478" t="s">
+        <v>430</v>
       </c>
       <c r="B478" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C478" s="2" t="n">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A479" s="0" t="s">
-        <v>431</v>
+      <c r="C478" s="2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="479" ht="13.800000000000001">
+      <c r="A479" t="s">
+        <v>430</v>
       </c>
       <c r="B479" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="C479" s="2" t="n">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A480" s="0" t="s">
-        <v>431</v>
+      <c r="C479" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="480" ht="14.25">
+      <c r="A480" t="s">
+        <v>52</v>
       </c>
       <c r="B480" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="C480" s="2" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="481" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A481" s="0" t="s">
+      <c r="C480" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="481" ht="14.25">
+      <c r="A481" t="s">
         <v>52</v>
       </c>
       <c r="B481" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="C481" s="2" t="n">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="482" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A482" s="0" t="s">
+      <c r="C481" s="2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="482" ht="13.800000000000001">
+      <c r="A482" t="s">
         <v>52</v>
       </c>
       <c r="B482" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C482" s="2" t="n">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A483" s="0" t="s">
+      <c r="C482" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="483" ht="13.800000000000001">
+      <c r="A483" t="s">
         <v>52</v>
       </c>
       <c r="B483" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C483" s="2" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A484" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B484" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="C484" s="2" t="n">
+      <c r="C483" s="2">
         <v>185</v>
       </c>
     </row>
-    <row r="1048267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048266" ht="12.800000000000001"/>
+    <row r="1048267" ht="12.800000000000001"/>
+    <row r="1048268" ht="12.800000000000001"/>
+    <row r="1048269" ht="12.800000000000001"/>
+    <row r="1048567" ht="12.800000000000001"/>
+    <row r="1048568" ht="12.800000000000001"/>
+    <row r="1048569" ht="12.800000000000001"/>
+    <row r="1048570" ht="12.800000000000001"/>
+    <row r="1048571" ht="12.800000000000001"/>
+    <row r="1048572" ht="12.800000000000001"/>
+    <row r="1048573" ht="12.800000000000001"/>
+    <row r="1048574" ht="12.800000000000001"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.700694444444444" right="0.700694444444444" top="0.752083333333333" bottom="0.752083333333333" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70069444444444395" right="0.70069444444444395" top="0.75208333333333299" bottom="0.75208333333333299" header="0.51181102362204689" footer="0.51181102362204689"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/colaborador/sistemas/orcamento/valores_exames_samvida.xlsx
+++ b/colaborador/sistemas/orcamento/valores_exames_samvida.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="489">
   <si>
     <t>Local</t>
   </si>
@@ -1211,7 +1211,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">(Dr. JOSE GERALDO)</t>
@@ -1237,7 +1236,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">(Dra. JULIANA)</t>
@@ -1254,7 +1252,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">(Dra. JULIANA)</t>
@@ -1271,7 +1268,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">(Dr. JOSE GERALDO)</t>
@@ -1294,7 +1290,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">(Dr. JOSE GERALDO)</t>
@@ -1311,7 +1306,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">(Dra, JULIANA)</t>
@@ -1328,7 +1322,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">(Dra, JULIANA)</t>
@@ -1351,7 +1344,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">(Dr. JOSE GERALDO)</t>
@@ -1368,7 +1360,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">(Dr. JOSE GERALDO)</t>
@@ -1385,7 +1376,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">(Dr. JOSE GERALDO)</t>
@@ -1414,7 +1404,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">(Dr. JOSE GERALDO)</t>
@@ -1617,6 +1606,12 @@
   </si>
   <si>
     <t xml:space="preserve">COLPOSCOPIA (Dr. MOARCY)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG PROSTATA (Dra. JULIANE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG PROSTATA C/ DOPPLER (Dra. JULIANE)</t>
   </si>
   <si>
     <t xml:space="preserve">PAAF - NODULO ADICIONAL R$ 100,00 (Dra. JULIANE)</t>
@@ -1635,19 +1630,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11.000000"/>
-      <color indexed="64"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="10.000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10.000000"/>
-      <color indexed="64"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -1672,7 +1662,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="64"/>
+        <fgColor indexed="58"/>
         <bgColor indexed="58"/>
       </patternFill>
     </fill>
@@ -1711,24 +1701,24 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="0">
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
       <alignment wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="3" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="4" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="4" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
+    <xf fontId="3" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0">
       <alignment wrapText="1"/>
       <protection hidden="0" locked="1"/>
     </xf>
@@ -1746,10 +1736,6 @@
     </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" wrapText="1"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
   </cellXfs>
@@ -6746,7 +6732,7 @@
       <c r="A410" t="s">
         <v>52</v>
       </c>
-      <c r="B410" s="10" t="s">
+      <c r="B410" s="8" t="s">
         <v>412</v>
       </c>
       <c r="C410" s="2">
@@ -6757,7 +6743,7 @@
       <c r="A411" t="s">
         <v>52</v>
       </c>
-      <c r="B411" s="10" t="s">
+      <c r="B411" s="8" t="s">
         <v>413</v>
       </c>
       <c r="C411" s="2">
@@ -7512,7 +7498,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="480" ht="14.25">
+    <row r="480" ht="13.800000000000001">
       <c r="A480" t="s">
         <v>52</v>
       </c>
@@ -7520,10 +7506,10 @@
         <v>483</v>
       </c>
       <c r="C480" s="2">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="481" ht="14.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="481" ht="13.800000000000001">
       <c r="A481" t="s">
         <v>52</v>
       </c>
@@ -7531,10 +7517,10 @@
         <v>484</v>
       </c>
       <c r="C481" s="2">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="482" ht="13.800000000000001">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="482" ht="14.25">
       <c r="A482" t="s">
         <v>52</v>
       </c>
@@ -7542,10 +7528,10 @@
         <v>485</v>
       </c>
       <c r="C482" s="2">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="483" ht="13.800000000000001">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="483" ht="14.25">
       <c r="A483" t="s">
         <v>52</v>
       </c>
@@ -7553,21 +7539,43 @@
         <v>486</v>
       </c>
       <c r="C483" s="2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="484" ht="13.800000000000001">
+      <c r="A484" t="s">
+        <v>52</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C484" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="485" ht="13.800000000000001">
+      <c r="A485" t="s">
+        <v>52</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C485" s="2">
         <v>185</v>
       </c>
     </row>
-    <row r="1048266" ht="12.800000000000001"/>
-    <row r="1048267" ht="12.800000000000001"/>
     <row r="1048268" ht="12.800000000000001"/>
     <row r="1048269" ht="12.800000000000001"/>
-    <row r="1048567" ht="12.800000000000001"/>
-    <row r="1048568" ht="12.800000000000001"/>
+    <row r="1048270" ht="12.800000000000001"/>
+    <row r="1048271" ht="12.800000000000001"/>
     <row r="1048569" ht="12.800000000000001"/>
     <row r="1048570" ht="12.800000000000001"/>
     <row r="1048571" ht="12.800000000000001"/>
     <row r="1048572" ht="12.800000000000001"/>
     <row r="1048573" ht="12.800000000000001"/>
     <row r="1048574" ht="12.800000000000001"/>
+    <row r="1048575" ht="12.800000000000001"/>
+    <row r="1048576" ht="12.800000000000001"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70069444444444395" right="0.70069444444444395" top="0.75208333333333299" bottom="0.75208333333333299" header="0.51181102362204689" footer="0.51181102362204689"/>

--- a/colaborador/sistemas/orcamento/valores_exames_samvida.xlsx
+++ b/colaborador/sistemas/orcamento/valores_exames_samvida.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="0"/>
   <workbookProtection/>
   <bookViews>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="490">
   <si>
     <t>Local</t>
   </si>
@@ -1603,6 +1603,9 @@
   </si>
   <si>
     <t xml:space="preserve">USG VASOS CERVICAIS (Dr. MOARCY)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VULVOSCOPIA (Dr. MOARCY)</t>
   </si>
   <si>
     <t xml:space="preserve">COLPOSCOPIA (Dr. MOARCY)</t>
@@ -2218,7 +2221,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" view="normal" topLeftCell="A384" zoomScale="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" view="normal" topLeftCell="A460" zoomScale="100" workbookViewId="0">
       <selection activeCell="B485" activeCellId="0" sqref="B485"/>
     </sheetView>
   </sheetViews>
@@ -7500,13 +7503,13 @@
     </row>
     <row r="480" ht="13.800000000000001">
       <c r="A480" t="s">
-        <v>52</v>
+        <v>430</v>
       </c>
       <c r="B480" s="1" t="s">
         <v>483</v>
       </c>
       <c r="C480" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="481" ht="13.800000000000001">
@@ -7517,10 +7520,10 @@
         <v>484</v>
       </c>
       <c r="C481" s="2">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="482" ht="14.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="482" ht="13.800000000000001">
       <c r="A482" t="s">
         <v>52</v>
       </c>
@@ -7528,7 +7531,7 @@
         <v>485</v>
       </c>
       <c r="C482" s="2">
-        <v>210</v>
+        <v>160</v>
       </c>
     </row>
     <row r="483" ht="14.25">
@@ -7539,10 +7542,10 @@
         <v>486</v>
       </c>
       <c r="C483" s="2">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="484" ht="13.800000000000001">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="484" ht="14.25">
       <c r="A484" t="s">
         <v>52</v>
       </c>
@@ -7550,7 +7553,7 @@
         <v>487</v>
       </c>
       <c r="C484" s="2">
-        <v>140</v>
+        <v>430</v>
       </c>
     </row>
     <row r="485" ht="13.800000000000001">
@@ -7561,14 +7564,24 @@
         <v>488</v>
       </c>
       <c r="C485" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="486" ht="13.800000000000001">
+      <c r="A486" t="s">
+        <v>52</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C486" s="2">
         <v>185</v>
       </c>
     </row>
-    <row r="1048268" ht="12.800000000000001"/>
     <row r="1048269" ht="12.800000000000001"/>
     <row r="1048270" ht="12.800000000000001"/>
     <row r="1048271" ht="12.800000000000001"/>
-    <row r="1048569" ht="12.800000000000001"/>
+    <row r="1048272" ht="12.800000000000001"/>
     <row r="1048570" ht="12.800000000000001"/>
     <row r="1048571" ht="12.800000000000001"/>
     <row r="1048572" ht="12.800000000000001"/>

--- a/colaborador/sistemas/orcamento/valores_exames_samvida.xlsx
+++ b/colaborador/sistemas/orcamento/valores_exames_samvida.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="492">
   <si>
     <t>Local</t>
   </si>
@@ -1189,16 +1189,16 @@
     <t xml:space="preserve">CITOLOGIA ONCOTICA</t>
   </si>
   <si>
-    <t xml:space="preserve">USG PAREDE ABDOMINAL C DOPPLER (Dra. JULIANA) NÃO FAZ REGIÃO INGUINAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USG PAREDE ABDOMINAL (Dra. JULIANA) NÃO FAZ REGIÃO INGUINAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USG ABDOME SUPERIOR C DOPPLER (Dra. JULIANA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USG ABDOME SUPERIOR (Dra. JULIANA)</t>
+    <t xml:space="preserve">USG PAREDE ABDOMINAL C DOPPLER (Dra. JULIANE) NÃO FAZ REGIÃO INGUINAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG PAREDE ABDOMINAL (Dra. JULIANE) NÃO FAZ REGIÃO INGUINAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG ABDOME SUPERIOR C DOPPLER (Dra. JULIANE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG ABDOME SUPERIOR (Dra. JULIANE)</t>
   </si>
   <si>
     <r>
@@ -1217,45 +1217,19 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">USG ABDOME TOTAL C DOPPLER (Dra. JULIANA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USG ABDOME TOTAL (Dra. JULIANA)</t>
+    <t xml:space="preserve">USG ABDOME TOTAL C DOPPLER (Dra. JULIANE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG ABDOME TOTAL (Dra. JULIANE)</t>
   </si>
   <si>
     <t xml:space="preserve">USG ABDOME TOTAL (Dr. JOSE GERALDO)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">USG AXILAS C DOPPLER </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">(Dra. JULIANA)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">USG AXILAS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">(Dra. JULIANA)</t>
-    </r>
+    <t xml:space="preserve">USG AXILAS C DOPPLER (Dra. JULIANE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG AXILAS (Dra. JULIANE)</t>
   </si>
   <si>
     <r>
@@ -1274,10 +1248,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">USG ENDOVAGINAL + PELVICA C DOPPLER (Dra. JULIANA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USG ENDOVAGINAL + PELVICA (Dra. JULIANA)</t>
+    <t xml:space="preserve">USG ENDOVAGINAL + PELVICA C DOPPLER (Dra. JULIANE ARRUDA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG ENDOVAGINAL + PELVICA (Dra. JULIANE ARRUDA)</t>
   </si>
   <si>
     <r>
@@ -1296,42 +1270,16 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">USG GESTACIONAL C DOPPLER </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">(Dra, JULIANA)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">USG GESTACIONAL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">(Dra, JULIANA)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">USG MAMAS C DOPPLER (Dra. JULIANA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USG MAMAS (Dra. JULIANA)</t>
+    <t xml:space="preserve">USG GESTACIONAL C DOPPLER (Dra, JULIANE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG GESTACIONAL (Dra, JULIANE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG MAMAS C DOPPLER (Dra. JULIANE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG MAMAS (Dra. JULIANE)</t>
   </si>
   <si>
     <r>
@@ -1366,32 +1314,25 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">USG PELVICA </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">(Dr. JOSE GERALDO)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">USG TIREOIDE C DOPPLER (Dra. JULIANA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USG TIREOIDE (Dra. JULIANA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USG VIAS URINARIAS C DOPPLER (Dra. JULIANA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USG VIAS URINARIAS (Dra. JULIANA)</t>
+    <t xml:space="preserve">USG PELVICA S/ DOPPLER (Dr. JOSE GERALDO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG TIREOIDE C DOPPLER (Dra. JULIANE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG TIREOIDE (Dra. JULIANE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG VIAS URINARIAS C DOPPLER (Dra. JULIANE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG PELVICA C/ DOPPLER (Dra. JULIANE ARRUDA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG PELVICA S/ DOPPLER (Dra. JULIANE ARRUDA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG VIAS URINARIAS (Dra. JULIANE)</t>
   </si>
   <si>
     <r>
@@ -1410,43 +1351,43 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">USG ESCROTO C DOPPLER (Dra. JULIANA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USG ESCROTO (Dra. JULIANA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USG CERVICAL / PESCOÇO C DOPPLER (Dra. JULIANA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USG CERVICAL / PESCOÇO (Dra. JULIANA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USG OMBRO E (Dra. JULIANA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USG OMBRO D (Dra. JULIANA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USG JOELHO E (Dra. JULIANA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USG PUNHO E (Dra. JULIANA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USG PUNHO D (Dra. JULIANA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USG COTOVELO E (Dra. JULIANA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USG PE E (Dra. JULIANA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USG MAO E (Dra. JULIANA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USG TORNOZELO (Dra. JULIANA)</t>
+    <t xml:space="preserve">USG ESCROTO C DOPPLER (Dra. JULIANE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG ESCROTO (Dra. JULIANE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG CERVICAL / PESCOÇO C DOPPLER (Dra. JULIANE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG CERVICAL / PESCOÇO (Dra. JULIANE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG OMBRO E (Dra. JULIANE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG OMBRO D (Dra. JULIANE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG JOELHO E (Dra. JULIANE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG PUNHO E (Dra. JULIANE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG PUNHO D (Dra. JULIANE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG COTOVELO E (Dra. JULIANE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG PE E (Dra. JULIANE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG MAO E (Dra. JULIANE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USG TORNOZELO (Dra. JULIANE)</t>
   </si>
   <si>
     <t xml:space="preserve">Instituto de Diagnóstico da Mulher</t>
@@ -1704,7 +1645,7 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -1739,6 +1680,9 @@
     </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
   </cellXfs>
@@ -2221,7 +2165,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" view="normal" topLeftCell="A460" zoomScale="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" view="normal" topLeftCell="A394" zoomScale="100" workbookViewId="0">
       <selection activeCell="B485" activeCellId="0" sqref="B485"/>
     </sheetView>
   </sheetViews>
@@ -6765,25 +6709,25 @@
       </c>
     </row>
     <row r="413" ht="13.800000000000001">
-      <c r="A413" t="s">
+      <c r="A413" s="10" t="s">
         <v>52</v>
       </c>
       <c r="B413" s="8" t="s">
         <v>415</v>
       </c>
       <c r="C413" s="9">
-        <v>80</v>
+        <v>140</v>
       </c>
     </row>
     <row r="414" ht="13.800000000000001">
-      <c r="A414" t="s">
+      <c r="A414" s="10" t="s">
         <v>52</v>
       </c>
       <c r="B414" s="8" t="s">
         <v>416</v>
       </c>
       <c r="C414" s="9">
-        <v>66</v>
+        <v>90</v>
       </c>
     </row>
     <row r="415" ht="13.800000000000001">
@@ -6794,7 +6738,7 @@
         <v>417</v>
       </c>
       <c r="C415" s="9">
-        <v>140</v>
+        <v>80</v>
       </c>
     </row>
     <row r="416" ht="13.800000000000001">
@@ -6805,7 +6749,7 @@
         <v>418</v>
       </c>
       <c r="C416" s="9">
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
     <row r="417" ht="13.800000000000001">
@@ -6838,7 +6782,7 @@
         <v>421</v>
       </c>
       <c r="C419" s="9">
-        <v>90</v>
+        <v>140</v>
       </c>
     </row>
     <row r="420" ht="13.800000000000001">
@@ -6929,31 +6873,31 @@
         <v>90</v>
       </c>
     </row>
-    <row r="428" ht="14.25">
+    <row r="428" ht="13.800000000000001">
       <c r="A428" t="s">
+        <v>52</v>
+      </c>
+      <c r="B428" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="B428" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="C428" s="2">
-        <v>80</v>
+      <c r="C428" s="9">
+        <v>90</v>
       </c>
     </row>
     <row r="429" ht="13.800000000000001">
       <c r="A429" t="s">
-        <v>430</v>
-      </c>
-      <c r="B429" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B429" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="C429" s="9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="430" ht="14.25">
+      <c r="A430" t="s">
         <v>432</v>
-      </c>
-      <c r="C429" s="2">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="430" ht="13.800000000000001">
-      <c r="A430" t="s">
-        <v>430</v>
       </c>
       <c r="B430" s="1" t="s">
         <v>433</v>
@@ -6964,18 +6908,18 @@
     </row>
     <row r="431" ht="13.800000000000001">
       <c r="A431" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B431" s="1" t="s">
         <v>434</v>
       </c>
       <c r="C431" s="2">
-        <v>80</v>
+        <v>210</v>
       </c>
     </row>
     <row r="432" ht="13.800000000000001">
       <c r="A432" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B432" s="1" t="s">
         <v>435</v>
@@ -6986,18 +6930,18 @@
     </row>
     <row r="433" ht="13.800000000000001">
       <c r="A433" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B433" s="1" t="s">
         <v>436</v>
       </c>
       <c r="C433" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
     </row>
     <row r="434" ht="13.800000000000001">
       <c r="A434" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B434" s="1" t="s">
         <v>437</v>
@@ -7008,18 +6952,18 @@
     </row>
     <row r="435" ht="13.800000000000001">
       <c r="A435" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B435" s="1" t="s">
         <v>438</v>
       </c>
       <c r="C435" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
     </row>
     <row r="436" ht="13.800000000000001">
       <c r="A436" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B436" s="1" t="s">
         <v>439</v>
@@ -7030,7 +6974,7 @@
     </row>
     <row r="437" ht="13.800000000000001">
       <c r="A437" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B437" s="1" t="s">
         <v>440</v>
@@ -7041,7 +6985,7 @@
     </row>
     <row r="438" ht="13.800000000000001">
       <c r="A438" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B438" s="1" t="s">
         <v>441</v>
@@ -7052,7 +6996,7 @@
     </row>
     <row r="439" ht="13.800000000000001">
       <c r="A439" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B439" s="1" t="s">
         <v>442</v>
@@ -7063,7 +7007,7 @@
     </row>
     <row r="440" ht="13.800000000000001">
       <c r="A440" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B440" s="1" t="s">
         <v>443</v>
@@ -7074,7 +7018,7 @@
     </row>
     <row r="441" ht="13.800000000000001">
       <c r="A441" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B441" s="1" t="s">
         <v>444</v>
@@ -7085,7 +7029,7 @@
     </row>
     <row r="442" ht="13.800000000000001">
       <c r="A442" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B442" s="1" t="s">
         <v>445</v>
@@ -7096,7 +7040,7 @@
     </row>
     <row r="443" ht="13.800000000000001">
       <c r="A443" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B443" s="1" t="s">
         <v>446</v>
@@ -7107,7 +7051,7 @@
     </row>
     <row r="444" ht="13.800000000000001">
       <c r="A444" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B444" s="1" t="s">
         <v>447</v>
@@ -7118,7 +7062,7 @@
     </row>
     <row r="445" ht="13.800000000000001">
       <c r="A445" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B445" s="1" t="s">
         <v>448</v>
@@ -7129,7 +7073,7 @@
     </row>
     <row r="446" ht="13.800000000000001">
       <c r="A446" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B446" s="1" t="s">
         <v>449</v>
@@ -7140,7 +7084,7 @@
     </row>
     <row r="447" ht="13.800000000000001">
       <c r="A447" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B447" s="1" t="s">
         <v>450</v>
@@ -7151,7 +7095,7 @@
     </row>
     <row r="448" ht="13.800000000000001">
       <c r="A448" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B448" s="1" t="s">
         <v>451</v>
@@ -7162,7 +7106,7 @@
     </row>
     <row r="449" ht="13.800000000000001">
       <c r="A449" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B449" s="1" t="s">
         <v>452</v>
@@ -7173,7 +7117,7 @@
     </row>
     <row r="450" ht="13.800000000000001">
       <c r="A450" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B450" s="1" t="s">
         <v>453</v>
@@ -7184,7 +7128,7 @@
     </row>
     <row r="451" ht="13.800000000000001">
       <c r="A451" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B451" s="1" t="s">
         <v>454</v>
@@ -7195,7 +7139,7 @@
     </row>
     <row r="452" ht="13.800000000000001">
       <c r="A452" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B452" s="1" t="s">
         <v>455</v>
@@ -7206,7 +7150,7 @@
     </row>
     <row r="453" ht="13.800000000000001">
       <c r="A453" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B453" s="1" t="s">
         <v>456</v>
@@ -7217,7 +7161,7 @@
     </row>
     <row r="454" ht="13.800000000000001">
       <c r="A454" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B454" s="1" t="s">
         <v>457</v>
@@ -7228,7 +7172,7 @@
     </row>
     <row r="455" ht="13.800000000000001">
       <c r="A455" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B455" s="1" t="s">
         <v>458</v>
@@ -7239,7 +7183,7 @@
     </row>
     <row r="456" ht="13.800000000000001">
       <c r="A456" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B456" s="1" t="s">
         <v>459</v>
@@ -7250,7 +7194,7 @@
     </row>
     <row r="457" ht="13.800000000000001">
       <c r="A457" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B457" s="1" t="s">
         <v>460</v>
@@ -7261,7 +7205,7 @@
     </row>
     <row r="458" ht="13.800000000000001">
       <c r="A458" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B458" s="1" t="s">
         <v>461</v>
@@ -7272,7 +7216,7 @@
     </row>
     <row r="459" ht="13.800000000000001">
       <c r="A459" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B459" s="1" t="s">
         <v>462</v>
@@ -7283,7 +7227,7 @@
     </row>
     <row r="460" ht="13.800000000000001">
       <c r="A460" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B460" s="1" t="s">
         <v>463</v>
@@ -7294,7 +7238,7 @@
     </row>
     <row r="461" ht="13.800000000000001">
       <c r="A461" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B461" s="1" t="s">
         <v>464</v>
@@ -7305,7 +7249,7 @@
     </row>
     <row r="462" ht="13.800000000000001">
       <c r="A462" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B462" s="1" t="s">
         <v>465</v>
@@ -7316,18 +7260,18 @@
     </row>
     <row r="463" ht="13.800000000000001">
       <c r="A463" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B463" s="1" t="s">
         <v>466</v>
       </c>
       <c r="C463" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
     </row>
     <row r="464" ht="13.800000000000001">
       <c r="A464" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B464" s="1" t="s">
         <v>467</v>
@@ -7338,18 +7282,18 @@
     </row>
     <row r="465" ht="13.800000000000001">
       <c r="A465" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B465" s="1" t="s">
         <v>468</v>
       </c>
       <c r="C465" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
     </row>
     <row r="466" ht="13.800000000000001">
       <c r="A466" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B466" s="1" t="s">
         <v>469</v>
@@ -7360,7 +7304,7 @@
     </row>
     <row r="467" ht="13.800000000000001">
       <c r="A467" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B467" s="1" t="s">
         <v>470</v>
@@ -7371,7 +7315,7 @@
     </row>
     <row r="468" ht="13.800000000000001">
       <c r="A468" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B468" s="1" t="s">
         <v>471</v>
@@ -7382,7 +7326,7 @@
     </row>
     <row r="469" ht="13.800000000000001">
       <c r="A469" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B469" s="1" t="s">
         <v>472</v>
@@ -7393,29 +7337,29 @@
     </row>
     <row r="470" ht="13.800000000000001">
       <c r="A470" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B470" s="1" t="s">
         <v>473</v>
       </c>
       <c r="C470" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="471" ht="13.800000000000001">
       <c r="A471" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B471" s="1" t="s">
         <v>474</v>
       </c>
       <c r="C471" s="2">
-        <v>160</v>
+        <v>80</v>
       </c>
     </row>
     <row r="472" ht="13.800000000000001">
       <c r="A472" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B472" s="1" t="s">
         <v>475</v>
@@ -7426,7 +7370,7 @@
     </row>
     <row r="473" ht="13.800000000000001">
       <c r="A473" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B473" s="1" t="s">
         <v>476</v>
@@ -7437,104 +7381,104 @@
     </row>
     <row r="474" ht="13.800000000000001">
       <c r="A474" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B474" s="1" t="s">
         <v>477</v>
       </c>
       <c r="C474" s="2">
-        <v>160</v>
+        <v>100</v>
       </c>
     </row>
     <row r="475" ht="13.800000000000001">
       <c r="A475" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B475" s="1" t="s">
         <v>478</v>
       </c>
       <c r="C475" s="2">
-        <v>100</v>
+        <v>160</v>
       </c>
     </row>
     <row r="476" ht="13.800000000000001">
       <c r="A476" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B476" s="1" t="s">
         <v>479</v>
       </c>
       <c r="C476" s="2">
-        <v>210</v>
+        <v>160</v>
       </c>
     </row>
     <row r="477" ht="13.800000000000001">
       <c r="A477" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B477" s="1" t="s">
         <v>480</v>
       </c>
       <c r="C477" s="2">
-        <v>210</v>
+        <v>100</v>
       </c>
     </row>
     <row r="478" ht="13.800000000000001">
       <c r="A478" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B478" s="1" t="s">
         <v>481</v>
       </c>
       <c r="C478" s="2">
-        <v>310</v>
+        <v>210</v>
       </c>
     </row>
     <row r="479" ht="13.800000000000001">
       <c r="A479" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B479" s="1" t="s">
         <v>482</v>
       </c>
       <c r="C479" s="2">
-        <v>90</v>
+        <v>210</v>
       </c>
     </row>
     <row r="480" ht="13.800000000000001">
       <c r="A480" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B480" s="1" t="s">
         <v>483</v>
       </c>
       <c r="C480" s="2">
-        <v>90</v>
+        <v>310</v>
       </c>
     </row>
     <row r="481" ht="13.800000000000001">
       <c r="A481" t="s">
-        <v>52</v>
+        <v>432</v>
       </c>
       <c r="B481" s="1" t="s">
         <v>484</v>
       </c>
       <c r="C481" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="482" ht="13.800000000000001">
       <c r="A482" t="s">
-        <v>52</v>
+        <v>432</v>
       </c>
       <c r="B482" s="1" t="s">
         <v>485</v>
       </c>
       <c r="C482" s="2">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="483" ht="14.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="483" ht="13.800000000000001">
       <c r="A483" t="s">
         <v>52</v>
       </c>
@@ -7542,10 +7486,10 @@
         <v>486</v>
       </c>
       <c r="C483" s="2">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="484" ht="14.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="484" ht="13.800000000000001">
       <c r="A484" t="s">
         <v>52</v>
       </c>
@@ -7553,10 +7497,10 @@
         <v>487</v>
       </c>
       <c r="C484" s="2">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="485" ht="13.800000000000001">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="485" ht="14.25">
       <c r="A485" t="s">
         <v>52</v>
       </c>
@@ -7564,10 +7508,10 @@
         <v>488</v>
       </c>
       <c r="C485" s="2">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="486" ht="13.800000000000001">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="486" ht="14.25">
       <c r="A486" t="s">
         <v>52</v>
       </c>
@@ -7575,15 +7519,35 @@
         <v>489</v>
       </c>
       <c r="C486" s="2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="487" ht="13.800000000000001">
+      <c r="A487" t="s">
+        <v>52</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C487" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="488" ht="13.800000000000001">
+      <c r="A488" t="s">
+        <v>52</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C488" s="2">
         <v>185</v>
       </c>
     </row>
-    <row r="1048269" ht="12.800000000000001"/>
-    <row r="1048270" ht="12.800000000000001"/>
     <row r="1048271" ht="12.800000000000001"/>
     <row r="1048272" ht="12.800000000000001"/>
-    <row r="1048570" ht="12.800000000000001"/>
-    <row r="1048571" ht="12.800000000000001"/>
+    <row r="1048273" ht="12.800000000000001"/>
+    <row r="1048274" ht="12.800000000000001"/>
     <row r="1048572" ht="12.800000000000001"/>
     <row r="1048573" ht="12.800000000000001"/>
     <row r="1048574" ht="12.800000000000001"/>
